--- a/data/excel_tables/3.2_movable_property.xlsx
+++ b/data/excel_tables/3.2_movable_property.xlsx
@@ -493,10 +493,13 @@
     <t>a5eb3330-fbd3-11ee-95c4-e7bfad33aba2</t>
   </si>
   <si>
-    <t>6e909670-02cf-11ef-938a-5514903835ea</t>
+    <t>2b854070-031e-11ef-ae0a-87878d7061af</t>
   </si>
   <si>
-    <t>2b854070-031e-11ef-ae0a-87878d7061af</t>
+    <t>62173560-03ca-11ef-bce9-638f8e04ad34</t>
+  </si>
+  <si>
+    <t>6e909670-02cf-11ef-938a-5514903835ea</t>
   </si>
   <si>
     <t>3cccc650-031e-11ef-a826-5536b50ce648</t>
@@ -506,9 +509,6 @@
   </si>
   <si>
     <t>020f77e0-03ca-11ef-bce9-638f8e04ad34</t>
-  </si>
-  <si>
-    <t>62173560-03ca-11ef-bce9-638f8e04ad34</t>
   </si>
   <si>
     <t>191ba350-03cf-11ef-938a-5514903835ea</t>
@@ -20427,19 +20427,19 @@
     </row>
     <row r="410" spans="1:16">
       <c r="A410" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B410" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C410">
-        <v>326.25</v>
+        <v>3480</v>
       </c>
       <c r="D410" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E410" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G410" t="s">
         <v>93</v>
@@ -20448,25 +20448,25 @@
         <v>97</v>
       </c>
       <c r="I410" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J410" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K410" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L410" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M410" t="s">
         <v>123</v>
       </c>
       <c r="N410" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O410" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P410" t="s">
         <v>159</v>
@@ -20474,19 +20474,19 @@
     </row>
     <row r="411" spans="1:16">
       <c r="A411" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B411" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C411">
-        <v>326.25</v>
+        <v>5136</v>
       </c>
       <c r="D411" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E411" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G411" t="s">
         <v>93</v>
@@ -20495,25 +20495,25 @@
         <v>97</v>
       </c>
       <c r="I411" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J411" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K411" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L411" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M411" t="s">
         <v>123</v>
       </c>
       <c r="N411" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O411" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P411" t="s">
         <v>159</v>
@@ -20521,49 +20521,49 @@
     </row>
     <row r="412" spans="1:16">
       <c r="A412" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B412" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C412">
-        <v>326.25</v>
+        <v>15000</v>
       </c>
       <c r="D412" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="E412" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="G412" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H412" t="s">
         <v>97</v>
       </c>
       <c r="I412" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J412" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K412" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="L412" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="M412" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N412" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="O412" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="P412" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="413" spans="1:16">
@@ -20610,7 +20610,7 @@
         <v>115</v>
       </c>
       <c r="P413" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="414" spans="1:16">
@@ -20657,7 +20657,7 @@
         <v>115</v>
       </c>
       <c r="P414" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="415" spans="1:16">
@@ -20704,7 +20704,7 @@
         <v>115</v>
       </c>
       <c r="P415" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="416" spans="1:16">
@@ -20751,7 +20751,7 @@
         <v>115</v>
       </c>
       <c r="P416" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="417" spans="1:16">
@@ -20798,7 +20798,7 @@
         <v>115</v>
       </c>
       <c r="P417" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="418" spans="1:16">
@@ -20845,7 +20845,7 @@
         <v>115</v>
       </c>
       <c r="P418" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="419" spans="1:16">
@@ -20892,7 +20892,7 @@
         <v>115</v>
       </c>
       <c r="P419" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="420" spans="1:16">
@@ -20939,7 +20939,7 @@
         <v>115</v>
       </c>
       <c r="P420" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="421" spans="1:16">
@@ -20986,7 +20986,7 @@
         <v>115</v>
       </c>
       <c r="P421" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="422" spans="1:16">
@@ -20997,10 +20997,10 @@
         <v>31</v>
       </c>
       <c r="C422">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D422" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E422" t="s">
         <v>74</v>
@@ -21033,7 +21033,7 @@
         <v>115</v>
       </c>
       <c r="P422" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="423" spans="1:16">
@@ -21044,10 +21044,10 @@
         <v>31</v>
       </c>
       <c r="C423">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D423" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E423" t="s">
         <v>74</v>
@@ -21080,7 +21080,7 @@
         <v>115</v>
       </c>
       <c r="P423" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="424" spans="1:16">
@@ -21091,10 +21091,10 @@
         <v>31</v>
       </c>
       <c r="C424">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D424" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E424" t="s">
         <v>74</v>
@@ -21127,7 +21127,7 @@
         <v>115</v>
       </c>
       <c r="P424" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="425" spans="1:16">
@@ -21174,7 +21174,7 @@
         <v>115</v>
       </c>
       <c r="P425" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="426" spans="1:16">
@@ -21221,7 +21221,7 @@
         <v>115</v>
       </c>
       <c r="P426" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="427" spans="1:16">
@@ -21268,7 +21268,7 @@
         <v>115</v>
       </c>
       <c r="P427" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="428" spans="1:16">
@@ -21315,7 +21315,7 @@
         <v>115</v>
       </c>
       <c r="P428" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="429" spans="1:16">
@@ -21362,7 +21362,7 @@
         <v>115</v>
       </c>
       <c r="P429" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="430" spans="1:16">
@@ -21409,7 +21409,7 @@
         <v>115</v>
       </c>
       <c r="P430" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="431" spans="1:16">
@@ -21456,7 +21456,7 @@
         <v>115</v>
       </c>
       <c r="P431" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="432" spans="1:16">
@@ -21503,7 +21503,7 @@
         <v>115</v>
       </c>
       <c r="P432" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="433" spans="1:16">
@@ -21550,7 +21550,7 @@
         <v>115</v>
       </c>
       <c r="P433" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="434" spans="1:16">
@@ -21561,10 +21561,10 @@
         <v>31</v>
       </c>
       <c r="C434">
-        <v>13365</v>
+        <v>489.58</v>
       </c>
       <c r="D434" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E434" t="s">
         <v>74</v>
@@ -21597,7 +21597,7 @@
         <v>115</v>
       </c>
       <c r="P434" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="435" spans="1:16">
@@ -21608,10 +21608,10 @@
         <v>31</v>
       </c>
       <c r="C435">
-        <v>3382.5</v>
+        <v>489.58</v>
       </c>
       <c r="D435" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E435" t="s">
         <v>74</v>
@@ -21644,7 +21644,7 @@
         <v>115</v>
       </c>
       <c r="P435" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="436" spans="1:16">
@@ -21655,10 +21655,10 @@
         <v>31</v>
       </c>
       <c r="C436">
-        <v>3382.5</v>
+        <v>489.58</v>
       </c>
       <c r="D436" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E436" t="s">
         <v>74</v>
@@ -21691,7 +21691,7 @@
         <v>115</v>
       </c>
       <c r="P436" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="437" spans="1:16">
@@ -21702,10 +21702,10 @@
         <v>31</v>
       </c>
       <c r="C437">
-        <v>2167</v>
+        <v>13365</v>
       </c>
       <c r="D437" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E437" t="s">
         <v>74</v>
@@ -21738,7 +21738,7 @@
         <v>115</v>
       </c>
       <c r="P437" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="438" spans="1:16">
@@ -21749,10 +21749,10 @@
         <v>31</v>
       </c>
       <c r="C438">
-        <v>1479.25</v>
+        <v>3382.5</v>
       </c>
       <c r="D438" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E438" t="s">
         <v>74</v>
@@ -21785,7 +21785,7 @@
         <v>115</v>
       </c>
       <c r="P438" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="439" spans="1:16">
@@ -21796,10 +21796,10 @@
         <v>31</v>
       </c>
       <c r="C439">
-        <v>1479.25</v>
+        <v>3382.5</v>
       </c>
       <c r="D439" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E439" t="s">
         <v>74</v>
@@ -21832,7 +21832,7 @@
         <v>115</v>
       </c>
       <c r="P439" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="440" spans="1:16">
@@ -21843,10 +21843,10 @@
         <v>31</v>
       </c>
       <c r="C440">
-        <v>1479.25</v>
+        <v>2167</v>
       </c>
       <c r="D440" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E440" t="s">
         <v>74</v>
@@ -21879,7 +21879,7 @@
         <v>115</v>
       </c>
       <c r="P440" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="441" spans="1:16">
@@ -21926,21 +21926,21 @@
         <v>115</v>
       </c>
       <c r="P441" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="442" spans="1:16">
       <c r="A442" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B442" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C442">
-        <v>53807</v>
+        <v>1479.25</v>
       </c>
       <c r="D442" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E442" t="s">
         <v>74</v>
@@ -21973,7 +21973,7 @@
         <v>115</v>
       </c>
       <c r="P442" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="443" spans="1:16">
@@ -21981,16 +21981,16 @@
         <v>16</v>
       </c>
       <c r="B443" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C443">
-        <v>780</v>
+        <v>1479.25</v>
       </c>
       <c r="D443" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E443" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G443" t="s">
         <v>93</v>
@@ -22020,24 +22020,24 @@
         <v>115</v>
       </c>
       <c r="P443" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="444" spans="1:16">
       <c r="A444" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B444" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C444">
-        <v>3480</v>
+        <v>1479.25</v>
       </c>
       <c r="D444" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E444" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G444" t="s">
         <v>93</v>
@@ -22046,45 +22046,45 @@
         <v>97</v>
       </c>
       <c r="I444" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J444" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K444" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L444" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M444" t="s">
         <v>123</v>
       </c>
       <c r="N444" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O444" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P444" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="445" spans="1:16">
       <c r="A445" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B445" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C445">
-        <v>5136</v>
+        <v>53807</v>
       </c>
       <c r="D445" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E445" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G445" t="s">
         <v>93</v>
@@ -22093,45 +22093,45 @@
         <v>97</v>
       </c>
       <c r="I445" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J445" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K445" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L445" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M445" t="s">
         <v>123</v>
       </c>
       <c r="N445" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O445" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P445" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="446" spans="1:16">
       <c r="A446" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B446" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C446">
-        <v>3480</v>
+        <v>780</v>
       </c>
       <c r="D446" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E446" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G446" t="s">
         <v>93</v>
@@ -22140,25 +22140,25 @@
         <v>97</v>
       </c>
       <c r="I446" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J446" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K446" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L446" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M446" t="s">
         <v>123</v>
       </c>
       <c r="N446" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O446" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P446" t="s">
         <v>161</v>
@@ -22172,13 +22172,13 @@
         <v>43</v>
       </c>
       <c r="C447">
-        <v>5136</v>
+        <v>3480</v>
       </c>
       <c r="D447" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E447" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G447" t="s">
         <v>93</v>
@@ -22208,7 +22208,7 @@
         <v>118</v>
       </c>
       <c r="P447" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="448" spans="1:16">
@@ -22216,43 +22216,43 @@
         <v>26</v>
       </c>
       <c r="B448" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C448">
-        <v>15000</v>
+        <v>5136</v>
       </c>
       <c r="D448" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E448" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G448" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H448" t="s">
         <v>97</v>
       </c>
       <c r="I448" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J448" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K448" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L448" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M448" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N448" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O448" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="P448" t="s">
         <v>162</v>
@@ -22281,7 +22281,7 @@
         <v>97</v>
       </c>
       <c r="I449" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J449" t="s">
         <v>104</v>
@@ -22328,7 +22328,7 @@
         <v>97</v>
       </c>
       <c r="I450" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J450" t="s">
         <v>104</v>

--- a/data/excel_tables/3.2_movable_property.xlsx
+++ b/data/excel_tables/3.2_movable_property.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6654" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7130" uniqueCount="175">
   <si>
     <t>object_type</t>
   </si>
@@ -537,6 +537,9 @@
   <si>
     <t>a50df300-0ee1-11ef-95c4-e7bfad33aba2</t>
   </si>
+  <si>
+    <t>0dffafa0-4616-11ef-9f9f-af297e478ff7</t>
+  </si>
 </sst>
 </file>
 
@@ -893,7 +896,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P468"/>
+  <dimension ref="A1:P502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23198,6 +23201,1604 @@
         <v>173</v>
       </c>
     </row>
+    <row r="469" spans="1:16">
+      <c r="A469" t="s">
+        <v>16</v>
+      </c>
+      <c r="B469" t="s">
+        <v>31</v>
+      </c>
+      <c r="C469">
+        <v>326.25</v>
+      </c>
+      <c r="D469" t="s">
+        <v>51</v>
+      </c>
+      <c r="E469" t="s">
+        <v>74</v>
+      </c>
+      <c r="G469" t="s">
+        <v>93</v>
+      </c>
+      <c r="H469" t="s">
+        <v>97</v>
+      </c>
+      <c r="I469" t="s">
+        <v>99</v>
+      </c>
+      <c r="J469" t="s">
+        <v>106</v>
+      </c>
+      <c r="K469" t="s">
+        <v>107</v>
+      </c>
+      <c r="L469" t="s">
+        <v>115</v>
+      </c>
+      <c r="M469" t="s">
+        <v>123</v>
+      </c>
+      <c r="N469" t="s">
+        <v>127</v>
+      </c>
+      <c r="O469" t="s">
+        <v>115</v>
+      </c>
+      <c r="P469" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="470" spans="1:16">
+      <c r="A470" t="s">
+        <v>16</v>
+      </c>
+      <c r="B470" t="s">
+        <v>31</v>
+      </c>
+      <c r="C470">
+        <v>326.25</v>
+      </c>
+      <c r="D470" t="s">
+        <v>51</v>
+      </c>
+      <c r="E470" t="s">
+        <v>74</v>
+      </c>
+      <c r="G470" t="s">
+        <v>93</v>
+      </c>
+      <c r="H470" t="s">
+        <v>97</v>
+      </c>
+      <c r="I470" t="s">
+        <v>99</v>
+      </c>
+      <c r="J470" t="s">
+        <v>106</v>
+      </c>
+      <c r="K470" t="s">
+        <v>107</v>
+      </c>
+      <c r="L470" t="s">
+        <v>115</v>
+      </c>
+      <c r="M470" t="s">
+        <v>123</v>
+      </c>
+      <c r="N470" t="s">
+        <v>127</v>
+      </c>
+      <c r="O470" t="s">
+        <v>115</v>
+      </c>
+      <c r="P470" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="471" spans="1:16">
+      <c r="A471" t="s">
+        <v>16</v>
+      </c>
+      <c r="B471" t="s">
+        <v>31</v>
+      </c>
+      <c r="C471">
+        <v>326.25</v>
+      </c>
+      <c r="D471" t="s">
+        <v>51</v>
+      </c>
+      <c r="E471" t="s">
+        <v>74</v>
+      </c>
+      <c r="G471" t="s">
+        <v>93</v>
+      </c>
+      <c r="H471" t="s">
+        <v>97</v>
+      </c>
+      <c r="I471" t="s">
+        <v>99</v>
+      </c>
+      <c r="J471" t="s">
+        <v>106</v>
+      </c>
+      <c r="K471" t="s">
+        <v>107</v>
+      </c>
+      <c r="L471" t="s">
+        <v>115</v>
+      </c>
+      <c r="M471" t="s">
+        <v>123</v>
+      </c>
+      <c r="N471" t="s">
+        <v>127</v>
+      </c>
+      <c r="O471" t="s">
+        <v>115</v>
+      </c>
+      <c r="P471" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="472" spans="1:16">
+      <c r="A472" t="s">
+        <v>16</v>
+      </c>
+      <c r="B472" t="s">
+        <v>31</v>
+      </c>
+      <c r="C472">
+        <v>326.25</v>
+      </c>
+      <c r="D472" t="s">
+        <v>51</v>
+      </c>
+      <c r="E472" t="s">
+        <v>74</v>
+      </c>
+      <c r="G472" t="s">
+        <v>93</v>
+      </c>
+      <c r="H472" t="s">
+        <v>97</v>
+      </c>
+      <c r="I472" t="s">
+        <v>99</v>
+      </c>
+      <c r="J472" t="s">
+        <v>106</v>
+      </c>
+      <c r="K472" t="s">
+        <v>107</v>
+      </c>
+      <c r="L472" t="s">
+        <v>115</v>
+      </c>
+      <c r="M472" t="s">
+        <v>123</v>
+      </c>
+      <c r="N472" t="s">
+        <v>127</v>
+      </c>
+      <c r="O472" t="s">
+        <v>115</v>
+      </c>
+      <c r="P472" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="473" spans="1:16">
+      <c r="A473" t="s">
+        <v>16</v>
+      </c>
+      <c r="B473" t="s">
+        <v>31</v>
+      </c>
+      <c r="C473">
+        <v>326.25</v>
+      </c>
+      <c r="D473" t="s">
+        <v>51</v>
+      </c>
+      <c r="E473" t="s">
+        <v>74</v>
+      </c>
+      <c r="G473" t="s">
+        <v>93</v>
+      </c>
+      <c r="H473" t="s">
+        <v>97</v>
+      </c>
+      <c r="I473" t="s">
+        <v>99</v>
+      </c>
+      <c r="J473" t="s">
+        <v>106</v>
+      </c>
+      <c r="K473" t="s">
+        <v>107</v>
+      </c>
+      <c r="L473" t="s">
+        <v>115</v>
+      </c>
+      <c r="M473" t="s">
+        <v>123</v>
+      </c>
+      <c r="N473" t="s">
+        <v>127</v>
+      </c>
+      <c r="O473" t="s">
+        <v>115</v>
+      </c>
+      <c r="P473" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="474" spans="1:16">
+      <c r="A474" t="s">
+        <v>16</v>
+      </c>
+      <c r="B474" t="s">
+        <v>31</v>
+      </c>
+      <c r="C474">
+        <v>326.25</v>
+      </c>
+      <c r="D474" t="s">
+        <v>51</v>
+      </c>
+      <c r="E474" t="s">
+        <v>74</v>
+      </c>
+      <c r="G474" t="s">
+        <v>93</v>
+      </c>
+      <c r="H474" t="s">
+        <v>97</v>
+      </c>
+      <c r="I474" t="s">
+        <v>99</v>
+      </c>
+      <c r="J474" t="s">
+        <v>106</v>
+      </c>
+      <c r="K474" t="s">
+        <v>107</v>
+      </c>
+      <c r="L474" t="s">
+        <v>115</v>
+      </c>
+      <c r="M474" t="s">
+        <v>123</v>
+      </c>
+      <c r="N474" t="s">
+        <v>127</v>
+      </c>
+      <c r="O474" t="s">
+        <v>115</v>
+      </c>
+      <c r="P474" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="475" spans="1:16">
+      <c r="A475" t="s">
+        <v>16</v>
+      </c>
+      <c r="B475" t="s">
+        <v>31</v>
+      </c>
+      <c r="C475">
+        <v>326.25</v>
+      </c>
+      <c r="D475" t="s">
+        <v>51</v>
+      </c>
+      <c r="E475" t="s">
+        <v>74</v>
+      </c>
+      <c r="G475" t="s">
+        <v>93</v>
+      </c>
+      <c r="H475" t="s">
+        <v>97</v>
+      </c>
+      <c r="I475" t="s">
+        <v>99</v>
+      </c>
+      <c r="J475" t="s">
+        <v>106</v>
+      </c>
+      <c r="K475" t="s">
+        <v>107</v>
+      </c>
+      <c r="L475" t="s">
+        <v>115</v>
+      </c>
+      <c r="M475" t="s">
+        <v>123</v>
+      </c>
+      <c r="N475" t="s">
+        <v>127</v>
+      </c>
+      <c r="O475" t="s">
+        <v>115</v>
+      </c>
+      <c r="P475" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="476" spans="1:16">
+      <c r="A476" t="s">
+        <v>16</v>
+      </c>
+      <c r="B476" t="s">
+        <v>31</v>
+      </c>
+      <c r="C476">
+        <v>326.25</v>
+      </c>
+      <c r="D476" t="s">
+        <v>51</v>
+      </c>
+      <c r="E476" t="s">
+        <v>74</v>
+      </c>
+      <c r="G476" t="s">
+        <v>93</v>
+      </c>
+      <c r="H476" t="s">
+        <v>97</v>
+      </c>
+      <c r="I476" t="s">
+        <v>99</v>
+      </c>
+      <c r="J476" t="s">
+        <v>106</v>
+      </c>
+      <c r="K476" t="s">
+        <v>107</v>
+      </c>
+      <c r="L476" t="s">
+        <v>115</v>
+      </c>
+      <c r="M476" t="s">
+        <v>123</v>
+      </c>
+      <c r="N476" t="s">
+        <v>127</v>
+      </c>
+      <c r="O476" t="s">
+        <v>115</v>
+      </c>
+      <c r="P476" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="477" spans="1:16">
+      <c r="A477" t="s">
+        <v>16</v>
+      </c>
+      <c r="B477" t="s">
+        <v>31</v>
+      </c>
+      <c r="C477">
+        <v>326.25</v>
+      </c>
+      <c r="D477" t="s">
+        <v>51</v>
+      </c>
+      <c r="E477" t="s">
+        <v>74</v>
+      </c>
+      <c r="G477" t="s">
+        <v>93</v>
+      </c>
+      <c r="H477" t="s">
+        <v>97</v>
+      </c>
+      <c r="I477" t="s">
+        <v>99</v>
+      </c>
+      <c r="J477" t="s">
+        <v>106</v>
+      </c>
+      <c r="K477" t="s">
+        <v>107</v>
+      </c>
+      <c r="L477" t="s">
+        <v>115</v>
+      </c>
+      <c r="M477" t="s">
+        <v>123</v>
+      </c>
+      <c r="N477" t="s">
+        <v>127</v>
+      </c>
+      <c r="O477" t="s">
+        <v>115</v>
+      </c>
+      <c r="P477" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="478" spans="1:16">
+      <c r="A478" t="s">
+        <v>16</v>
+      </c>
+      <c r="B478" t="s">
+        <v>31</v>
+      </c>
+      <c r="C478">
+        <v>326.25</v>
+      </c>
+      <c r="D478" t="s">
+        <v>51</v>
+      </c>
+      <c r="E478" t="s">
+        <v>74</v>
+      </c>
+      <c r="G478" t="s">
+        <v>93</v>
+      </c>
+      <c r="H478" t="s">
+        <v>97</v>
+      </c>
+      <c r="I478" t="s">
+        <v>99</v>
+      </c>
+      <c r="J478" t="s">
+        <v>106</v>
+      </c>
+      <c r="K478" t="s">
+        <v>107</v>
+      </c>
+      <c r="L478" t="s">
+        <v>115</v>
+      </c>
+      <c r="M478" t="s">
+        <v>123</v>
+      </c>
+      <c r="N478" t="s">
+        <v>127</v>
+      </c>
+      <c r="O478" t="s">
+        <v>115</v>
+      </c>
+      <c r="P478" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="479" spans="1:16">
+      <c r="A479" t="s">
+        <v>16</v>
+      </c>
+      <c r="B479" t="s">
+        <v>31</v>
+      </c>
+      <c r="C479">
+        <v>326.25</v>
+      </c>
+      <c r="D479" t="s">
+        <v>51</v>
+      </c>
+      <c r="E479" t="s">
+        <v>74</v>
+      </c>
+      <c r="G479" t="s">
+        <v>93</v>
+      </c>
+      <c r="H479" t="s">
+        <v>97</v>
+      </c>
+      <c r="I479" t="s">
+        <v>99</v>
+      </c>
+      <c r="J479" t="s">
+        <v>106</v>
+      </c>
+      <c r="K479" t="s">
+        <v>107</v>
+      </c>
+      <c r="L479" t="s">
+        <v>115</v>
+      </c>
+      <c r="M479" t="s">
+        <v>123</v>
+      </c>
+      <c r="N479" t="s">
+        <v>127</v>
+      </c>
+      <c r="O479" t="s">
+        <v>115</v>
+      </c>
+      <c r="P479" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="480" spans="1:16">
+      <c r="A480" t="s">
+        <v>16</v>
+      </c>
+      <c r="B480" t="s">
+        <v>31</v>
+      </c>
+      <c r="C480">
+        <v>326.25</v>
+      </c>
+      <c r="D480" t="s">
+        <v>51</v>
+      </c>
+      <c r="E480" t="s">
+        <v>74</v>
+      </c>
+      <c r="G480" t="s">
+        <v>93</v>
+      </c>
+      <c r="H480" t="s">
+        <v>97</v>
+      </c>
+      <c r="I480" t="s">
+        <v>99</v>
+      </c>
+      <c r="J480" t="s">
+        <v>106</v>
+      </c>
+      <c r="K480" t="s">
+        <v>107</v>
+      </c>
+      <c r="L480" t="s">
+        <v>115</v>
+      </c>
+      <c r="M480" t="s">
+        <v>123</v>
+      </c>
+      <c r="N480" t="s">
+        <v>127</v>
+      </c>
+      <c r="O480" t="s">
+        <v>115</v>
+      </c>
+      <c r="P480" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="481" spans="1:16">
+      <c r="A481" t="s">
+        <v>16</v>
+      </c>
+      <c r="B481" t="s">
+        <v>31</v>
+      </c>
+      <c r="C481">
+        <v>489.58</v>
+      </c>
+      <c r="D481" t="s">
+        <v>52</v>
+      </c>
+      <c r="E481" t="s">
+        <v>74</v>
+      </c>
+      <c r="G481" t="s">
+        <v>93</v>
+      </c>
+      <c r="H481" t="s">
+        <v>97</v>
+      </c>
+      <c r="I481" t="s">
+        <v>99</v>
+      </c>
+      <c r="J481" t="s">
+        <v>106</v>
+      </c>
+      <c r="K481" t="s">
+        <v>107</v>
+      </c>
+      <c r="L481" t="s">
+        <v>115</v>
+      </c>
+      <c r="M481" t="s">
+        <v>123</v>
+      </c>
+      <c r="N481" t="s">
+        <v>127</v>
+      </c>
+      <c r="O481" t="s">
+        <v>115</v>
+      </c>
+      <c r="P481" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="482" spans="1:16">
+      <c r="A482" t="s">
+        <v>16</v>
+      </c>
+      <c r="B482" t="s">
+        <v>31</v>
+      </c>
+      <c r="C482">
+        <v>489.58</v>
+      </c>
+      <c r="D482" t="s">
+        <v>52</v>
+      </c>
+      <c r="E482" t="s">
+        <v>74</v>
+      </c>
+      <c r="G482" t="s">
+        <v>93</v>
+      </c>
+      <c r="H482" t="s">
+        <v>97</v>
+      </c>
+      <c r="I482" t="s">
+        <v>99</v>
+      </c>
+      <c r="J482" t="s">
+        <v>106</v>
+      </c>
+      <c r="K482" t="s">
+        <v>107</v>
+      </c>
+      <c r="L482" t="s">
+        <v>115</v>
+      </c>
+      <c r="M482" t="s">
+        <v>123</v>
+      </c>
+      <c r="N482" t="s">
+        <v>127</v>
+      </c>
+      <c r="O482" t="s">
+        <v>115</v>
+      </c>
+      <c r="P482" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="483" spans="1:16">
+      <c r="A483" t="s">
+        <v>16</v>
+      </c>
+      <c r="B483" t="s">
+        <v>31</v>
+      </c>
+      <c r="C483">
+        <v>489.58</v>
+      </c>
+      <c r="D483" t="s">
+        <v>52</v>
+      </c>
+      <c r="E483" t="s">
+        <v>74</v>
+      </c>
+      <c r="G483" t="s">
+        <v>93</v>
+      </c>
+      <c r="H483" t="s">
+        <v>97</v>
+      </c>
+      <c r="I483" t="s">
+        <v>99</v>
+      </c>
+      <c r="J483" t="s">
+        <v>106</v>
+      </c>
+      <c r="K483" t="s">
+        <v>107</v>
+      </c>
+      <c r="L483" t="s">
+        <v>115</v>
+      </c>
+      <c r="M483" t="s">
+        <v>123</v>
+      </c>
+      <c r="N483" t="s">
+        <v>127</v>
+      </c>
+      <c r="O483" t="s">
+        <v>115</v>
+      </c>
+      <c r="P483" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="484" spans="1:16">
+      <c r="A484" t="s">
+        <v>16</v>
+      </c>
+      <c r="B484" t="s">
+        <v>31</v>
+      </c>
+      <c r="C484">
+        <v>489.58</v>
+      </c>
+      <c r="D484" t="s">
+        <v>52</v>
+      </c>
+      <c r="E484" t="s">
+        <v>74</v>
+      </c>
+      <c r="G484" t="s">
+        <v>93</v>
+      </c>
+      <c r="H484" t="s">
+        <v>97</v>
+      </c>
+      <c r="I484" t="s">
+        <v>99</v>
+      </c>
+      <c r="J484" t="s">
+        <v>106</v>
+      </c>
+      <c r="K484" t="s">
+        <v>107</v>
+      </c>
+      <c r="L484" t="s">
+        <v>115</v>
+      </c>
+      <c r="M484" t="s">
+        <v>123</v>
+      </c>
+      <c r="N484" t="s">
+        <v>127</v>
+      </c>
+      <c r="O484" t="s">
+        <v>115</v>
+      </c>
+      <c r="P484" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="485" spans="1:16">
+      <c r="A485" t="s">
+        <v>16</v>
+      </c>
+      <c r="B485" t="s">
+        <v>31</v>
+      </c>
+      <c r="C485">
+        <v>489.58</v>
+      </c>
+      <c r="D485" t="s">
+        <v>52</v>
+      </c>
+      <c r="E485" t="s">
+        <v>74</v>
+      </c>
+      <c r="G485" t="s">
+        <v>93</v>
+      </c>
+      <c r="H485" t="s">
+        <v>97</v>
+      </c>
+      <c r="I485" t="s">
+        <v>99</v>
+      </c>
+      <c r="J485" t="s">
+        <v>106</v>
+      </c>
+      <c r="K485" t="s">
+        <v>107</v>
+      </c>
+      <c r="L485" t="s">
+        <v>115</v>
+      </c>
+      <c r="M485" t="s">
+        <v>123</v>
+      </c>
+      <c r="N485" t="s">
+        <v>127</v>
+      </c>
+      <c r="O485" t="s">
+        <v>115</v>
+      </c>
+      <c r="P485" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="486" spans="1:16">
+      <c r="A486" t="s">
+        <v>16</v>
+      </c>
+      <c r="B486" t="s">
+        <v>31</v>
+      </c>
+      <c r="C486">
+        <v>489.58</v>
+      </c>
+      <c r="D486" t="s">
+        <v>52</v>
+      </c>
+      <c r="E486" t="s">
+        <v>74</v>
+      </c>
+      <c r="G486" t="s">
+        <v>93</v>
+      </c>
+      <c r="H486" t="s">
+        <v>97</v>
+      </c>
+      <c r="I486" t="s">
+        <v>99</v>
+      </c>
+      <c r="J486" t="s">
+        <v>106</v>
+      </c>
+      <c r="K486" t="s">
+        <v>107</v>
+      </c>
+      <c r="L486" t="s">
+        <v>115</v>
+      </c>
+      <c r="M486" t="s">
+        <v>123</v>
+      </c>
+      <c r="N486" t="s">
+        <v>127</v>
+      </c>
+      <c r="O486" t="s">
+        <v>115</v>
+      </c>
+      <c r="P486" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="487" spans="1:16">
+      <c r="A487" t="s">
+        <v>16</v>
+      </c>
+      <c r="B487" t="s">
+        <v>31</v>
+      </c>
+      <c r="C487">
+        <v>489.58</v>
+      </c>
+      <c r="D487" t="s">
+        <v>52</v>
+      </c>
+      <c r="E487" t="s">
+        <v>74</v>
+      </c>
+      <c r="G487" t="s">
+        <v>93</v>
+      </c>
+      <c r="H487" t="s">
+        <v>97</v>
+      </c>
+      <c r="I487" t="s">
+        <v>99</v>
+      </c>
+      <c r="J487" t="s">
+        <v>106</v>
+      </c>
+      <c r="K487" t="s">
+        <v>107</v>
+      </c>
+      <c r="L487" t="s">
+        <v>115</v>
+      </c>
+      <c r="M487" t="s">
+        <v>123</v>
+      </c>
+      <c r="N487" t="s">
+        <v>127</v>
+      </c>
+      <c r="O487" t="s">
+        <v>115</v>
+      </c>
+      <c r="P487" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="488" spans="1:16">
+      <c r="A488" t="s">
+        <v>16</v>
+      </c>
+      <c r="B488" t="s">
+        <v>31</v>
+      </c>
+      <c r="C488">
+        <v>489.58</v>
+      </c>
+      <c r="D488" t="s">
+        <v>52</v>
+      </c>
+      <c r="E488" t="s">
+        <v>74</v>
+      </c>
+      <c r="G488" t="s">
+        <v>93</v>
+      </c>
+      <c r="H488" t="s">
+        <v>97</v>
+      </c>
+      <c r="I488" t="s">
+        <v>99</v>
+      </c>
+      <c r="J488" t="s">
+        <v>106</v>
+      </c>
+      <c r="K488" t="s">
+        <v>107</v>
+      </c>
+      <c r="L488" t="s">
+        <v>115</v>
+      </c>
+      <c r="M488" t="s">
+        <v>123</v>
+      </c>
+      <c r="N488" t="s">
+        <v>127</v>
+      </c>
+      <c r="O488" t="s">
+        <v>115</v>
+      </c>
+      <c r="P488" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="489" spans="1:16">
+      <c r="A489" t="s">
+        <v>16</v>
+      </c>
+      <c r="B489" t="s">
+        <v>31</v>
+      </c>
+      <c r="C489">
+        <v>489.58</v>
+      </c>
+      <c r="D489" t="s">
+        <v>52</v>
+      </c>
+      <c r="E489" t="s">
+        <v>74</v>
+      </c>
+      <c r="G489" t="s">
+        <v>93</v>
+      </c>
+      <c r="H489" t="s">
+        <v>97</v>
+      </c>
+      <c r="I489" t="s">
+        <v>99</v>
+      </c>
+      <c r="J489" t="s">
+        <v>106</v>
+      </c>
+      <c r="K489" t="s">
+        <v>107</v>
+      </c>
+      <c r="L489" t="s">
+        <v>115</v>
+      </c>
+      <c r="M489" t="s">
+        <v>123</v>
+      </c>
+      <c r="N489" t="s">
+        <v>127</v>
+      </c>
+      <c r="O489" t="s">
+        <v>115</v>
+      </c>
+      <c r="P489" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="490" spans="1:16">
+      <c r="A490" t="s">
+        <v>16</v>
+      </c>
+      <c r="B490" t="s">
+        <v>31</v>
+      </c>
+      <c r="C490">
+        <v>489.58</v>
+      </c>
+      <c r="D490" t="s">
+        <v>52</v>
+      </c>
+      <c r="E490" t="s">
+        <v>74</v>
+      </c>
+      <c r="G490" t="s">
+        <v>93</v>
+      </c>
+      <c r="H490" t="s">
+        <v>97</v>
+      </c>
+      <c r="I490" t="s">
+        <v>99</v>
+      </c>
+      <c r="J490" t="s">
+        <v>106</v>
+      </c>
+      <c r="K490" t="s">
+        <v>107</v>
+      </c>
+      <c r="L490" t="s">
+        <v>115</v>
+      </c>
+      <c r="M490" t="s">
+        <v>123</v>
+      </c>
+      <c r="N490" t="s">
+        <v>127</v>
+      </c>
+      <c r="O490" t="s">
+        <v>115</v>
+      </c>
+      <c r="P490" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="491" spans="1:16">
+      <c r="A491" t="s">
+        <v>16</v>
+      </c>
+      <c r="B491" t="s">
+        <v>31</v>
+      </c>
+      <c r="C491">
+        <v>489.58</v>
+      </c>
+      <c r="D491" t="s">
+        <v>52</v>
+      </c>
+      <c r="E491" t="s">
+        <v>74</v>
+      </c>
+      <c r="G491" t="s">
+        <v>93</v>
+      </c>
+      <c r="H491" t="s">
+        <v>97</v>
+      </c>
+      <c r="I491" t="s">
+        <v>99</v>
+      </c>
+      <c r="J491" t="s">
+        <v>106</v>
+      </c>
+      <c r="K491" t="s">
+        <v>107</v>
+      </c>
+      <c r="L491" t="s">
+        <v>115</v>
+      </c>
+      <c r="M491" t="s">
+        <v>123</v>
+      </c>
+      <c r="N491" t="s">
+        <v>127</v>
+      </c>
+      <c r="O491" t="s">
+        <v>115</v>
+      </c>
+      <c r="P491" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="492" spans="1:16">
+      <c r="A492" t="s">
+        <v>16</v>
+      </c>
+      <c r="B492" t="s">
+        <v>31</v>
+      </c>
+      <c r="C492">
+        <v>489.58</v>
+      </c>
+      <c r="D492" t="s">
+        <v>52</v>
+      </c>
+      <c r="E492" t="s">
+        <v>74</v>
+      </c>
+      <c r="G492" t="s">
+        <v>93</v>
+      </c>
+      <c r="H492" t="s">
+        <v>97</v>
+      </c>
+      <c r="I492" t="s">
+        <v>99</v>
+      </c>
+      <c r="J492" t="s">
+        <v>106</v>
+      </c>
+      <c r="K492" t="s">
+        <v>107</v>
+      </c>
+      <c r="L492" t="s">
+        <v>115</v>
+      </c>
+      <c r="M492" t="s">
+        <v>123</v>
+      </c>
+      <c r="N492" t="s">
+        <v>127</v>
+      </c>
+      <c r="O492" t="s">
+        <v>115</v>
+      </c>
+      <c r="P492" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="493" spans="1:16">
+      <c r="A493" t="s">
+        <v>16</v>
+      </c>
+      <c r="B493" t="s">
+        <v>31</v>
+      </c>
+      <c r="C493">
+        <v>13365</v>
+      </c>
+      <c r="D493" t="s">
+        <v>53</v>
+      </c>
+      <c r="E493" t="s">
+        <v>74</v>
+      </c>
+      <c r="G493" t="s">
+        <v>93</v>
+      </c>
+      <c r="H493" t="s">
+        <v>97</v>
+      </c>
+      <c r="I493" t="s">
+        <v>99</v>
+      </c>
+      <c r="J493" t="s">
+        <v>106</v>
+      </c>
+      <c r="K493" t="s">
+        <v>107</v>
+      </c>
+      <c r="L493" t="s">
+        <v>115</v>
+      </c>
+      <c r="M493" t="s">
+        <v>123</v>
+      </c>
+      <c r="N493" t="s">
+        <v>127</v>
+      </c>
+      <c r="O493" t="s">
+        <v>115</v>
+      </c>
+      <c r="P493" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="494" spans="1:16">
+      <c r="A494" t="s">
+        <v>16</v>
+      </c>
+      <c r="B494" t="s">
+        <v>31</v>
+      </c>
+      <c r="C494">
+        <v>3382.5</v>
+      </c>
+      <c r="D494" t="s">
+        <v>54</v>
+      </c>
+      <c r="E494" t="s">
+        <v>74</v>
+      </c>
+      <c r="G494" t="s">
+        <v>93</v>
+      </c>
+      <c r="H494" t="s">
+        <v>97</v>
+      </c>
+      <c r="I494" t="s">
+        <v>99</v>
+      </c>
+      <c r="J494" t="s">
+        <v>106</v>
+      </c>
+      <c r="K494" t="s">
+        <v>107</v>
+      </c>
+      <c r="L494" t="s">
+        <v>115</v>
+      </c>
+      <c r="M494" t="s">
+        <v>123</v>
+      </c>
+      <c r="N494" t="s">
+        <v>127</v>
+      </c>
+      <c r="O494" t="s">
+        <v>115</v>
+      </c>
+      <c r="P494" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="495" spans="1:16">
+      <c r="A495" t="s">
+        <v>16</v>
+      </c>
+      <c r="B495" t="s">
+        <v>31</v>
+      </c>
+      <c r="C495">
+        <v>3382.5</v>
+      </c>
+      <c r="D495" t="s">
+        <v>54</v>
+      </c>
+      <c r="E495" t="s">
+        <v>74</v>
+      </c>
+      <c r="G495" t="s">
+        <v>93</v>
+      </c>
+      <c r="H495" t="s">
+        <v>97</v>
+      </c>
+      <c r="I495" t="s">
+        <v>99</v>
+      </c>
+      <c r="J495" t="s">
+        <v>106</v>
+      </c>
+      <c r="K495" t="s">
+        <v>107</v>
+      </c>
+      <c r="L495" t="s">
+        <v>115</v>
+      </c>
+      <c r="M495" t="s">
+        <v>123</v>
+      </c>
+      <c r="N495" t="s">
+        <v>127</v>
+      </c>
+      <c r="O495" t="s">
+        <v>115</v>
+      </c>
+      <c r="P495" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="496" spans="1:16">
+      <c r="A496" t="s">
+        <v>16</v>
+      </c>
+      <c r="B496" t="s">
+        <v>31</v>
+      </c>
+      <c r="C496">
+        <v>2167</v>
+      </c>
+      <c r="D496" t="s">
+        <v>55</v>
+      </c>
+      <c r="E496" t="s">
+        <v>74</v>
+      </c>
+      <c r="G496" t="s">
+        <v>93</v>
+      </c>
+      <c r="H496" t="s">
+        <v>97</v>
+      </c>
+      <c r="I496" t="s">
+        <v>99</v>
+      </c>
+      <c r="J496" t="s">
+        <v>106</v>
+      </c>
+      <c r="K496" t="s">
+        <v>107</v>
+      </c>
+      <c r="L496" t="s">
+        <v>115</v>
+      </c>
+      <c r="M496" t="s">
+        <v>123</v>
+      </c>
+      <c r="N496" t="s">
+        <v>127</v>
+      </c>
+      <c r="O496" t="s">
+        <v>115</v>
+      </c>
+      <c r="P496" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="497" spans="1:16">
+      <c r="A497" t="s">
+        <v>16</v>
+      </c>
+      <c r="B497" t="s">
+        <v>31</v>
+      </c>
+      <c r="C497">
+        <v>1479.25</v>
+      </c>
+      <c r="D497" t="s">
+        <v>56</v>
+      </c>
+      <c r="E497" t="s">
+        <v>74</v>
+      </c>
+      <c r="G497" t="s">
+        <v>93</v>
+      </c>
+      <c r="H497" t="s">
+        <v>97</v>
+      </c>
+      <c r="I497" t="s">
+        <v>99</v>
+      </c>
+      <c r="J497" t="s">
+        <v>106</v>
+      </c>
+      <c r="K497" t="s">
+        <v>107</v>
+      </c>
+      <c r="L497" t="s">
+        <v>115</v>
+      </c>
+      <c r="M497" t="s">
+        <v>123</v>
+      </c>
+      <c r="N497" t="s">
+        <v>127</v>
+      </c>
+      <c r="O497" t="s">
+        <v>115</v>
+      </c>
+      <c r="P497" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="498" spans="1:16">
+      <c r="A498" t="s">
+        <v>16</v>
+      </c>
+      <c r="B498" t="s">
+        <v>31</v>
+      </c>
+      <c r="C498">
+        <v>1479.25</v>
+      </c>
+      <c r="D498" t="s">
+        <v>56</v>
+      </c>
+      <c r="E498" t="s">
+        <v>74</v>
+      </c>
+      <c r="G498" t="s">
+        <v>93</v>
+      </c>
+      <c r="H498" t="s">
+        <v>97</v>
+      </c>
+      <c r="I498" t="s">
+        <v>99</v>
+      </c>
+      <c r="J498" t="s">
+        <v>106</v>
+      </c>
+      <c r="K498" t="s">
+        <v>107</v>
+      </c>
+      <c r="L498" t="s">
+        <v>115</v>
+      </c>
+      <c r="M498" t="s">
+        <v>123</v>
+      </c>
+      <c r="N498" t="s">
+        <v>127</v>
+      </c>
+      <c r="O498" t="s">
+        <v>115</v>
+      </c>
+      <c r="P498" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="499" spans="1:16">
+      <c r="A499" t="s">
+        <v>16</v>
+      </c>
+      <c r="B499" t="s">
+        <v>31</v>
+      </c>
+      <c r="C499">
+        <v>1479.25</v>
+      </c>
+      <c r="D499" t="s">
+        <v>56</v>
+      </c>
+      <c r="E499" t="s">
+        <v>74</v>
+      </c>
+      <c r="G499" t="s">
+        <v>93</v>
+      </c>
+      <c r="H499" t="s">
+        <v>97</v>
+      </c>
+      <c r="I499" t="s">
+        <v>99</v>
+      </c>
+      <c r="J499" t="s">
+        <v>106</v>
+      </c>
+      <c r="K499" t="s">
+        <v>107</v>
+      </c>
+      <c r="L499" t="s">
+        <v>115</v>
+      </c>
+      <c r="M499" t="s">
+        <v>123</v>
+      </c>
+      <c r="N499" t="s">
+        <v>127</v>
+      </c>
+      <c r="O499" t="s">
+        <v>115</v>
+      </c>
+      <c r="P499" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="500" spans="1:16">
+      <c r="A500" t="s">
+        <v>16</v>
+      </c>
+      <c r="B500" t="s">
+        <v>31</v>
+      </c>
+      <c r="C500">
+        <v>1479.25</v>
+      </c>
+      <c r="D500" t="s">
+        <v>56</v>
+      </c>
+      <c r="E500" t="s">
+        <v>74</v>
+      </c>
+      <c r="G500" t="s">
+        <v>93</v>
+      </c>
+      <c r="H500" t="s">
+        <v>97</v>
+      </c>
+      <c r="I500" t="s">
+        <v>99</v>
+      </c>
+      <c r="J500" t="s">
+        <v>106</v>
+      </c>
+      <c r="K500" t="s">
+        <v>107</v>
+      </c>
+      <c r="L500" t="s">
+        <v>115</v>
+      </c>
+      <c r="M500" t="s">
+        <v>123</v>
+      </c>
+      <c r="N500" t="s">
+        <v>127</v>
+      </c>
+      <c r="O500" t="s">
+        <v>115</v>
+      </c>
+      <c r="P500" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="501" spans="1:16">
+      <c r="A501" t="s">
+        <v>17</v>
+      </c>
+      <c r="B501" t="s">
+        <v>32</v>
+      </c>
+      <c r="C501">
+        <v>53807</v>
+      </c>
+      <c r="D501" t="s">
+        <v>57</v>
+      </c>
+      <c r="E501" t="s">
+        <v>74</v>
+      </c>
+      <c r="G501" t="s">
+        <v>93</v>
+      </c>
+      <c r="H501" t="s">
+        <v>97</v>
+      </c>
+      <c r="I501" t="s">
+        <v>99</v>
+      </c>
+      <c r="J501" t="s">
+        <v>106</v>
+      </c>
+      <c r="K501" t="s">
+        <v>107</v>
+      </c>
+      <c r="L501" t="s">
+        <v>115</v>
+      </c>
+      <c r="M501" t="s">
+        <v>123</v>
+      </c>
+      <c r="N501" t="s">
+        <v>127</v>
+      </c>
+      <c r="O501" t="s">
+        <v>115</v>
+      </c>
+      <c r="P501" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="502" spans="1:16">
+      <c r="A502" t="s">
+        <v>16</v>
+      </c>
+      <c r="B502" t="s">
+        <v>33</v>
+      </c>
+      <c r="C502">
+        <v>780</v>
+      </c>
+      <c r="D502" t="s">
+        <v>58</v>
+      </c>
+      <c r="E502" t="s">
+        <v>75</v>
+      </c>
+      <c r="G502" t="s">
+        <v>93</v>
+      </c>
+      <c r="H502" t="s">
+        <v>97</v>
+      </c>
+      <c r="I502" t="s">
+        <v>99</v>
+      </c>
+      <c r="J502" t="s">
+        <v>106</v>
+      </c>
+      <c r="K502" t="s">
+        <v>107</v>
+      </c>
+      <c r="L502" t="s">
+        <v>115</v>
+      </c>
+      <c r="M502" t="s">
+        <v>123</v>
+      </c>
+      <c r="N502" t="s">
+        <v>127</v>
+      </c>
+      <c r="O502" t="s">
+        <v>115</v>
+      </c>
+      <c r="P502" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/excel_tables/3.2_movable_property.xlsx
+++ b/data/excel_tables/3.2_movable_property.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7130" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7158" uniqueCount="176">
   <si>
     <t>object_type</t>
   </si>
@@ -540,6 +540,9 @@
   <si>
     <t>0dffafa0-4616-11ef-9f9f-af297e478ff7</t>
   </si>
+  <si>
+    <t>a89a3b20-4986-11ef-9f9f-af297e478ff7</t>
+  </si>
 </sst>
 </file>
 
@@ -896,7 +899,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P502"/>
+  <dimension ref="A1:P504"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24799,6 +24802,100 @@
         <v>174</v>
       </c>
     </row>
+    <row r="503" spans="1:16">
+      <c r="A503" t="s">
+        <v>18</v>
+      </c>
+      <c r="B503" t="s">
+        <v>34</v>
+      </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+      <c r="D503" t="s">
+        <v>59</v>
+      </c>
+      <c r="E503" t="s">
+        <v>76</v>
+      </c>
+      <c r="G503" t="s">
+        <v>93</v>
+      </c>
+      <c r="H503" t="s">
+        <v>97</v>
+      </c>
+      <c r="I503" t="s">
+        <v>99</v>
+      </c>
+      <c r="J503" t="s">
+        <v>106</v>
+      </c>
+      <c r="K503" t="s">
+        <v>108</v>
+      </c>
+      <c r="L503" t="s">
+        <v>116</v>
+      </c>
+      <c r="M503" t="s">
+        <v>124</v>
+      </c>
+      <c r="N503" t="s">
+        <v>128</v>
+      </c>
+      <c r="O503" t="s">
+        <v>134</v>
+      </c>
+      <c r="P503" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="504" spans="1:16">
+      <c r="A504" t="s">
+        <v>19</v>
+      </c>
+      <c r="B504" t="s">
+        <v>35</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+      <c r="D504" t="s">
+        <v>60</v>
+      </c>
+      <c r="E504" t="s">
+        <v>76</v>
+      </c>
+      <c r="G504" t="s">
+        <v>93</v>
+      </c>
+      <c r="H504" t="s">
+        <v>97</v>
+      </c>
+      <c r="I504" t="s">
+        <v>99</v>
+      </c>
+      <c r="J504" t="s">
+        <v>106</v>
+      </c>
+      <c r="K504" t="s">
+        <v>108</v>
+      </c>
+      <c r="L504" t="s">
+        <v>116</v>
+      </c>
+      <c r="M504" t="s">
+        <v>124</v>
+      </c>
+      <c r="N504" t="s">
+        <v>128</v>
+      </c>
+      <c r="O504" t="s">
+        <v>134</v>
+      </c>
+      <c r="P504" t="s">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/excel_tables/3.2_movable_property.xlsx
+++ b/data/excel_tables/3.2_movable_property.xlsx
@@ -544,10 +544,10 @@
     <t>a50df300-0ee1-11ef-95c4-e7bfad33aba2</t>
   </si>
   <si>
-    <t>0dffafa0-4616-11ef-9f9f-af297e478ff7</t>
+    <t>a89a3b20-4986-11ef-9f9f-af297e478ff7</t>
   </si>
   <si>
-    <t>a89a3b20-4986-11ef-9f9f-af297e478ff7</t>
+    <t>0dffafa0-4616-11ef-9f9f-af297e478ff7</t>
   </si>
   <si>
     <t>180fd7c0-5554-11ef-9f9f-af297e478ff7</t>
@@ -23224,19 +23224,19 @@
     </row>
     <row r="469" spans="1:16">
       <c r="A469" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B469" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C469">
-        <v>326.25</v>
+        <v>1</v>
       </c>
       <c r="D469" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E469" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G469" t="s">
         <v>95</v>
@@ -23251,19 +23251,19 @@
         <v>108</v>
       </c>
       <c r="K469" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L469" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M469" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N469" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O469" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="P469" t="s">
         <v>176</v>
@@ -23271,19 +23271,19 @@
     </row>
     <row r="470" spans="1:16">
       <c r="A470" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B470" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C470">
-        <v>326.25</v>
+        <v>1</v>
       </c>
       <c r="D470" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E470" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G470" t="s">
         <v>95</v>
@@ -23298,19 +23298,19 @@
         <v>108</v>
       </c>
       <c r="K470" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L470" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M470" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N470" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O470" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="P470" t="s">
         <v>176</v>
@@ -23360,7 +23360,7 @@
         <v>117</v>
       </c>
       <c r="P471" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="472" spans="1:16">
@@ -23407,7 +23407,7 @@
         <v>117</v>
       </c>
       <c r="P472" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="473" spans="1:16">
@@ -23454,7 +23454,7 @@
         <v>117</v>
       </c>
       <c r="P473" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="474" spans="1:16">
@@ -23501,7 +23501,7 @@
         <v>117</v>
       </c>
       <c r="P474" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="475" spans="1:16">
@@ -23548,7 +23548,7 @@
         <v>117</v>
       </c>
       <c r="P475" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="476" spans="1:16">
@@ -23595,7 +23595,7 @@
         <v>117</v>
       </c>
       <c r="P476" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="477" spans="1:16">
@@ -23642,7 +23642,7 @@
         <v>117</v>
       </c>
       <c r="P477" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="478" spans="1:16">
@@ -23689,7 +23689,7 @@
         <v>117</v>
       </c>
       <c r="P478" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="479" spans="1:16">
@@ -23736,7 +23736,7 @@
         <v>117</v>
       </c>
       <c r="P479" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="480" spans="1:16">
@@ -23783,7 +23783,7 @@
         <v>117</v>
       </c>
       <c r="P480" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="481" spans="1:16">
@@ -23794,10 +23794,10 @@
         <v>32</v>
       </c>
       <c r="C481">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D481" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E481" t="s">
         <v>76</v>
@@ -23830,7 +23830,7 @@
         <v>117</v>
       </c>
       <c r="P481" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="482" spans="1:16">
@@ -23841,10 +23841,10 @@
         <v>32</v>
       </c>
       <c r="C482">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D482" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E482" t="s">
         <v>76</v>
@@ -23877,7 +23877,7 @@
         <v>117</v>
       </c>
       <c r="P482" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="483" spans="1:16">
@@ -23924,7 +23924,7 @@
         <v>117</v>
       </c>
       <c r="P483" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="484" spans="1:16">
@@ -23971,7 +23971,7 @@
         <v>117</v>
       </c>
       <c r="P484" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="485" spans="1:16">
@@ -24018,7 +24018,7 @@
         <v>117</v>
       </c>
       <c r="P485" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="486" spans="1:16">
@@ -24065,7 +24065,7 @@
         <v>117</v>
       </c>
       <c r="P486" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="487" spans="1:16">
@@ -24112,7 +24112,7 @@
         <v>117</v>
       </c>
       <c r="P487" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="488" spans="1:16">
@@ -24159,7 +24159,7 @@
         <v>117</v>
       </c>
       <c r="P488" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="489" spans="1:16">
@@ -24206,7 +24206,7 @@
         <v>117</v>
       </c>
       <c r="P489" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="490" spans="1:16">
@@ -24253,7 +24253,7 @@
         <v>117</v>
       </c>
       <c r="P490" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="491" spans="1:16">
@@ -24300,7 +24300,7 @@
         <v>117</v>
       </c>
       <c r="P491" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="492" spans="1:16">
@@ -24347,7 +24347,7 @@
         <v>117</v>
       </c>
       <c r="P492" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="493" spans="1:16">
@@ -24358,10 +24358,10 @@
         <v>32</v>
       </c>
       <c r="C493">
-        <v>13365</v>
+        <v>489.58</v>
       </c>
       <c r="D493" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E493" t="s">
         <v>76</v>
@@ -24394,7 +24394,7 @@
         <v>117</v>
       </c>
       <c r="P493" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="494" spans="1:16">
@@ -24405,10 +24405,10 @@
         <v>32</v>
       </c>
       <c r="C494">
-        <v>3382.5</v>
+        <v>489.58</v>
       </c>
       <c r="D494" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E494" t="s">
         <v>76</v>
@@ -24441,7 +24441,7 @@
         <v>117</v>
       </c>
       <c r="P494" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="495" spans="1:16">
@@ -24452,10 +24452,10 @@
         <v>32</v>
       </c>
       <c r="C495">
-        <v>3382.5</v>
+        <v>13365</v>
       </c>
       <c r="D495" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E495" t="s">
         <v>76</v>
@@ -24488,7 +24488,7 @@
         <v>117</v>
       </c>
       <c r="P495" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="496" spans="1:16">
@@ -24499,10 +24499,10 @@
         <v>32</v>
       </c>
       <c r="C496">
-        <v>2167</v>
+        <v>3382.5</v>
       </c>
       <c r="D496" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E496" t="s">
         <v>76</v>
@@ -24535,7 +24535,7 @@
         <v>117</v>
       </c>
       <c r="P496" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="497" spans="1:16">
@@ -24546,10 +24546,10 @@
         <v>32</v>
       </c>
       <c r="C497">
-        <v>1479.25</v>
+        <v>3382.5</v>
       </c>
       <c r="D497" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E497" t="s">
         <v>76</v>
@@ -24582,7 +24582,7 @@
         <v>117</v>
       </c>
       <c r="P497" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="498" spans="1:16">
@@ -24593,10 +24593,10 @@
         <v>32</v>
       </c>
       <c r="C498">
-        <v>1479.25</v>
+        <v>2167</v>
       </c>
       <c r="D498" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E498" t="s">
         <v>76</v>
@@ -24629,7 +24629,7 @@
         <v>117</v>
       </c>
       <c r="P498" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="499" spans="1:16">
@@ -24676,7 +24676,7 @@
         <v>117</v>
       </c>
       <c r="P499" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="500" spans="1:16">
@@ -24723,21 +24723,21 @@
         <v>117</v>
       </c>
       <c r="P500" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="501" spans="1:16">
       <c r="A501" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B501" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C501">
-        <v>53807</v>
+        <v>1479.25</v>
       </c>
       <c r="D501" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E501" t="s">
         <v>76</v>
@@ -24770,7 +24770,7 @@
         <v>117</v>
       </c>
       <c r="P501" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="502" spans="1:16">
@@ -24778,16 +24778,16 @@
         <v>16</v>
       </c>
       <c r="B502" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C502">
-        <v>780</v>
+        <v>1479.25</v>
       </c>
       <c r="D502" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E502" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G502" t="s">
         <v>95</v>
@@ -24817,24 +24817,24 @@
         <v>117</v>
       </c>
       <c r="P502" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="503" spans="1:16">
       <c r="A503" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B503" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C503">
-        <v>1</v>
+        <v>53807</v>
       </c>
       <c r="D503" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E503" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G503" t="s">
         <v>95</v>
@@ -24849,19 +24849,19 @@
         <v>108</v>
       </c>
       <c r="K503" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L503" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M503" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N503" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O503" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="P503" t="s">
         <v>177</v>
@@ -24869,19 +24869,19 @@
     </row>
     <row r="504" spans="1:16">
       <c r="A504" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B504" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C504">
-        <v>1</v>
+        <v>780</v>
       </c>
       <c r="D504" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E504" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G504" t="s">
         <v>95</v>
@@ -24896,19 +24896,19 @@
         <v>108</v>
       </c>
       <c r="K504" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L504" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M504" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N504" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O504" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="P504" t="s">
         <v>177</v>

--- a/data/excel_tables/3.2_movable_property.xlsx
+++ b/data/excel_tables/3.2_movable_property.xlsx
@@ -526,9 +526,6 @@
     <t>3505d3f0-03d0-11ef-ae0a-87878d7061af</t>
   </si>
   <si>
-    <t>8864c230-03ea-11ef-a826-5536b50ce648</t>
-  </si>
-  <si>
     <t>04a13490-03f1-11ef-bce9-638f8e04ad34</t>
   </si>
   <si>
@@ -560,6 +557,9 @@
   </si>
   <si>
     <t>3e930c90-560e-11ef-afd1-e1abe6ffb9d7</t>
+  </si>
+  <si>
+    <t>8864c230-03ea-11ef-a826-5536b50ce648</t>
   </si>
 </sst>
 </file>
@@ -22531,7 +22531,7 @@
         <v>73</v>
       </c>
       <c r="E454" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G454" t="s">
         <v>98</v>
@@ -22540,10 +22540,10 @@
         <v>99</v>
       </c>
       <c r="I454" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J454" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K454" t="s">
         <v>115</v>
@@ -22566,46 +22566,46 @@
     </row>
     <row r="455" spans="1:16">
       <c r="A455" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B455" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C455">
-        <v>15000</v>
+        <v>657595.95</v>
       </c>
       <c r="D455" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E455" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G455" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H455" t="s">
         <v>99</v>
       </c>
       <c r="I455" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J455" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K455" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L455" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M455" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N455" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O455" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="P455" t="s">
         <v>171</v>
@@ -22655,7 +22655,7 @@
         <v>121</v>
       </c>
       <c r="P456" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="457" spans="1:16">
@@ -22663,10 +22663,10 @@
         <v>27</v>
       </c>
       <c r="B457" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C457">
-        <v>657595.95</v>
+        <v>651617.8100000001</v>
       </c>
       <c r="D457" t="s">
         <v>71</v>
@@ -22702,27 +22702,27 @@
         <v>121</v>
       </c>
       <c r="P457" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="458" spans="1:16">
       <c r="A458" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B458" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C458">
-        <v>651617.8100000001</v>
+        <v>716315.02</v>
       </c>
       <c r="D458" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E458" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G458" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H458" t="s">
         <v>99</v>
@@ -22749,27 +22749,27 @@
         <v>121</v>
       </c>
       <c r="P458" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="459" spans="1:16">
       <c r="A459" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B459" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C459">
-        <v>716315.02</v>
+        <v>353478</v>
       </c>
       <c r="D459" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E459" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G459" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H459" t="s">
         <v>99</v>
@@ -22781,19 +22781,19 @@
         <v>108</v>
       </c>
       <c r="K459" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L459" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M459" t="s">
         <v>125</v>
       </c>
       <c r="N459" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O459" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P459" t="s">
         <v>172</v>
@@ -22801,16 +22801,16 @@
     </row>
     <row r="460" spans="1:16">
       <c r="A460" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B460" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C460">
-        <v>353478</v>
+        <v>546699.9</v>
       </c>
       <c r="D460" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E460" t="s">
         <v>79</v>
@@ -22843,21 +22843,21 @@
         <v>119</v>
       </c>
       <c r="P460" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="461" spans="1:16">
       <c r="A461" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B461" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C461">
-        <v>546699.9</v>
+        <v>257823</v>
       </c>
       <c r="D461" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="E461" t="s">
         <v>79</v>
@@ -22890,24 +22890,24 @@
         <v>119</v>
       </c>
       <c r="P461" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="462" spans="1:16">
       <c r="A462" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B462" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C462">
-        <v>257823</v>
+        <v>1570762.55</v>
       </c>
       <c r="D462" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="E462" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G462" t="s">
         <v>95</v>
@@ -22937,27 +22937,27 @@
         <v>119</v>
       </c>
       <c r="P462" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="463" spans="1:16">
       <c r="A463" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B463" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C463">
-        <v>1570762.55</v>
+        <v>172818</v>
       </c>
       <c r="D463" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E463" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G463" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H463" t="s">
         <v>99</v>
@@ -22984,27 +22984,27 @@
         <v>119</v>
       </c>
       <c r="P463" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="464" spans="1:16">
       <c r="A464" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B464" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C464">
-        <v>172818</v>
+        <v>3480</v>
       </c>
       <c r="D464" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E464" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G464" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H464" t="s">
         <v>99</v>
@@ -23016,19 +23016,19 @@
         <v>108</v>
       </c>
       <c r="K464" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L464" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M464" t="s">
         <v>125</v>
       </c>
       <c r="N464" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O464" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P464" t="s">
         <v>173</v>
@@ -23042,13 +23042,13 @@
         <v>44</v>
       </c>
       <c r="C465">
-        <v>3480</v>
+        <v>5136</v>
       </c>
       <c r="D465" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E465" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G465" t="s">
         <v>95</v>
@@ -23078,24 +23078,24 @@
         <v>120</v>
       </c>
       <c r="P465" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="466" spans="1:16">
       <c r="A466" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B466" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C466">
-        <v>5136</v>
+        <v>3850</v>
       </c>
       <c r="D466" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E466" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G466" t="s">
         <v>95</v>
@@ -23110,19 +23110,19 @@
         <v>108</v>
       </c>
       <c r="K466" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L466" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M466" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N466" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O466" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="P466" t="s">
         <v>174</v>
@@ -23130,22 +23130,22 @@
     </row>
     <row r="467" spans="1:16">
       <c r="A467" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B467" t="s">
         <v>51</v>
       </c>
       <c r="C467">
-        <v>3850</v>
+        <v>25999</v>
       </c>
       <c r="D467" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E467" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G467" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H467" t="s">
         <v>99</v>
@@ -23157,13 +23157,13 @@
         <v>108</v>
       </c>
       <c r="K467" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L467" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M467" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N467" t="s">
         <v>135</v>
@@ -23172,51 +23172,51 @@
         <v>137</v>
       </c>
       <c r="P467" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="468" spans="1:16">
       <c r="A468" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B468" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C468">
-        <v>25999</v>
+        <v>1</v>
       </c>
       <c r="D468" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E468" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="G468" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H468" t="s">
         <v>99</v>
       </c>
       <c r="I468" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J468" t="s">
         <v>108</v>
       </c>
       <c r="K468" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="L468" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="M468" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N468" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="O468" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P468" t="s">
         <v>175</v>
@@ -23224,16 +23224,16 @@
     </row>
     <row r="469" spans="1:16">
       <c r="A469" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B469" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C469">
         <v>1</v>
       </c>
       <c r="D469" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E469" t="s">
         <v>78</v>
@@ -23266,24 +23266,24 @@
         <v>136</v>
       </c>
       <c r="P469" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="470" spans="1:16">
       <c r="A470" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B470" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C470">
-        <v>1</v>
+        <v>326.25</v>
       </c>
       <c r="D470" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E470" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G470" t="s">
         <v>95</v>
@@ -23298,19 +23298,19 @@
         <v>108</v>
       </c>
       <c r="K470" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L470" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M470" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N470" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O470" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="P470" t="s">
         <v>176</v>
@@ -23360,7 +23360,7 @@
         <v>117</v>
       </c>
       <c r="P471" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="472" spans="1:16">
@@ -23407,7 +23407,7 @@
         <v>117</v>
       </c>
       <c r="P472" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="473" spans="1:16">
@@ -23454,7 +23454,7 @@
         <v>117</v>
       </c>
       <c r="P473" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="474" spans="1:16">
@@ -23501,7 +23501,7 @@
         <v>117</v>
       </c>
       <c r="P474" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="475" spans="1:16">
@@ -23548,7 +23548,7 @@
         <v>117</v>
       </c>
       <c r="P475" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="476" spans="1:16">
@@ -23595,7 +23595,7 @@
         <v>117</v>
       </c>
       <c r="P476" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="477" spans="1:16">
@@ -23642,7 +23642,7 @@
         <v>117</v>
       </c>
       <c r="P477" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="478" spans="1:16">
@@ -23689,7 +23689,7 @@
         <v>117</v>
       </c>
       <c r="P478" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="479" spans="1:16">
@@ -23736,7 +23736,7 @@
         <v>117</v>
       </c>
       <c r="P479" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="480" spans="1:16">
@@ -23783,7 +23783,7 @@
         <v>117</v>
       </c>
       <c r="P480" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="481" spans="1:16">
@@ -23830,7 +23830,7 @@
         <v>117</v>
       </c>
       <c r="P481" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="482" spans="1:16">
@@ -23841,10 +23841,10 @@
         <v>32</v>
       </c>
       <c r="C482">
-        <v>326.25</v>
+        <v>489.58</v>
       </c>
       <c r="D482" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E482" t="s">
         <v>76</v>
@@ -23877,7 +23877,7 @@
         <v>117</v>
       </c>
       <c r="P482" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="483" spans="1:16">
@@ -23924,7 +23924,7 @@
         <v>117</v>
       </c>
       <c r="P483" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="484" spans="1:16">
@@ -23971,7 +23971,7 @@
         <v>117</v>
       </c>
       <c r="P484" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="485" spans="1:16">
@@ -24018,7 +24018,7 @@
         <v>117</v>
       </c>
       <c r="P485" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="486" spans="1:16">
@@ -24065,7 +24065,7 @@
         <v>117</v>
       </c>
       <c r="P486" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="487" spans="1:16">
@@ -24112,7 +24112,7 @@
         <v>117</v>
       </c>
       <c r="P487" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="488" spans="1:16">
@@ -24159,7 +24159,7 @@
         <v>117</v>
       </c>
       <c r="P488" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="489" spans="1:16">
@@ -24206,7 +24206,7 @@
         <v>117</v>
       </c>
       <c r="P489" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="490" spans="1:16">
@@ -24253,7 +24253,7 @@
         <v>117</v>
       </c>
       <c r="P490" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="491" spans="1:16">
@@ -24300,7 +24300,7 @@
         <v>117</v>
       </c>
       <c r="P491" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="492" spans="1:16">
@@ -24347,7 +24347,7 @@
         <v>117</v>
       </c>
       <c r="P492" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="493" spans="1:16">
@@ -24394,7 +24394,7 @@
         <v>117</v>
       </c>
       <c r="P493" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="494" spans="1:16">
@@ -24405,10 +24405,10 @@
         <v>32</v>
       </c>
       <c r="C494">
-        <v>489.58</v>
+        <v>13365</v>
       </c>
       <c r="D494" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E494" t="s">
         <v>76</v>
@@ -24441,7 +24441,7 @@
         <v>117</v>
       </c>
       <c r="P494" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="495" spans="1:16">
@@ -24452,10 +24452,10 @@
         <v>32</v>
       </c>
       <c r="C495">
-        <v>13365</v>
+        <v>3382.5</v>
       </c>
       <c r="D495" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E495" t="s">
         <v>76</v>
@@ -24488,7 +24488,7 @@
         <v>117</v>
       </c>
       <c r="P495" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="496" spans="1:16">
@@ -24535,7 +24535,7 @@
         <v>117</v>
       </c>
       <c r="P496" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="497" spans="1:16">
@@ -24546,10 +24546,10 @@
         <v>32</v>
       </c>
       <c r="C497">
-        <v>3382.5</v>
+        <v>2167</v>
       </c>
       <c r="D497" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E497" t="s">
         <v>76</v>
@@ -24582,7 +24582,7 @@
         <v>117</v>
       </c>
       <c r="P497" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="498" spans="1:16">
@@ -24593,10 +24593,10 @@
         <v>32</v>
       </c>
       <c r="C498">
-        <v>2167</v>
+        <v>1479.25</v>
       </c>
       <c r="D498" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E498" t="s">
         <v>76</v>
@@ -24629,7 +24629,7 @@
         <v>117</v>
       </c>
       <c r="P498" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="499" spans="1:16">
@@ -24676,7 +24676,7 @@
         <v>117</v>
       </c>
       <c r="P499" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="500" spans="1:16">
@@ -24723,7 +24723,7 @@
         <v>117</v>
       </c>
       <c r="P500" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="501" spans="1:16">
@@ -24770,21 +24770,21 @@
         <v>117</v>
       </c>
       <c r="P501" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="502" spans="1:16">
       <c r="A502" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B502" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C502">
-        <v>1479.25</v>
+        <v>53807</v>
       </c>
       <c r="D502" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E502" t="s">
         <v>76</v>
@@ -24817,24 +24817,24 @@
         <v>117</v>
       </c>
       <c r="P502" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="503" spans="1:16">
       <c r="A503" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B503" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C503">
-        <v>53807</v>
+        <v>780</v>
       </c>
       <c r="D503" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E503" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G503" t="s">
         <v>95</v>
@@ -24864,24 +24864,24 @@
         <v>117</v>
       </c>
       <c r="P503" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="504" spans="1:16">
       <c r="A504" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B504" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C504">
-        <v>780</v>
+        <v>353478</v>
       </c>
       <c r="D504" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E504" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G504" t="s">
         <v>95</v>
@@ -24896,19 +24896,19 @@
         <v>108</v>
       </c>
       <c r="K504" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L504" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M504" t="s">
         <v>125</v>
       </c>
       <c r="N504" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O504" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P504" t="s">
         <v>177</v>
@@ -24916,16 +24916,16 @@
     </row>
     <row r="505" spans="1:16">
       <c r="A505" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B505" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C505">
-        <v>353478</v>
+        <v>546699.9</v>
       </c>
       <c r="D505" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E505" t="s">
         <v>79</v>
@@ -24958,21 +24958,21 @@
         <v>119</v>
       </c>
       <c r="P505" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="506" spans="1:16">
       <c r="A506" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B506" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C506">
-        <v>546699.9</v>
+        <v>257823</v>
       </c>
       <c r="D506" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="E506" t="s">
         <v>79</v>
@@ -25005,24 +25005,24 @@
         <v>119</v>
       </c>
       <c r="P506" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="507" spans="1:16">
       <c r="A507" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B507" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C507">
-        <v>257823</v>
+        <v>1570762.55</v>
       </c>
       <c r="D507" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="E507" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G507" t="s">
         <v>95</v>
@@ -25052,27 +25052,27 @@
         <v>119</v>
       </c>
       <c r="P507" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="508" spans="1:16">
       <c r="A508" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B508" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C508">
-        <v>1570762.55</v>
+        <v>172818</v>
       </c>
       <c r="D508" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E508" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G508" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H508" t="s">
         <v>99</v>
@@ -25099,27 +25099,27 @@
         <v>119</v>
       </c>
       <c r="P508" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="509" spans="1:16">
       <c r="A509" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B509" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C509">
-        <v>172818</v>
+        <v>3480</v>
       </c>
       <c r="D509" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E509" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G509" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H509" t="s">
         <v>99</v>
@@ -25131,19 +25131,19 @@
         <v>108</v>
       </c>
       <c r="K509" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L509" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M509" t="s">
         <v>125</v>
       </c>
       <c r="N509" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O509" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P509" t="s">
         <v>178</v>
@@ -25157,13 +25157,13 @@
         <v>44</v>
       </c>
       <c r="C510">
-        <v>3480</v>
+        <v>5136</v>
       </c>
       <c r="D510" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E510" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G510" t="s">
         <v>95</v>
@@ -25193,24 +25193,24 @@
         <v>120</v>
       </c>
       <c r="P510" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="511" spans="1:16">
       <c r="A511" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B511" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C511">
-        <v>5136</v>
+        <v>657595.95</v>
       </c>
       <c r="D511" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E511" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G511" t="s">
         <v>95</v>
@@ -25225,19 +25225,19 @@
         <v>108</v>
       </c>
       <c r="K511" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L511" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M511" t="s">
         <v>125</v>
       </c>
       <c r="N511" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O511" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P511" t="s">
         <v>179</v>
@@ -25248,10 +25248,10 @@
         <v>27</v>
       </c>
       <c r="B512" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C512">
-        <v>657595.95</v>
+        <v>651617.8100000001</v>
       </c>
       <c r="D512" t="s">
         <v>71</v>
@@ -25287,27 +25287,27 @@
         <v>121</v>
       </c>
       <c r="P512" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="513" spans="1:16">
       <c r="A513" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B513" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C513">
-        <v>651617.8100000001</v>
+        <v>716315.02</v>
       </c>
       <c r="D513" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E513" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G513" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H513" t="s">
         <v>99</v>
@@ -25334,27 +25334,27 @@
         <v>121</v>
       </c>
       <c r="P513" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="514" spans="1:16">
       <c r="A514" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B514" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C514">
-        <v>716315.02</v>
+        <v>3850</v>
       </c>
       <c r="D514" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E514" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G514" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H514" t="s">
         <v>99</v>
@@ -25366,19 +25366,19 @@
         <v>108</v>
       </c>
       <c r="K514" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L514" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M514" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N514" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O514" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="P514" t="s">
         <v>180</v>
@@ -25386,22 +25386,22 @@
     </row>
     <row r="515" spans="1:16">
       <c r="A515" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B515" t="s">
         <v>51</v>
       </c>
       <c r="C515">
-        <v>3850</v>
+        <v>25999</v>
       </c>
       <c r="D515" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E515" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G515" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H515" t="s">
         <v>99</v>
@@ -25413,13 +25413,13 @@
         <v>108</v>
       </c>
       <c r="K515" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L515" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M515" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N515" t="s">
         <v>135</v>
@@ -25428,7 +25428,7 @@
         <v>137</v>
       </c>
       <c r="P515" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="516" spans="1:16">
@@ -25436,16 +25436,16 @@
         <v>26</v>
       </c>
       <c r="B516" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C516">
-        <v>25999</v>
+        <v>15000</v>
       </c>
       <c r="D516" t="s">
         <v>73</v>
       </c>
       <c r="E516" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G516" t="s">
         <v>98</v>
@@ -25454,10 +25454,10 @@
         <v>99</v>
       </c>
       <c r="I516" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J516" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K516" t="s">
         <v>115</v>

--- a/data/excel_tables/3.2_movable_property.xlsx
+++ b/data/excel_tables/3.2_movable_property.xlsx
@@ -526,6 +526,9 @@
     <t>3505d3f0-03d0-11ef-ae0a-87878d7061af</t>
   </si>
   <si>
+    <t>8864c230-03ea-11ef-a826-5536b50ce648</t>
+  </si>
+  <si>
     <t>04a13490-03f1-11ef-bce9-638f8e04ad34</t>
   </si>
   <si>
@@ -557,9 +560,6 @@
   </si>
   <si>
     <t>3e930c90-560e-11ef-afd1-e1abe6ffb9d7</t>
-  </si>
-  <si>
-    <t>8864c230-03ea-11ef-a826-5536b50ce648</t>
   </si>
 </sst>
 </file>
@@ -22531,7 +22531,7 @@
         <v>73</v>
       </c>
       <c r="E454" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G454" t="s">
         <v>98</v>
@@ -22540,10 +22540,10 @@
         <v>99</v>
       </c>
       <c r="I454" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J454" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K454" t="s">
         <v>115</v>
@@ -22566,46 +22566,46 @@
     </row>
     <row r="455" spans="1:16">
       <c r="A455" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B455" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C455">
-        <v>657595.95</v>
+        <v>15000</v>
       </c>
       <c r="D455" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E455" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G455" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H455" t="s">
         <v>99</v>
       </c>
       <c r="I455" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J455" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K455" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L455" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M455" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N455" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O455" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="P455" t="s">
         <v>171</v>
@@ -22655,7 +22655,7 @@
         <v>121</v>
       </c>
       <c r="P456" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="457" spans="1:16">
@@ -22663,10 +22663,10 @@
         <v>27</v>
       </c>
       <c r="B457" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C457">
-        <v>651617.8100000001</v>
+        <v>657595.95</v>
       </c>
       <c r="D457" t="s">
         <v>71</v>
@@ -22702,27 +22702,27 @@
         <v>121</v>
       </c>
       <c r="P457" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="458" spans="1:16">
       <c r="A458" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B458" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C458">
-        <v>716315.02</v>
+        <v>651617.8100000001</v>
       </c>
       <c r="D458" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E458" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G458" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H458" t="s">
         <v>99</v>
@@ -22749,27 +22749,27 @@
         <v>121</v>
       </c>
       <c r="P458" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="459" spans="1:16">
       <c r="A459" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B459" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C459">
-        <v>353478</v>
+        <v>716315.02</v>
       </c>
       <c r="D459" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E459" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G459" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H459" t="s">
         <v>99</v>
@@ -22781,19 +22781,19 @@
         <v>108</v>
       </c>
       <c r="K459" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L459" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M459" t="s">
         <v>125</v>
       </c>
       <c r="N459" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O459" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P459" t="s">
         <v>172</v>
@@ -22801,16 +22801,16 @@
     </row>
     <row r="460" spans="1:16">
       <c r="A460" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B460" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C460">
-        <v>546699.9</v>
+        <v>353478</v>
       </c>
       <c r="D460" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E460" t="s">
         <v>79</v>
@@ -22843,21 +22843,21 @@
         <v>119</v>
       </c>
       <c r="P460" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="461" spans="1:16">
       <c r="A461" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B461" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C461">
-        <v>257823</v>
+        <v>546699.9</v>
       </c>
       <c r="D461" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="E461" t="s">
         <v>79</v>
@@ -22890,24 +22890,24 @@
         <v>119</v>
       </c>
       <c r="P461" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="462" spans="1:16">
       <c r="A462" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B462" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C462">
-        <v>1570762.55</v>
+        <v>257823</v>
       </c>
       <c r="D462" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="E462" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G462" t="s">
         <v>95</v>
@@ -22937,27 +22937,27 @@
         <v>119</v>
       </c>
       <c r="P462" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="463" spans="1:16">
       <c r="A463" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B463" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C463">
-        <v>172818</v>
+        <v>1570762.55</v>
       </c>
       <c r="D463" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E463" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G463" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H463" t="s">
         <v>99</v>
@@ -22984,27 +22984,27 @@
         <v>119</v>
       </c>
       <c r="P463" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="464" spans="1:16">
       <c r="A464" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B464" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C464">
-        <v>3480</v>
+        <v>172818</v>
       </c>
       <c r="D464" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E464" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G464" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H464" t="s">
         <v>99</v>
@@ -23016,19 +23016,19 @@
         <v>108</v>
       </c>
       <c r="K464" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L464" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M464" t="s">
         <v>125</v>
       </c>
       <c r="N464" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O464" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P464" t="s">
         <v>173</v>
@@ -23042,13 +23042,13 @@
         <v>44</v>
       </c>
       <c r="C465">
-        <v>5136</v>
+        <v>3480</v>
       </c>
       <c r="D465" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E465" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G465" t="s">
         <v>95</v>
@@ -23078,24 +23078,24 @@
         <v>120</v>
       </c>
       <c r="P465" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="466" spans="1:16">
       <c r="A466" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B466" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C466">
-        <v>3850</v>
+        <v>5136</v>
       </c>
       <c r="D466" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E466" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G466" t="s">
         <v>95</v>
@@ -23110,19 +23110,19 @@
         <v>108</v>
       </c>
       <c r="K466" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L466" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M466" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N466" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O466" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="P466" t="s">
         <v>174</v>
@@ -23130,22 +23130,22 @@
     </row>
     <row r="467" spans="1:16">
       <c r="A467" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B467" t="s">
         <v>51</v>
       </c>
       <c r="C467">
-        <v>25999</v>
+        <v>3850</v>
       </c>
       <c r="D467" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E467" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G467" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H467" t="s">
         <v>99</v>
@@ -23157,13 +23157,13 @@
         <v>108</v>
       </c>
       <c r="K467" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L467" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M467" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N467" t="s">
         <v>135</v>
@@ -23172,51 +23172,51 @@
         <v>137</v>
       </c>
       <c r="P467" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="468" spans="1:16">
       <c r="A468" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B468" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C468">
-        <v>1</v>
+        <v>25999</v>
       </c>
       <c r="D468" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E468" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="G468" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H468" t="s">
         <v>99</v>
       </c>
       <c r="I468" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J468" t="s">
         <v>108</v>
       </c>
       <c r="K468" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="L468" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="M468" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N468" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="O468" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P468" t="s">
         <v>175</v>
@@ -23224,16 +23224,16 @@
     </row>
     <row r="469" spans="1:16">
       <c r="A469" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B469" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C469">
         <v>1</v>
       </c>
       <c r="D469" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E469" t="s">
         <v>78</v>
@@ -23266,24 +23266,24 @@
         <v>136</v>
       </c>
       <c r="P469" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="470" spans="1:16">
       <c r="A470" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B470" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C470">
-        <v>326.25</v>
+        <v>1</v>
       </c>
       <c r="D470" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E470" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G470" t="s">
         <v>95</v>
@@ -23298,19 +23298,19 @@
         <v>108</v>
       </c>
       <c r="K470" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L470" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M470" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N470" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O470" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="P470" t="s">
         <v>176</v>
@@ -23360,7 +23360,7 @@
         <v>117</v>
       </c>
       <c r="P471" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="472" spans="1:16">
@@ -23407,7 +23407,7 @@
         <v>117</v>
       </c>
       <c r="P472" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="473" spans="1:16">
@@ -23454,7 +23454,7 @@
         <v>117</v>
       </c>
       <c r="P473" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="474" spans="1:16">
@@ -23501,7 +23501,7 @@
         <v>117</v>
       </c>
       <c r="P474" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="475" spans="1:16">
@@ -23548,7 +23548,7 @@
         <v>117</v>
       </c>
       <c r="P475" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="476" spans="1:16">
@@ -23595,7 +23595,7 @@
         <v>117</v>
       </c>
       <c r="P476" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="477" spans="1:16">
@@ -23642,7 +23642,7 @@
         <v>117</v>
       </c>
       <c r="P477" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="478" spans="1:16">
@@ -23689,7 +23689,7 @@
         <v>117</v>
       </c>
       <c r="P478" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="479" spans="1:16">
@@ -23736,7 +23736,7 @@
         <v>117</v>
       </c>
       <c r="P479" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="480" spans="1:16">
@@ -23783,7 +23783,7 @@
         <v>117</v>
       </c>
       <c r="P480" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="481" spans="1:16">
@@ -23830,7 +23830,7 @@
         <v>117</v>
       </c>
       <c r="P481" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="482" spans="1:16">
@@ -23841,10 +23841,10 @@
         <v>32</v>
       </c>
       <c r="C482">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D482" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E482" t="s">
         <v>76</v>
@@ -23877,7 +23877,7 @@
         <v>117</v>
       </c>
       <c r="P482" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="483" spans="1:16">
@@ -23924,7 +23924,7 @@
         <v>117</v>
       </c>
       <c r="P483" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="484" spans="1:16">
@@ -23971,7 +23971,7 @@
         <v>117</v>
       </c>
       <c r="P484" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="485" spans="1:16">
@@ -24018,7 +24018,7 @@
         <v>117</v>
       </c>
       <c r="P485" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="486" spans="1:16">
@@ -24065,7 +24065,7 @@
         <v>117</v>
       </c>
       <c r="P486" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="487" spans="1:16">
@@ -24112,7 +24112,7 @@
         <v>117</v>
       </c>
       <c r="P487" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="488" spans="1:16">
@@ -24159,7 +24159,7 @@
         <v>117</v>
       </c>
       <c r="P488" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="489" spans="1:16">
@@ -24206,7 +24206,7 @@
         <v>117</v>
       </c>
       <c r="P489" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="490" spans="1:16">
@@ -24253,7 +24253,7 @@
         <v>117</v>
       </c>
       <c r="P490" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="491" spans="1:16">
@@ -24300,7 +24300,7 @@
         <v>117</v>
       </c>
       <c r="P491" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="492" spans="1:16">
@@ -24347,7 +24347,7 @@
         <v>117</v>
       </c>
       <c r="P492" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="493" spans="1:16">
@@ -24394,7 +24394,7 @@
         <v>117</v>
       </c>
       <c r="P493" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="494" spans="1:16">
@@ -24405,10 +24405,10 @@
         <v>32</v>
       </c>
       <c r="C494">
-        <v>13365</v>
+        <v>489.58</v>
       </c>
       <c r="D494" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E494" t="s">
         <v>76</v>
@@ -24441,7 +24441,7 @@
         <v>117</v>
       </c>
       <c r="P494" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="495" spans="1:16">
@@ -24452,10 +24452,10 @@
         <v>32</v>
       </c>
       <c r="C495">
-        <v>3382.5</v>
+        <v>13365</v>
       </c>
       <c r="D495" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E495" t="s">
         <v>76</v>
@@ -24488,7 +24488,7 @@
         <v>117</v>
       </c>
       <c r="P495" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="496" spans="1:16">
@@ -24535,7 +24535,7 @@
         <v>117</v>
       </c>
       <c r="P496" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="497" spans="1:16">
@@ -24546,10 +24546,10 @@
         <v>32</v>
       </c>
       <c r="C497">
-        <v>2167</v>
+        <v>3382.5</v>
       </c>
       <c r="D497" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E497" t="s">
         <v>76</v>
@@ -24582,7 +24582,7 @@
         <v>117</v>
       </c>
       <c r="P497" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="498" spans="1:16">
@@ -24593,10 +24593,10 @@
         <v>32</v>
       </c>
       <c r="C498">
-        <v>1479.25</v>
+        <v>2167</v>
       </c>
       <c r="D498" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E498" t="s">
         <v>76</v>
@@ -24629,7 +24629,7 @@
         <v>117</v>
       </c>
       <c r="P498" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="499" spans="1:16">
@@ -24676,7 +24676,7 @@
         <v>117</v>
       </c>
       <c r="P499" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="500" spans="1:16">
@@ -24723,7 +24723,7 @@
         <v>117</v>
       </c>
       <c r="P500" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="501" spans="1:16">
@@ -24770,21 +24770,21 @@
         <v>117</v>
       </c>
       <c r="P501" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="502" spans="1:16">
       <c r="A502" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B502" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C502">
-        <v>53807</v>
+        <v>1479.25</v>
       </c>
       <c r="D502" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E502" t="s">
         <v>76</v>
@@ -24817,24 +24817,24 @@
         <v>117</v>
       </c>
       <c r="P502" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="503" spans="1:16">
       <c r="A503" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B503" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C503">
-        <v>780</v>
+        <v>53807</v>
       </c>
       <c r="D503" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E503" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G503" t="s">
         <v>95</v>
@@ -24864,24 +24864,24 @@
         <v>117</v>
       </c>
       <c r="P503" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="504" spans="1:16">
       <c r="A504" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B504" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C504">
-        <v>353478</v>
+        <v>780</v>
       </c>
       <c r="D504" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E504" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G504" t="s">
         <v>95</v>
@@ -24896,19 +24896,19 @@
         <v>108</v>
       </c>
       <c r="K504" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L504" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M504" t="s">
         <v>125</v>
       </c>
       <c r="N504" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O504" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P504" t="s">
         <v>177</v>
@@ -24916,16 +24916,16 @@
     </row>
     <row r="505" spans="1:16">
       <c r="A505" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B505" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C505">
-        <v>546699.9</v>
+        <v>353478</v>
       </c>
       <c r="D505" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E505" t="s">
         <v>79</v>
@@ -24958,21 +24958,21 @@
         <v>119</v>
       </c>
       <c r="P505" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="506" spans="1:16">
       <c r="A506" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B506" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C506">
-        <v>257823</v>
+        <v>546699.9</v>
       </c>
       <c r="D506" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="E506" t="s">
         <v>79</v>
@@ -25005,24 +25005,24 @@
         <v>119</v>
       </c>
       <c r="P506" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="507" spans="1:16">
       <c r="A507" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B507" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C507">
-        <v>1570762.55</v>
+        <v>257823</v>
       </c>
       <c r="D507" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="E507" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G507" t="s">
         <v>95</v>
@@ -25052,27 +25052,27 @@
         <v>119</v>
       </c>
       <c r="P507" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="508" spans="1:16">
       <c r="A508" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B508" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C508">
-        <v>172818</v>
+        <v>1570762.55</v>
       </c>
       <c r="D508" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E508" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G508" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H508" t="s">
         <v>99</v>
@@ -25099,27 +25099,27 @@
         <v>119</v>
       </c>
       <c r="P508" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="509" spans="1:16">
       <c r="A509" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B509" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C509">
-        <v>3480</v>
+        <v>172818</v>
       </c>
       <c r="D509" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E509" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G509" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H509" t="s">
         <v>99</v>
@@ -25131,19 +25131,19 @@
         <v>108</v>
       </c>
       <c r="K509" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L509" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M509" t="s">
         <v>125</v>
       </c>
       <c r="N509" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O509" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P509" t="s">
         <v>178</v>
@@ -25157,13 +25157,13 @@
         <v>44</v>
       </c>
       <c r="C510">
-        <v>5136</v>
+        <v>3480</v>
       </c>
       <c r="D510" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E510" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G510" t="s">
         <v>95</v>
@@ -25193,24 +25193,24 @@
         <v>120</v>
       </c>
       <c r="P510" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="511" spans="1:16">
       <c r="A511" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B511" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C511">
-        <v>657595.95</v>
+        <v>5136</v>
       </c>
       <c r="D511" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E511" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G511" t="s">
         <v>95</v>
@@ -25225,19 +25225,19 @@
         <v>108</v>
       </c>
       <c r="K511" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L511" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M511" t="s">
         <v>125</v>
       </c>
       <c r="N511" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O511" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P511" t="s">
         <v>179</v>
@@ -25248,10 +25248,10 @@
         <v>27</v>
       </c>
       <c r="B512" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C512">
-        <v>651617.8100000001</v>
+        <v>657595.95</v>
       </c>
       <c r="D512" t="s">
         <v>71</v>
@@ -25287,27 +25287,27 @@
         <v>121</v>
       </c>
       <c r="P512" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="513" spans="1:16">
       <c r="A513" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B513" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C513">
-        <v>716315.02</v>
+        <v>651617.8100000001</v>
       </c>
       <c r="D513" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E513" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G513" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H513" t="s">
         <v>99</v>
@@ -25334,27 +25334,27 @@
         <v>121</v>
       </c>
       <c r="P513" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="514" spans="1:16">
       <c r="A514" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B514" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C514">
-        <v>3850</v>
+        <v>716315.02</v>
       </c>
       <c r="D514" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E514" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G514" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H514" t="s">
         <v>99</v>
@@ -25366,19 +25366,19 @@
         <v>108</v>
       </c>
       <c r="K514" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L514" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M514" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N514" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O514" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="P514" t="s">
         <v>180</v>
@@ -25386,22 +25386,22 @@
     </row>
     <row r="515" spans="1:16">
       <c r="A515" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B515" t="s">
         <v>51</v>
       </c>
       <c r="C515">
-        <v>25999</v>
+        <v>3850</v>
       </c>
       <c r="D515" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E515" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G515" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H515" t="s">
         <v>99</v>
@@ -25413,13 +25413,13 @@
         <v>108</v>
       </c>
       <c r="K515" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L515" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M515" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N515" t="s">
         <v>135</v>
@@ -25428,7 +25428,7 @@
         <v>137</v>
       </c>
       <c r="P515" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="516" spans="1:16">
@@ -25436,16 +25436,16 @@
         <v>26</v>
       </c>
       <c r="B516" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C516">
-        <v>15000</v>
+        <v>25999</v>
       </c>
       <c r="D516" t="s">
         <v>73</v>
       </c>
       <c r="E516" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G516" t="s">
         <v>98</v>
@@ -25454,10 +25454,10 @@
         <v>99</v>
       </c>
       <c r="I516" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J516" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K516" t="s">
         <v>115</v>

--- a/data/excel_tables/3.2_movable_property.xlsx
+++ b/data/excel_tables/3.2_movable_property.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7326" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7802" uniqueCount="183">
   <si>
     <t>object_type</t>
   </si>
@@ -226,9 +226,6 @@
     <t>Монітор</t>
   </si>
   <si>
-    <t xml:space="preserve">Комп'ютер </t>
-  </si>
-  <si>
     <t>Вантажний автомобіль, придбаний за договором комісії для передачі на ЗСУ</t>
   </si>
   <si>
@@ -236,6 +233,9 @@
   </si>
   <si>
     <t>Ноутбук Леново</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Комп'ютер </t>
   </si>
   <si>
     <t>Ноутбук</t>
@@ -475,9 +475,6 @@
     <t>6ba0a2a0-ea8a-11ee-95c4-e7bfad33aba2</t>
   </si>
   <si>
-    <t>02344060-ead0-11ee-a826-5536b50ce648</t>
-  </si>
-  <si>
     <t>6cd10940-eb6f-11ee-95c4-e7bfad33aba2</t>
   </si>
   <si>
@@ -560,6 +557,12 @@
   </si>
   <si>
     <t>3e930c90-560e-11ef-afd1-e1abe6ffb9d7</t>
+  </si>
+  <si>
+    <t>80e8a0d0-80e5-11ef-976d-d13028d0d5de</t>
+  </si>
+  <si>
+    <t>02344060-ead0-11ee-a826-5536b50ce648</t>
   </si>
 </sst>
 </file>
@@ -917,7 +920,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P516"/>
+  <dimension ref="A1:P550"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19464,19 +19467,19 @@
     </row>
     <row r="389" spans="1:16">
       <c r="A389" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B389" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C389">
-        <v>353478</v>
+        <v>657595.95</v>
       </c>
       <c r="D389" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E389" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G389" t="s">
         <v>95</v>
@@ -19491,19 +19494,19 @@
         <v>106</v>
       </c>
       <c r="K389" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L389" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M389" t="s">
         <v>125</v>
       </c>
       <c r="N389" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O389" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P389" t="s">
         <v>153</v>
@@ -19511,19 +19514,19 @@
     </row>
     <row r="390" spans="1:16">
       <c r="A390" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B390" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C390">
-        <v>546699.9</v>
+        <v>657595.95</v>
       </c>
       <c r="D390" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E390" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G390" t="s">
         <v>95</v>
@@ -19538,19 +19541,19 @@
         <v>106</v>
       </c>
       <c r="K390" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L390" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M390" t="s">
         <v>125</v>
       </c>
       <c r="N390" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O390" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P390" t="s">
         <v>153</v>
@@ -19558,19 +19561,19 @@
     </row>
     <row r="391" spans="1:16">
       <c r="A391" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B391" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C391">
-        <v>257823</v>
+        <v>657595.95</v>
       </c>
       <c r="D391" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="E391" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G391" t="s">
         <v>95</v>
@@ -19585,19 +19588,19 @@
         <v>106</v>
       </c>
       <c r="K391" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L391" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M391" t="s">
         <v>125</v>
       </c>
       <c r="N391" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O391" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P391" t="s">
         <v>153</v>
@@ -19605,19 +19608,19 @@
     </row>
     <row r="392" spans="1:16">
       <c r="A392" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B392" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C392">
-        <v>1570762.55</v>
+        <v>657595.95</v>
       </c>
       <c r="D392" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E392" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G392" t="s">
         <v>95</v>
@@ -19632,19 +19635,19 @@
         <v>106</v>
       </c>
       <c r="K392" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L392" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M392" t="s">
         <v>125</v>
       </c>
       <c r="N392" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O392" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P392" t="s">
         <v>153</v>
@@ -19652,22 +19655,22 @@
     </row>
     <row r="393" spans="1:16">
       <c r="A393" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B393" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C393">
-        <v>172818</v>
+        <v>657595.95</v>
       </c>
       <c r="D393" t="s">
         <v>70</v>
       </c>
       <c r="E393" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G393" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H393" t="s">
         <v>99</v>
@@ -19679,19 +19682,19 @@
         <v>106</v>
       </c>
       <c r="K393" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L393" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M393" t="s">
         <v>125</v>
       </c>
       <c r="N393" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O393" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P393" t="s">
         <v>153</v>
@@ -19702,13 +19705,13 @@
         <v>27</v>
       </c>
       <c r="B394" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C394">
         <v>657595.95</v>
       </c>
       <c r="D394" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E394" t="s">
         <v>87</v>
@@ -19741,7 +19744,7 @@
         <v>121</v>
       </c>
       <c r="P394" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="395" spans="1:16">
@@ -19749,13 +19752,13 @@
         <v>27</v>
       </c>
       <c r="B395" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C395">
-        <v>657595.95</v>
+        <v>651617.8100000001</v>
       </c>
       <c r="D395" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E395" t="s">
         <v>87</v>
@@ -19788,7 +19791,7 @@
         <v>121</v>
       </c>
       <c r="P395" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="396" spans="1:16">
@@ -19796,13 +19799,13 @@
         <v>27</v>
       </c>
       <c r="B396" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C396">
-        <v>657595.95</v>
+        <v>651617.8100000001</v>
       </c>
       <c r="D396" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E396" t="s">
         <v>87</v>
@@ -19835,27 +19838,27 @@
         <v>121</v>
       </c>
       <c r="P396" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="397" spans="1:16">
       <c r="A397" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B397" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C397">
-        <v>657595.95</v>
+        <v>716315.02</v>
       </c>
       <c r="D397" t="s">
         <v>71</v>
       </c>
       <c r="E397" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G397" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H397" t="s">
         <v>99</v>
@@ -19882,51 +19885,51 @@
         <v>121</v>
       </c>
       <c r="P397" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="398" spans="1:16">
       <c r="A398" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B398" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C398">
-        <v>657595.95</v>
+        <v>10389.19</v>
       </c>
       <c r="D398" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E398" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G398" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H398" t="s">
         <v>99</v>
       </c>
       <c r="I398" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J398" t="s">
         <v>106</v>
       </c>
       <c r="K398" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L398" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M398" t="s">
         <v>125</v>
       </c>
       <c r="N398" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O398" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P398" t="s">
         <v>154</v>
@@ -19934,210 +19937,210 @@
     </row>
     <row r="399" spans="1:16">
       <c r="A399" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B399" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C399">
-        <v>657595.95</v>
+        <v>10389.19</v>
       </c>
       <c r="D399" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E399" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G399" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H399" t="s">
         <v>99</v>
       </c>
       <c r="I399" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J399" t="s">
         <v>106</v>
       </c>
       <c r="K399" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L399" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M399" t="s">
         <v>125</v>
       </c>
       <c r="N399" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O399" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P399" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="400" spans="1:16">
       <c r="A400" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B400" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C400">
-        <v>651617.8100000001</v>
+        <v>10389.19</v>
       </c>
       <c r="D400" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E400" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G400" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H400" t="s">
         <v>99</v>
       </c>
       <c r="I400" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J400" t="s">
         <v>106</v>
       </c>
       <c r="K400" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L400" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M400" t="s">
         <v>125</v>
       </c>
       <c r="N400" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O400" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P400" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="401" spans="1:16">
       <c r="A401" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B401" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C401">
-        <v>651617.8100000001</v>
+        <v>10389.19</v>
       </c>
       <c r="D401" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E401" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G401" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H401" t="s">
         <v>99</v>
       </c>
       <c r="I401" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J401" t="s">
         <v>106</v>
       </c>
       <c r="K401" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L401" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M401" t="s">
         <v>125</v>
       </c>
       <c r="N401" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O401" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P401" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="402" spans="1:16">
       <c r="A402" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B402" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C402">
-        <v>716315.02</v>
+        <v>15000</v>
       </c>
       <c r="D402" t="s">
         <v>72</v>
       </c>
       <c r="E402" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G402" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H402" t="s">
         <v>99</v>
       </c>
       <c r="I402" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J402" t="s">
         <v>106</v>
       </c>
       <c r="K402" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L402" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M402" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N402" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O402" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="P402" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="403" spans="1:16">
       <c r="A403" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B403" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C403">
-        <v>10389.19</v>
+        <v>1</v>
       </c>
       <c r="D403" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="E403" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G403" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H403" t="s">
         <v>99</v>
@@ -20146,166 +20149,166 @@
         <v>103</v>
       </c>
       <c r="J403" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K403" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L403" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M403" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N403" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O403" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="P403" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="404" spans="1:16">
       <c r="A404" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B404" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C404">
-        <v>10389.19</v>
+        <v>1</v>
       </c>
       <c r="D404" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E404" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G404" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H404" t="s">
         <v>99</v>
       </c>
       <c r="I404" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J404" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K404" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L404" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M404" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N404" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O404" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="P404" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="405" spans="1:16">
       <c r="A405" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B405" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C405">
-        <v>10389.19</v>
+        <v>3480</v>
       </c>
       <c r="D405" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="E405" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G405" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H405" t="s">
         <v>99</v>
       </c>
       <c r="I405" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J405" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K405" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L405" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M405" t="s">
         <v>125</v>
       </c>
       <c r="N405" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O405" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P405" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="406" spans="1:16">
       <c r="A406" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B406" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C406">
-        <v>10389.19</v>
+        <v>5136</v>
       </c>
       <c r="D406" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E406" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G406" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H406" t="s">
         <v>99</v>
       </c>
       <c r="I406" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="J406" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K406" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L406" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M406" t="s">
         <v>125</v>
       </c>
       <c r="N406" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O406" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P406" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="407" spans="1:16">
@@ -20319,7 +20322,7 @@
         <v>15000</v>
       </c>
       <c r="D407" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E407" t="s">
         <v>90</v>
@@ -20331,7 +20334,7 @@
         <v>99</v>
       </c>
       <c r="I407" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J407" t="s">
         <v>106</v>
@@ -20352,24 +20355,24 @@
         <v>137</v>
       </c>
       <c r="P407" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="408" spans="1:16">
       <c r="A408" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B408" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C408">
-        <v>1</v>
+        <v>326.25</v>
       </c>
       <c r="D408" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E408" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G408" t="s">
         <v>95</v>
@@ -20384,39 +20387,39 @@
         <v>108</v>
       </c>
       <c r="K408" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L408" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M408" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N408" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O408" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="P408" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="409" spans="1:16">
       <c r="A409" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B409" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C409">
-        <v>1</v>
+        <v>326.25</v>
       </c>
       <c r="D409" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E409" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G409" t="s">
         <v>95</v>
@@ -20431,39 +20434,39 @@
         <v>108</v>
       </c>
       <c r="K409" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L409" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M409" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N409" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O409" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="P409" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="410" spans="1:16">
       <c r="A410" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B410" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C410">
-        <v>3480</v>
+        <v>326.25</v>
       </c>
       <c r="D410" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E410" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G410" t="s">
         <v>95</v>
@@ -20472,45 +20475,45 @@
         <v>99</v>
       </c>
       <c r="I410" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J410" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K410" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L410" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M410" t="s">
         <v>125</v>
       </c>
       <c r="N410" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O410" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P410" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="411" spans="1:16">
       <c r="A411" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B411" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C411">
-        <v>5136</v>
+        <v>326.25</v>
       </c>
       <c r="D411" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E411" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G411" t="s">
         <v>95</v>
@@ -20519,72 +20522,72 @@
         <v>99</v>
       </c>
       <c r="I411" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J411" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K411" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L411" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M411" t="s">
         <v>125</v>
       </c>
       <c r="N411" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O411" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P411" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="412" spans="1:16">
       <c r="A412" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B412" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C412">
-        <v>15000</v>
+        <v>326.25</v>
       </c>
       <c r="D412" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E412" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="G412" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H412" t="s">
         <v>99</v>
       </c>
       <c r="I412" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J412" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K412" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L412" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M412" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N412" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O412" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="P412" t="s">
         <v>162</v>
@@ -20634,7 +20637,7 @@
         <v>117</v>
       </c>
       <c r="P413" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="414" spans="1:16">
@@ -20681,7 +20684,7 @@
         <v>117</v>
       </c>
       <c r="P414" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="415" spans="1:16">
@@ -20728,7 +20731,7 @@
         <v>117</v>
       </c>
       <c r="P415" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="416" spans="1:16">
@@ -20775,7 +20778,7 @@
         <v>117</v>
       </c>
       <c r="P416" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="417" spans="1:16">
@@ -20822,7 +20825,7 @@
         <v>117</v>
       </c>
       <c r="P417" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="418" spans="1:16">
@@ -20869,7 +20872,7 @@
         <v>117</v>
       </c>
       <c r="P418" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="419" spans="1:16">
@@ -20916,7 +20919,7 @@
         <v>117</v>
       </c>
       <c r="P419" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="420" spans="1:16">
@@ -20927,10 +20930,10 @@
         <v>32</v>
       </c>
       <c r="C420">
-        <v>326.25</v>
+        <v>489.58</v>
       </c>
       <c r="D420" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E420" t="s">
         <v>76</v>
@@ -20963,7 +20966,7 @@
         <v>117</v>
       </c>
       <c r="P420" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="421" spans="1:16">
@@ -20974,10 +20977,10 @@
         <v>32</v>
       </c>
       <c r="C421">
-        <v>326.25</v>
+        <v>489.58</v>
       </c>
       <c r="D421" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E421" t="s">
         <v>76</v>
@@ -21010,7 +21013,7 @@
         <v>117</v>
       </c>
       <c r="P421" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="422" spans="1:16">
@@ -21021,10 +21024,10 @@
         <v>32</v>
       </c>
       <c r="C422">
-        <v>326.25</v>
+        <v>489.58</v>
       </c>
       <c r="D422" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E422" t="s">
         <v>76</v>
@@ -21057,7 +21060,7 @@
         <v>117</v>
       </c>
       <c r="P422" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="423" spans="1:16">
@@ -21068,10 +21071,10 @@
         <v>32</v>
       </c>
       <c r="C423">
-        <v>326.25</v>
+        <v>489.58</v>
       </c>
       <c r="D423" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E423" t="s">
         <v>76</v>
@@ -21104,7 +21107,7 @@
         <v>117</v>
       </c>
       <c r="P423" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="424" spans="1:16">
@@ -21115,10 +21118,10 @@
         <v>32</v>
       </c>
       <c r="C424">
-        <v>326.25</v>
+        <v>489.58</v>
       </c>
       <c r="D424" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E424" t="s">
         <v>76</v>
@@ -21151,7 +21154,7 @@
         <v>117</v>
       </c>
       <c r="P424" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="425" spans="1:16">
@@ -21198,7 +21201,7 @@
         <v>117</v>
       </c>
       <c r="P425" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="426" spans="1:16">
@@ -21245,7 +21248,7 @@
         <v>117</v>
       </c>
       <c r="P426" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="427" spans="1:16">
@@ -21292,7 +21295,7 @@
         <v>117</v>
       </c>
       <c r="P427" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="428" spans="1:16">
@@ -21339,7 +21342,7 @@
         <v>117</v>
       </c>
       <c r="P428" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="429" spans="1:16">
@@ -21386,7 +21389,7 @@
         <v>117</v>
       </c>
       <c r="P429" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="430" spans="1:16">
@@ -21433,7 +21436,7 @@
         <v>117</v>
       </c>
       <c r="P430" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="431" spans="1:16">
@@ -21480,7 +21483,7 @@
         <v>117</v>
       </c>
       <c r="P431" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="432" spans="1:16">
@@ -21491,10 +21494,10 @@
         <v>32</v>
       </c>
       <c r="C432">
-        <v>489.58</v>
+        <v>13365</v>
       </c>
       <c r="D432" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E432" t="s">
         <v>76</v>
@@ -21527,7 +21530,7 @@
         <v>117</v>
       </c>
       <c r="P432" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="433" spans="1:16">
@@ -21538,10 +21541,10 @@
         <v>32</v>
       </c>
       <c r="C433">
-        <v>489.58</v>
+        <v>3382.5</v>
       </c>
       <c r="D433" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E433" t="s">
         <v>76</v>
@@ -21574,7 +21577,7 @@
         <v>117</v>
       </c>
       <c r="P433" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="434" spans="1:16">
@@ -21585,10 +21588,10 @@
         <v>32</v>
       </c>
       <c r="C434">
-        <v>489.58</v>
+        <v>3382.5</v>
       </c>
       <c r="D434" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E434" t="s">
         <v>76</v>
@@ -21621,7 +21624,7 @@
         <v>117</v>
       </c>
       <c r="P434" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="435" spans="1:16">
@@ -21632,10 +21635,10 @@
         <v>32</v>
       </c>
       <c r="C435">
-        <v>489.58</v>
+        <v>2167</v>
       </c>
       <c r="D435" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E435" t="s">
         <v>76</v>
@@ -21668,7 +21671,7 @@
         <v>117</v>
       </c>
       <c r="P435" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="436" spans="1:16">
@@ -21679,10 +21682,10 @@
         <v>32</v>
       </c>
       <c r="C436">
-        <v>489.58</v>
+        <v>1479.25</v>
       </c>
       <c r="D436" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E436" t="s">
         <v>76</v>
@@ -21715,7 +21718,7 @@
         <v>117</v>
       </c>
       <c r="P436" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="437" spans="1:16">
@@ -21726,10 +21729,10 @@
         <v>32</v>
       </c>
       <c r="C437">
-        <v>13365</v>
+        <v>1479.25</v>
       </c>
       <c r="D437" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E437" t="s">
         <v>76</v>
@@ -21762,7 +21765,7 @@
         <v>117</v>
       </c>
       <c r="P437" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="438" spans="1:16">
@@ -21773,10 +21776,10 @@
         <v>32</v>
       </c>
       <c r="C438">
-        <v>3382.5</v>
+        <v>1479.25</v>
       </c>
       <c r="D438" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E438" t="s">
         <v>76</v>
@@ -21809,7 +21812,7 @@
         <v>117</v>
       </c>
       <c r="P438" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="439" spans="1:16">
@@ -21820,10 +21823,10 @@
         <v>32</v>
       </c>
       <c r="C439">
-        <v>3382.5</v>
+        <v>1479.25</v>
       </c>
       <c r="D439" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E439" t="s">
         <v>76</v>
@@ -21856,21 +21859,21 @@
         <v>117</v>
       </c>
       <c r="P439" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="440" spans="1:16">
       <c r="A440" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B440" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C440">
-        <v>2167</v>
+        <v>53807</v>
       </c>
       <c r="D440" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E440" t="s">
         <v>76</v>
@@ -21903,7 +21906,7 @@
         <v>117</v>
       </c>
       <c r="P440" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="441" spans="1:16">
@@ -21911,16 +21914,16 @@
         <v>16</v>
       </c>
       <c r="B441" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C441">
-        <v>1479.25</v>
+        <v>780</v>
       </c>
       <c r="D441" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E441" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G441" t="s">
         <v>95</v>
@@ -21950,24 +21953,24 @@
         <v>117</v>
       </c>
       <c r="P441" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="442" spans="1:16">
       <c r="A442" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B442" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C442">
-        <v>1479.25</v>
+        <v>3480</v>
       </c>
       <c r="D442" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E442" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G442" t="s">
         <v>95</v>
@@ -21976,25 +21979,25 @@
         <v>99</v>
       </c>
       <c r="I442" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J442" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K442" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L442" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M442" t="s">
         <v>125</v>
       </c>
       <c r="N442" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O442" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P442" t="s">
         <v>163</v>
@@ -22002,19 +22005,19 @@
     </row>
     <row r="443" spans="1:16">
       <c r="A443" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B443" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C443">
-        <v>1479.25</v>
+        <v>5136</v>
       </c>
       <c r="D443" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E443" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G443" t="s">
         <v>95</v>
@@ -22023,25 +22026,25 @@
         <v>99</v>
       </c>
       <c r="I443" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J443" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K443" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L443" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M443" t="s">
         <v>125</v>
       </c>
       <c r="N443" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O443" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P443" t="s">
         <v>163</v>
@@ -22049,22 +22052,22 @@
     </row>
     <row r="444" spans="1:16">
       <c r="A444" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B444" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C444">
-        <v>1479.25</v>
+        <v>15000</v>
       </c>
       <c r="D444" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E444" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="G444" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H444" t="s">
         <v>99</v>
@@ -22073,119 +22076,119 @@
         <v>103</v>
       </c>
       <c r="J444" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K444" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L444" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M444" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N444" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O444" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="P444" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="445" spans="1:16">
       <c r="A445" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B445" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C445">
-        <v>53807</v>
+        <v>15000</v>
       </c>
       <c r="D445" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E445" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="G445" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H445" t="s">
         <v>99</v>
       </c>
       <c r="I445" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J445" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K445" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L445" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M445" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N445" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O445" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="P445" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="446" spans="1:16">
       <c r="A446" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B446" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C446">
-        <v>780</v>
+        <v>15000</v>
       </c>
       <c r="D446" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E446" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G446" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H446" t="s">
         <v>99</v>
       </c>
       <c r="I446" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J446" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K446" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L446" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M446" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N446" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O446" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="P446" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="447" spans="1:16">
@@ -22193,46 +22196,46 @@
         <v>26</v>
       </c>
       <c r="B447" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C447">
-        <v>3480</v>
+        <v>15000</v>
       </c>
       <c r="D447" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E447" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G447" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H447" t="s">
         <v>99</v>
       </c>
       <c r="I447" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J447" t="s">
         <v>107</v>
       </c>
       <c r="K447" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L447" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M447" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N447" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O447" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="P447" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="448" spans="1:16">
@@ -22240,46 +22243,46 @@
         <v>26</v>
       </c>
       <c r="B448" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C448">
-        <v>5136</v>
+        <v>15000</v>
       </c>
       <c r="D448" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E448" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G448" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H448" t="s">
         <v>99</v>
       </c>
       <c r="I448" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J448" t="s">
         <v>107</v>
       </c>
       <c r="K448" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L448" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M448" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N448" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O448" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="P448" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="449" spans="1:16">
@@ -22293,7 +22296,7 @@
         <v>15000</v>
       </c>
       <c r="D449" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E449" t="s">
         <v>90</v>
@@ -22308,7 +22311,7 @@
         <v>103</v>
       </c>
       <c r="J449" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K449" t="s">
         <v>115</v>
@@ -22326,7 +22329,7 @@
         <v>137</v>
       </c>
       <c r="P449" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="450" spans="1:16">
@@ -22340,10 +22343,10 @@
         <v>15000</v>
       </c>
       <c r="D450" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E450" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G450" t="s">
         <v>98</v>
@@ -22352,10 +22355,10 @@
         <v>99</v>
       </c>
       <c r="I450" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J450" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K450" t="s">
         <v>115</v>
@@ -22373,168 +22376,168 @@
         <v>137</v>
       </c>
       <c r="P450" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="451" spans="1:16">
       <c r="A451" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B451" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C451">
-        <v>15000</v>
+        <v>657595.95</v>
       </c>
       <c r="D451" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E451" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G451" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H451" t="s">
         <v>99</v>
       </c>
       <c r="I451" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J451" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K451" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L451" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M451" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N451" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O451" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="P451" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="452" spans="1:16">
       <c r="A452" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B452" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C452">
-        <v>15000</v>
+        <v>657595.95</v>
       </c>
       <c r="D452" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E452" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G452" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H452" t="s">
         <v>99</v>
       </c>
       <c r="I452" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J452" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K452" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L452" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M452" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N452" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O452" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="P452" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="453" spans="1:16">
       <c r="A453" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B453" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C453">
-        <v>15000</v>
+        <v>651617.8100000001</v>
       </c>
       <c r="D453" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E453" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G453" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H453" t="s">
         <v>99</v>
       </c>
       <c r="I453" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J453" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K453" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L453" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M453" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N453" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O453" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="P453" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="454" spans="1:16">
       <c r="A454" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B454" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C454">
-        <v>15000</v>
+        <v>716315.02</v>
       </c>
       <c r="D454" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E454" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G454" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H454" t="s">
         <v>99</v>
@@ -22543,89 +22546,89 @@
         <v>103</v>
       </c>
       <c r="J454" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K454" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L454" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M454" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N454" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O454" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="P454" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="455" spans="1:16">
       <c r="A455" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B455" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C455">
-        <v>15000</v>
+        <v>353478</v>
       </c>
       <c r="D455" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E455" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G455" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H455" t="s">
         <v>99</v>
       </c>
       <c r="I455" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J455" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K455" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L455" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M455" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N455" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O455" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="P455" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="456" spans="1:16">
       <c r="A456" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B456" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C456">
-        <v>657595.95</v>
+        <v>546699.9</v>
       </c>
       <c r="D456" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E456" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G456" t="s">
         <v>95</v>
@@ -22640,19 +22643,19 @@
         <v>108</v>
       </c>
       <c r="K456" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L456" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M456" t="s">
         <v>125</v>
       </c>
       <c r="N456" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O456" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P456" t="s">
         <v>172</v>
@@ -22660,19 +22663,19 @@
     </row>
     <row r="457" spans="1:16">
       <c r="A457" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B457" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C457">
-        <v>657595.95</v>
+        <v>257823</v>
       </c>
       <c r="D457" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="E457" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G457" t="s">
         <v>95</v>
@@ -22687,19 +22690,19 @@
         <v>108</v>
       </c>
       <c r="K457" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L457" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M457" t="s">
         <v>125</v>
       </c>
       <c r="N457" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O457" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P457" t="s">
         <v>172</v>
@@ -22707,19 +22710,19 @@
     </row>
     <row r="458" spans="1:16">
       <c r="A458" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B458" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C458">
-        <v>651617.8100000001</v>
+        <v>1570762.55</v>
       </c>
       <c r="D458" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E458" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G458" t="s">
         <v>95</v>
@@ -22734,19 +22737,19 @@
         <v>108</v>
       </c>
       <c r="K458" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L458" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M458" t="s">
         <v>125</v>
       </c>
       <c r="N458" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O458" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P458" t="s">
         <v>172</v>
@@ -22754,19 +22757,19 @@
     </row>
     <row r="459" spans="1:16">
       <c r="A459" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B459" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C459">
-        <v>716315.02</v>
+        <v>172818</v>
       </c>
       <c r="D459" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E459" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G459" t="s">
         <v>96</v>
@@ -22781,19 +22784,19 @@
         <v>108</v>
       </c>
       <c r="K459" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L459" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M459" t="s">
         <v>125</v>
       </c>
       <c r="N459" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O459" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P459" t="s">
         <v>172</v>
@@ -22801,19 +22804,19 @@
     </row>
     <row r="460" spans="1:16">
       <c r="A460" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B460" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C460">
-        <v>353478</v>
+        <v>3480</v>
       </c>
       <c r="D460" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E460" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G460" t="s">
         <v>95</v>
@@ -22828,19 +22831,19 @@
         <v>108</v>
       </c>
       <c r="K460" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L460" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M460" t="s">
         <v>125</v>
       </c>
       <c r="N460" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O460" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P460" t="s">
         <v>173</v>
@@ -22848,19 +22851,19 @@
     </row>
     <row r="461" spans="1:16">
       <c r="A461" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B461" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C461">
-        <v>546699.9</v>
+        <v>5136</v>
       </c>
       <c r="D461" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E461" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G461" t="s">
         <v>95</v>
@@ -22875,19 +22878,19 @@
         <v>108</v>
       </c>
       <c r="K461" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L461" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M461" t="s">
         <v>125</v>
       </c>
       <c r="N461" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O461" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P461" t="s">
         <v>173</v>
@@ -22895,19 +22898,19 @@
     </row>
     <row r="462" spans="1:16">
       <c r="A462" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B462" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C462">
-        <v>257823</v>
+        <v>3850</v>
       </c>
       <c r="D462" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="E462" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="G462" t="s">
         <v>95</v>
@@ -22922,42 +22925,42 @@
         <v>108</v>
       </c>
       <c r="K462" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="L462" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="M462" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N462" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="O462" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="P462" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="463" spans="1:16">
       <c r="A463" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B463" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C463">
-        <v>1570762.55</v>
+        <v>25999</v>
       </c>
       <c r="D463" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E463" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G463" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H463" t="s">
         <v>99</v>
@@ -22969,86 +22972,86 @@
         <v>108</v>
       </c>
       <c r="K463" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L463" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="M463" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N463" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="O463" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="P463" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="464" spans="1:16">
       <c r="A464" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B464" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C464">
-        <v>172818</v>
+        <v>1</v>
       </c>
       <c r="D464" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E464" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G464" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H464" t="s">
         <v>99</v>
       </c>
       <c r="I464" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J464" t="s">
         <v>108</v>
       </c>
       <c r="K464" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L464" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M464" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N464" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O464" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="P464" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="465" spans="1:16">
       <c r="A465" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B465" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C465">
-        <v>3480</v>
+        <v>1</v>
       </c>
       <c r="D465" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E465" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G465" t="s">
         <v>95</v>
@@ -23057,45 +23060,45 @@
         <v>99</v>
       </c>
       <c r="I465" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J465" t="s">
         <v>108</v>
       </c>
       <c r="K465" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L465" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M465" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N465" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O465" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="P465" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="466" spans="1:16">
       <c r="A466" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B466" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C466">
-        <v>5136</v>
+        <v>326.25</v>
       </c>
       <c r="D466" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E466" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G466" t="s">
         <v>95</v>
@@ -23104,45 +23107,45 @@
         <v>99</v>
       </c>
       <c r="I466" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J466" t="s">
         <v>108</v>
       </c>
       <c r="K466" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L466" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M466" t="s">
         <v>125</v>
       </c>
       <c r="N466" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O466" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P466" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="467" spans="1:16">
       <c r="A467" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B467" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C467">
-        <v>3850</v>
+        <v>326.25</v>
       </c>
       <c r="D467" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E467" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="G467" t="s">
         <v>95</v>
@@ -23151,92 +23154,92 @@
         <v>99</v>
       </c>
       <c r="I467" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J467" t="s">
         <v>108</v>
       </c>
       <c r="K467" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="L467" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="M467" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N467" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O467" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="P467" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="468" spans="1:16">
       <c r="A468" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B468" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C468">
-        <v>25999</v>
+        <v>326.25</v>
       </c>
       <c r="D468" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E468" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="G468" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H468" t="s">
         <v>99</v>
       </c>
       <c r="I468" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J468" t="s">
         <v>108</v>
       </c>
       <c r="K468" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L468" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M468" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N468" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O468" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="P468" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="469" spans="1:16">
       <c r="A469" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B469" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C469">
-        <v>1</v>
+        <v>326.25</v>
       </c>
       <c r="D469" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E469" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G469" t="s">
         <v>95</v>
@@ -23251,19 +23254,19 @@
         <v>108</v>
       </c>
       <c r="K469" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L469" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M469" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N469" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O469" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="P469" t="s">
         <v>176</v>
@@ -23271,19 +23274,19 @@
     </row>
     <row r="470" spans="1:16">
       <c r="A470" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B470" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C470">
-        <v>1</v>
+        <v>326.25</v>
       </c>
       <c r="D470" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E470" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G470" t="s">
         <v>95</v>
@@ -23298,19 +23301,19 @@
         <v>108</v>
       </c>
       <c r="K470" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L470" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M470" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N470" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O470" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="P470" t="s">
         <v>176</v>
@@ -23360,7 +23363,7 @@
         <v>117</v>
       </c>
       <c r="P471" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="472" spans="1:16">
@@ -23407,7 +23410,7 @@
         <v>117</v>
       </c>
       <c r="P472" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="473" spans="1:16">
@@ -23454,7 +23457,7 @@
         <v>117</v>
       </c>
       <c r="P473" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="474" spans="1:16">
@@ -23501,7 +23504,7 @@
         <v>117</v>
       </c>
       <c r="P474" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="475" spans="1:16">
@@ -23548,7 +23551,7 @@
         <v>117</v>
       </c>
       <c r="P475" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="476" spans="1:16">
@@ -23595,7 +23598,7 @@
         <v>117</v>
       </c>
       <c r="P476" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="477" spans="1:16">
@@ -23642,7 +23645,7 @@
         <v>117</v>
       </c>
       <c r="P477" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="478" spans="1:16">
@@ -23653,10 +23656,10 @@
         <v>32</v>
       </c>
       <c r="C478">
-        <v>326.25</v>
+        <v>489.58</v>
       </c>
       <c r="D478" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E478" t="s">
         <v>76</v>
@@ -23689,7 +23692,7 @@
         <v>117</v>
       </c>
       <c r="P478" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="479" spans="1:16">
@@ -23700,10 +23703,10 @@
         <v>32</v>
       </c>
       <c r="C479">
-        <v>326.25</v>
+        <v>489.58</v>
       </c>
       <c r="D479" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E479" t="s">
         <v>76</v>
@@ -23736,7 +23739,7 @@
         <v>117</v>
       </c>
       <c r="P479" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="480" spans="1:16">
@@ -23747,10 +23750,10 @@
         <v>32</v>
       </c>
       <c r="C480">
-        <v>326.25</v>
+        <v>489.58</v>
       </c>
       <c r="D480" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E480" t="s">
         <v>76</v>
@@ -23783,7 +23786,7 @@
         <v>117</v>
       </c>
       <c r="P480" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="481" spans="1:16">
@@ -23794,10 +23797,10 @@
         <v>32</v>
       </c>
       <c r="C481">
-        <v>326.25</v>
+        <v>489.58</v>
       </c>
       <c r="D481" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E481" t="s">
         <v>76</v>
@@ -23830,7 +23833,7 @@
         <v>117</v>
       </c>
       <c r="P481" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="482" spans="1:16">
@@ -23841,10 +23844,10 @@
         <v>32</v>
       </c>
       <c r="C482">
-        <v>326.25</v>
+        <v>489.58</v>
       </c>
       <c r="D482" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E482" t="s">
         <v>76</v>
@@ -23877,7 +23880,7 @@
         <v>117</v>
       </c>
       <c r="P482" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="483" spans="1:16">
@@ -23924,7 +23927,7 @@
         <v>117</v>
       </c>
       <c r="P483" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="484" spans="1:16">
@@ -23971,7 +23974,7 @@
         <v>117</v>
       </c>
       <c r="P484" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="485" spans="1:16">
@@ -24018,7 +24021,7 @@
         <v>117</v>
       </c>
       <c r="P485" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="486" spans="1:16">
@@ -24065,7 +24068,7 @@
         <v>117</v>
       </c>
       <c r="P486" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="487" spans="1:16">
@@ -24112,7 +24115,7 @@
         <v>117</v>
       </c>
       <c r="P487" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="488" spans="1:16">
@@ -24159,7 +24162,7 @@
         <v>117</v>
       </c>
       <c r="P488" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="489" spans="1:16">
@@ -24206,7 +24209,7 @@
         <v>117</v>
       </c>
       <c r="P489" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="490" spans="1:16">
@@ -24217,10 +24220,10 @@
         <v>32</v>
       </c>
       <c r="C490">
-        <v>489.58</v>
+        <v>13365</v>
       </c>
       <c r="D490" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E490" t="s">
         <v>76</v>
@@ -24253,7 +24256,7 @@
         <v>117</v>
       </c>
       <c r="P490" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="491" spans="1:16">
@@ -24264,10 +24267,10 @@
         <v>32</v>
       </c>
       <c r="C491">
-        <v>489.58</v>
+        <v>3382.5</v>
       </c>
       <c r="D491" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E491" t="s">
         <v>76</v>
@@ -24300,7 +24303,7 @@
         <v>117</v>
       </c>
       <c r="P491" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="492" spans="1:16">
@@ -24311,10 +24314,10 @@
         <v>32</v>
       </c>
       <c r="C492">
-        <v>489.58</v>
+        <v>3382.5</v>
       </c>
       <c r="D492" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E492" t="s">
         <v>76</v>
@@ -24347,7 +24350,7 @@
         <v>117</v>
       </c>
       <c r="P492" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="493" spans="1:16">
@@ -24358,10 +24361,10 @@
         <v>32</v>
       </c>
       <c r="C493">
-        <v>489.58</v>
+        <v>2167</v>
       </c>
       <c r="D493" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E493" t="s">
         <v>76</v>
@@ -24394,7 +24397,7 @@
         <v>117</v>
       </c>
       <c r="P493" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="494" spans="1:16">
@@ -24405,10 +24408,10 @@
         <v>32</v>
       </c>
       <c r="C494">
-        <v>489.58</v>
+        <v>1479.25</v>
       </c>
       <c r="D494" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E494" t="s">
         <v>76</v>
@@ -24441,7 +24444,7 @@
         <v>117</v>
       </c>
       <c r="P494" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="495" spans="1:16">
@@ -24452,10 +24455,10 @@
         <v>32</v>
       </c>
       <c r="C495">
-        <v>13365</v>
+        <v>1479.25</v>
       </c>
       <c r="D495" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E495" t="s">
         <v>76</v>
@@ -24488,7 +24491,7 @@
         <v>117</v>
       </c>
       <c r="P495" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="496" spans="1:16">
@@ -24499,10 +24502,10 @@
         <v>32</v>
       </c>
       <c r="C496">
-        <v>3382.5</v>
+        <v>1479.25</v>
       </c>
       <c r="D496" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E496" t="s">
         <v>76</v>
@@ -24535,7 +24538,7 @@
         <v>117</v>
       </c>
       <c r="P496" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="497" spans="1:16">
@@ -24546,10 +24549,10 @@
         <v>32</v>
       </c>
       <c r="C497">
-        <v>3382.5</v>
+        <v>1479.25</v>
       </c>
       <c r="D497" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E497" t="s">
         <v>76</v>
@@ -24582,21 +24585,21 @@
         <v>117</v>
       </c>
       <c r="P497" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="498" spans="1:16">
       <c r="A498" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B498" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C498">
-        <v>2167</v>
+        <v>53807</v>
       </c>
       <c r="D498" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E498" t="s">
         <v>76</v>
@@ -24629,7 +24632,7 @@
         <v>117</v>
       </c>
       <c r="P498" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="499" spans="1:16">
@@ -24637,16 +24640,16 @@
         <v>16</v>
       </c>
       <c r="B499" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C499">
-        <v>1479.25</v>
+        <v>780</v>
       </c>
       <c r="D499" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E499" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G499" t="s">
         <v>95</v>
@@ -24676,24 +24679,24 @@
         <v>117</v>
       </c>
       <c r="P499" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="500" spans="1:16">
       <c r="A500" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B500" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C500">
-        <v>1479.25</v>
+        <v>353478</v>
       </c>
       <c r="D500" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E500" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G500" t="s">
         <v>95</v>
@@ -24708,19 +24711,19 @@
         <v>108</v>
       </c>
       <c r="K500" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L500" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M500" t="s">
         <v>125</v>
       </c>
       <c r="N500" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O500" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P500" t="s">
         <v>177</v>
@@ -24728,19 +24731,19 @@
     </row>
     <row r="501" spans="1:16">
       <c r="A501" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B501" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C501">
-        <v>1479.25</v>
+        <v>546699.9</v>
       </c>
       <c r="D501" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E501" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G501" t="s">
         <v>95</v>
@@ -24755,19 +24758,19 @@
         <v>108</v>
       </c>
       <c r="K501" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L501" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M501" t="s">
         <v>125</v>
       </c>
       <c r="N501" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O501" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P501" t="s">
         <v>177</v>
@@ -24775,19 +24778,19 @@
     </row>
     <row r="502" spans="1:16">
       <c r="A502" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B502" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C502">
-        <v>1479.25</v>
+        <v>257823</v>
       </c>
       <c r="D502" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="E502" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G502" t="s">
         <v>95</v>
@@ -24802,19 +24805,19 @@
         <v>108</v>
       </c>
       <c r="K502" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L502" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M502" t="s">
         <v>125</v>
       </c>
       <c r="N502" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O502" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P502" t="s">
         <v>177</v>
@@ -24822,19 +24825,19 @@
     </row>
     <row r="503" spans="1:16">
       <c r="A503" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B503" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C503">
-        <v>53807</v>
+        <v>1570762.55</v>
       </c>
       <c r="D503" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E503" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G503" t="s">
         <v>95</v>
@@ -24849,19 +24852,19 @@
         <v>108</v>
       </c>
       <c r="K503" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L503" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M503" t="s">
         <v>125</v>
       </c>
       <c r="N503" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O503" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P503" t="s">
         <v>177</v>
@@ -24869,22 +24872,22 @@
     </row>
     <row r="504" spans="1:16">
       <c r="A504" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B504" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C504">
-        <v>780</v>
+        <v>172818</v>
       </c>
       <c r="D504" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E504" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G504" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H504" t="s">
         <v>99</v>
@@ -24896,19 +24899,19 @@
         <v>108</v>
       </c>
       <c r="K504" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L504" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M504" t="s">
         <v>125</v>
       </c>
       <c r="N504" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O504" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P504" t="s">
         <v>177</v>
@@ -24916,19 +24919,19 @@
     </row>
     <row r="505" spans="1:16">
       <c r="A505" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B505" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C505">
-        <v>353478</v>
+        <v>3480</v>
       </c>
       <c r="D505" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E505" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G505" t="s">
         <v>95</v>
@@ -24943,19 +24946,19 @@
         <v>108</v>
       </c>
       <c r="K505" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L505" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M505" t="s">
         <v>125</v>
       </c>
       <c r="N505" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O505" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P505" t="s">
         <v>178</v>
@@ -24963,19 +24966,19 @@
     </row>
     <row r="506" spans="1:16">
       <c r="A506" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B506" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C506">
-        <v>546699.9</v>
+        <v>5136</v>
       </c>
       <c r="D506" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E506" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G506" t="s">
         <v>95</v>
@@ -24990,19 +24993,19 @@
         <v>108</v>
       </c>
       <c r="K506" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L506" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M506" t="s">
         <v>125</v>
       </c>
       <c r="N506" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O506" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P506" t="s">
         <v>178</v>
@@ -25010,19 +25013,19 @@
     </row>
     <row r="507" spans="1:16">
       <c r="A507" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B507" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C507">
-        <v>257823</v>
+        <v>657595.95</v>
       </c>
       <c r="D507" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="E507" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G507" t="s">
         <v>95</v>
@@ -25037,39 +25040,39 @@
         <v>108</v>
       </c>
       <c r="K507" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L507" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M507" t="s">
         <v>125</v>
       </c>
       <c r="N507" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O507" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P507" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="508" spans="1:16">
       <c r="A508" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B508" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C508">
-        <v>1570762.55</v>
+        <v>651617.8100000001</v>
       </c>
       <c r="D508" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E508" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G508" t="s">
         <v>95</v>
@@ -25084,39 +25087,39 @@
         <v>108</v>
       </c>
       <c r="K508" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L508" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M508" t="s">
         <v>125</v>
       </c>
       <c r="N508" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O508" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P508" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="509" spans="1:16">
       <c r="A509" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B509" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C509">
-        <v>172818</v>
+        <v>716315.02</v>
       </c>
       <c r="D509" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E509" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G509" t="s">
         <v>96</v>
@@ -25131,39 +25134,39 @@
         <v>108</v>
       </c>
       <c r="K509" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L509" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M509" t="s">
         <v>125</v>
       </c>
       <c r="N509" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O509" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P509" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="510" spans="1:16">
       <c r="A510" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B510" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C510">
-        <v>3480</v>
+        <v>3850</v>
       </c>
       <c r="D510" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E510" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G510" t="s">
         <v>95</v>
@@ -25178,22 +25181,22 @@
         <v>108</v>
       </c>
       <c r="K510" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L510" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M510" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N510" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O510" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="P510" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="511" spans="1:16">
@@ -25201,19 +25204,19 @@
         <v>26</v>
       </c>
       <c r="B511" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C511">
-        <v>5136</v>
+        <v>25999</v>
       </c>
       <c r="D511" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E511" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G511" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H511" t="s">
         <v>99</v>
@@ -25225,39 +25228,39 @@
         <v>108</v>
       </c>
       <c r="K511" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L511" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M511" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N511" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O511" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="P511" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="512" spans="1:16">
       <c r="A512" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B512" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C512">
-        <v>657595.95</v>
+        <v>326.25</v>
       </c>
       <c r="D512" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="E512" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G512" t="s">
         <v>95</v>
@@ -25266,45 +25269,45 @@
         <v>99</v>
       </c>
       <c r="I512" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J512" t="s">
         <v>108</v>
       </c>
       <c r="K512" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L512" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M512" t="s">
         <v>125</v>
       </c>
       <c r="N512" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O512" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P512" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="513" spans="1:16">
       <c r="A513" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B513" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C513">
-        <v>651617.8100000001</v>
+        <v>326.25</v>
       </c>
       <c r="D513" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="E513" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G513" t="s">
         <v>95</v>
@@ -25313,92 +25316,92 @@
         <v>99</v>
       </c>
       <c r="I513" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J513" t="s">
         <v>108</v>
       </c>
       <c r="K513" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L513" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M513" t="s">
         <v>125</v>
       </c>
       <c r="N513" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O513" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P513" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="514" spans="1:16">
       <c r="A514" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B514" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C514">
-        <v>716315.02</v>
+        <v>326.25</v>
       </c>
       <c r="D514" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="E514" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G514" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H514" t="s">
         <v>99</v>
       </c>
       <c r="I514" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J514" t="s">
         <v>108</v>
       </c>
       <c r="K514" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L514" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M514" t="s">
         <v>125</v>
       </c>
       <c r="N514" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O514" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P514" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="515" spans="1:16">
       <c r="A515" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B515" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C515">
-        <v>3850</v>
+        <v>326.25</v>
       </c>
       <c r="D515" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E515" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="G515" t="s">
         <v>95</v>
@@ -25407,25 +25410,25 @@
         <v>99</v>
       </c>
       <c r="I515" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J515" t="s">
         <v>108</v>
       </c>
       <c r="K515" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="L515" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="M515" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N515" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O515" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="P515" t="s">
         <v>181</v>
@@ -25433,49 +25436,1647 @@
     </row>
     <row r="516" spans="1:16">
       <c r="A516" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B516" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C516">
-        <v>25999</v>
+        <v>326.25</v>
       </c>
       <c r="D516" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E516" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="G516" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H516" t="s">
         <v>99</v>
       </c>
       <c r="I516" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J516" t="s">
         <v>108</v>
       </c>
       <c r="K516" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L516" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M516" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N516" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O516" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="P516" t="s">
         <v>181</v>
+      </c>
+    </row>
+    <row r="517" spans="1:16">
+      <c r="A517" t="s">
+        <v>16</v>
+      </c>
+      <c r="B517" t="s">
+        <v>32</v>
+      </c>
+      <c r="C517">
+        <v>326.25</v>
+      </c>
+      <c r="D517" t="s">
+        <v>52</v>
+      </c>
+      <c r="E517" t="s">
+        <v>76</v>
+      </c>
+      <c r="G517" t="s">
+        <v>95</v>
+      </c>
+      <c r="H517" t="s">
+        <v>99</v>
+      </c>
+      <c r="I517" t="s">
+        <v>102</v>
+      </c>
+      <c r="J517" t="s">
+        <v>108</v>
+      </c>
+      <c r="K517" t="s">
+        <v>109</v>
+      </c>
+      <c r="L517" t="s">
+        <v>117</v>
+      </c>
+      <c r="M517" t="s">
+        <v>125</v>
+      </c>
+      <c r="N517" t="s">
+        <v>129</v>
+      </c>
+      <c r="O517" t="s">
+        <v>117</v>
+      </c>
+      <c r="P517" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="518" spans="1:16">
+      <c r="A518" t="s">
+        <v>16</v>
+      </c>
+      <c r="B518" t="s">
+        <v>32</v>
+      </c>
+      <c r="C518">
+        <v>326.25</v>
+      </c>
+      <c r="D518" t="s">
+        <v>52</v>
+      </c>
+      <c r="E518" t="s">
+        <v>76</v>
+      </c>
+      <c r="G518" t="s">
+        <v>95</v>
+      </c>
+      <c r="H518" t="s">
+        <v>99</v>
+      </c>
+      <c r="I518" t="s">
+        <v>102</v>
+      </c>
+      <c r="J518" t="s">
+        <v>108</v>
+      </c>
+      <c r="K518" t="s">
+        <v>109</v>
+      </c>
+      <c r="L518" t="s">
+        <v>117</v>
+      </c>
+      <c r="M518" t="s">
+        <v>125</v>
+      </c>
+      <c r="N518" t="s">
+        <v>129</v>
+      </c>
+      <c r="O518" t="s">
+        <v>117</v>
+      </c>
+      <c r="P518" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="519" spans="1:16">
+      <c r="A519" t="s">
+        <v>16</v>
+      </c>
+      <c r="B519" t="s">
+        <v>32</v>
+      </c>
+      <c r="C519">
+        <v>326.25</v>
+      </c>
+      <c r="D519" t="s">
+        <v>52</v>
+      </c>
+      <c r="E519" t="s">
+        <v>76</v>
+      </c>
+      <c r="G519" t="s">
+        <v>95</v>
+      </c>
+      <c r="H519" t="s">
+        <v>99</v>
+      </c>
+      <c r="I519" t="s">
+        <v>102</v>
+      </c>
+      <c r="J519" t="s">
+        <v>108</v>
+      </c>
+      <c r="K519" t="s">
+        <v>109</v>
+      </c>
+      <c r="L519" t="s">
+        <v>117</v>
+      </c>
+      <c r="M519" t="s">
+        <v>125</v>
+      </c>
+      <c r="N519" t="s">
+        <v>129</v>
+      </c>
+      <c r="O519" t="s">
+        <v>117</v>
+      </c>
+      <c r="P519" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="520" spans="1:16">
+      <c r="A520" t="s">
+        <v>16</v>
+      </c>
+      <c r="B520" t="s">
+        <v>32</v>
+      </c>
+      <c r="C520">
+        <v>326.25</v>
+      </c>
+      <c r="D520" t="s">
+        <v>52</v>
+      </c>
+      <c r="E520" t="s">
+        <v>76</v>
+      </c>
+      <c r="G520" t="s">
+        <v>95</v>
+      </c>
+      <c r="H520" t="s">
+        <v>99</v>
+      </c>
+      <c r="I520" t="s">
+        <v>102</v>
+      </c>
+      <c r="J520" t="s">
+        <v>108</v>
+      </c>
+      <c r="K520" t="s">
+        <v>109</v>
+      </c>
+      <c r="L520" t="s">
+        <v>117</v>
+      </c>
+      <c r="M520" t="s">
+        <v>125</v>
+      </c>
+      <c r="N520" t="s">
+        <v>129</v>
+      </c>
+      <c r="O520" t="s">
+        <v>117</v>
+      </c>
+      <c r="P520" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="521" spans="1:16">
+      <c r="A521" t="s">
+        <v>16</v>
+      </c>
+      <c r="B521" t="s">
+        <v>32</v>
+      </c>
+      <c r="C521">
+        <v>326.25</v>
+      </c>
+      <c r="D521" t="s">
+        <v>52</v>
+      </c>
+      <c r="E521" t="s">
+        <v>76</v>
+      </c>
+      <c r="G521" t="s">
+        <v>95</v>
+      </c>
+      <c r="H521" t="s">
+        <v>99</v>
+      </c>
+      <c r="I521" t="s">
+        <v>102</v>
+      </c>
+      <c r="J521" t="s">
+        <v>108</v>
+      </c>
+      <c r="K521" t="s">
+        <v>109</v>
+      </c>
+      <c r="L521" t="s">
+        <v>117</v>
+      </c>
+      <c r="M521" t="s">
+        <v>125</v>
+      </c>
+      <c r="N521" t="s">
+        <v>129</v>
+      </c>
+      <c r="O521" t="s">
+        <v>117</v>
+      </c>
+      <c r="P521" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="522" spans="1:16">
+      <c r="A522" t="s">
+        <v>16</v>
+      </c>
+      <c r="B522" t="s">
+        <v>32</v>
+      </c>
+      <c r="C522">
+        <v>326.25</v>
+      </c>
+      <c r="D522" t="s">
+        <v>52</v>
+      </c>
+      <c r="E522" t="s">
+        <v>76</v>
+      </c>
+      <c r="G522" t="s">
+        <v>95</v>
+      </c>
+      <c r="H522" t="s">
+        <v>99</v>
+      </c>
+      <c r="I522" t="s">
+        <v>102</v>
+      </c>
+      <c r="J522" t="s">
+        <v>108</v>
+      </c>
+      <c r="K522" t="s">
+        <v>109</v>
+      </c>
+      <c r="L522" t="s">
+        <v>117</v>
+      </c>
+      <c r="M522" t="s">
+        <v>125</v>
+      </c>
+      <c r="N522" t="s">
+        <v>129</v>
+      </c>
+      <c r="O522" t="s">
+        <v>117</v>
+      </c>
+      <c r="P522" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="523" spans="1:16">
+      <c r="A523" t="s">
+        <v>16</v>
+      </c>
+      <c r="B523" t="s">
+        <v>32</v>
+      </c>
+      <c r="C523">
+        <v>326.25</v>
+      </c>
+      <c r="D523" t="s">
+        <v>52</v>
+      </c>
+      <c r="E523" t="s">
+        <v>76</v>
+      </c>
+      <c r="G523" t="s">
+        <v>95</v>
+      </c>
+      <c r="H523" t="s">
+        <v>99</v>
+      </c>
+      <c r="I523" t="s">
+        <v>102</v>
+      </c>
+      <c r="J523" t="s">
+        <v>108</v>
+      </c>
+      <c r="K523" t="s">
+        <v>109</v>
+      </c>
+      <c r="L523" t="s">
+        <v>117</v>
+      </c>
+      <c r="M523" t="s">
+        <v>125</v>
+      </c>
+      <c r="N523" t="s">
+        <v>129</v>
+      </c>
+      <c r="O523" t="s">
+        <v>117</v>
+      </c>
+      <c r="P523" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="524" spans="1:16">
+      <c r="A524" t="s">
+        <v>16</v>
+      </c>
+      <c r="B524" t="s">
+        <v>32</v>
+      </c>
+      <c r="C524">
+        <v>489.58</v>
+      </c>
+      <c r="D524" t="s">
+        <v>53</v>
+      </c>
+      <c r="E524" t="s">
+        <v>76</v>
+      </c>
+      <c r="G524" t="s">
+        <v>95</v>
+      </c>
+      <c r="H524" t="s">
+        <v>99</v>
+      </c>
+      <c r="I524" t="s">
+        <v>102</v>
+      </c>
+      <c r="J524" t="s">
+        <v>108</v>
+      </c>
+      <c r="K524" t="s">
+        <v>109</v>
+      </c>
+      <c r="L524" t="s">
+        <v>117</v>
+      </c>
+      <c r="M524" t="s">
+        <v>125</v>
+      </c>
+      <c r="N524" t="s">
+        <v>129</v>
+      </c>
+      <c r="O524" t="s">
+        <v>117</v>
+      </c>
+      <c r="P524" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="525" spans="1:16">
+      <c r="A525" t="s">
+        <v>16</v>
+      </c>
+      <c r="B525" t="s">
+        <v>32</v>
+      </c>
+      <c r="C525">
+        <v>489.58</v>
+      </c>
+      <c r="D525" t="s">
+        <v>53</v>
+      </c>
+      <c r="E525" t="s">
+        <v>76</v>
+      </c>
+      <c r="G525" t="s">
+        <v>95</v>
+      </c>
+      <c r="H525" t="s">
+        <v>99</v>
+      </c>
+      <c r="I525" t="s">
+        <v>102</v>
+      </c>
+      <c r="J525" t="s">
+        <v>108</v>
+      </c>
+      <c r="K525" t="s">
+        <v>109</v>
+      </c>
+      <c r="L525" t="s">
+        <v>117</v>
+      </c>
+      <c r="M525" t="s">
+        <v>125</v>
+      </c>
+      <c r="N525" t="s">
+        <v>129</v>
+      </c>
+      <c r="O525" t="s">
+        <v>117</v>
+      </c>
+      <c r="P525" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="526" spans="1:16">
+      <c r="A526" t="s">
+        <v>16</v>
+      </c>
+      <c r="B526" t="s">
+        <v>32</v>
+      </c>
+      <c r="C526">
+        <v>489.58</v>
+      </c>
+      <c r="D526" t="s">
+        <v>53</v>
+      </c>
+      <c r="E526" t="s">
+        <v>76</v>
+      </c>
+      <c r="G526" t="s">
+        <v>95</v>
+      </c>
+      <c r="H526" t="s">
+        <v>99</v>
+      </c>
+      <c r="I526" t="s">
+        <v>102</v>
+      </c>
+      <c r="J526" t="s">
+        <v>108</v>
+      </c>
+      <c r="K526" t="s">
+        <v>109</v>
+      </c>
+      <c r="L526" t="s">
+        <v>117</v>
+      </c>
+      <c r="M526" t="s">
+        <v>125</v>
+      </c>
+      <c r="N526" t="s">
+        <v>129</v>
+      </c>
+      <c r="O526" t="s">
+        <v>117</v>
+      </c>
+      <c r="P526" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="527" spans="1:16">
+      <c r="A527" t="s">
+        <v>16</v>
+      </c>
+      <c r="B527" t="s">
+        <v>32</v>
+      </c>
+      <c r="C527">
+        <v>489.58</v>
+      </c>
+      <c r="D527" t="s">
+        <v>53</v>
+      </c>
+      <c r="E527" t="s">
+        <v>76</v>
+      </c>
+      <c r="G527" t="s">
+        <v>95</v>
+      </c>
+      <c r="H527" t="s">
+        <v>99</v>
+      </c>
+      <c r="I527" t="s">
+        <v>102</v>
+      </c>
+      <c r="J527" t="s">
+        <v>108</v>
+      </c>
+      <c r="K527" t="s">
+        <v>109</v>
+      </c>
+      <c r="L527" t="s">
+        <v>117</v>
+      </c>
+      <c r="M527" t="s">
+        <v>125</v>
+      </c>
+      <c r="N527" t="s">
+        <v>129</v>
+      </c>
+      <c r="O527" t="s">
+        <v>117</v>
+      </c>
+      <c r="P527" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="528" spans="1:16">
+      <c r="A528" t="s">
+        <v>16</v>
+      </c>
+      <c r="B528" t="s">
+        <v>32</v>
+      </c>
+      <c r="C528">
+        <v>489.58</v>
+      </c>
+      <c r="D528" t="s">
+        <v>53</v>
+      </c>
+      <c r="E528" t="s">
+        <v>76</v>
+      </c>
+      <c r="G528" t="s">
+        <v>95</v>
+      </c>
+      <c r="H528" t="s">
+        <v>99</v>
+      </c>
+      <c r="I528" t="s">
+        <v>102</v>
+      </c>
+      <c r="J528" t="s">
+        <v>108</v>
+      </c>
+      <c r="K528" t="s">
+        <v>109</v>
+      </c>
+      <c r="L528" t="s">
+        <v>117</v>
+      </c>
+      <c r="M528" t="s">
+        <v>125</v>
+      </c>
+      <c r="N528" t="s">
+        <v>129</v>
+      </c>
+      <c r="O528" t="s">
+        <v>117</v>
+      </c>
+      <c r="P528" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="529" spans="1:16">
+      <c r="A529" t="s">
+        <v>16</v>
+      </c>
+      <c r="B529" t="s">
+        <v>32</v>
+      </c>
+      <c r="C529">
+        <v>489.58</v>
+      </c>
+      <c r="D529" t="s">
+        <v>53</v>
+      </c>
+      <c r="E529" t="s">
+        <v>76</v>
+      </c>
+      <c r="G529" t="s">
+        <v>95</v>
+      </c>
+      <c r="H529" t="s">
+        <v>99</v>
+      </c>
+      <c r="I529" t="s">
+        <v>102</v>
+      </c>
+      <c r="J529" t="s">
+        <v>108</v>
+      </c>
+      <c r="K529" t="s">
+        <v>109</v>
+      </c>
+      <c r="L529" t="s">
+        <v>117</v>
+      </c>
+      <c r="M529" t="s">
+        <v>125</v>
+      </c>
+      <c r="N529" t="s">
+        <v>129</v>
+      </c>
+      <c r="O529" t="s">
+        <v>117</v>
+      </c>
+      <c r="P529" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="530" spans="1:16">
+      <c r="A530" t="s">
+        <v>16</v>
+      </c>
+      <c r="B530" t="s">
+        <v>32</v>
+      </c>
+      <c r="C530">
+        <v>489.58</v>
+      </c>
+      <c r="D530" t="s">
+        <v>53</v>
+      </c>
+      <c r="E530" t="s">
+        <v>76</v>
+      </c>
+      <c r="G530" t="s">
+        <v>95</v>
+      </c>
+      <c r="H530" t="s">
+        <v>99</v>
+      </c>
+      <c r="I530" t="s">
+        <v>102</v>
+      </c>
+      <c r="J530" t="s">
+        <v>108</v>
+      </c>
+      <c r="K530" t="s">
+        <v>109</v>
+      </c>
+      <c r="L530" t="s">
+        <v>117</v>
+      </c>
+      <c r="M530" t="s">
+        <v>125</v>
+      </c>
+      <c r="N530" t="s">
+        <v>129</v>
+      </c>
+      <c r="O530" t="s">
+        <v>117</v>
+      </c>
+      <c r="P530" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="531" spans="1:16">
+      <c r="A531" t="s">
+        <v>16</v>
+      </c>
+      <c r="B531" t="s">
+        <v>32</v>
+      </c>
+      <c r="C531">
+        <v>489.58</v>
+      </c>
+      <c r="D531" t="s">
+        <v>53</v>
+      </c>
+      <c r="E531" t="s">
+        <v>76</v>
+      </c>
+      <c r="G531" t="s">
+        <v>95</v>
+      </c>
+      <c r="H531" t="s">
+        <v>99</v>
+      </c>
+      <c r="I531" t="s">
+        <v>102</v>
+      </c>
+      <c r="J531" t="s">
+        <v>108</v>
+      </c>
+      <c r="K531" t="s">
+        <v>109</v>
+      </c>
+      <c r="L531" t="s">
+        <v>117</v>
+      </c>
+      <c r="M531" t="s">
+        <v>125</v>
+      </c>
+      <c r="N531" t="s">
+        <v>129</v>
+      </c>
+      <c r="O531" t="s">
+        <v>117</v>
+      </c>
+      <c r="P531" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="532" spans="1:16">
+      <c r="A532" t="s">
+        <v>16</v>
+      </c>
+      <c r="B532" t="s">
+        <v>32</v>
+      </c>
+      <c r="C532">
+        <v>489.58</v>
+      </c>
+      <c r="D532" t="s">
+        <v>53</v>
+      </c>
+      <c r="E532" t="s">
+        <v>76</v>
+      </c>
+      <c r="G532" t="s">
+        <v>95</v>
+      </c>
+      <c r="H532" t="s">
+        <v>99</v>
+      </c>
+      <c r="I532" t="s">
+        <v>102</v>
+      </c>
+      <c r="J532" t="s">
+        <v>108</v>
+      </c>
+      <c r="K532" t="s">
+        <v>109</v>
+      </c>
+      <c r="L532" t="s">
+        <v>117</v>
+      </c>
+      <c r="M532" t="s">
+        <v>125</v>
+      </c>
+      <c r="N532" t="s">
+        <v>129</v>
+      </c>
+      <c r="O532" t="s">
+        <v>117</v>
+      </c>
+      <c r="P532" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="533" spans="1:16">
+      <c r="A533" t="s">
+        <v>16</v>
+      </c>
+      <c r="B533" t="s">
+        <v>32</v>
+      </c>
+      <c r="C533">
+        <v>489.58</v>
+      </c>
+      <c r="D533" t="s">
+        <v>53</v>
+      </c>
+      <c r="E533" t="s">
+        <v>76</v>
+      </c>
+      <c r="G533" t="s">
+        <v>95</v>
+      </c>
+      <c r="H533" t="s">
+        <v>99</v>
+      </c>
+      <c r="I533" t="s">
+        <v>102</v>
+      </c>
+      <c r="J533" t="s">
+        <v>108</v>
+      </c>
+      <c r="K533" t="s">
+        <v>109</v>
+      </c>
+      <c r="L533" t="s">
+        <v>117</v>
+      </c>
+      <c r="M533" t="s">
+        <v>125</v>
+      </c>
+      <c r="N533" t="s">
+        <v>129</v>
+      </c>
+      <c r="O533" t="s">
+        <v>117</v>
+      </c>
+      <c r="P533" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="534" spans="1:16">
+      <c r="A534" t="s">
+        <v>16</v>
+      </c>
+      <c r="B534" t="s">
+        <v>32</v>
+      </c>
+      <c r="C534">
+        <v>489.58</v>
+      </c>
+      <c r="D534" t="s">
+        <v>53</v>
+      </c>
+      <c r="E534" t="s">
+        <v>76</v>
+      </c>
+      <c r="G534" t="s">
+        <v>95</v>
+      </c>
+      <c r="H534" t="s">
+        <v>99</v>
+      </c>
+      <c r="I534" t="s">
+        <v>102</v>
+      </c>
+      <c r="J534" t="s">
+        <v>108</v>
+      </c>
+      <c r="K534" t="s">
+        <v>109</v>
+      </c>
+      <c r="L534" t="s">
+        <v>117</v>
+      </c>
+      <c r="M534" t="s">
+        <v>125</v>
+      </c>
+      <c r="N534" t="s">
+        <v>129</v>
+      </c>
+      <c r="O534" t="s">
+        <v>117</v>
+      </c>
+      <c r="P534" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="535" spans="1:16">
+      <c r="A535" t="s">
+        <v>16</v>
+      </c>
+      <c r="B535" t="s">
+        <v>32</v>
+      </c>
+      <c r="C535">
+        <v>489.58</v>
+      </c>
+      <c r="D535" t="s">
+        <v>53</v>
+      </c>
+      <c r="E535" t="s">
+        <v>76</v>
+      </c>
+      <c r="G535" t="s">
+        <v>95</v>
+      </c>
+      <c r="H535" t="s">
+        <v>99</v>
+      </c>
+      <c r="I535" t="s">
+        <v>102</v>
+      </c>
+      <c r="J535" t="s">
+        <v>108</v>
+      </c>
+      <c r="K535" t="s">
+        <v>109</v>
+      </c>
+      <c r="L535" t="s">
+        <v>117</v>
+      </c>
+      <c r="M535" t="s">
+        <v>125</v>
+      </c>
+      <c r="N535" t="s">
+        <v>129</v>
+      </c>
+      <c r="O535" t="s">
+        <v>117</v>
+      </c>
+      <c r="P535" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="536" spans="1:16">
+      <c r="A536" t="s">
+        <v>16</v>
+      </c>
+      <c r="B536" t="s">
+        <v>32</v>
+      </c>
+      <c r="C536">
+        <v>13365</v>
+      </c>
+      <c r="D536" t="s">
+        <v>54</v>
+      </c>
+      <c r="E536" t="s">
+        <v>76</v>
+      </c>
+      <c r="G536" t="s">
+        <v>95</v>
+      </c>
+      <c r="H536" t="s">
+        <v>99</v>
+      </c>
+      <c r="I536" t="s">
+        <v>102</v>
+      </c>
+      <c r="J536" t="s">
+        <v>108</v>
+      </c>
+      <c r="K536" t="s">
+        <v>109</v>
+      </c>
+      <c r="L536" t="s">
+        <v>117</v>
+      </c>
+      <c r="M536" t="s">
+        <v>125</v>
+      </c>
+      <c r="N536" t="s">
+        <v>129</v>
+      </c>
+      <c r="O536" t="s">
+        <v>117</v>
+      </c>
+      <c r="P536" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="537" spans="1:16">
+      <c r="A537" t="s">
+        <v>16</v>
+      </c>
+      <c r="B537" t="s">
+        <v>32</v>
+      </c>
+      <c r="C537">
+        <v>3382.5</v>
+      </c>
+      <c r="D537" t="s">
+        <v>55</v>
+      </c>
+      <c r="E537" t="s">
+        <v>76</v>
+      </c>
+      <c r="G537" t="s">
+        <v>95</v>
+      </c>
+      <c r="H537" t="s">
+        <v>99</v>
+      </c>
+      <c r="I537" t="s">
+        <v>102</v>
+      </c>
+      <c r="J537" t="s">
+        <v>108</v>
+      </c>
+      <c r="K537" t="s">
+        <v>109</v>
+      </c>
+      <c r="L537" t="s">
+        <v>117</v>
+      </c>
+      <c r="M537" t="s">
+        <v>125</v>
+      </c>
+      <c r="N537" t="s">
+        <v>129</v>
+      </c>
+      <c r="O537" t="s">
+        <v>117</v>
+      </c>
+      <c r="P537" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="538" spans="1:16">
+      <c r="A538" t="s">
+        <v>16</v>
+      </c>
+      <c r="B538" t="s">
+        <v>32</v>
+      </c>
+      <c r="C538">
+        <v>3382.5</v>
+      </c>
+      <c r="D538" t="s">
+        <v>55</v>
+      </c>
+      <c r="E538" t="s">
+        <v>76</v>
+      </c>
+      <c r="G538" t="s">
+        <v>95</v>
+      </c>
+      <c r="H538" t="s">
+        <v>99</v>
+      </c>
+      <c r="I538" t="s">
+        <v>102</v>
+      </c>
+      <c r="J538" t="s">
+        <v>108</v>
+      </c>
+      <c r="K538" t="s">
+        <v>109</v>
+      </c>
+      <c r="L538" t="s">
+        <v>117</v>
+      </c>
+      <c r="M538" t="s">
+        <v>125</v>
+      </c>
+      <c r="N538" t="s">
+        <v>129</v>
+      </c>
+      <c r="O538" t="s">
+        <v>117</v>
+      </c>
+      <c r="P538" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="539" spans="1:16">
+      <c r="A539" t="s">
+        <v>16</v>
+      </c>
+      <c r="B539" t="s">
+        <v>32</v>
+      </c>
+      <c r="C539">
+        <v>2167</v>
+      </c>
+      <c r="D539" t="s">
+        <v>56</v>
+      </c>
+      <c r="E539" t="s">
+        <v>76</v>
+      </c>
+      <c r="G539" t="s">
+        <v>95</v>
+      </c>
+      <c r="H539" t="s">
+        <v>99</v>
+      </c>
+      <c r="I539" t="s">
+        <v>102</v>
+      </c>
+      <c r="J539" t="s">
+        <v>108</v>
+      </c>
+      <c r="K539" t="s">
+        <v>109</v>
+      </c>
+      <c r="L539" t="s">
+        <v>117</v>
+      </c>
+      <c r="M539" t="s">
+        <v>125</v>
+      </c>
+      <c r="N539" t="s">
+        <v>129</v>
+      </c>
+      <c r="O539" t="s">
+        <v>117</v>
+      </c>
+      <c r="P539" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="540" spans="1:16">
+      <c r="A540" t="s">
+        <v>16</v>
+      </c>
+      <c r="B540" t="s">
+        <v>32</v>
+      </c>
+      <c r="C540">
+        <v>1479.25</v>
+      </c>
+      <c r="D540" t="s">
+        <v>57</v>
+      </c>
+      <c r="E540" t="s">
+        <v>76</v>
+      </c>
+      <c r="G540" t="s">
+        <v>95</v>
+      </c>
+      <c r="H540" t="s">
+        <v>99</v>
+      </c>
+      <c r="I540" t="s">
+        <v>102</v>
+      </c>
+      <c r="J540" t="s">
+        <v>108</v>
+      </c>
+      <c r="K540" t="s">
+        <v>109</v>
+      </c>
+      <c r="L540" t="s">
+        <v>117</v>
+      </c>
+      <c r="M540" t="s">
+        <v>125</v>
+      </c>
+      <c r="N540" t="s">
+        <v>129</v>
+      </c>
+      <c r="O540" t="s">
+        <v>117</v>
+      </c>
+      <c r="P540" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="541" spans="1:16">
+      <c r="A541" t="s">
+        <v>16</v>
+      </c>
+      <c r="B541" t="s">
+        <v>32</v>
+      </c>
+      <c r="C541">
+        <v>1479.25</v>
+      </c>
+      <c r="D541" t="s">
+        <v>57</v>
+      </c>
+      <c r="E541" t="s">
+        <v>76</v>
+      </c>
+      <c r="G541" t="s">
+        <v>95</v>
+      </c>
+      <c r="H541" t="s">
+        <v>99</v>
+      </c>
+      <c r="I541" t="s">
+        <v>102</v>
+      </c>
+      <c r="J541" t="s">
+        <v>108</v>
+      </c>
+      <c r="K541" t="s">
+        <v>109</v>
+      </c>
+      <c r="L541" t="s">
+        <v>117</v>
+      </c>
+      <c r="M541" t="s">
+        <v>125</v>
+      </c>
+      <c r="N541" t="s">
+        <v>129</v>
+      </c>
+      <c r="O541" t="s">
+        <v>117</v>
+      </c>
+      <c r="P541" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="542" spans="1:16">
+      <c r="A542" t="s">
+        <v>16</v>
+      </c>
+      <c r="B542" t="s">
+        <v>32</v>
+      </c>
+      <c r="C542">
+        <v>1479.25</v>
+      </c>
+      <c r="D542" t="s">
+        <v>57</v>
+      </c>
+      <c r="E542" t="s">
+        <v>76</v>
+      </c>
+      <c r="G542" t="s">
+        <v>95</v>
+      </c>
+      <c r="H542" t="s">
+        <v>99</v>
+      </c>
+      <c r="I542" t="s">
+        <v>102</v>
+      </c>
+      <c r="J542" t="s">
+        <v>108</v>
+      </c>
+      <c r="K542" t="s">
+        <v>109</v>
+      </c>
+      <c r="L542" t="s">
+        <v>117</v>
+      </c>
+      <c r="M542" t="s">
+        <v>125</v>
+      </c>
+      <c r="N542" t="s">
+        <v>129</v>
+      </c>
+      <c r="O542" t="s">
+        <v>117</v>
+      </c>
+      <c r="P542" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="543" spans="1:16">
+      <c r="A543" t="s">
+        <v>16</v>
+      </c>
+      <c r="B543" t="s">
+        <v>32</v>
+      </c>
+      <c r="C543">
+        <v>1479.25</v>
+      </c>
+      <c r="D543" t="s">
+        <v>57</v>
+      </c>
+      <c r="E543" t="s">
+        <v>76</v>
+      </c>
+      <c r="G543" t="s">
+        <v>95</v>
+      </c>
+      <c r="H543" t="s">
+        <v>99</v>
+      </c>
+      <c r="I543" t="s">
+        <v>102</v>
+      </c>
+      <c r="J543" t="s">
+        <v>108</v>
+      </c>
+      <c r="K543" t="s">
+        <v>109</v>
+      </c>
+      <c r="L543" t="s">
+        <v>117</v>
+      </c>
+      <c r="M543" t="s">
+        <v>125</v>
+      </c>
+      <c r="N543" t="s">
+        <v>129</v>
+      </c>
+      <c r="O543" t="s">
+        <v>117</v>
+      </c>
+      <c r="P543" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="544" spans="1:16">
+      <c r="A544" t="s">
+        <v>17</v>
+      </c>
+      <c r="B544" t="s">
+        <v>33</v>
+      </c>
+      <c r="C544">
+        <v>53807</v>
+      </c>
+      <c r="D544" t="s">
+        <v>58</v>
+      </c>
+      <c r="E544" t="s">
+        <v>76</v>
+      </c>
+      <c r="G544" t="s">
+        <v>95</v>
+      </c>
+      <c r="H544" t="s">
+        <v>99</v>
+      </c>
+      <c r="I544" t="s">
+        <v>102</v>
+      </c>
+      <c r="J544" t="s">
+        <v>108</v>
+      </c>
+      <c r="K544" t="s">
+        <v>109</v>
+      </c>
+      <c r="L544" t="s">
+        <v>117</v>
+      </c>
+      <c r="M544" t="s">
+        <v>125</v>
+      </c>
+      <c r="N544" t="s">
+        <v>129</v>
+      </c>
+      <c r="O544" t="s">
+        <v>117</v>
+      </c>
+      <c r="P544" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="545" spans="1:16">
+      <c r="A545" t="s">
+        <v>16</v>
+      </c>
+      <c r="B545" t="s">
+        <v>34</v>
+      </c>
+      <c r="C545">
+        <v>780</v>
+      </c>
+      <c r="D545" t="s">
+        <v>59</v>
+      </c>
+      <c r="E545" t="s">
+        <v>77</v>
+      </c>
+      <c r="G545" t="s">
+        <v>95</v>
+      </c>
+      <c r="H545" t="s">
+        <v>99</v>
+      </c>
+      <c r="I545" t="s">
+        <v>102</v>
+      </c>
+      <c r="J545" t="s">
+        <v>108</v>
+      </c>
+      <c r="K545" t="s">
+        <v>109</v>
+      </c>
+      <c r="L545" t="s">
+        <v>117</v>
+      </c>
+      <c r="M545" t="s">
+        <v>125</v>
+      </c>
+      <c r="N545" t="s">
+        <v>129</v>
+      </c>
+      <c r="O545" t="s">
+        <v>117</v>
+      </c>
+      <c r="P545" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="546" spans="1:16">
+      <c r="A546" t="s">
+        <v>20</v>
+      </c>
+      <c r="B546" t="s">
+        <v>37</v>
+      </c>
+      <c r="C546">
+        <v>353478</v>
+      </c>
+      <c r="D546" t="s">
+        <v>67</v>
+      </c>
+      <c r="E546" t="s">
+        <v>79</v>
+      </c>
+      <c r="G546" t="s">
+        <v>95</v>
+      </c>
+      <c r="H546" t="s">
+        <v>99</v>
+      </c>
+      <c r="I546" t="s">
+        <v>104</v>
+      </c>
+      <c r="J546" t="s">
+        <v>106</v>
+      </c>
+      <c r="K546" t="s">
+        <v>111</v>
+      </c>
+      <c r="L546" t="s">
+        <v>119</v>
+      </c>
+      <c r="M546" t="s">
+        <v>125</v>
+      </c>
+      <c r="N546" t="s">
+        <v>131</v>
+      </c>
+      <c r="O546" t="s">
+        <v>119</v>
+      </c>
+      <c r="P546" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="547" spans="1:16">
+      <c r="A547" t="s">
+        <v>21</v>
+      </c>
+      <c r="B547" t="s">
+        <v>38</v>
+      </c>
+      <c r="C547">
+        <v>546699.9</v>
+      </c>
+      <c r="D547" t="s">
+        <v>63</v>
+      </c>
+      <c r="E547" t="s">
+        <v>79</v>
+      </c>
+      <c r="G547" t="s">
+        <v>95</v>
+      </c>
+      <c r="H547" t="s">
+        <v>99</v>
+      </c>
+      <c r="I547" t="s">
+        <v>104</v>
+      </c>
+      <c r="J547" t="s">
+        <v>106</v>
+      </c>
+      <c r="K547" t="s">
+        <v>111</v>
+      </c>
+      <c r="L547" t="s">
+        <v>119</v>
+      </c>
+      <c r="M547" t="s">
+        <v>125</v>
+      </c>
+      <c r="N547" t="s">
+        <v>131</v>
+      </c>
+      <c r="O547" t="s">
+        <v>119</v>
+      </c>
+      <c r="P547" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="548" spans="1:16">
+      <c r="A548" t="s">
+        <v>22</v>
+      </c>
+      <c r="B548" t="s">
+        <v>39</v>
+      </c>
+      <c r="C548">
+        <v>257823</v>
+      </c>
+      <c r="D548" t="s">
+        <v>22</v>
+      </c>
+      <c r="E548" t="s">
+        <v>79</v>
+      </c>
+      <c r="G548" t="s">
+        <v>95</v>
+      </c>
+      <c r="H548" t="s">
+        <v>99</v>
+      </c>
+      <c r="I548" t="s">
+        <v>104</v>
+      </c>
+      <c r="J548" t="s">
+        <v>106</v>
+      </c>
+      <c r="K548" t="s">
+        <v>111</v>
+      </c>
+      <c r="L548" t="s">
+        <v>119</v>
+      </c>
+      <c r="M548" t="s">
+        <v>125</v>
+      </c>
+      <c r="N548" t="s">
+        <v>131</v>
+      </c>
+      <c r="O548" t="s">
+        <v>119</v>
+      </c>
+      <c r="P548" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="549" spans="1:16">
+      <c r="A549" t="s">
+        <v>25</v>
+      </c>
+      <c r="B549" t="s">
+        <v>42</v>
+      </c>
+      <c r="C549">
+        <v>1570762.55</v>
+      </c>
+      <c r="D549" t="s">
+        <v>66</v>
+      </c>
+      <c r="E549" t="s">
+        <v>83</v>
+      </c>
+      <c r="G549" t="s">
+        <v>95</v>
+      </c>
+      <c r="H549" t="s">
+        <v>99</v>
+      </c>
+      <c r="I549" t="s">
+        <v>104</v>
+      </c>
+      <c r="J549" t="s">
+        <v>106</v>
+      </c>
+      <c r="K549" t="s">
+        <v>111</v>
+      </c>
+      <c r="L549" t="s">
+        <v>119</v>
+      </c>
+      <c r="M549" t="s">
+        <v>125</v>
+      </c>
+      <c r="N549" t="s">
+        <v>131</v>
+      </c>
+      <c r="O549" t="s">
+        <v>119</v>
+      </c>
+      <c r="P549" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="550" spans="1:16">
+      <c r="A550" t="s">
+        <v>24</v>
+      </c>
+      <c r="B550" t="s">
+        <v>43</v>
+      </c>
+      <c r="C550">
+        <v>172818</v>
+      </c>
+      <c r="D550" t="s">
+        <v>73</v>
+      </c>
+      <c r="E550" t="s">
+        <v>84</v>
+      </c>
+      <c r="G550" t="s">
+        <v>96</v>
+      </c>
+      <c r="H550" t="s">
+        <v>99</v>
+      </c>
+      <c r="I550" t="s">
+        <v>104</v>
+      </c>
+      <c r="J550" t="s">
+        <v>106</v>
+      </c>
+      <c r="K550" t="s">
+        <v>111</v>
+      </c>
+      <c r="L550" t="s">
+        <v>119</v>
+      </c>
+      <c r="M550" t="s">
+        <v>125</v>
+      </c>
+      <c r="N550" t="s">
+        <v>131</v>
+      </c>
+      <c r="O550" t="s">
+        <v>119</v>
+      </c>
+      <c r="P550" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_tables/3.2_movable_property.xlsx
+++ b/data/excel_tables/3.2_movable_property.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7802" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7830" uniqueCount="184">
   <si>
     <t>object_type</t>
   </si>
@@ -226,6 +226,9 @@
     <t>Монітор</t>
   </si>
   <si>
+    <t xml:space="preserve">Комп'ютер </t>
+  </si>
+  <si>
     <t>Вантажний автомобіль, придбаний за договором комісії для передачі на ЗСУ</t>
   </si>
   <si>
@@ -233,9 +236,6 @@
   </si>
   <si>
     <t>Ноутбук Леново</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Комп'ютер </t>
   </si>
   <si>
     <t>Ноутбук</t>
@@ -475,6 +475,9 @@
     <t>6ba0a2a0-ea8a-11ee-95c4-e7bfad33aba2</t>
   </si>
   <si>
+    <t>02344060-ead0-11ee-a826-5536b50ce648</t>
+  </si>
+  <si>
     <t>6cd10940-eb6f-11ee-95c4-e7bfad33aba2</t>
   </si>
   <si>
@@ -562,7 +565,7 @@
     <t>80e8a0d0-80e5-11ef-976d-d13028d0d5de</t>
   </si>
   <si>
-    <t>02344060-ead0-11ee-a826-5536b50ce648</t>
+    <t>7582da50-87cd-11ef-9f9f-af297e478ff7</t>
   </si>
 </sst>
 </file>
@@ -920,7 +923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P550"/>
+  <dimension ref="A1:P552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19467,19 +19470,19 @@
     </row>
     <row r="389" spans="1:16">
       <c r="A389" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B389" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C389">
-        <v>657595.95</v>
+        <v>353478</v>
       </c>
       <c r="D389" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E389" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G389" t="s">
         <v>95</v>
@@ -19494,19 +19497,19 @@
         <v>106</v>
       </c>
       <c r="K389" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L389" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M389" t="s">
         <v>125</v>
       </c>
       <c r="N389" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O389" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P389" t="s">
         <v>153</v>
@@ -19514,19 +19517,19 @@
     </row>
     <row r="390" spans="1:16">
       <c r="A390" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B390" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C390">
-        <v>657595.95</v>
+        <v>546699.9</v>
       </c>
       <c r="D390" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E390" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G390" t="s">
         <v>95</v>
@@ -19541,19 +19544,19 @@
         <v>106</v>
       </c>
       <c r="K390" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L390" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M390" t="s">
         <v>125</v>
       </c>
       <c r="N390" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O390" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P390" t="s">
         <v>153</v>
@@ -19561,19 +19564,19 @@
     </row>
     <row r="391" spans="1:16">
       <c r="A391" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B391" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C391">
-        <v>657595.95</v>
+        <v>257823</v>
       </c>
       <c r="D391" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="E391" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G391" t="s">
         <v>95</v>
@@ -19588,19 +19591,19 @@
         <v>106</v>
       </c>
       <c r="K391" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L391" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M391" t="s">
         <v>125</v>
       </c>
       <c r="N391" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O391" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P391" t="s">
         <v>153</v>
@@ -19608,19 +19611,19 @@
     </row>
     <row r="392" spans="1:16">
       <c r="A392" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B392" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C392">
-        <v>657595.95</v>
+        <v>1570762.55</v>
       </c>
       <c r="D392" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E392" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G392" t="s">
         <v>95</v>
@@ -19635,19 +19638,19 @@
         <v>106</v>
       </c>
       <c r="K392" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L392" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M392" t="s">
         <v>125</v>
       </c>
       <c r="N392" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O392" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P392" t="s">
         <v>153</v>
@@ -19655,22 +19658,22 @@
     </row>
     <row r="393" spans="1:16">
       <c r="A393" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B393" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C393">
-        <v>657595.95</v>
+        <v>172818</v>
       </c>
       <c r="D393" t="s">
         <v>70</v>
       </c>
       <c r="E393" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G393" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H393" t="s">
         <v>99</v>
@@ -19682,19 +19685,19 @@
         <v>106</v>
       </c>
       <c r="K393" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L393" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M393" t="s">
         <v>125</v>
       </c>
       <c r="N393" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O393" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P393" t="s">
         <v>153</v>
@@ -19705,13 +19708,13 @@
         <v>27</v>
       </c>
       <c r="B394" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C394">
         <v>657595.95</v>
       </c>
       <c r="D394" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E394" t="s">
         <v>87</v>
@@ -19744,7 +19747,7 @@
         <v>121</v>
       </c>
       <c r="P394" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="395" spans="1:16">
@@ -19752,13 +19755,13 @@
         <v>27</v>
       </c>
       <c r="B395" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C395">
-        <v>651617.8100000001</v>
+        <v>657595.95</v>
       </c>
       <c r="D395" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E395" t="s">
         <v>87</v>
@@ -19791,7 +19794,7 @@
         <v>121</v>
       </c>
       <c r="P395" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="396" spans="1:16">
@@ -19799,13 +19802,13 @@
         <v>27</v>
       </c>
       <c r="B396" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C396">
-        <v>651617.8100000001</v>
+        <v>657595.95</v>
       </c>
       <c r="D396" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E396" t="s">
         <v>87</v>
@@ -19838,27 +19841,27 @@
         <v>121</v>
       </c>
       <c r="P396" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="397" spans="1:16">
       <c r="A397" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B397" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C397">
-        <v>716315.02</v>
+        <v>657595.95</v>
       </c>
       <c r="D397" t="s">
         <v>71</v>
       </c>
       <c r="E397" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G397" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H397" t="s">
         <v>99</v>
@@ -19885,51 +19888,51 @@
         <v>121</v>
       </c>
       <c r="P397" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="398" spans="1:16">
       <c r="A398" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B398" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C398">
-        <v>10389.19</v>
+        <v>657595.95</v>
       </c>
       <c r="D398" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E398" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G398" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H398" t="s">
         <v>99</v>
       </c>
       <c r="I398" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J398" t="s">
         <v>106</v>
       </c>
       <c r="K398" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L398" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M398" t="s">
         <v>125</v>
       </c>
       <c r="N398" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O398" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P398" t="s">
         <v>154</v>
@@ -19937,210 +19940,210 @@
     </row>
     <row r="399" spans="1:16">
       <c r="A399" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B399" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C399">
-        <v>10389.19</v>
+        <v>657595.95</v>
       </c>
       <c r="D399" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E399" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G399" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H399" t="s">
         <v>99</v>
       </c>
       <c r="I399" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J399" t="s">
         <v>106</v>
       </c>
       <c r="K399" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L399" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M399" t="s">
         <v>125</v>
       </c>
       <c r="N399" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O399" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P399" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="400" spans="1:16">
       <c r="A400" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B400" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C400">
-        <v>10389.19</v>
+        <v>651617.8100000001</v>
       </c>
       <c r="D400" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E400" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G400" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H400" t="s">
         <v>99</v>
       </c>
       <c r="I400" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J400" t="s">
         <v>106</v>
       </c>
       <c r="K400" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L400" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M400" t="s">
         <v>125</v>
       </c>
       <c r="N400" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O400" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P400" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="401" spans="1:16">
       <c r="A401" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B401" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C401">
-        <v>10389.19</v>
+        <v>651617.8100000001</v>
       </c>
       <c r="D401" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E401" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G401" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H401" t="s">
         <v>99</v>
       </c>
       <c r="I401" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="J401" t="s">
         <v>106</v>
       </c>
       <c r="K401" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L401" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M401" t="s">
         <v>125</v>
       </c>
       <c r="N401" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O401" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P401" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="402" spans="1:16">
       <c r="A402" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B402" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C402">
-        <v>15000</v>
+        <v>716315.02</v>
       </c>
       <c r="D402" t="s">
         <v>72</v>
       </c>
       <c r="E402" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G402" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H402" t="s">
         <v>99</v>
       </c>
       <c r="I402" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="J402" t="s">
         <v>106</v>
       </c>
       <c r="K402" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L402" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M402" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N402" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O402" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="P402" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="403" spans="1:16">
       <c r="A403" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B403" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C403">
-        <v>1</v>
+        <v>10389.19</v>
       </c>
       <c r="D403" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="E403" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G403" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H403" t="s">
         <v>99</v>
@@ -20149,166 +20152,166 @@
         <v>103</v>
       </c>
       <c r="J403" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K403" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L403" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M403" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N403" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="O403" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="P403" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="404" spans="1:16">
       <c r="A404" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B404" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C404">
-        <v>1</v>
+        <v>10389.19</v>
       </c>
       <c r="D404" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E404" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G404" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H404" t="s">
         <v>99</v>
       </c>
       <c r="I404" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J404" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K404" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L404" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M404" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N404" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="O404" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="P404" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="405" spans="1:16">
       <c r="A405" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B405" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C405">
-        <v>3480</v>
+        <v>10389.19</v>
       </c>
       <c r="D405" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="E405" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G405" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H405" t="s">
         <v>99</v>
       </c>
       <c r="I405" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J405" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K405" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L405" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M405" t="s">
         <v>125</v>
       </c>
       <c r="N405" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O405" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P405" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="406" spans="1:16">
       <c r="A406" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B406" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C406">
-        <v>5136</v>
+        <v>10389.19</v>
       </c>
       <c r="D406" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="E406" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G406" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H406" t="s">
         <v>99</v>
       </c>
       <c r="I406" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J406" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K406" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L406" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M406" t="s">
         <v>125</v>
       </c>
       <c r="N406" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O406" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P406" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="407" spans="1:16">
@@ -20322,7 +20325,7 @@
         <v>15000</v>
       </c>
       <c r="D407" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E407" t="s">
         <v>90</v>
@@ -20334,7 +20337,7 @@
         <v>99</v>
       </c>
       <c r="I407" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J407" t="s">
         <v>106</v>
@@ -20355,24 +20358,24 @@
         <v>137</v>
       </c>
       <c r="P407" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="408" spans="1:16">
       <c r="A408" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B408" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C408">
-        <v>326.25</v>
+        <v>1</v>
       </c>
       <c r="D408" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E408" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G408" t="s">
         <v>95</v>
@@ -20387,39 +20390,39 @@
         <v>108</v>
       </c>
       <c r="K408" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L408" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M408" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N408" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O408" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="P408" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="409" spans="1:16">
       <c r="A409" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B409" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C409">
-        <v>326.25</v>
+        <v>1</v>
       </c>
       <c r="D409" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E409" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G409" t="s">
         <v>95</v>
@@ -20434,39 +20437,39 @@
         <v>108</v>
       </c>
       <c r="K409" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L409" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M409" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N409" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O409" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="P409" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="410" spans="1:16">
       <c r="A410" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B410" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C410">
-        <v>326.25</v>
+        <v>3480</v>
       </c>
       <c r="D410" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E410" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G410" t="s">
         <v>95</v>
@@ -20475,45 +20478,45 @@
         <v>99</v>
       </c>
       <c r="I410" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J410" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K410" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L410" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M410" t="s">
         <v>125</v>
       </c>
       <c r="N410" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O410" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P410" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="411" spans="1:16">
       <c r="A411" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B411" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C411">
-        <v>326.25</v>
+        <v>5136</v>
       </c>
       <c r="D411" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E411" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G411" t="s">
         <v>95</v>
@@ -20522,72 +20525,72 @@
         <v>99</v>
       </c>
       <c r="I411" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J411" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K411" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L411" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M411" t="s">
         <v>125</v>
       </c>
       <c r="N411" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O411" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P411" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="412" spans="1:16">
       <c r="A412" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B412" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C412">
-        <v>326.25</v>
+        <v>15000</v>
       </c>
       <c r="D412" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E412" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="G412" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H412" t="s">
         <v>99</v>
       </c>
       <c r="I412" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J412" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K412" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L412" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M412" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N412" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O412" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="P412" t="s">
         <v>162</v>
@@ -20637,7 +20640,7 @@
         <v>117</v>
       </c>
       <c r="P413" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="414" spans="1:16">
@@ -20684,7 +20687,7 @@
         <v>117</v>
       </c>
       <c r="P414" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="415" spans="1:16">
@@ -20731,7 +20734,7 @@
         <v>117</v>
       </c>
       <c r="P415" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="416" spans="1:16">
@@ -20778,7 +20781,7 @@
         <v>117</v>
       </c>
       <c r="P416" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="417" spans="1:16">
@@ -20825,7 +20828,7 @@
         <v>117</v>
       </c>
       <c r="P417" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="418" spans="1:16">
@@ -20872,7 +20875,7 @@
         <v>117</v>
       </c>
       <c r="P418" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="419" spans="1:16">
@@ -20919,7 +20922,7 @@
         <v>117</v>
       </c>
       <c r="P419" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="420" spans="1:16">
@@ -20930,10 +20933,10 @@
         <v>32</v>
       </c>
       <c r="C420">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D420" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E420" t="s">
         <v>76</v>
@@ -20966,7 +20969,7 @@
         <v>117</v>
       </c>
       <c r="P420" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="421" spans="1:16">
@@ -20977,10 +20980,10 @@
         <v>32</v>
       </c>
       <c r="C421">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D421" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E421" t="s">
         <v>76</v>
@@ -21013,7 +21016,7 @@
         <v>117</v>
       </c>
       <c r="P421" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="422" spans="1:16">
@@ -21024,10 +21027,10 @@
         <v>32</v>
       </c>
       <c r="C422">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D422" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E422" t="s">
         <v>76</v>
@@ -21060,7 +21063,7 @@
         <v>117</v>
       </c>
       <c r="P422" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="423" spans="1:16">
@@ -21071,10 +21074,10 @@
         <v>32</v>
       </c>
       <c r="C423">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D423" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E423" t="s">
         <v>76</v>
@@ -21107,7 +21110,7 @@
         <v>117</v>
       </c>
       <c r="P423" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="424" spans="1:16">
@@ -21118,10 +21121,10 @@
         <v>32</v>
       </c>
       <c r="C424">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D424" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E424" t="s">
         <v>76</v>
@@ -21154,7 +21157,7 @@
         <v>117</v>
       </c>
       <c r="P424" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="425" spans="1:16">
@@ -21201,7 +21204,7 @@
         <v>117</v>
       </c>
       <c r="P425" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="426" spans="1:16">
@@ -21248,7 +21251,7 @@
         <v>117</v>
       </c>
       <c r="P426" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="427" spans="1:16">
@@ -21295,7 +21298,7 @@
         <v>117</v>
       </c>
       <c r="P427" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="428" spans="1:16">
@@ -21342,7 +21345,7 @@
         <v>117</v>
       </c>
       <c r="P428" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="429" spans="1:16">
@@ -21389,7 +21392,7 @@
         <v>117</v>
       </c>
       <c r="P429" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="430" spans="1:16">
@@ -21436,7 +21439,7 @@
         <v>117</v>
       </c>
       <c r="P430" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="431" spans="1:16">
@@ -21483,7 +21486,7 @@
         <v>117</v>
       </c>
       <c r="P431" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="432" spans="1:16">
@@ -21494,10 +21497,10 @@
         <v>32</v>
       </c>
       <c r="C432">
-        <v>13365</v>
+        <v>489.58</v>
       </c>
       <c r="D432" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E432" t="s">
         <v>76</v>
@@ -21530,7 +21533,7 @@
         <v>117</v>
       </c>
       <c r="P432" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="433" spans="1:16">
@@ -21541,10 +21544,10 @@
         <v>32</v>
       </c>
       <c r="C433">
-        <v>3382.5</v>
+        <v>489.58</v>
       </c>
       <c r="D433" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E433" t="s">
         <v>76</v>
@@ -21577,7 +21580,7 @@
         <v>117</v>
       </c>
       <c r="P433" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="434" spans="1:16">
@@ -21588,10 +21591,10 @@
         <v>32</v>
       </c>
       <c r="C434">
-        <v>3382.5</v>
+        <v>489.58</v>
       </c>
       <c r="D434" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E434" t="s">
         <v>76</v>
@@ -21624,7 +21627,7 @@
         <v>117</v>
       </c>
       <c r="P434" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="435" spans="1:16">
@@ -21635,10 +21638,10 @@
         <v>32</v>
       </c>
       <c r="C435">
-        <v>2167</v>
+        <v>489.58</v>
       </c>
       <c r="D435" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E435" t="s">
         <v>76</v>
@@ -21671,7 +21674,7 @@
         <v>117</v>
       </c>
       <c r="P435" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="436" spans="1:16">
@@ -21682,10 +21685,10 @@
         <v>32</v>
       </c>
       <c r="C436">
-        <v>1479.25</v>
+        <v>489.58</v>
       </c>
       <c r="D436" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E436" t="s">
         <v>76</v>
@@ -21718,7 +21721,7 @@
         <v>117</v>
       </c>
       <c r="P436" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="437" spans="1:16">
@@ -21729,10 +21732,10 @@
         <v>32</v>
       </c>
       <c r="C437">
-        <v>1479.25</v>
+        <v>13365</v>
       </c>
       <c r="D437" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E437" t="s">
         <v>76</v>
@@ -21765,7 +21768,7 @@
         <v>117</v>
       </c>
       <c r="P437" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="438" spans="1:16">
@@ -21776,10 +21779,10 @@
         <v>32</v>
       </c>
       <c r="C438">
-        <v>1479.25</v>
+        <v>3382.5</v>
       </c>
       <c r="D438" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E438" t="s">
         <v>76</v>
@@ -21812,7 +21815,7 @@
         <v>117</v>
       </c>
       <c r="P438" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="439" spans="1:16">
@@ -21823,10 +21826,10 @@
         <v>32</v>
       </c>
       <c r="C439">
-        <v>1479.25</v>
+        <v>3382.5</v>
       </c>
       <c r="D439" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E439" t="s">
         <v>76</v>
@@ -21859,21 +21862,21 @@
         <v>117</v>
       </c>
       <c r="P439" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="440" spans="1:16">
       <c r="A440" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B440" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C440">
-        <v>53807</v>
+        <v>2167</v>
       </c>
       <c r="D440" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E440" t="s">
         <v>76</v>
@@ -21906,7 +21909,7 @@
         <v>117</v>
       </c>
       <c r="P440" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="441" spans="1:16">
@@ -21914,16 +21917,16 @@
         <v>16</v>
       </c>
       <c r="B441" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C441">
-        <v>780</v>
+        <v>1479.25</v>
       </c>
       <c r="D441" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E441" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G441" t="s">
         <v>95</v>
@@ -21953,24 +21956,24 @@
         <v>117</v>
       </c>
       <c r="P441" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="442" spans="1:16">
       <c r="A442" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B442" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C442">
-        <v>3480</v>
+        <v>1479.25</v>
       </c>
       <c r="D442" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E442" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G442" t="s">
         <v>95</v>
@@ -21979,25 +21982,25 @@
         <v>99</v>
       </c>
       <c r="I442" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J442" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K442" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L442" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M442" t="s">
         <v>125</v>
       </c>
       <c r="N442" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O442" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P442" t="s">
         <v>163</v>
@@ -22005,19 +22008,19 @@
     </row>
     <row r="443" spans="1:16">
       <c r="A443" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B443" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C443">
-        <v>5136</v>
+        <v>1479.25</v>
       </c>
       <c r="D443" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E443" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G443" t="s">
         <v>95</v>
@@ -22026,25 +22029,25 @@
         <v>99</v>
       </c>
       <c r="I443" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J443" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K443" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L443" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M443" t="s">
         <v>125</v>
       </c>
       <c r="N443" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O443" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P443" t="s">
         <v>163</v>
@@ -22052,22 +22055,22 @@
     </row>
     <row r="444" spans="1:16">
       <c r="A444" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B444" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C444">
-        <v>15000</v>
+        <v>1479.25</v>
       </c>
       <c r="D444" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E444" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="G444" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H444" t="s">
         <v>99</v>
@@ -22076,119 +22079,119 @@
         <v>103</v>
       </c>
       <c r="J444" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K444" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L444" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M444" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N444" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O444" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="P444" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="445" spans="1:16">
       <c r="A445" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B445" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C445">
-        <v>15000</v>
+        <v>53807</v>
       </c>
       <c r="D445" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E445" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="G445" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H445" t="s">
         <v>99</v>
       </c>
       <c r="I445" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J445" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K445" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L445" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M445" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N445" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O445" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="P445" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="446" spans="1:16">
       <c r="A446" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B446" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C446">
-        <v>15000</v>
+        <v>780</v>
       </c>
       <c r="D446" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E446" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G446" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H446" t="s">
         <v>99</v>
       </c>
       <c r="I446" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J446" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K446" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L446" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M446" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N446" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O446" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="P446" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="447" spans="1:16">
@@ -22196,46 +22199,46 @@
         <v>26</v>
       </c>
       <c r="B447" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C447">
-        <v>15000</v>
+        <v>3480</v>
       </c>
       <c r="D447" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E447" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G447" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H447" t="s">
         <v>99</v>
       </c>
       <c r="I447" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J447" t="s">
         <v>107</v>
       </c>
       <c r="K447" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L447" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M447" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N447" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O447" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="P447" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="448" spans="1:16">
@@ -22243,46 +22246,46 @@
         <v>26</v>
       </c>
       <c r="B448" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C448">
-        <v>15000</v>
+        <v>5136</v>
       </c>
       <c r="D448" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E448" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G448" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H448" t="s">
         <v>99</v>
       </c>
       <c r="I448" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="J448" t="s">
         <v>107</v>
       </c>
       <c r="K448" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L448" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M448" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N448" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O448" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="P448" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="449" spans="1:16">
@@ -22296,7 +22299,7 @@
         <v>15000</v>
       </c>
       <c r="D449" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E449" t="s">
         <v>90</v>
@@ -22311,7 +22314,7 @@
         <v>103</v>
       </c>
       <c r="J449" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K449" t="s">
         <v>115</v>
@@ -22329,7 +22332,7 @@
         <v>137</v>
       </c>
       <c r="P449" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="450" spans="1:16">
@@ -22343,10 +22346,10 @@
         <v>15000</v>
       </c>
       <c r="D450" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E450" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G450" t="s">
         <v>98</v>
@@ -22355,10 +22358,10 @@
         <v>99</v>
       </c>
       <c r="I450" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J450" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K450" t="s">
         <v>115</v>
@@ -22376,168 +22379,168 @@
         <v>137</v>
       </c>
       <c r="P450" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="451" spans="1:16">
       <c r="A451" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B451" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C451">
-        <v>657595.95</v>
+        <v>15000</v>
       </c>
       <c r="D451" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E451" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G451" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H451" t="s">
         <v>99</v>
       </c>
       <c r="I451" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J451" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K451" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L451" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M451" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N451" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O451" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="P451" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="452" spans="1:16">
       <c r="A452" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B452" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C452">
-        <v>657595.95</v>
+        <v>15000</v>
       </c>
       <c r="D452" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E452" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G452" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H452" t="s">
         <v>99</v>
       </c>
       <c r="I452" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J452" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K452" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L452" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M452" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N452" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O452" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="P452" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="453" spans="1:16">
       <c r="A453" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B453" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C453">
-        <v>651617.8100000001</v>
+        <v>15000</v>
       </c>
       <c r="D453" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E453" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G453" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H453" t="s">
         <v>99</v>
       </c>
       <c r="I453" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J453" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K453" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L453" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M453" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N453" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O453" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="P453" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="454" spans="1:16">
       <c r="A454" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B454" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C454">
-        <v>716315.02</v>
+        <v>15000</v>
       </c>
       <c r="D454" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E454" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G454" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H454" t="s">
         <v>99</v>
@@ -22546,89 +22549,89 @@
         <v>103</v>
       </c>
       <c r="J454" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K454" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L454" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M454" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N454" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O454" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="P454" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="455" spans="1:16">
       <c r="A455" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B455" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C455">
-        <v>353478</v>
+        <v>15000</v>
       </c>
       <c r="D455" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E455" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G455" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H455" t="s">
         <v>99</v>
       </c>
       <c r="I455" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J455" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K455" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L455" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="M455" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N455" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="O455" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="P455" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="456" spans="1:16">
       <c r="A456" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B456" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C456">
-        <v>546699.9</v>
+        <v>657595.95</v>
       </c>
       <c r="D456" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E456" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G456" t="s">
         <v>95</v>
@@ -22643,19 +22646,19 @@
         <v>108</v>
       </c>
       <c r="K456" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L456" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M456" t="s">
         <v>125</v>
       </c>
       <c r="N456" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O456" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P456" t="s">
         <v>172</v>
@@ -22663,19 +22666,19 @@
     </row>
     <row r="457" spans="1:16">
       <c r="A457" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B457" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C457">
-        <v>257823</v>
+        <v>657595.95</v>
       </c>
       <c r="D457" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="E457" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G457" t="s">
         <v>95</v>
@@ -22690,19 +22693,19 @@
         <v>108</v>
       </c>
       <c r="K457" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L457" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M457" t="s">
         <v>125</v>
       </c>
       <c r="N457" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O457" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P457" t="s">
         <v>172</v>
@@ -22710,19 +22713,19 @@
     </row>
     <row r="458" spans="1:16">
       <c r="A458" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B458" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C458">
-        <v>1570762.55</v>
+        <v>651617.8100000001</v>
       </c>
       <c r="D458" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E458" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G458" t="s">
         <v>95</v>
@@ -22737,19 +22740,19 @@
         <v>108</v>
       </c>
       <c r="K458" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L458" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M458" t="s">
         <v>125</v>
       </c>
       <c r="N458" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O458" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P458" t="s">
         <v>172</v>
@@ -22757,19 +22760,19 @@
     </row>
     <row r="459" spans="1:16">
       <c r="A459" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B459" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C459">
-        <v>172818</v>
+        <v>716315.02</v>
       </c>
       <c r="D459" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E459" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G459" t="s">
         <v>96</v>
@@ -22784,19 +22787,19 @@
         <v>108</v>
       </c>
       <c r="K459" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L459" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M459" t="s">
         <v>125</v>
       </c>
       <c r="N459" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O459" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P459" t="s">
         <v>172</v>
@@ -22804,19 +22807,19 @@
     </row>
     <row r="460" spans="1:16">
       <c r="A460" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B460" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C460">
-        <v>3480</v>
+        <v>353478</v>
       </c>
       <c r="D460" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E460" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G460" t="s">
         <v>95</v>
@@ -22831,19 +22834,19 @@
         <v>108</v>
       </c>
       <c r="K460" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L460" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M460" t="s">
         <v>125</v>
       </c>
       <c r="N460" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O460" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P460" t="s">
         <v>173</v>
@@ -22851,19 +22854,19 @@
     </row>
     <row r="461" spans="1:16">
       <c r="A461" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B461" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C461">
-        <v>5136</v>
+        <v>546699.9</v>
       </c>
       <c r="D461" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E461" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G461" t="s">
         <v>95</v>
@@ -22878,19 +22881,19 @@
         <v>108</v>
       </c>
       <c r="K461" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L461" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M461" t="s">
         <v>125</v>
       </c>
       <c r="N461" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O461" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P461" t="s">
         <v>173</v>
@@ -22898,19 +22901,19 @@
     </row>
     <row r="462" spans="1:16">
       <c r="A462" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B462" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C462">
-        <v>3850</v>
+        <v>257823</v>
       </c>
       <c r="D462" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="E462" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G462" t="s">
         <v>95</v>
@@ -22925,42 +22928,42 @@
         <v>108</v>
       </c>
       <c r="K462" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L462" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M462" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N462" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O462" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="P462" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="463" spans="1:16">
       <c r="A463" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B463" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C463">
-        <v>25999</v>
+        <v>1570762.55</v>
       </c>
       <c r="D463" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E463" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G463" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H463" t="s">
         <v>99</v>
@@ -22972,86 +22975,86 @@
         <v>108</v>
       </c>
       <c r="K463" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L463" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M463" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N463" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O463" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="P463" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="464" spans="1:16">
       <c r="A464" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B464" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C464">
-        <v>1</v>
+        <v>172818</v>
       </c>
       <c r="D464" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E464" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G464" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H464" t="s">
         <v>99</v>
       </c>
       <c r="I464" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J464" t="s">
         <v>108</v>
       </c>
       <c r="K464" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L464" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M464" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N464" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O464" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="P464" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="465" spans="1:16">
       <c r="A465" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B465" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C465">
-        <v>1</v>
+        <v>3480</v>
       </c>
       <c r="D465" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E465" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G465" t="s">
         <v>95</v>
@@ -23060,45 +23063,45 @@
         <v>99</v>
       </c>
       <c r="I465" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J465" t="s">
         <v>108</v>
       </c>
       <c r="K465" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L465" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M465" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N465" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O465" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="P465" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="466" spans="1:16">
       <c r="A466" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B466" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C466">
-        <v>326.25</v>
+        <v>5136</v>
       </c>
       <c r="D466" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E466" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G466" t="s">
         <v>95</v>
@@ -23107,45 +23110,45 @@
         <v>99</v>
       </c>
       <c r="I466" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J466" t="s">
         <v>108</v>
       </c>
       <c r="K466" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L466" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M466" t="s">
         <v>125</v>
       </c>
       <c r="N466" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O466" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P466" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="467" spans="1:16">
       <c r="A467" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B467" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C467">
-        <v>326.25</v>
+        <v>3850</v>
       </c>
       <c r="D467" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E467" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G467" t="s">
         <v>95</v>
@@ -23154,92 +23157,92 @@
         <v>99</v>
       </c>
       <c r="I467" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J467" t="s">
         <v>108</v>
       </c>
       <c r="K467" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L467" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="M467" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N467" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O467" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="P467" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="468" spans="1:16">
       <c r="A468" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B468" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C468">
-        <v>326.25</v>
+        <v>25999</v>
       </c>
       <c r="D468" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E468" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="G468" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H468" t="s">
         <v>99</v>
       </c>
       <c r="I468" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J468" t="s">
         <v>108</v>
       </c>
       <c r="K468" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L468" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M468" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N468" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O468" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="P468" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="469" spans="1:16">
       <c r="A469" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B469" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C469">
-        <v>326.25</v>
+        <v>1</v>
       </c>
       <c r="D469" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E469" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G469" t="s">
         <v>95</v>
@@ -23254,19 +23257,19 @@
         <v>108</v>
       </c>
       <c r="K469" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L469" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M469" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N469" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O469" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="P469" t="s">
         <v>176</v>
@@ -23274,19 +23277,19 @@
     </row>
     <row r="470" spans="1:16">
       <c r="A470" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B470" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C470">
-        <v>326.25</v>
+        <v>1</v>
       </c>
       <c r="D470" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E470" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G470" t="s">
         <v>95</v>
@@ -23301,19 +23304,19 @@
         <v>108</v>
       </c>
       <c r="K470" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L470" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M470" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N470" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O470" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="P470" t="s">
         <v>176</v>
@@ -23363,7 +23366,7 @@
         <v>117</v>
       </c>
       <c r="P471" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="472" spans="1:16">
@@ -23410,7 +23413,7 @@
         <v>117</v>
       </c>
       <c r="P472" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="473" spans="1:16">
@@ -23457,7 +23460,7 @@
         <v>117</v>
       </c>
       <c r="P473" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="474" spans="1:16">
@@ -23504,7 +23507,7 @@
         <v>117</v>
       </c>
       <c r="P474" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="475" spans="1:16">
@@ -23551,7 +23554,7 @@
         <v>117</v>
       </c>
       <c r="P475" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="476" spans="1:16">
@@ -23598,7 +23601,7 @@
         <v>117</v>
       </c>
       <c r="P476" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="477" spans="1:16">
@@ -23645,7 +23648,7 @@
         <v>117</v>
       </c>
       <c r="P477" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="478" spans="1:16">
@@ -23656,10 +23659,10 @@
         <v>32</v>
       </c>
       <c r="C478">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D478" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E478" t="s">
         <v>76</v>
@@ -23692,7 +23695,7 @@
         <v>117</v>
       </c>
       <c r="P478" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="479" spans="1:16">
@@ -23703,10 +23706,10 @@
         <v>32</v>
       </c>
       <c r="C479">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D479" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E479" t="s">
         <v>76</v>
@@ -23739,7 +23742,7 @@
         <v>117</v>
       </c>
       <c r="P479" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="480" spans="1:16">
@@ -23750,10 +23753,10 @@
         <v>32</v>
       </c>
       <c r="C480">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D480" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E480" t="s">
         <v>76</v>
@@ -23786,7 +23789,7 @@
         <v>117</v>
       </c>
       <c r="P480" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="481" spans="1:16">
@@ -23797,10 +23800,10 @@
         <v>32</v>
       </c>
       <c r="C481">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D481" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E481" t="s">
         <v>76</v>
@@ -23833,7 +23836,7 @@
         <v>117</v>
       </c>
       <c r="P481" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="482" spans="1:16">
@@ -23844,10 +23847,10 @@
         <v>32</v>
       </c>
       <c r="C482">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D482" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E482" t="s">
         <v>76</v>
@@ -23880,7 +23883,7 @@
         <v>117</v>
       </c>
       <c r="P482" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="483" spans="1:16">
@@ -23927,7 +23930,7 @@
         <v>117</v>
       </c>
       <c r="P483" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="484" spans="1:16">
@@ -23974,7 +23977,7 @@
         <v>117</v>
       </c>
       <c r="P484" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="485" spans="1:16">
@@ -24021,7 +24024,7 @@
         <v>117</v>
       </c>
       <c r="P485" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="486" spans="1:16">
@@ -24068,7 +24071,7 @@
         <v>117</v>
       </c>
       <c r="P486" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="487" spans="1:16">
@@ -24115,7 +24118,7 @@
         <v>117</v>
       </c>
       <c r="P487" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="488" spans="1:16">
@@ -24162,7 +24165,7 @@
         <v>117</v>
       </c>
       <c r="P488" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="489" spans="1:16">
@@ -24209,7 +24212,7 @@
         <v>117</v>
       </c>
       <c r="P489" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="490" spans="1:16">
@@ -24220,10 +24223,10 @@
         <v>32</v>
       </c>
       <c r="C490">
-        <v>13365</v>
+        <v>489.58</v>
       </c>
       <c r="D490" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E490" t="s">
         <v>76</v>
@@ -24256,7 +24259,7 @@
         <v>117</v>
       </c>
       <c r="P490" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="491" spans="1:16">
@@ -24267,10 +24270,10 @@
         <v>32</v>
       </c>
       <c r="C491">
-        <v>3382.5</v>
+        <v>489.58</v>
       </c>
       <c r="D491" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E491" t="s">
         <v>76</v>
@@ -24303,7 +24306,7 @@
         <v>117</v>
       </c>
       <c r="P491" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="492" spans="1:16">
@@ -24314,10 +24317,10 @@
         <v>32</v>
       </c>
       <c r="C492">
-        <v>3382.5</v>
+        <v>489.58</v>
       </c>
       <c r="D492" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E492" t="s">
         <v>76</v>
@@ -24350,7 +24353,7 @@
         <v>117</v>
       </c>
       <c r="P492" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="493" spans="1:16">
@@ -24361,10 +24364,10 @@
         <v>32</v>
       </c>
       <c r="C493">
-        <v>2167</v>
+        <v>489.58</v>
       </c>
       <c r="D493" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E493" t="s">
         <v>76</v>
@@ -24397,7 +24400,7 @@
         <v>117</v>
       </c>
       <c r="P493" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="494" spans="1:16">
@@ -24408,10 +24411,10 @@
         <v>32</v>
       </c>
       <c r="C494">
-        <v>1479.25</v>
+        <v>489.58</v>
       </c>
       <c r="D494" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E494" t="s">
         <v>76</v>
@@ -24444,7 +24447,7 @@
         <v>117</v>
       </c>
       <c r="P494" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="495" spans="1:16">
@@ -24455,10 +24458,10 @@
         <v>32</v>
       </c>
       <c r="C495">
-        <v>1479.25</v>
+        <v>13365</v>
       </c>
       <c r="D495" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E495" t="s">
         <v>76</v>
@@ -24491,7 +24494,7 @@
         <v>117</v>
       </c>
       <c r="P495" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="496" spans="1:16">
@@ -24502,10 +24505,10 @@
         <v>32</v>
       </c>
       <c r="C496">
-        <v>1479.25</v>
+        <v>3382.5</v>
       </c>
       <c r="D496" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E496" t="s">
         <v>76</v>
@@ -24538,7 +24541,7 @@
         <v>117</v>
       </c>
       <c r="P496" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="497" spans="1:16">
@@ -24549,10 +24552,10 @@
         <v>32</v>
       </c>
       <c r="C497">
-        <v>1479.25</v>
+        <v>3382.5</v>
       </c>
       <c r="D497" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E497" t="s">
         <v>76</v>
@@ -24585,21 +24588,21 @@
         <v>117</v>
       </c>
       <c r="P497" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="498" spans="1:16">
       <c r="A498" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B498" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C498">
-        <v>53807</v>
+        <v>2167</v>
       </c>
       <c r="D498" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E498" t="s">
         <v>76</v>
@@ -24632,7 +24635,7 @@
         <v>117</v>
       </c>
       <c r="P498" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="499" spans="1:16">
@@ -24640,16 +24643,16 @@
         <v>16</v>
       </c>
       <c r="B499" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C499">
-        <v>780</v>
+        <v>1479.25</v>
       </c>
       <c r="D499" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E499" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G499" t="s">
         <v>95</v>
@@ -24679,24 +24682,24 @@
         <v>117</v>
       </c>
       <c r="P499" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="500" spans="1:16">
       <c r="A500" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B500" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C500">
-        <v>353478</v>
+        <v>1479.25</v>
       </c>
       <c r="D500" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E500" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G500" t="s">
         <v>95</v>
@@ -24711,19 +24714,19 @@
         <v>108</v>
       </c>
       <c r="K500" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L500" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M500" t="s">
         <v>125</v>
       </c>
       <c r="N500" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O500" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P500" t="s">
         <v>177</v>
@@ -24731,19 +24734,19 @@
     </row>
     <row r="501" spans="1:16">
       <c r="A501" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B501" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C501">
-        <v>546699.9</v>
+        <v>1479.25</v>
       </c>
       <c r="D501" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E501" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G501" t="s">
         <v>95</v>
@@ -24758,19 +24761,19 @@
         <v>108</v>
       </c>
       <c r="K501" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L501" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M501" t="s">
         <v>125</v>
       </c>
       <c r="N501" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O501" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P501" t="s">
         <v>177</v>
@@ -24778,19 +24781,19 @@
     </row>
     <row r="502" spans="1:16">
       <c r="A502" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B502" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C502">
-        <v>257823</v>
+        <v>1479.25</v>
       </c>
       <c r="D502" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E502" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G502" t="s">
         <v>95</v>
@@ -24805,19 +24808,19 @@
         <v>108</v>
       </c>
       <c r="K502" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L502" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M502" t="s">
         <v>125</v>
       </c>
       <c r="N502" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O502" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P502" t="s">
         <v>177</v>
@@ -24825,19 +24828,19 @@
     </row>
     <row r="503" spans="1:16">
       <c r="A503" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B503" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C503">
-        <v>1570762.55</v>
+        <v>53807</v>
       </c>
       <c r="D503" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E503" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G503" t="s">
         <v>95</v>
@@ -24852,19 +24855,19 @@
         <v>108</v>
       </c>
       <c r="K503" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L503" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M503" t="s">
         <v>125</v>
       </c>
       <c r="N503" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O503" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P503" t="s">
         <v>177</v>
@@ -24872,22 +24875,22 @@
     </row>
     <row r="504" spans="1:16">
       <c r="A504" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B504" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C504">
-        <v>172818</v>
+        <v>780</v>
       </c>
       <c r="D504" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E504" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G504" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H504" t="s">
         <v>99</v>
@@ -24899,19 +24902,19 @@
         <v>108</v>
       </c>
       <c r="K504" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L504" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M504" t="s">
         <v>125</v>
       </c>
       <c r="N504" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O504" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P504" t="s">
         <v>177</v>
@@ -24919,19 +24922,19 @@
     </row>
     <row r="505" spans="1:16">
       <c r="A505" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B505" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C505">
-        <v>3480</v>
+        <v>353478</v>
       </c>
       <c r="D505" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E505" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G505" t="s">
         <v>95</v>
@@ -24946,19 +24949,19 @@
         <v>108</v>
       </c>
       <c r="K505" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L505" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M505" t="s">
         <v>125</v>
       </c>
       <c r="N505" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O505" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P505" t="s">
         <v>178</v>
@@ -24966,19 +24969,19 @@
     </row>
     <row r="506" spans="1:16">
       <c r="A506" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B506" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C506">
-        <v>5136</v>
+        <v>546699.9</v>
       </c>
       <c r="D506" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E506" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G506" t="s">
         <v>95</v>
@@ -24993,19 +24996,19 @@
         <v>108</v>
       </c>
       <c r="K506" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L506" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M506" t="s">
         <v>125</v>
       </c>
       <c r="N506" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O506" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P506" t="s">
         <v>178</v>
@@ -25013,19 +25016,19 @@
     </row>
     <row r="507" spans="1:16">
       <c r="A507" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B507" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C507">
-        <v>657595.95</v>
+        <v>257823</v>
       </c>
       <c r="D507" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="E507" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G507" t="s">
         <v>95</v>
@@ -25040,39 +25043,39 @@
         <v>108</v>
       </c>
       <c r="K507" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L507" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M507" t="s">
         <v>125</v>
       </c>
       <c r="N507" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O507" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P507" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="508" spans="1:16">
       <c r="A508" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B508" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C508">
-        <v>651617.8100000001</v>
+        <v>1570762.55</v>
       </c>
       <c r="D508" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E508" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G508" t="s">
         <v>95</v>
@@ -25087,39 +25090,39 @@
         <v>108</v>
       </c>
       <c r="K508" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L508" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M508" t="s">
         <v>125</v>
       </c>
       <c r="N508" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O508" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P508" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="509" spans="1:16">
       <c r="A509" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B509" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C509">
-        <v>716315.02</v>
+        <v>172818</v>
       </c>
       <c r="D509" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E509" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G509" t="s">
         <v>96</v>
@@ -25134,39 +25137,39 @@
         <v>108</v>
       </c>
       <c r="K509" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L509" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M509" t="s">
         <v>125</v>
       </c>
       <c r="N509" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O509" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P509" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="510" spans="1:16">
       <c r="A510" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B510" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C510">
-        <v>3850</v>
+        <v>3480</v>
       </c>
       <c r="D510" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E510" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G510" t="s">
         <v>95</v>
@@ -25181,22 +25184,22 @@
         <v>108</v>
       </c>
       <c r="K510" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L510" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M510" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N510" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O510" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="P510" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="511" spans="1:16">
@@ -25204,19 +25207,19 @@
         <v>26</v>
       </c>
       <c r="B511" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C511">
-        <v>25999</v>
+        <v>5136</v>
       </c>
       <c r="D511" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E511" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G511" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H511" t="s">
         <v>99</v>
@@ -25228,39 +25231,39 @@
         <v>108</v>
       </c>
       <c r="K511" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L511" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M511" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N511" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O511" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="P511" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="512" spans="1:16">
       <c r="A512" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B512" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C512">
-        <v>326.25</v>
+        <v>657595.95</v>
       </c>
       <c r="D512" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E512" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G512" t="s">
         <v>95</v>
@@ -25269,45 +25272,45 @@
         <v>99</v>
       </c>
       <c r="I512" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J512" t="s">
         <v>108</v>
       </c>
       <c r="K512" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L512" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M512" t="s">
         <v>125</v>
       </c>
       <c r="N512" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O512" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P512" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="513" spans="1:16">
       <c r="A513" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B513" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C513">
-        <v>326.25</v>
+        <v>651617.8100000001</v>
       </c>
       <c r="D513" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E513" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G513" t="s">
         <v>95</v>
@@ -25316,92 +25319,92 @@
         <v>99</v>
       </c>
       <c r="I513" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J513" t="s">
         <v>108</v>
       </c>
       <c r="K513" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L513" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M513" t="s">
         <v>125</v>
       </c>
       <c r="N513" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O513" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P513" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="514" spans="1:16">
       <c r="A514" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B514" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C514">
-        <v>326.25</v>
+        <v>716315.02</v>
       </c>
       <c r="D514" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E514" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G514" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H514" t="s">
         <v>99</v>
       </c>
       <c r="I514" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J514" t="s">
         <v>108</v>
       </c>
       <c r="K514" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L514" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M514" t="s">
         <v>125</v>
       </c>
       <c r="N514" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O514" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P514" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="515" spans="1:16">
       <c r="A515" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B515" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C515">
-        <v>326.25</v>
+        <v>3850</v>
       </c>
       <c r="D515" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E515" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G515" t="s">
         <v>95</v>
@@ -25410,25 +25413,25 @@
         <v>99</v>
       </c>
       <c r="I515" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J515" t="s">
         <v>108</v>
       </c>
       <c r="K515" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L515" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="M515" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N515" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O515" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="P515" t="s">
         <v>181</v>
@@ -25436,46 +25439,46 @@
     </row>
     <row r="516" spans="1:16">
       <c r="A516" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B516" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C516">
-        <v>326.25</v>
+        <v>25999</v>
       </c>
       <c r="D516" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E516" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="G516" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H516" t="s">
         <v>99</v>
       </c>
       <c r="I516" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J516" t="s">
         <v>108</v>
       </c>
       <c r="K516" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L516" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M516" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N516" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O516" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="P516" t="s">
         <v>181</v>
@@ -25525,7 +25528,7 @@
         <v>117</v>
       </c>
       <c r="P517" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="518" spans="1:16">
@@ -25572,7 +25575,7 @@
         <v>117</v>
       </c>
       <c r="P518" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="519" spans="1:16">
@@ -25619,7 +25622,7 @@
         <v>117</v>
       </c>
       <c r="P519" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="520" spans="1:16">
@@ -25666,7 +25669,7 @@
         <v>117</v>
       </c>
       <c r="P520" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="521" spans="1:16">
@@ -25713,7 +25716,7 @@
         <v>117</v>
       </c>
       <c r="P521" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="522" spans="1:16">
@@ -25760,7 +25763,7 @@
         <v>117</v>
       </c>
       <c r="P522" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="523" spans="1:16">
@@ -25807,7 +25810,7 @@
         <v>117</v>
       </c>
       <c r="P523" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="524" spans="1:16">
@@ -25818,10 +25821,10 @@
         <v>32</v>
       </c>
       <c r="C524">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D524" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E524" t="s">
         <v>76</v>
@@ -25854,7 +25857,7 @@
         <v>117</v>
       </c>
       <c r="P524" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="525" spans="1:16">
@@ -25865,10 +25868,10 @@
         <v>32</v>
       </c>
       <c r="C525">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D525" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E525" t="s">
         <v>76</v>
@@ -25901,7 +25904,7 @@
         <v>117</v>
       </c>
       <c r="P525" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="526" spans="1:16">
@@ -25912,10 +25915,10 @@
         <v>32</v>
       </c>
       <c r="C526">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D526" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E526" t="s">
         <v>76</v>
@@ -25948,7 +25951,7 @@
         <v>117</v>
       </c>
       <c r="P526" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="527" spans="1:16">
@@ -25959,10 +25962,10 @@
         <v>32</v>
       </c>
       <c r="C527">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D527" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E527" t="s">
         <v>76</v>
@@ -25995,7 +25998,7 @@
         <v>117</v>
       </c>
       <c r="P527" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="528" spans="1:16">
@@ -26006,10 +26009,10 @@
         <v>32</v>
       </c>
       <c r="C528">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D528" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E528" t="s">
         <v>76</v>
@@ -26042,7 +26045,7 @@
         <v>117</v>
       </c>
       <c r="P528" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="529" spans="1:16">
@@ -26089,7 +26092,7 @@
         <v>117</v>
       </c>
       <c r="P529" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="530" spans="1:16">
@@ -26136,7 +26139,7 @@
         <v>117</v>
       </c>
       <c r="P530" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="531" spans="1:16">
@@ -26183,7 +26186,7 @@
         <v>117</v>
       </c>
       <c r="P531" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="532" spans="1:16">
@@ -26230,7 +26233,7 @@
         <v>117</v>
       </c>
       <c r="P532" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="533" spans="1:16">
@@ -26277,7 +26280,7 @@
         <v>117</v>
       </c>
       <c r="P533" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="534" spans="1:16">
@@ -26324,7 +26327,7 @@
         <v>117</v>
       </c>
       <c r="P534" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="535" spans="1:16">
@@ -26371,7 +26374,7 @@
         <v>117</v>
       </c>
       <c r="P535" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="536" spans="1:16">
@@ -26382,10 +26385,10 @@
         <v>32</v>
       </c>
       <c r="C536">
-        <v>13365</v>
+        <v>489.58</v>
       </c>
       <c r="D536" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E536" t="s">
         <v>76</v>
@@ -26418,7 +26421,7 @@
         <v>117</v>
       </c>
       <c r="P536" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="537" spans="1:16">
@@ -26429,10 +26432,10 @@
         <v>32</v>
       </c>
       <c r="C537">
-        <v>3382.5</v>
+        <v>489.58</v>
       </c>
       <c r="D537" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E537" t="s">
         <v>76</v>
@@ -26465,7 +26468,7 @@
         <v>117</v>
       </c>
       <c r="P537" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="538" spans="1:16">
@@ -26476,10 +26479,10 @@
         <v>32</v>
       </c>
       <c r="C538">
-        <v>3382.5</v>
+        <v>489.58</v>
       </c>
       <c r="D538" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E538" t="s">
         <v>76</v>
@@ -26512,7 +26515,7 @@
         <v>117</v>
       </c>
       <c r="P538" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="539" spans="1:16">
@@ -26523,10 +26526,10 @@
         <v>32</v>
       </c>
       <c r="C539">
-        <v>2167</v>
+        <v>489.58</v>
       </c>
       <c r="D539" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E539" t="s">
         <v>76</v>
@@ -26559,7 +26562,7 @@
         <v>117</v>
       </c>
       <c r="P539" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="540" spans="1:16">
@@ -26570,10 +26573,10 @@
         <v>32</v>
       </c>
       <c r="C540">
-        <v>1479.25</v>
+        <v>489.58</v>
       </c>
       <c r="D540" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E540" t="s">
         <v>76</v>
@@ -26606,7 +26609,7 @@
         <v>117</v>
       </c>
       <c r="P540" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="541" spans="1:16">
@@ -26617,10 +26620,10 @@
         <v>32</v>
       </c>
       <c r="C541">
-        <v>1479.25</v>
+        <v>13365</v>
       </c>
       <c r="D541" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E541" t="s">
         <v>76</v>
@@ -26653,7 +26656,7 @@
         <v>117</v>
       </c>
       <c r="P541" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="542" spans="1:16">
@@ -26664,10 +26667,10 @@
         <v>32</v>
       </c>
       <c r="C542">
-        <v>1479.25</v>
+        <v>3382.5</v>
       </c>
       <c r="D542" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E542" t="s">
         <v>76</v>
@@ -26700,7 +26703,7 @@
         <v>117</v>
       </c>
       <c r="P542" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="543" spans="1:16">
@@ -26711,10 +26714,10 @@
         <v>32</v>
       </c>
       <c r="C543">
-        <v>1479.25</v>
+        <v>3382.5</v>
       </c>
       <c r="D543" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E543" t="s">
         <v>76</v>
@@ -26747,21 +26750,21 @@
         <v>117</v>
       </c>
       <c r="P543" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="544" spans="1:16">
       <c r="A544" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B544" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C544">
-        <v>53807</v>
+        <v>2167</v>
       </c>
       <c r="D544" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E544" t="s">
         <v>76</v>
@@ -26794,7 +26797,7 @@
         <v>117</v>
       </c>
       <c r="P544" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="545" spans="1:16">
@@ -26802,16 +26805,16 @@
         <v>16</v>
       </c>
       <c r="B545" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C545">
-        <v>780</v>
+        <v>1479.25</v>
       </c>
       <c r="D545" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E545" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G545" t="s">
         <v>95</v>
@@ -26841,24 +26844,24 @@
         <v>117</v>
       </c>
       <c r="P545" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="546" spans="1:16">
       <c r="A546" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B546" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C546">
-        <v>353478</v>
+        <v>1479.25</v>
       </c>
       <c r="D546" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E546" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G546" t="s">
         <v>95</v>
@@ -26867,25 +26870,25 @@
         <v>99</v>
       </c>
       <c r="I546" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J546" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K546" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L546" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M546" t="s">
         <v>125</v>
       </c>
       <c r="N546" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O546" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P546" t="s">
         <v>182</v>
@@ -26893,19 +26896,19 @@
     </row>
     <row r="547" spans="1:16">
       <c r="A547" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B547" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C547">
-        <v>546699.9</v>
+        <v>1479.25</v>
       </c>
       <c r="D547" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E547" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G547" t="s">
         <v>95</v>
@@ -26914,25 +26917,25 @@
         <v>99</v>
       </c>
       <c r="I547" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J547" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K547" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L547" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M547" t="s">
         <v>125</v>
       </c>
       <c r="N547" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O547" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P547" t="s">
         <v>182</v>
@@ -26940,19 +26943,19 @@
     </row>
     <row r="548" spans="1:16">
       <c r="A548" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B548" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C548">
-        <v>257823</v>
+        <v>1479.25</v>
       </c>
       <c r="D548" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E548" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G548" t="s">
         <v>95</v>
@@ -26961,25 +26964,25 @@
         <v>99</v>
       </c>
       <c r="I548" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J548" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K548" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L548" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M548" t="s">
         <v>125</v>
       </c>
       <c r="N548" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O548" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P548" t="s">
         <v>182</v>
@@ -26987,19 +26990,19 @@
     </row>
     <row r="549" spans="1:16">
       <c r="A549" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B549" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C549">
-        <v>1570762.55</v>
+        <v>53807</v>
       </c>
       <c r="D549" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E549" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G549" t="s">
         <v>95</v>
@@ -27008,25 +27011,25 @@
         <v>99</v>
       </c>
       <c r="I549" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J549" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K549" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L549" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M549" t="s">
         <v>125</v>
       </c>
       <c r="N549" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O549" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P549" t="s">
         <v>182</v>
@@ -27034,49 +27037,143 @@
     </row>
     <row r="550" spans="1:16">
       <c r="A550" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B550" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C550">
-        <v>172818</v>
+        <v>780</v>
       </c>
       <c r="D550" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E550" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G550" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H550" t="s">
         <v>99</v>
       </c>
       <c r="I550" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J550" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K550" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L550" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M550" t="s">
         <v>125</v>
       </c>
       <c r="N550" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O550" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P550" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="551" spans="1:16">
+      <c r="A551" t="s">
+        <v>18</v>
+      </c>
+      <c r="B551" t="s">
+        <v>35</v>
+      </c>
+      <c r="C551">
+        <v>1</v>
+      </c>
+      <c r="D551" t="s">
+        <v>60</v>
+      </c>
+      <c r="E551" t="s">
+        <v>78</v>
+      </c>
+      <c r="G551" t="s">
+        <v>95</v>
+      </c>
+      <c r="H551" t="s">
+        <v>99</v>
+      </c>
+      <c r="I551" t="s">
+        <v>102</v>
+      </c>
+      <c r="J551" t="s">
+        <v>108</v>
+      </c>
+      <c r="K551" t="s">
+        <v>110</v>
+      </c>
+      <c r="L551" t="s">
+        <v>118</v>
+      </c>
+      <c r="M551" t="s">
+        <v>126</v>
+      </c>
+      <c r="N551" t="s">
+        <v>130</v>
+      </c>
+      <c r="O551" t="s">
+        <v>136</v>
+      </c>
+      <c r="P551" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="552" spans="1:16">
+      <c r="A552" t="s">
+        <v>19</v>
+      </c>
+      <c r="B552" t="s">
+        <v>36</v>
+      </c>
+      <c r="C552">
+        <v>1</v>
+      </c>
+      <c r="D552" t="s">
+        <v>61</v>
+      </c>
+      <c r="E552" t="s">
+        <v>78</v>
+      </c>
+      <c r="G552" t="s">
+        <v>95</v>
+      </c>
+      <c r="H552" t="s">
+        <v>99</v>
+      </c>
+      <c r="I552" t="s">
+        <v>102</v>
+      </c>
+      <c r="J552" t="s">
+        <v>108</v>
+      </c>
+      <c r="K552" t="s">
+        <v>110</v>
+      </c>
+      <c r="L552" t="s">
+        <v>118</v>
+      </c>
+      <c r="M552" t="s">
+        <v>126</v>
+      </c>
+      <c r="N552" t="s">
+        <v>130</v>
+      </c>
+      <c r="O552" t="s">
+        <v>136</v>
+      </c>
+      <c r="P552" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_tables/3.2_movable_property.xlsx
+++ b/data/excel_tables/3.2_movable_property.xlsx
@@ -97,13 +97,13 @@
     <t>Електронні пристрої</t>
   </si>
   <si>
+    <t>офісне обладнання</t>
+  </si>
+  <si>
     <t>Вантажний автомобіль</t>
   </si>
   <si>
     <t>Дизельний генератор G90QS</t>
-  </si>
-  <si>
-    <t>офісне обладнання</t>
   </si>
   <si>
     <t>Ноутбук Dell Inspiron 3521</t>
@@ -151,10 +151,13 @@
     <t>18.09.2019</t>
   </si>
   <si>
-    <t>31.07.2023</t>
+    <t>01.09.2020</t>
   </si>
   <si>
-    <t>20.09.2023</t>
+    <t>17.11.2021</t>
+  </si>
+  <si>
+    <t>31.07.2023</t>
   </si>
   <si>
     <t>03.08.2023</t>
@@ -163,13 +166,10 @@
     <t>02.01.2023</t>
   </si>
   <si>
-    <t>01.09.2020</t>
+    <t>01.01.2024</t>
   </si>
   <si>
-    <t>17.11.2021</t>
-  </si>
-  <si>
-    <t>01.01.2024</t>
+    <t>20.09.2023</t>
   </si>
   <si>
     <t>Банер 1*2,5</t>
@@ -229,13 +229,13 @@
     <t xml:space="preserve">Комп'ютер </t>
   </si>
   <si>
+    <t>Ноутбук Леново</t>
+  </si>
+  <si>
     <t>Вантажний автомобіль, придбаний за договором комісії для передачі на ЗСУ</t>
   </si>
   <si>
     <t>Дизельний генератор</t>
-  </si>
-  <si>
-    <t>Ноутбук Леново</t>
   </si>
   <si>
     <t>Ноутбук</t>
@@ -277,12 +277,6 @@
     <t>SAMSUNG</t>
   </si>
   <si>
-    <t>DAF TRUCKS NV</t>
-  </si>
-  <si>
-    <t>ВЕЛИКОБРИТАНІЯ</t>
-  </si>
-  <si>
     <t>ТОВ "ГУМ"</t>
   </si>
   <si>
@@ -290,6 +284,12 @@
   </si>
   <si>
     <t>LENOVO UKRAINE</t>
+  </si>
+  <si>
+    <t>DAF TRUCKS NV</t>
+  </si>
+  <si>
+    <t>ВЕЛИКОБРИТАНІЯ</t>
   </si>
   <si>
     <t>DELL</t>
@@ -355,13 +355,13 @@
     <t>ПОЛІТИЧНА ПАРТІЯ "УКРАЇНСЬКА СТРАТЕГІЯ ГРОЙСМАНА"</t>
   </si>
   <si>
-    <t>ПОЛІТИЧНА ПАРТІЯ «ЄВРОПЕЙСЬКА СОЛІДАРНІСТЬ»</t>
-  </si>
-  <si>
     <t>ПОЛІТИЧНА ПАРТІЯ «ПРОПОЗИЦІЯ»</t>
   </si>
   <si>
     <t>КИЇВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА"</t>
+  </si>
+  <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ «ЄВРОПЕЙСЬКА СОЛІДАРНІСТЬ»</t>
   </si>
   <si>
     <t>ЧЕРНІГІВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА"</t>
@@ -379,13 +379,13 @@
     <t>39610682</t>
   </si>
   <si>
-    <t>21715714</t>
-  </si>
-  <si>
     <t>39550414</t>
   </si>
   <si>
     <t>36948703</t>
+  </si>
+  <si>
+    <t>21715714</t>
   </si>
   <si>
     <t>36806043</t>
@@ -415,13 +415,13 @@
     <t>УКРАЇНСЬКА СТРАТЕГІЯ ГРОЙСМАНА</t>
   </si>
   <si>
-    <t>ЄВРОПЕЙСЬКА СОЛІДАРНІСТЬ</t>
-  </si>
-  <si>
     <t>ПРОПОЗИЦІЯ</t>
   </si>
   <si>
     <t>УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА</t>
+  </si>
+  <si>
+    <t>ЄВРОПЕЙСЬКА СОЛІДАРНІСТЬ</t>
   </si>
   <si>
     <t>00049153</t>
@@ -478,9 +478,6 @@
     <t>02344060-ead0-11ee-a826-5536b50ce648</t>
   </si>
   <si>
-    <t>6cd10940-eb6f-11ee-95c4-e7bfad33aba2</t>
-  </si>
-  <si>
     <t>6d9e1710-eb8c-11ee-95c4-e7bfad33aba2</t>
   </si>
   <si>
@@ -505,9 +502,6 @@
     <t>62173560-03ca-11ef-bce9-638f8e04ad34</t>
   </si>
   <si>
-    <t>6e909670-02cf-11ef-938a-5514903835ea</t>
-  </si>
-  <si>
     <t>3cccc650-031e-11ef-a826-5536b50ce648</t>
   </si>
   <si>
@@ -515,9 +509,6 @@
   </si>
   <si>
     <t>020f77e0-03ca-11ef-bce9-638f8e04ad34</t>
-  </si>
-  <si>
-    <t>191ba350-03cf-11ef-938a-5514903835ea</t>
   </si>
   <si>
     <t>a06434d0-03cf-11ef-95c4-e7bfad33aba2</t>
@@ -566,6 +557,15 @@
   </si>
   <si>
     <t>7582da50-87cd-11ef-9f9f-af297e478ff7</t>
+  </si>
+  <si>
+    <t>6cd10940-eb6f-11ee-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>6e909670-02cf-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>191ba350-03cf-11ef-938a-5514903835ea</t>
   </si>
 </sst>
 </file>
@@ -19711,22 +19711,22 @@
         <v>45</v>
       </c>
       <c r="C394">
-        <v>657595.95</v>
+        <v>10389.19</v>
       </c>
       <c r="D394" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="E394" t="s">
         <v>87</v>
       </c>
       <c r="G394" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H394" t="s">
         <v>99</v>
       </c>
       <c r="I394" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J394" t="s">
         <v>106</v>
@@ -19758,22 +19758,22 @@
         <v>45</v>
       </c>
       <c r="C395">
-        <v>657595.95</v>
+        <v>10389.19</v>
       </c>
       <c r="D395" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="E395" t="s">
         <v>87</v>
       </c>
       <c r="G395" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H395" t="s">
         <v>99</v>
       </c>
       <c r="I395" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J395" t="s">
         <v>106</v>
@@ -19794,7 +19794,7 @@
         <v>121</v>
       </c>
       <c r="P395" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="396" spans="1:16">
@@ -19805,22 +19805,22 @@
         <v>45</v>
       </c>
       <c r="C396">
-        <v>657595.95</v>
+        <v>10389.19</v>
       </c>
       <c r="D396" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="E396" t="s">
         <v>87</v>
       </c>
       <c r="G396" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H396" t="s">
         <v>99</v>
       </c>
       <c r="I396" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J396" t="s">
         <v>106</v>
@@ -19841,7 +19841,7 @@
         <v>121</v>
       </c>
       <c r="P396" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="397" spans="1:16">
@@ -19852,22 +19852,22 @@
         <v>45</v>
       </c>
       <c r="C397">
-        <v>657595.95</v>
+        <v>10389.19</v>
       </c>
       <c r="D397" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="E397" t="s">
         <v>87</v>
       </c>
       <c r="G397" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H397" t="s">
         <v>99</v>
       </c>
       <c r="I397" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J397" t="s">
         <v>106</v>
@@ -19888,71 +19888,71 @@
         <v>121</v>
       </c>
       <c r="P397" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="398" spans="1:16">
       <c r="A398" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B398" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C398">
-        <v>657595.95</v>
+        <v>15000</v>
       </c>
       <c r="D398" t="s">
         <v>71</v>
       </c>
       <c r="E398" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G398" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H398" t="s">
         <v>99</v>
       </c>
       <c r="I398" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J398" t="s">
         <v>106</v>
       </c>
       <c r="K398" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L398" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M398" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N398" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O398" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="P398" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="399" spans="1:16">
       <c r="A399" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B399" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C399">
-        <v>657595.95</v>
+        <v>1</v>
       </c>
       <c r="D399" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E399" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G399" t="s">
         <v>95</v>
@@ -19961,45 +19961,45 @@
         <v>99</v>
       </c>
       <c r="I399" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J399" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K399" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L399" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M399" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N399" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O399" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="P399" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="400" spans="1:16">
       <c r="A400" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B400" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C400">
-        <v>651617.8100000001</v>
+        <v>1</v>
       </c>
       <c r="D400" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E400" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G400" t="s">
         <v>95</v>
@@ -20008,45 +20008,45 @@
         <v>99</v>
       </c>
       <c r="I400" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J400" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K400" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L400" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M400" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N400" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O400" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="P400" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="401" spans="1:16">
       <c r="A401" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B401" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C401">
-        <v>651617.8100000001</v>
+        <v>3480</v>
       </c>
       <c r="D401" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E401" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G401" t="s">
         <v>95</v>
@@ -20058,45 +20058,45 @@
         <v>104</v>
       </c>
       <c r="J401" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K401" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L401" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M401" t="s">
         <v>125</v>
       </c>
       <c r="N401" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O401" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P401" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="402" spans="1:16">
       <c r="A402" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B402" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C402">
-        <v>716315.02</v>
+        <v>5136</v>
       </c>
       <c r="D402" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E402" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G402" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H402" t="s">
         <v>99</v>
@@ -20105,51 +20105,51 @@
         <v>104</v>
       </c>
       <c r="J402" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K402" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L402" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M402" t="s">
         <v>125</v>
       </c>
       <c r="N402" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O402" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P402" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="403" spans="1:16">
       <c r="A403" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B403" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C403">
-        <v>10389.19</v>
+        <v>15000</v>
       </c>
       <c r="D403" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E403" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G403" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H403" t="s">
         <v>99</v>
       </c>
       <c r="I403" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J403" t="s">
         <v>106</v>
@@ -20161,136 +20161,136 @@
         <v>122</v>
       </c>
       <c r="M403" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N403" t="s">
         <v>134</v>
       </c>
       <c r="O403" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="P403" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="404" spans="1:16">
       <c r="A404" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B404" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C404">
-        <v>10389.19</v>
+        <v>3480</v>
       </c>
       <c r="D404" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="E404" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G404" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H404" t="s">
         <v>99</v>
       </c>
       <c r="I404" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J404" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K404" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L404" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M404" t="s">
         <v>125</v>
       </c>
       <c r="N404" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O404" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P404" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="405" spans="1:16">
       <c r="A405" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B405" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C405">
-        <v>10389.19</v>
+        <v>5136</v>
       </c>
       <c r="D405" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E405" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G405" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H405" t="s">
         <v>99</v>
       </c>
       <c r="I405" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J405" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K405" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L405" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M405" t="s">
         <v>125</v>
       </c>
       <c r="N405" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O405" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P405" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="406" spans="1:16">
       <c r="A406" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B406" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C406">
-        <v>10389.19</v>
+        <v>15000</v>
       </c>
       <c r="D406" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E406" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G406" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H406" t="s">
         <v>99</v>
       </c>
       <c r="I406" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J406" t="s">
         <v>106</v>
@@ -20302,16 +20302,16 @@
         <v>122</v>
       </c>
       <c r="M406" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N406" t="s">
         <v>134</v>
       </c>
       <c r="O406" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="P406" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="407" spans="1:16">
@@ -20319,16 +20319,16 @@
         <v>26</v>
       </c>
       <c r="B407" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C407">
         <v>15000</v>
       </c>
       <c r="D407" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E407" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G407" t="s">
         <v>98</v>
@@ -20337,122 +20337,122 @@
         <v>99</v>
       </c>
       <c r="I407" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J407" t="s">
         <v>106</v>
       </c>
       <c r="K407" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L407" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M407" t="s">
         <v>127</v>
       </c>
       <c r="N407" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O407" t="s">
         <v>137</v>
       </c>
       <c r="P407" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="408" spans="1:16">
       <c r="A408" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B408" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C408">
-        <v>1</v>
+        <v>15000</v>
       </c>
       <c r="D408" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E408" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G408" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H408" t="s">
         <v>99</v>
       </c>
       <c r="I408" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J408" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K408" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L408" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M408" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N408" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="O408" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P408" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="409" spans="1:16">
       <c r="A409" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B409" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C409">
-        <v>1</v>
+        <v>15000</v>
       </c>
       <c r="D409" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E409" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G409" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H409" t="s">
         <v>99</v>
       </c>
       <c r="I409" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J409" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K409" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L409" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M409" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N409" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="O409" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P409" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="410" spans="1:16">
@@ -20460,46 +20460,46 @@
         <v>26</v>
       </c>
       <c r="B410" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C410">
-        <v>3480</v>
+        <v>15000</v>
       </c>
       <c r="D410" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E410" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G410" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H410" t="s">
         <v>99</v>
       </c>
       <c r="I410" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J410" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K410" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L410" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M410" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N410" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O410" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="P410" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="411" spans="1:16">
@@ -20507,75 +20507,75 @@
         <v>26</v>
       </c>
       <c r="B411" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C411">
-        <v>5136</v>
+        <v>15000</v>
       </c>
       <c r="D411" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E411" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G411" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H411" t="s">
         <v>99</v>
       </c>
       <c r="I411" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J411" t="s">
         <v>105</v>
       </c>
       <c r="K411" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L411" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M411" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N411" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O411" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="P411" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="412" spans="1:16">
       <c r="A412" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B412" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C412">
-        <v>15000</v>
+        <v>657595.95</v>
       </c>
       <c r="D412" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E412" t="s">
         <v>90</v>
       </c>
       <c r="G412" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H412" t="s">
         <v>99</v>
       </c>
       <c r="I412" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J412" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K412" t="s">
         <v>115</v>
@@ -20584,33 +20584,33 @@
         <v>123</v>
       </c>
       <c r="M412" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N412" t="s">
         <v>135</v>
       </c>
       <c r="O412" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="P412" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="413" spans="1:16">
       <c r="A413" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B413" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C413">
-        <v>326.25</v>
+        <v>657595.95</v>
       </c>
       <c r="D413" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E413" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="G413" t="s">
         <v>95</v>
@@ -20625,39 +20625,39 @@
         <v>108</v>
       </c>
       <c r="K413" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L413" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M413" t="s">
         <v>125</v>
       </c>
       <c r="N413" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O413" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="P413" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="414" spans="1:16">
       <c r="A414" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B414" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C414">
-        <v>326.25</v>
+        <v>651617.8100000001</v>
       </c>
       <c r="D414" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E414" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="G414" t="s">
         <v>95</v>
@@ -20672,42 +20672,42 @@
         <v>108</v>
       </c>
       <c r="K414" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L414" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M414" t="s">
         <v>125</v>
       </c>
       <c r="N414" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O414" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="P414" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="415" spans="1:16">
       <c r="A415" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B415" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C415">
-        <v>326.25</v>
+        <v>716315.02</v>
       </c>
       <c r="D415" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E415" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="G415" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H415" t="s">
         <v>99</v>
@@ -20719,39 +20719,39 @@
         <v>108</v>
       </c>
       <c r="K415" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L415" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M415" t="s">
         <v>125</v>
       </c>
       <c r="N415" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O415" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="P415" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="416" spans="1:16">
       <c r="A416" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B416" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C416">
-        <v>326.25</v>
+        <v>353478</v>
       </c>
       <c r="D416" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E416" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G416" t="s">
         <v>95</v>
@@ -20766,39 +20766,39 @@
         <v>108</v>
       </c>
       <c r="K416" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L416" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M416" t="s">
         <v>125</v>
       </c>
       <c r="N416" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O416" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P416" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="417" spans="1:16">
       <c r="A417" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B417" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C417">
-        <v>326.25</v>
+        <v>546699.9</v>
       </c>
       <c r="D417" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E417" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G417" t="s">
         <v>95</v>
@@ -20813,39 +20813,39 @@
         <v>108</v>
       </c>
       <c r="K417" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L417" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M417" t="s">
         <v>125</v>
       </c>
       <c r="N417" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O417" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P417" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="418" spans="1:16">
       <c r="A418" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B418" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C418">
-        <v>326.25</v>
+        <v>257823</v>
       </c>
       <c r="D418" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="E418" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G418" t="s">
         <v>95</v>
@@ -20860,39 +20860,39 @@
         <v>108</v>
       </c>
       <c r="K418" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L418" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M418" t="s">
         <v>125</v>
       </c>
       <c r="N418" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O418" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P418" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="419" spans="1:16">
       <c r="A419" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B419" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C419">
-        <v>326.25</v>
+        <v>1570762.55</v>
       </c>
       <c r="D419" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E419" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G419" t="s">
         <v>95</v>
@@ -20907,42 +20907,42 @@
         <v>108</v>
       </c>
       <c r="K419" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L419" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M419" t="s">
         <v>125</v>
       </c>
       <c r="N419" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O419" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P419" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="420" spans="1:16">
       <c r="A420" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B420" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C420">
-        <v>326.25</v>
+        <v>172818</v>
       </c>
       <c r="D420" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E420" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G420" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H420" t="s">
         <v>99</v>
@@ -20954,39 +20954,39 @@
         <v>108</v>
       </c>
       <c r="K420" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L420" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M420" t="s">
         <v>125</v>
       </c>
       <c r="N420" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O420" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P420" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="421" spans="1:16">
       <c r="A421" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B421" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C421">
-        <v>326.25</v>
+        <v>3480</v>
       </c>
       <c r="D421" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E421" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G421" t="s">
         <v>95</v>
@@ -21001,39 +21001,39 @@
         <v>108</v>
       </c>
       <c r="K421" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L421" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M421" t="s">
         <v>125</v>
       </c>
       <c r="N421" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O421" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P421" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="422" spans="1:16">
       <c r="A422" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B422" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C422">
-        <v>326.25</v>
+        <v>5136</v>
       </c>
       <c r="D422" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E422" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G422" t="s">
         <v>95</v>
@@ -21048,39 +21048,39 @@
         <v>108</v>
       </c>
       <c r="K422" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L422" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M422" t="s">
         <v>125</v>
       </c>
       <c r="N422" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O422" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P422" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="423" spans="1:16">
       <c r="A423" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B423" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C423">
-        <v>326.25</v>
+        <v>3850</v>
       </c>
       <c r="D423" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E423" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G423" t="s">
         <v>95</v>
@@ -21095,42 +21095,42 @@
         <v>108</v>
       </c>
       <c r="K423" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L423" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="M423" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N423" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="O423" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="P423" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="424" spans="1:16">
       <c r="A424" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B424" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C424">
-        <v>326.25</v>
+        <v>25999</v>
       </c>
       <c r="D424" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E424" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="G424" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H424" t="s">
         <v>99</v>
@@ -21142,39 +21142,39 @@
         <v>108</v>
       </c>
       <c r="K424" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="L424" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="M424" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N424" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="O424" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="P424" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="425" spans="1:16">
       <c r="A425" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B425" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C425">
-        <v>489.58</v>
+        <v>1</v>
       </c>
       <c r="D425" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E425" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G425" t="s">
         <v>95</v>
@@ -21183,45 +21183,45 @@
         <v>99</v>
       </c>
       <c r="I425" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J425" t="s">
         <v>108</v>
       </c>
       <c r="K425" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L425" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M425" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N425" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O425" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="P425" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="426" spans="1:16">
       <c r="A426" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B426" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C426">
-        <v>489.58</v>
+        <v>1</v>
       </c>
       <c r="D426" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E426" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G426" t="s">
         <v>95</v>
@@ -21230,28 +21230,28 @@
         <v>99</v>
       </c>
       <c r="I426" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J426" t="s">
         <v>108</v>
       </c>
       <c r="K426" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L426" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M426" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N426" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O426" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="P426" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="427" spans="1:16">
@@ -21262,10 +21262,10 @@
         <v>32</v>
       </c>
       <c r="C427">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D427" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E427" t="s">
         <v>76</v>
@@ -21277,7 +21277,7 @@
         <v>99</v>
       </c>
       <c r="I427" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J427" t="s">
         <v>108</v>
@@ -21298,7 +21298,7 @@
         <v>117</v>
       </c>
       <c r="P427" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="428" spans="1:16">
@@ -21309,10 +21309,10 @@
         <v>32</v>
       </c>
       <c r="C428">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D428" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E428" t="s">
         <v>76</v>
@@ -21324,7 +21324,7 @@
         <v>99</v>
       </c>
       <c r="I428" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J428" t="s">
         <v>108</v>
@@ -21345,7 +21345,7 @@
         <v>117</v>
       </c>
       <c r="P428" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="429" spans="1:16">
@@ -21356,10 +21356,10 @@
         <v>32</v>
       </c>
       <c r="C429">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D429" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E429" t="s">
         <v>76</v>
@@ -21371,7 +21371,7 @@
         <v>99</v>
       </c>
       <c r="I429" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J429" t="s">
         <v>108</v>
@@ -21392,7 +21392,7 @@
         <v>117</v>
       </c>
       <c r="P429" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="430" spans="1:16">
@@ -21403,10 +21403,10 @@
         <v>32</v>
       </c>
       <c r="C430">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D430" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E430" t="s">
         <v>76</v>
@@ -21418,7 +21418,7 @@
         <v>99</v>
       </c>
       <c r="I430" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J430" t="s">
         <v>108</v>
@@ -21439,7 +21439,7 @@
         <v>117</v>
       </c>
       <c r="P430" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="431" spans="1:16">
@@ -21450,10 +21450,10 @@
         <v>32</v>
       </c>
       <c r="C431">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D431" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E431" t="s">
         <v>76</v>
@@ -21465,7 +21465,7 @@
         <v>99</v>
       </c>
       <c r="I431" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J431" t="s">
         <v>108</v>
@@ -21486,7 +21486,7 @@
         <v>117</v>
       </c>
       <c r="P431" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="432" spans="1:16">
@@ -21497,10 +21497,10 @@
         <v>32</v>
       </c>
       <c r="C432">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D432" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E432" t="s">
         <v>76</v>
@@ -21512,7 +21512,7 @@
         <v>99</v>
       </c>
       <c r="I432" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J432" t="s">
         <v>108</v>
@@ -21533,7 +21533,7 @@
         <v>117</v>
       </c>
       <c r="P432" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="433" spans="1:16">
@@ -21544,10 +21544,10 @@
         <v>32</v>
       </c>
       <c r="C433">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D433" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E433" t="s">
         <v>76</v>
@@ -21559,7 +21559,7 @@
         <v>99</v>
       </c>
       <c r="I433" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J433" t="s">
         <v>108</v>
@@ -21580,7 +21580,7 @@
         <v>117</v>
       </c>
       <c r="P433" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="434" spans="1:16">
@@ -21591,10 +21591,10 @@
         <v>32</v>
       </c>
       <c r="C434">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D434" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E434" t="s">
         <v>76</v>
@@ -21606,7 +21606,7 @@
         <v>99</v>
       </c>
       <c r="I434" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J434" t="s">
         <v>108</v>
@@ -21627,7 +21627,7 @@
         <v>117</v>
       </c>
       <c r="P434" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="435" spans="1:16">
@@ -21638,10 +21638,10 @@
         <v>32</v>
       </c>
       <c r="C435">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D435" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E435" t="s">
         <v>76</v>
@@ -21653,7 +21653,7 @@
         <v>99</v>
       </c>
       <c r="I435" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J435" t="s">
         <v>108</v>
@@ -21674,7 +21674,7 @@
         <v>117</v>
       </c>
       <c r="P435" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="436" spans="1:16">
@@ -21685,10 +21685,10 @@
         <v>32</v>
       </c>
       <c r="C436">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D436" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E436" t="s">
         <v>76</v>
@@ -21700,7 +21700,7 @@
         <v>99</v>
       </c>
       <c r="I436" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J436" t="s">
         <v>108</v>
@@ -21721,7 +21721,7 @@
         <v>117</v>
       </c>
       <c r="P436" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="437" spans="1:16">
@@ -21732,10 +21732,10 @@
         <v>32</v>
       </c>
       <c r="C437">
-        <v>13365</v>
+        <v>326.25</v>
       </c>
       <c r="D437" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E437" t="s">
         <v>76</v>
@@ -21747,7 +21747,7 @@
         <v>99</v>
       </c>
       <c r="I437" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J437" t="s">
         <v>108</v>
@@ -21768,7 +21768,7 @@
         <v>117</v>
       </c>
       <c r="P437" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="438" spans="1:16">
@@ -21779,10 +21779,10 @@
         <v>32</v>
       </c>
       <c r="C438">
-        <v>3382.5</v>
+        <v>326.25</v>
       </c>
       <c r="D438" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E438" t="s">
         <v>76</v>
@@ -21794,7 +21794,7 @@
         <v>99</v>
       </c>
       <c r="I438" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J438" t="s">
         <v>108</v>
@@ -21815,7 +21815,7 @@
         <v>117</v>
       </c>
       <c r="P438" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="439" spans="1:16">
@@ -21826,10 +21826,10 @@
         <v>32</v>
       </c>
       <c r="C439">
-        <v>3382.5</v>
+        <v>489.58</v>
       </c>
       <c r="D439" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E439" t="s">
         <v>76</v>
@@ -21841,7 +21841,7 @@
         <v>99</v>
       </c>
       <c r="I439" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J439" t="s">
         <v>108</v>
@@ -21862,7 +21862,7 @@
         <v>117</v>
       </c>
       <c r="P439" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="440" spans="1:16">
@@ -21873,10 +21873,10 @@
         <v>32</v>
       </c>
       <c r="C440">
-        <v>2167</v>
+        <v>489.58</v>
       </c>
       <c r="D440" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E440" t="s">
         <v>76</v>
@@ -21888,7 +21888,7 @@
         <v>99</v>
       </c>
       <c r="I440" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J440" t="s">
         <v>108</v>
@@ -21909,7 +21909,7 @@
         <v>117</v>
       </c>
       <c r="P440" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="441" spans="1:16">
@@ -21920,10 +21920,10 @@
         <v>32</v>
       </c>
       <c r="C441">
-        <v>1479.25</v>
+        <v>489.58</v>
       </c>
       <c r="D441" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E441" t="s">
         <v>76</v>
@@ -21935,7 +21935,7 @@
         <v>99</v>
       </c>
       <c r="I441" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J441" t="s">
         <v>108</v>
@@ -21956,7 +21956,7 @@
         <v>117</v>
       </c>
       <c r="P441" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="442" spans="1:16">
@@ -21967,10 +21967,10 @@
         <v>32</v>
       </c>
       <c r="C442">
-        <v>1479.25</v>
+        <v>489.58</v>
       </c>
       <c r="D442" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E442" t="s">
         <v>76</v>
@@ -21982,7 +21982,7 @@
         <v>99</v>
       </c>
       <c r="I442" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J442" t="s">
         <v>108</v>
@@ -22003,7 +22003,7 @@
         <v>117</v>
       </c>
       <c r="P442" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="443" spans="1:16">
@@ -22014,10 +22014,10 @@
         <v>32</v>
       </c>
       <c r="C443">
-        <v>1479.25</v>
+        <v>489.58</v>
       </c>
       <c r="D443" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E443" t="s">
         <v>76</v>
@@ -22029,7 +22029,7 @@
         <v>99</v>
       </c>
       <c r="I443" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J443" t="s">
         <v>108</v>
@@ -22050,7 +22050,7 @@
         <v>117</v>
       </c>
       <c r="P443" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="444" spans="1:16">
@@ -22061,10 +22061,10 @@
         <v>32</v>
       </c>
       <c r="C444">
-        <v>1479.25</v>
+        <v>489.58</v>
       </c>
       <c r="D444" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E444" t="s">
         <v>76</v>
@@ -22076,7 +22076,7 @@
         <v>99</v>
       </c>
       <c r="I444" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J444" t="s">
         <v>108</v>
@@ -22097,21 +22097,21 @@
         <v>117</v>
       </c>
       <c r="P444" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="445" spans="1:16">
       <c r="A445" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B445" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C445">
-        <v>53807</v>
+        <v>489.58</v>
       </c>
       <c r="D445" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E445" t="s">
         <v>76</v>
@@ -22123,7 +22123,7 @@
         <v>99</v>
       </c>
       <c r="I445" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J445" t="s">
         <v>108</v>
@@ -22144,7 +22144,7 @@
         <v>117</v>
       </c>
       <c r="P445" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="446" spans="1:16">
@@ -22152,16 +22152,16 @@
         <v>16</v>
       </c>
       <c r="B446" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C446">
-        <v>780</v>
+        <v>489.58</v>
       </c>
       <c r="D446" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E446" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G446" t="s">
         <v>95</v>
@@ -22170,7 +22170,7 @@
         <v>99</v>
       </c>
       <c r="I446" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J446" t="s">
         <v>108</v>
@@ -22191,24 +22191,24 @@
         <v>117</v>
       </c>
       <c r="P446" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="447" spans="1:16">
       <c r="A447" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B447" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C447">
-        <v>3480</v>
+        <v>489.58</v>
       </c>
       <c r="D447" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E447" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G447" t="s">
         <v>95</v>
@@ -22217,45 +22217,45 @@
         <v>99</v>
       </c>
       <c r="I447" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J447" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K447" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L447" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M447" t="s">
         <v>125</v>
       </c>
       <c r="N447" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O447" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P447" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="448" spans="1:16">
       <c r="A448" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B448" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C448">
-        <v>5136</v>
+        <v>489.58</v>
       </c>
       <c r="D448" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E448" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G448" t="s">
         <v>95</v>
@@ -22264,95 +22264,95 @@
         <v>99</v>
       </c>
       <c r="I448" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J448" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K448" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L448" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M448" t="s">
         <v>125</v>
       </c>
       <c r="N448" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O448" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P448" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="449" spans="1:16">
       <c r="A449" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B449" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C449">
-        <v>15000</v>
+        <v>489.58</v>
       </c>
       <c r="D449" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="E449" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="G449" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H449" t="s">
         <v>99</v>
       </c>
       <c r="I449" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J449" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K449" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L449" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M449" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N449" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O449" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="P449" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="450" spans="1:16">
       <c r="A450" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B450" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C450">
-        <v>15000</v>
+        <v>489.58</v>
       </c>
       <c r="D450" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="E450" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="G450" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H450" t="s">
         <v>99</v>
@@ -22361,45 +22361,45 @@
         <v>101</v>
       </c>
       <c r="J450" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K450" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L450" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M450" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N450" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O450" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="P450" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="451" spans="1:16">
       <c r="A451" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B451" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C451">
-        <v>15000</v>
+        <v>13365</v>
       </c>
       <c r="D451" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="E451" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="G451" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H451" t="s">
         <v>99</v>
@@ -22408,230 +22408,230 @@
         <v>101</v>
       </c>
       <c r="J451" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K451" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L451" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M451" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N451" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O451" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="P451" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="452" spans="1:16">
       <c r="A452" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B452" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C452">
-        <v>15000</v>
+        <v>3382.5</v>
       </c>
       <c r="D452" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E452" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="G452" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H452" t="s">
         <v>99</v>
       </c>
       <c r="I452" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J452" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K452" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L452" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M452" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N452" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O452" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="P452" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="453" spans="1:16">
       <c r="A453" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B453" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C453">
-        <v>15000</v>
+        <v>3382.5</v>
       </c>
       <c r="D453" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E453" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="G453" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H453" t="s">
         <v>99</v>
       </c>
       <c r="I453" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J453" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K453" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L453" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M453" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N453" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O453" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="P453" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="454" spans="1:16">
       <c r="A454" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B454" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C454">
-        <v>15000</v>
+        <v>2167</v>
       </c>
       <c r="D454" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E454" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="G454" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H454" t="s">
         <v>99</v>
       </c>
       <c r="I454" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J454" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K454" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L454" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M454" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N454" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O454" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="P454" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="455" spans="1:16">
       <c r="A455" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B455" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C455">
-        <v>15000</v>
+        <v>1479.25</v>
       </c>
       <c r="D455" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E455" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="G455" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H455" t="s">
         <v>99</v>
       </c>
       <c r="I455" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J455" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K455" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L455" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M455" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N455" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O455" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="P455" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="456" spans="1:16">
       <c r="A456" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B456" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C456">
-        <v>657595.95</v>
+        <v>1479.25</v>
       </c>
       <c r="D456" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E456" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G456" t="s">
         <v>95</v>
@@ -22640,45 +22640,45 @@
         <v>99</v>
       </c>
       <c r="I456" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J456" t="s">
         <v>108</v>
       </c>
       <c r="K456" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L456" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M456" t="s">
         <v>125</v>
       </c>
       <c r="N456" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O456" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P456" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="457" spans="1:16">
       <c r="A457" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B457" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C457">
-        <v>657595.95</v>
+        <v>1479.25</v>
       </c>
       <c r="D457" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E457" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G457" t="s">
         <v>95</v>
@@ -22687,45 +22687,45 @@
         <v>99</v>
       </c>
       <c r="I457" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J457" t="s">
         <v>108</v>
       </c>
       <c r="K457" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L457" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M457" t="s">
         <v>125</v>
       </c>
       <c r="N457" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O457" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P457" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="458" spans="1:16">
       <c r="A458" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B458" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C458">
-        <v>651617.8100000001</v>
+        <v>1479.25</v>
       </c>
       <c r="D458" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E458" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G458" t="s">
         <v>95</v>
@@ -22734,92 +22734,92 @@
         <v>99</v>
       </c>
       <c r="I458" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J458" t="s">
         <v>108</v>
       </c>
       <c r="K458" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L458" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M458" t="s">
         <v>125</v>
       </c>
       <c r="N458" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O458" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P458" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="459" spans="1:16">
       <c r="A459" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B459" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C459">
-        <v>716315.02</v>
+        <v>53807</v>
       </c>
       <c r="D459" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E459" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G459" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H459" t="s">
         <v>99</v>
       </c>
       <c r="I459" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J459" t="s">
         <v>108</v>
       </c>
       <c r="K459" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L459" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M459" t="s">
         <v>125</v>
       </c>
       <c r="N459" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O459" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P459" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="460" spans="1:16">
       <c r="A460" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B460" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C460">
-        <v>353478</v>
+        <v>780</v>
       </c>
       <c r="D460" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E460" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G460" t="s">
         <v>95</v>
@@ -22828,42 +22828,42 @@
         <v>99</v>
       </c>
       <c r="I460" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J460" t="s">
         <v>108</v>
       </c>
       <c r="K460" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L460" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M460" t="s">
         <v>125</v>
       </c>
       <c r="N460" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O460" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P460" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="461" spans="1:16">
       <c r="A461" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B461" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C461">
-        <v>546699.9</v>
+        <v>353478</v>
       </c>
       <c r="D461" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E461" t="s">
         <v>79</v>
@@ -22875,7 +22875,7 @@
         <v>99</v>
       </c>
       <c r="I461" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J461" t="s">
         <v>108</v>
@@ -22896,21 +22896,21 @@
         <v>119</v>
       </c>
       <c r="P461" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="462" spans="1:16">
       <c r="A462" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B462" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C462">
-        <v>257823</v>
+        <v>546699.9</v>
       </c>
       <c r="D462" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="E462" t="s">
         <v>79</v>
@@ -22922,7 +22922,7 @@
         <v>99</v>
       </c>
       <c r="I462" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J462" t="s">
         <v>108</v>
@@ -22943,24 +22943,24 @@
         <v>119</v>
       </c>
       <c r="P462" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="463" spans="1:16">
       <c r="A463" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B463" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C463">
-        <v>1570762.55</v>
+        <v>257823</v>
       </c>
       <c r="D463" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="E463" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G463" t="s">
         <v>95</v>
@@ -22969,7 +22969,7 @@
         <v>99</v>
       </c>
       <c r="I463" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J463" t="s">
         <v>108</v>
@@ -22990,33 +22990,33 @@
         <v>119</v>
       </c>
       <c r="P463" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="464" spans="1:16">
       <c r="A464" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B464" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C464">
-        <v>172818</v>
+        <v>1570762.55</v>
       </c>
       <c r="D464" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E464" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G464" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H464" t="s">
         <v>99</v>
       </c>
       <c r="I464" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J464" t="s">
         <v>108</v>
@@ -23037,54 +23037,54 @@
         <v>119</v>
       </c>
       <c r="P464" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="465" spans="1:16">
       <c r="A465" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B465" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C465">
-        <v>3480</v>
+        <v>172818</v>
       </c>
       <c r="D465" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E465" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G465" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H465" t="s">
         <v>99</v>
       </c>
       <c r="I465" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J465" t="s">
         <v>108</v>
       </c>
       <c r="K465" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L465" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M465" t="s">
         <v>125</v>
       </c>
       <c r="N465" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O465" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P465" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="466" spans="1:16">
@@ -23095,13 +23095,13 @@
         <v>44</v>
       </c>
       <c r="C466">
-        <v>5136</v>
+        <v>3480</v>
       </c>
       <c r="D466" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E466" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G466" t="s">
         <v>95</v>
@@ -23110,7 +23110,7 @@
         <v>99</v>
       </c>
       <c r="I466" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J466" t="s">
         <v>108</v>
@@ -23131,24 +23131,24 @@
         <v>120</v>
       </c>
       <c r="P466" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="467" spans="1:16">
       <c r="A467" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B467" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C467">
-        <v>3850</v>
+        <v>5136</v>
       </c>
       <c r="D467" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E467" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G467" t="s">
         <v>95</v>
@@ -23157,54 +23157,54 @@
         <v>99</v>
       </c>
       <c r="I467" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J467" t="s">
         <v>108</v>
       </c>
       <c r="K467" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L467" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M467" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N467" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O467" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="P467" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="468" spans="1:16">
       <c r="A468" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B468" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C468">
-        <v>25999</v>
+        <v>657595.95</v>
       </c>
       <c r="D468" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E468" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G468" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H468" t="s">
         <v>99</v>
       </c>
       <c r="I468" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J468" t="s">
         <v>108</v>
@@ -23216,33 +23216,33 @@
         <v>123</v>
       </c>
       <c r="M468" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N468" t="s">
         <v>135</v>
       </c>
       <c r="O468" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="P468" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="469" spans="1:16">
       <c r="A469" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B469" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C469">
-        <v>1</v>
+        <v>651617.8100000001</v>
       </c>
       <c r="D469" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E469" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G469" t="s">
         <v>95</v>
@@ -23257,42 +23257,42 @@
         <v>108</v>
       </c>
       <c r="K469" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="L469" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="M469" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N469" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="O469" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="P469" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="470" spans="1:16">
       <c r="A470" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B470" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C470">
-        <v>1</v>
+        <v>716315.02</v>
       </c>
       <c r="D470" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E470" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G470" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H470" t="s">
         <v>99</v>
@@ -23304,39 +23304,39 @@
         <v>108</v>
       </c>
       <c r="K470" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="L470" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="M470" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N470" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="O470" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="P470" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="471" spans="1:16">
       <c r="A471" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B471" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C471">
-        <v>326.25</v>
+        <v>3850</v>
       </c>
       <c r="D471" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E471" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G471" t="s">
         <v>95</v>
@@ -23351,42 +23351,42 @@
         <v>108</v>
       </c>
       <c r="K471" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L471" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="M471" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N471" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="O471" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="P471" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="472" spans="1:16">
       <c r="A472" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B472" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C472">
-        <v>326.25</v>
+        <v>25999</v>
       </c>
       <c r="D472" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E472" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="G472" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H472" t="s">
         <v>99</v>
@@ -23398,22 +23398,22 @@
         <v>108</v>
       </c>
       <c r="K472" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="L472" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="M472" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N472" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="O472" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="P472" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="473" spans="1:16">
@@ -23439,7 +23439,7 @@
         <v>99</v>
       </c>
       <c r="I473" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J473" t="s">
         <v>108</v>
@@ -23460,7 +23460,7 @@
         <v>117</v>
       </c>
       <c r="P473" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="474" spans="1:16">
@@ -23486,7 +23486,7 @@
         <v>99</v>
       </c>
       <c r="I474" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J474" t="s">
         <v>108</v>
@@ -23507,7 +23507,7 @@
         <v>117</v>
       </c>
       <c r="P474" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="475" spans="1:16">
@@ -23533,7 +23533,7 @@
         <v>99</v>
       </c>
       <c r="I475" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J475" t="s">
         <v>108</v>
@@ -23554,7 +23554,7 @@
         <v>117</v>
       </c>
       <c r="P475" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="476" spans="1:16">
@@ -23580,7 +23580,7 @@
         <v>99</v>
       </c>
       <c r="I476" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J476" t="s">
         <v>108</v>
@@ -23601,7 +23601,7 @@
         <v>117</v>
       </c>
       <c r="P476" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="477" spans="1:16">
@@ -23627,7 +23627,7 @@
         <v>99</v>
       </c>
       <c r="I477" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J477" t="s">
         <v>108</v>
@@ -23648,7 +23648,7 @@
         <v>117</v>
       </c>
       <c r="P477" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="478" spans="1:16">
@@ -23674,7 +23674,7 @@
         <v>99</v>
       </c>
       <c r="I478" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J478" t="s">
         <v>108</v>
@@ -23695,7 +23695,7 @@
         <v>117</v>
       </c>
       <c r="P478" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="479" spans="1:16">
@@ -23721,7 +23721,7 @@
         <v>99</v>
       </c>
       <c r="I479" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J479" t="s">
         <v>108</v>
@@ -23742,7 +23742,7 @@
         <v>117</v>
       </c>
       <c r="P479" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="480" spans="1:16">
@@ -23768,7 +23768,7 @@
         <v>99</v>
       </c>
       <c r="I480" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J480" t="s">
         <v>108</v>
@@ -23789,7 +23789,7 @@
         <v>117</v>
       </c>
       <c r="P480" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="481" spans="1:16">
@@ -23815,7 +23815,7 @@
         <v>99</v>
       </c>
       <c r="I481" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J481" t="s">
         <v>108</v>
@@ -23836,7 +23836,7 @@
         <v>117</v>
       </c>
       <c r="P481" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="482" spans="1:16">
@@ -23862,7 +23862,7 @@
         <v>99</v>
       </c>
       <c r="I482" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J482" t="s">
         <v>108</v>
@@ -23883,7 +23883,7 @@
         <v>117</v>
       </c>
       <c r="P482" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="483" spans="1:16">
@@ -23894,10 +23894,10 @@
         <v>32</v>
       </c>
       <c r="C483">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D483" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E483" t="s">
         <v>76</v>
@@ -23909,7 +23909,7 @@
         <v>99</v>
       </c>
       <c r="I483" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J483" t="s">
         <v>108</v>
@@ -23930,7 +23930,7 @@
         <v>117</v>
       </c>
       <c r="P483" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="484" spans="1:16">
@@ -23941,10 +23941,10 @@
         <v>32</v>
       </c>
       <c r="C484">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D484" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E484" t="s">
         <v>76</v>
@@ -23956,7 +23956,7 @@
         <v>99</v>
       </c>
       <c r="I484" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J484" t="s">
         <v>108</v>
@@ -23977,7 +23977,7 @@
         <v>117</v>
       </c>
       <c r="P484" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="485" spans="1:16">
@@ -24003,7 +24003,7 @@
         <v>99</v>
       </c>
       <c r="I485" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J485" t="s">
         <v>108</v>
@@ -24024,7 +24024,7 @@
         <v>117</v>
       </c>
       <c r="P485" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="486" spans="1:16">
@@ -24050,7 +24050,7 @@
         <v>99</v>
       </c>
       <c r="I486" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J486" t="s">
         <v>108</v>
@@ -24071,7 +24071,7 @@
         <v>117</v>
       </c>
       <c r="P486" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="487" spans="1:16">
@@ -24097,7 +24097,7 @@
         <v>99</v>
       </c>
       <c r="I487" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J487" t="s">
         <v>108</v>
@@ -24118,7 +24118,7 @@
         <v>117</v>
       </c>
       <c r="P487" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="488" spans="1:16">
@@ -24144,7 +24144,7 @@
         <v>99</v>
       </c>
       <c r="I488" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J488" t="s">
         <v>108</v>
@@ -24165,7 +24165,7 @@
         <v>117</v>
       </c>
       <c r="P488" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="489" spans="1:16">
@@ -24191,7 +24191,7 @@
         <v>99</v>
       </c>
       <c r="I489" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J489" t="s">
         <v>108</v>
@@ -24212,7 +24212,7 @@
         <v>117</v>
       </c>
       <c r="P489" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="490" spans="1:16">
@@ -24238,7 +24238,7 @@
         <v>99</v>
       </c>
       <c r="I490" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J490" t="s">
         <v>108</v>
@@ -24259,7 +24259,7 @@
         <v>117</v>
       </c>
       <c r="P490" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="491" spans="1:16">
@@ -24285,7 +24285,7 @@
         <v>99</v>
       </c>
       <c r="I491" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J491" t="s">
         <v>108</v>
@@ -24306,7 +24306,7 @@
         <v>117</v>
       </c>
       <c r="P491" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="492" spans="1:16">
@@ -24332,7 +24332,7 @@
         <v>99</v>
       </c>
       <c r="I492" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J492" t="s">
         <v>108</v>
@@ -24353,7 +24353,7 @@
         <v>117</v>
       </c>
       <c r="P492" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="493" spans="1:16">
@@ -24379,7 +24379,7 @@
         <v>99</v>
       </c>
       <c r="I493" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J493" t="s">
         <v>108</v>
@@ -24400,7 +24400,7 @@
         <v>117</v>
       </c>
       <c r="P493" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="494" spans="1:16">
@@ -24426,7 +24426,7 @@
         <v>99</v>
       </c>
       <c r="I494" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J494" t="s">
         <v>108</v>
@@ -24447,7 +24447,7 @@
         <v>117</v>
       </c>
       <c r="P494" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="495" spans="1:16">
@@ -24458,10 +24458,10 @@
         <v>32</v>
       </c>
       <c r="C495">
-        <v>13365</v>
+        <v>489.58</v>
       </c>
       <c r="D495" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E495" t="s">
         <v>76</v>
@@ -24473,7 +24473,7 @@
         <v>99</v>
       </c>
       <c r="I495" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J495" t="s">
         <v>108</v>
@@ -24494,7 +24494,7 @@
         <v>117</v>
       </c>
       <c r="P495" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="496" spans="1:16">
@@ -24505,10 +24505,10 @@
         <v>32</v>
       </c>
       <c r="C496">
-        <v>3382.5</v>
+        <v>489.58</v>
       </c>
       <c r="D496" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E496" t="s">
         <v>76</v>
@@ -24520,7 +24520,7 @@
         <v>99</v>
       </c>
       <c r="I496" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J496" t="s">
         <v>108</v>
@@ -24541,7 +24541,7 @@
         <v>117</v>
       </c>
       <c r="P496" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="497" spans="1:16">
@@ -24552,10 +24552,10 @@
         <v>32</v>
       </c>
       <c r="C497">
-        <v>3382.5</v>
+        <v>13365</v>
       </c>
       <c r="D497" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E497" t="s">
         <v>76</v>
@@ -24567,7 +24567,7 @@
         <v>99</v>
       </c>
       <c r="I497" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J497" t="s">
         <v>108</v>
@@ -24588,7 +24588,7 @@
         <v>117</v>
       </c>
       <c r="P497" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="498" spans="1:16">
@@ -24599,10 +24599,10 @@
         <v>32</v>
       </c>
       <c r="C498">
-        <v>2167</v>
+        <v>3382.5</v>
       </c>
       <c r="D498" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E498" t="s">
         <v>76</v>
@@ -24614,7 +24614,7 @@
         <v>99</v>
       </c>
       <c r="I498" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J498" t="s">
         <v>108</v>
@@ -24635,7 +24635,7 @@
         <v>117</v>
       </c>
       <c r="P498" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="499" spans="1:16">
@@ -24646,10 +24646,10 @@
         <v>32</v>
       </c>
       <c r="C499">
-        <v>1479.25</v>
+        <v>3382.5</v>
       </c>
       <c r="D499" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E499" t="s">
         <v>76</v>
@@ -24661,7 +24661,7 @@
         <v>99</v>
       </c>
       <c r="I499" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J499" t="s">
         <v>108</v>
@@ -24682,7 +24682,7 @@
         <v>117</v>
       </c>
       <c r="P499" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="500" spans="1:16">
@@ -24693,10 +24693,10 @@
         <v>32</v>
       </c>
       <c r="C500">
-        <v>1479.25</v>
+        <v>2167</v>
       </c>
       <c r="D500" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E500" t="s">
         <v>76</v>
@@ -24708,7 +24708,7 @@
         <v>99</v>
       </c>
       <c r="I500" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J500" t="s">
         <v>108</v>
@@ -24729,7 +24729,7 @@
         <v>117</v>
       </c>
       <c r="P500" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="501" spans="1:16">
@@ -24755,7 +24755,7 @@
         <v>99</v>
       </c>
       <c r="I501" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J501" t="s">
         <v>108</v>
@@ -24776,7 +24776,7 @@
         <v>117</v>
       </c>
       <c r="P501" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="502" spans="1:16">
@@ -24802,7 +24802,7 @@
         <v>99</v>
       </c>
       <c r="I502" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J502" t="s">
         <v>108</v>
@@ -24823,21 +24823,21 @@
         <v>117</v>
       </c>
       <c r="P502" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="503" spans="1:16">
       <c r="A503" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B503" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C503">
-        <v>53807</v>
+        <v>1479.25</v>
       </c>
       <c r="D503" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E503" t="s">
         <v>76</v>
@@ -24849,7 +24849,7 @@
         <v>99</v>
       </c>
       <c r="I503" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J503" t="s">
         <v>108</v>
@@ -24870,7 +24870,7 @@
         <v>117</v>
       </c>
       <c r="P503" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="504" spans="1:16">
@@ -24878,16 +24878,16 @@
         <v>16</v>
       </c>
       <c r="B504" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C504">
-        <v>780</v>
+        <v>1479.25</v>
       </c>
       <c r="D504" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E504" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G504" t="s">
         <v>95</v>
@@ -24896,7 +24896,7 @@
         <v>99</v>
       </c>
       <c r="I504" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J504" t="s">
         <v>108</v>
@@ -24917,24 +24917,24 @@
         <v>117</v>
       </c>
       <c r="P504" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="505" spans="1:16">
       <c r="A505" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B505" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C505">
-        <v>353478</v>
+        <v>53807</v>
       </c>
       <c r="D505" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E505" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G505" t="s">
         <v>95</v>
@@ -24943,45 +24943,45 @@
         <v>99</v>
       </c>
       <c r="I505" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J505" t="s">
         <v>108</v>
       </c>
       <c r="K505" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L505" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M505" t="s">
         <v>125</v>
       </c>
       <c r="N505" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O505" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P505" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="506" spans="1:16">
       <c r="A506" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B506" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C506">
-        <v>546699.9</v>
+        <v>780</v>
       </c>
       <c r="D506" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E506" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G506" t="s">
         <v>95</v>
@@ -24990,45 +24990,45 @@
         <v>99</v>
       </c>
       <c r="I506" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J506" t="s">
         <v>108</v>
       </c>
       <c r="K506" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L506" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M506" t="s">
         <v>125</v>
       </c>
       <c r="N506" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O506" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P506" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="507" spans="1:16">
       <c r="A507" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B507" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C507">
-        <v>257823</v>
+        <v>1</v>
       </c>
       <c r="D507" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E507" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G507" t="s">
         <v>95</v>
@@ -25037,45 +25037,45 @@
         <v>99</v>
       </c>
       <c r="I507" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J507" t="s">
         <v>108</v>
       </c>
       <c r="K507" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L507" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M507" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N507" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O507" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="P507" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="508" spans="1:16">
       <c r="A508" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B508" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C508">
-        <v>1570762.55</v>
+        <v>1</v>
       </c>
       <c r="D508" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E508" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G508" t="s">
         <v>95</v>
@@ -25084,92 +25084,92 @@
         <v>99</v>
       </c>
       <c r="I508" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J508" t="s">
         <v>108</v>
       </c>
       <c r="K508" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L508" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M508" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N508" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O508" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="P508" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="509" spans="1:16">
       <c r="A509" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B509" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C509">
-        <v>172818</v>
+        <v>657595.95</v>
       </c>
       <c r="D509" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E509" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G509" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H509" t="s">
         <v>99</v>
       </c>
       <c r="I509" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J509" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K509" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L509" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="M509" t="s">
         <v>125</v>
       </c>
       <c r="N509" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="O509" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P509" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="510" spans="1:16">
       <c r="A510" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B510" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C510">
-        <v>3480</v>
+        <v>657595.95</v>
       </c>
       <c r="D510" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E510" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G510" t="s">
         <v>95</v>
@@ -25178,45 +25178,45 @@
         <v>99</v>
       </c>
       <c r="I510" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J510" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K510" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L510" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M510" t="s">
         <v>125</v>
       </c>
       <c r="N510" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O510" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P510" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="511" spans="1:16">
       <c r="A511" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B511" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C511">
-        <v>5136</v>
+        <v>657595.95</v>
       </c>
       <c r="D511" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E511" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G511" t="s">
         <v>95</v>
@@ -25225,45 +25225,45 @@
         <v>99</v>
       </c>
       <c r="I511" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J511" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K511" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L511" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M511" t="s">
         <v>125</v>
       </c>
       <c r="N511" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O511" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P511" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="512" spans="1:16">
       <c r="A512" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B512" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C512">
         <v>657595.95</v>
       </c>
       <c r="D512" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E512" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G512" t="s">
         <v>95</v>
@@ -25272,45 +25272,45 @@
         <v>99</v>
       </c>
       <c r="I512" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J512" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K512" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L512" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M512" t="s">
         <v>125</v>
       </c>
       <c r="N512" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O512" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P512" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="513" spans="1:16">
       <c r="A513" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B513" t="s">
         <v>47</v>
       </c>
       <c r="C513">
-        <v>651617.8100000001</v>
+        <v>657595.95</v>
       </c>
       <c r="D513" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E513" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G513" t="s">
         <v>95</v>
@@ -25319,28 +25319,28 @@
         <v>99</v>
       </c>
       <c r="I513" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J513" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K513" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L513" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M513" t="s">
         <v>125</v>
       </c>
       <c r="N513" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O513" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P513" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="514" spans="1:16">
@@ -25348,63 +25348,63 @@
         <v>28</v>
       </c>
       <c r="B514" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C514">
-        <v>716315.02</v>
+        <v>657595.95</v>
       </c>
       <c r="D514" t="s">
         <v>72</v>
       </c>
       <c r="E514" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G514" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H514" t="s">
         <v>99</v>
       </c>
       <c r="I514" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J514" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K514" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L514" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M514" t="s">
         <v>125</v>
       </c>
       <c r="N514" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O514" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P514" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="515" spans="1:16">
       <c r="A515" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B515" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C515">
-        <v>3850</v>
+        <v>651617.8100000001</v>
       </c>
       <c r="D515" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E515" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G515" t="s">
         <v>95</v>
@@ -25413,25 +25413,25 @@
         <v>99</v>
       </c>
       <c r="I515" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J515" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K515" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L515" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M515" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N515" t="s">
         <v>135</v>
       </c>
       <c r="O515" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="P515" t="s">
         <v>181</v>
@@ -25439,31 +25439,31 @@
     </row>
     <row r="516" spans="1:16">
       <c r="A516" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B516" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C516">
-        <v>25999</v>
+        <v>651617.8100000001</v>
       </c>
       <c r="D516" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E516" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G516" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H516" t="s">
         <v>99</v>
       </c>
       <c r="I516" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J516" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K516" t="s">
         <v>115</v>
@@ -25472,13 +25472,13 @@
         <v>123</v>
       </c>
       <c r="M516" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N516" t="s">
         <v>135</v>
       </c>
       <c r="O516" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="P516" t="s">
         <v>181</v>
@@ -25486,49 +25486,49 @@
     </row>
     <row r="517" spans="1:16">
       <c r="A517" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B517" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C517">
-        <v>326.25</v>
+        <v>716315.02</v>
       </c>
       <c r="D517" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E517" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="G517" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H517" t="s">
         <v>99</v>
       </c>
       <c r="I517" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J517" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K517" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L517" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M517" t="s">
         <v>125</v>
       </c>
       <c r="N517" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O517" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="P517" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="518" spans="1:16">
@@ -25554,7 +25554,7 @@
         <v>99</v>
       </c>
       <c r="I518" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J518" t="s">
         <v>108</v>
@@ -25601,7 +25601,7 @@
         <v>99</v>
       </c>
       <c r="I519" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J519" t="s">
         <v>108</v>
@@ -25648,7 +25648,7 @@
         <v>99</v>
       </c>
       <c r="I520" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J520" t="s">
         <v>108</v>
@@ -25695,7 +25695,7 @@
         <v>99</v>
       </c>
       <c r="I521" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J521" t="s">
         <v>108</v>
@@ -25742,7 +25742,7 @@
         <v>99</v>
       </c>
       <c r="I522" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J522" t="s">
         <v>108</v>
@@ -25789,7 +25789,7 @@
         <v>99</v>
       </c>
       <c r="I523" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J523" t="s">
         <v>108</v>
@@ -25836,7 +25836,7 @@
         <v>99</v>
       </c>
       <c r="I524" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J524" t="s">
         <v>108</v>
@@ -25883,7 +25883,7 @@
         <v>99</v>
       </c>
       <c r="I525" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J525" t="s">
         <v>108</v>
@@ -25930,7 +25930,7 @@
         <v>99</v>
       </c>
       <c r="I526" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J526" t="s">
         <v>108</v>
@@ -25977,7 +25977,7 @@
         <v>99</v>
       </c>
       <c r="I527" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J527" t="s">
         <v>108</v>
@@ -26024,7 +26024,7 @@
         <v>99</v>
       </c>
       <c r="I528" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J528" t="s">
         <v>108</v>
@@ -26056,10 +26056,10 @@
         <v>32</v>
       </c>
       <c r="C529">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D529" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E529" t="s">
         <v>76</v>
@@ -26071,7 +26071,7 @@
         <v>99</v>
       </c>
       <c r="I529" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J529" t="s">
         <v>108</v>
@@ -26118,7 +26118,7 @@
         <v>99</v>
       </c>
       <c r="I530" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J530" t="s">
         <v>108</v>
@@ -26165,7 +26165,7 @@
         <v>99</v>
       </c>
       <c r="I531" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J531" t="s">
         <v>108</v>
@@ -26212,7 +26212,7 @@
         <v>99</v>
       </c>
       <c r="I532" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J532" t="s">
         <v>108</v>
@@ -26259,7 +26259,7 @@
         <v>99</v>
       </c>
       <c r="I533" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J533" t="s">
         <v>108</v>
@@ -26306,7 +26306,7 @@
         <v>99</v>
       </c>
       <c r="I534" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J534" t="s">
         <v>108</v>
@@ -26353,7 +26353,7 @@
         <v>99</v>
       </c>
       <c r="I535" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J535" t="s">
         <v>108</v>
@@ -26400,7 +26400,7 @@
         <v>99</v>
       </c>
       <c r="I536" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J536" t="s">
         <v>108</v>
@@ -26447,7 +26447,7 @@
         <v>99</v>
       </c>
       <c r="I537" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J537" t="s">
         <v>108</v>
@@ -26494,7 +26494,7 @@
         <v>99</v>
       </c>
       <c r="I538" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J538" t="s">
         <v>108</v>
@@ -26541,7 +26541,7 @@
         <v>99</v>
       </c>
       <c r="I539" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J539" t="s">
         <v>108</v>
@@ -26588,7 +26588,7 @@
         <v>99</v>
       </c>
       <c r="I540" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J540" t="s">
         <v>108</v>
@@ -26620,10 +26620,10 @@
         <v>32</v>
       </c>
       <c r="C541">
-        <v>13365</v>
+        <v>489.58</v>
       </c>
       <c r="D541" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E541" t="s">
         <v>76</v>
@@ -26635,7 +26635,7 @@
         <v>99</v>
       </c>
       <c r="I541" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J541" t="s">
         <v>108</v>
@@ -26667,10 +26667,10 @@
         <v>32</v>
       </c>
       <c r="C542">
-        <v>3382.5</v>
+        <v>13365</v>
       </c>
       <c r="D542" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E542" t="s">
         <v>76</v>
@@ -26682,7 +26682,7 @@
         <v>99</v>
       </c>
       <c r="I542" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J542" t="s">
         <v>108</v>
@@ -26729,7 +26729,7 @@
         <v>99</v>
       </c>
       <c r="I543" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J543" t="s">
         <v>108</v>
@@ -26761,10 +26761,10 @@
         <v>32</v>
       </c>
       <c r="C544">
-        <v>2167</v>
+        <v>3382.5</v>
       </c>
       <c r="D544" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E544" t="s">
         <v>76</v>
@@ -26776,7 +26776,7 @@
         <v>99</v>
       </c>
       <c r="I544" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J544" t="s">
         <v>108</v>
@@ -26808,10 +26808,10 @@
         <v>32</v>
       </c>
       <c r="C545">
-        <v>1479.25</v>
+        <v>2167</v>
       </c>
       <c r="D545" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E545" t="s">
         <v>76</v>
@@ -26823,7 +26823,7 @@
         <v>99</v>
       </c>
       <c r="I545" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J545" t="s">
         <v>108</v>
@@ -26870,7 +26870,7 @@
         <v>99</v>
       </c>
       <c r="I546" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J546" t="s">
         <v>108</v>
@@ -26917,7 +26917,7 @@
         <v>99</v>
       </c>
       <c r="I547" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J547" t="s">
         <v>108</v>
@@ -26964,7 +26964,7 @@
         <v>99</v>
       </c>
       <c r="I548" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J548" t="s">
         <v>108</v>
@@ -26990,16 +26990,16 @@
     </row>
     <row r="549" spans="1:16">
       <c r="A549" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B549" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C549">
-        <v>53807</v>
+        <v>1479.25</v>
       </c>
       <c r="D549" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E549" t="s">
         <v>76</v>
@@ -27011,7 +27011,7 @@
         <v>99</v>
       </c>
       <c r="I549" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J549" t="s">
         <v>108</v>
@@ -27037,19 +27037,19 @@
     </row>
     <row r="550" spans="1:16">
       <c r="A550" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B550" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C550">
-        <v>780</v>
+        <v>53807</v>
       </c>
       <c r="D550" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E550" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G550" t="s">
         <v>95</v>
@@ -27058,7 +27058,7 @@
         <v>99</v>
       </c>
       <c r="I550" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J550" t="s">
         <v>108</v>
@@ -27084,19 +27084,19 @@
     </row>
     <row r="551" spans="1:16">
       <c r="A551" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B551" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C551">
-        <v>1</v>
+        <v>780</v>
       </c>
       <c r="D551" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E551" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G551" t="s">
         <v>95</v>
@@ -27105,72 +27105,72 @@
         <v>99</v>
       </c>
       <c r="I551" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J551" t="s">
         <v>108</v>
       </c>
       <c r="K551" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L551" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M551" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N551" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O551" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="P551" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="552" spans="1:16">
       <c r="A552" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B552" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C552">
-        <v>1</v>
+        <v>15000</v>
       </c>
       <c r="D552" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E552" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G552" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H552" t="s">
         <v>99</v>
       </c>
       <c r="I552" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J552" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K552" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L552" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M552" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N552" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="O552" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P552" t="s">
         <v>183</v>

--- a/data/excel_tables/3.2_movable_property.xlsx
+++ b/data/excel_tables/3.2_movable_property.xlsx
@@ -97,13 +97,13 @@
     <t>Електронні пристрої</t>
   </si>
   <si>
-    <t>офісне обладнання</t>
-  </si>
-  <si>
     <t>Вантажний автомобіль</t>
   </si>
   <si>
     <t>Дизельний генератор G90QS</t>
+  </si>
+  <si>
+    <t>офісне обладнання</t>
   </si>
   <si>
     <t>Ноутбук Dell Inspiron 3521</t>
@@ -151,13 +151,10 @@
     <t>18.09.2019</t>
   </si>
   <si>
-    <t>01.09.2020</t>
+    <t>31.07.2023</t>
   </si>
   <si>
-    <t>17.11.2021</t>
-  </si>
-  <si>
-    <t>31.07.2023</t>
+    <t>20.09.2023</t>
   </si>
   <si>
     <t>03.08.2023</t>
@@ -166,10 +163,13 @@
     <t>02.01.2023</t>
   </si>
   <si>
-    <t>01.01.2024</t>
+    <t>01.09.2020</t>
   </si>
   <si>
-    <t>20.09.2023</t>
+    <t>17.11.2021</t>
+  </si>
+  <si>
+    <t>01.01.2024</t>
   </si>
   <si>
     <t>Банер 1*2,5</t>
@@ -229,13 +229,13 @@
     <t xml:space="preserve">Комп'ютер </t>
   </si>
   <si>
-    <t>Ноутбук Леново</t>
-  </si>
-  <si>
     <t>Вантажний автомобіль, придбаний за договором комісії для передачі на ЗСУ</t>
   </si>
   <si>
     <t>Дизельний генератор</t>
+  </si>
+  <si>
+    <t>Ноутбук Леново</t>
   </si>
   <si>
     <t>Ноутбук</t>
@@ -277,6 +277,12 @@
     <t>SAMSUNG</t>
   </si>
   <si>
+    <t>DAF TRUCKS NV</t>
+  </si>
+  <si>
+    <t>ВЕЛИКОБРИТАНІЯ</t>
+  </si>
+  <si>
     <t>ТОВ "ГУМ"</t>
   </si>
   <si>
@@ -284,12 +290,6 @@
   </si>
   <si>
     <t>LENOVO UKRAINE</t>
-  </si>
-  <si>
-    <t>DAF TRUCKS NV</t>
-  </si>
-  <si>
-    <t>ВЕЛИКОБРИТАНІЯ</t>
   </si>
   <si>
     <t>DELL</t>
@@ -355,13 +355,13 @@
     <t>ПОЛІТИЧНА ПАРТІЯ "УКРАЇНСЬКА СТРАТЕГІЯ ГРОЙСМАНА"</t>
   </si>
   <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ «ЄВРОПЕЙСЬКА СОЛІДАРНІСТЬ»</t>
+  </si>
+  <si>
     <t>ПОЛІТИЧНА ПАРТІЯ «ПРОПОЗИЦІЯ»</t>
   </si>
   <si>
     <t>КИЇВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА"</t>
-  </si>
-  <si>
-    <t>ПОЛІТИЧНА ПАРТІЯ «ЄВРОПЕЙСЬКА СОЛІДАРНІСТЬ»</t>
   </si>
   <si>
     <t>ЧЕРНІГІВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА"</t>
@@ -379,13 +379,13 @@
     <t>39610682</t>
   </si>
   <si>
+    <t>21715714</t>
+  </si>
+  <si>
     <t>39550414</t>
   </si>
   <si>
     <t>36948703</t>
-  </si>
-  <si>
-    <t>21715714</t>
   </si>
   <si>
     <t>36806043</t>
@@ -415,13 +415,13 @@
     <t>УКРАЇНСЬКА СТРАТЕГІЯ ГРОЙСМАНА</t>
   </si>
   <si>
+    <t>ЄВРОПЕЙСЬКА СОЛІДАРНІСТЬ</t>
+  </si>
+  <si>
     <t>ПРОПОЗИЦІЯ</t>
   </si>
   <si>
     <t>УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА</t>
-  </si>
-  <si>
-    <t>ЄВРОПЕЙСЬКА СОЛІДАРНІСТЬ</t>
   </si>
   <si>
     <t>00049153</t>
@@ -478,6 +478,9 @@
     <t>02344060-ead0-11ee-a826-5536b50ce648</t>
   </si>
   <si>
+    <t>6cd10940-eb6f-11ee-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
     <t>6d9e1710-eb8c-11ee-95c4-e7bfad33aba2</t>
   </si>
   <si>
@@ -502,6 +505,9 @@
     <t>62173560-03ca-11ef-bce9-638f8e04ad34</t>
   </si>
   <si>
+    <t>6e909670-02cf-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
     <t>3cccc650-031e-11ef-a826-5536b50ce648</t>
   </si>
   <si>
@@ -509,6 +515,9 @@
   </si>
   <si>
     <t>020f77e0-03ca-11ef-bce9-638f8e04ad34</t>
+  </si>
+  <si>
+    <t>191ba350-03cf-11ef-938a-5514903835ea</t>
   </si>
   <si>
     <t>a06434d0-03cf-11ef-95c4-e7bfad33aba2</t>
@@ -557,15 +566,6 @@
   </si>
   <si>
     <t>7582da50-87cd-11ef-9f9f-af297e478ff7</t>
-  </si>
-  <si>
-    <t>6cd10940-eb6f-11ee-95c4-e7bfad33aba2</t>
-  </si>
-  <si>
-    <t>6e909670-02cf-11ef-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>191ba350-03cf-11ef-938a-5514903835ea</t>
   </si>
 </sst>
 </file>
@@ -19711,22 +19711,22 @@
         <v>45</v>
       </c>
       <c r="C394">
-        <v>10389.19</v>
+        <v>657595.95</v>
       </c>
       <c r="D394" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="E394" t="s">
         <v>87</v>
       </c>
       <c r="G394" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H394" t="s">
         <v>99</v>
       </c>
       <c r="I394" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J394" t="s">
         <v>106</v>
@@ -19758,22 +19758,22 @@
         <v>45</v>
       </c>
       <c r="C395">
-        <v>10389.19</v>
+        <v>657595.95</v>
       </c>
       <c r="D395" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="E395" t="s">
         <v>87</v>
       </c>
       <c r="G395" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H395" t="s">
         <v>99</v>
       </c>
       <c r="I395" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J395" t="s">
         <v>106</v>
@@ -19794,7 +19794,7 @@
         <v>121</v>
       </c>
       <c r="P395" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="396" spans="1:16">
@@ -19805,22 +19805,22 @@
         <v>45</v>
       </c>
       <c r="C396">
-        <v>10389.19</v>
+        <v>657595.95</v>
       </c>
       <c r="D396" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="E396" t="s">
         <v>87</v>
       </c>
       <c r="G396" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H396" t="s">
         <v>99</v>
       </c>
       <c r="I396" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J396" t="s">
         <v>106</v>
@@ -19841,7 +19841,7 @@
         <v>121</v>
       </c>
       <c r="P396" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="397" spans="1:16">
@@ -19852,22 +19852,22 @@
         <v>45</v>
       </c>
       <c r="C397">
-        <v>10389.19</v>
+        <v>657595.95</v>
       </c>
       <c r="D397" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="E397" t="s">
         <v>87</v>
       </c>
       <c r="G397" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H397" t="s">
         <v>99</v>
       </c>
       <c r="I397" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="J397" t="s">
         <v>106</v>
@@ -19888,71 +19888,71 @@
         <v>121</v>
       </c>
       <c r="P397" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="398" spans="1:16">
       <c r="A398" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B398" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C398">
-        <v>15000</v>
+        <v>657595.95</v>
       </c>
       <c r="D398" t="s">
         <v>71</v>
       </c>
       <c r="E398" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G398" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H398" t="s">
         <v>99</v>
       </c>
       <c r="I398" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="J398" t="s">
         <v>106</v>
       </c>
       <c r="K398" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L398" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M398" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N398" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O398" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="P398" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="399" spans="1:16">
       <c r="A399" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B399" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C399">
-        <v>1</v>
+        <v>657595.95</v>
       </c>
       <c r="D399" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E399" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G399" t="s">
         <v>95</v>
@@ -19961,45 +19961,45 @@
         <v>99</v>
       </c>
       <c r="I399" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J399" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K399" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L399" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M399" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N399" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O399" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="P399" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="400" spans="1:16">
       <c r="A400" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B400" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C400">
-        <v>1</v>
+        <v>651617.8100000001</v>
       </c>
       <c r="D400" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E400" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G400" t="s">
         <v>95</v>
@@ -20008,45 +20008,45 @@
         <v>99</v>
       </c>
       <c r="I400" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J400" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K400" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L400" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M400" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N400" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O400" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="P400" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="401" spans="1:16">
       <c r="A401" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B401" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C401">
-        <v>3480</v>
+        <v>651617.8100000001</v>
       </c>
       <c r="D401" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E401" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G401" t="s">
         <v>95</v>
@@ -20058,45 +20058,45 @@
         <v>104</v>
       </c>
       <c r="J401" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K401" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L401" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M401" t="s">
         <v>125</v>
       </c>
       <c r="N401" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O401" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P401" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="402" spans="1:16">
       <c r="A402" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B402" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C402">
-        <v>5136</v>
+        <v>716315.02</v>
       </c>
       <c r="D402" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E402" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G402" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H402" t="s">
         <v>99</v>
@@ -20105,51 +20105,51 @@
         <v>104</v>
       </c>
       <c r="J402" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K402" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L402" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M402" t="s">
         <v>125</v>
       </c>
       <c r="N402" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O402" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P402" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="403" spans="1:16">
       <c r="A403" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B403" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C403">
-        <v>15000</v>
+        <v>10389.19</v>
       </c>
       <c r="D403" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E403" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G403" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H403" t="s">
         <v>99</v>
       </c>
       <c r="I403" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J403" t="s">
         <v>106</v>
@@ -20161,136 +20161,136 @@
         <v>122</v>
       </c>
       <c r="M403" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N403" t="s">
         <v>134</v>
       </c>
       <c r="O403" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="P403" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="404" spans="1:16">
       <c r="A404" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B404" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C404">
-        <v>3480</v>
+        <v>10389.19</v>
       </c>
       <c r="D404" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="E404" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G404" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H404" t="s">
         <v>99</v>
       </c>
       <c r="I404" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J404" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K404" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L404" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M404" t="s">
         <v>125</v>
       </c>
       <c r="N404" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O404" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P404" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="405" spans="1:16">
       <c r="A405" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B405" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C405">
-        <v>5136</v>
+        <v>10389.19</v>
       </c>
       <c r="D405" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="E405" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G405" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H405" t="s">
         <v>99</v>
       </c>
       <c r="I405" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J405" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K405" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L405" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M405" t="s">
         <v>125</v>
       </c>
       <c r="N405" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O405" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P405" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="406" spans="1:16">
       <c r="A406" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B406" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C406">
-        <v>15000</v>
+        <v>10389.19</v>
       </c>
       <c r="D406" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E406" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G406" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H406" t="s">
         <v>99</v>
       </c>
       <c r="I406" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J406" t="s">
         <v>106</v>
@@ -20302,16 +20302,16 @@
         <v>122</v>
       </c>
       <c r="M406" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N406" t="s">
         <v>134</v>
       </c>
       <c r="O406" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="P406" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="407" spans="1:16">
@@ -20319,16 +20319,16 @@
         <v>26</v>
       </c>
       <c r="B407" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C407">
         <v>15000</v>
       </c>
       <c r="D407" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E407" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G407" t="s">
         <v>98</v>
@@ -20337,122 +20337,122 @@
         <v>99</v>
       </c>
       <c r="I407" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J407" t="s">
         <v>106</v>
       </c>
       <c r="K407" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L407" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M407" t="s">
         <v>127</v>
       </c>
       <c r="N407" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O407" t="s">
         <v>137</v>
       </c>
       <c r="P407" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="408" spans="1:16">
       <c r="A408" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B408" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C408">
-        <v>15000</v>
+        <v>1</v>
       </c>
       <c r="D408" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E408" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G408" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H408" t="s">
         <v>99</v>
       </c>
       <c r="I408" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J408" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K408" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L408" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M408" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N408" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O408" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P408" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="409" spans="1:16">
       <c r="A409" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B409" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C409">
-        <v>15000</v>
+        <v>1</v>
       </c>
       <c r="D409" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E409" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G409" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H409" t="s">
         <v>99</v>
       </c>
       <c r="I409" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J409" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K409" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L409" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M409" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N409" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O409" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P409" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="410" spans="1:16">
@@ -20460,46 +20460,46 @@
         <v>26</v>
       </c>
       <c r="B410" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C410">
-        <v>15000</v>
+        <v>3480</v>
       </c>
       <c r="D410" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E410" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G410" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H410" t="s">
         <v>99</v>
       </c>
       <c r="I410" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J410" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K410" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L410" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M410" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N410" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O410" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="P410" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="411" spans="1:16">
@@ -20507,75 +20507,75 @@
         <v>26</v>
       </c>
       <c r="B411" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C411">
-        <v>15000</v>
+        <v>5136</v>
       </c>
       <c r="D411" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E411" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G411" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H411" t="s">
         <v>99</v>
       </c>
       <c r="I411" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="J411" t="s">
         <v>105</v>
       </c>
       <c r="K411" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L411" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M411" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N411" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O411" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="P411" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="412" spans="1:16">
       <c r="A412" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B412" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C412">
-        <v>657595.95</v>
+        <v>15000</v>
       </c>
       <c r="D412" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E412" t="s">
         <v>90</v>
       </c>
       <c r="G412" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H412" t="s">
         <v>99</v>
       </c>
       <c r="I412" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J412" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K412" t="s">
         <v>115</v>
@@ -20584,33 +20584,33 @@
         <v>123</v>
       </c>
       <c r="M412" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N412" t="s">
         <v>135</v>
       </c>
       <c r="O412" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="P412" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="413" spans="1:16">
       <c r="A413" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B413" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C413">
-        <v>657595.95</v>
+        <v>326.25</v>
       </c>
       <c r="D413" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="E413" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="G413" t="s">
         <v>95</v>
@@ -20625,39 +20625,39 @@
         <v>108</v>
       </c>
       <c r="K413" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L413" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M413" t="s">
         <v>125</v>
       </c>
       <c r="N413" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O413" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="P413" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="414" spans="1:16">
       <c r="A414" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B414" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C414">
-        <v>651617.8100000001</v>
+        <v>326.25</v>
       </c>
       <c r="D414" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="E414" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="G414" t="s">
         <v>95</v>
@@ -20672,42 +20672,42 @@
         <v>108</v>
       </c>
       <c r="K414" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L414" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M414" t="s">
         <v>125</v>
       </c>
       <c r="N414" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O414" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="P414" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="415" spans="1:16">
       <c r="A415" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B415" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C415">
-        <v>716315.02</v>
+        <v>326.25</v>
       </c>
       <c r="D415" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E415" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="G415" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H415" t="s">
         <v>99</v>
@@ -20719,39 +20719,39 @@
         <v>108</v>
       </c>
       <c r="K415" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L415" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M415" t="s">
         <v>125</v>
       </c>
       <c r="N415" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O415" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="P415" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="416" spans="1:16">
       <c r="A416" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B416" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C416">
-        <v>353478</v>
+        <v>326.25</v>
       </c>
       <c r="D416" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E416" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G416" t="s">
         <v>95</v>
@@ -20766,39 +20766,39 @@
         <v>108</v>
       </c>
       <c r="K416" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L416" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M416" t="s">
         <v>125</v>
       </c>
       <c r="N416" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O416" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P416" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="417" spans="1:16">
       <c r="A417" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B417" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C417">
-        <v>546699.9</v>
+        <v>326.25</v>
       </c>
       <c r="D417" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E417" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G417" t="s">
         <v>95</v>
@@ -20813,39 +20813,39 @@
         <v>108</v>
       </c>
       <c r="K417" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L417" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M417" t="s">
         <v>125</v>
       </c>
       <c r="N417" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O417" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P417" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="418" spans="1:16">
       <c r="A418" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B418" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C418">
-        <v>257823</v>
+        <v>326.25</v>
       </c>
       <c r="D418" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E418" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G418" t="s">
         <v>95</v>
@@ -20860,39 +20860,39 @@
         <v>108</v>
       </c>
       <c r="K418" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L418" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M418" t="s">
         <v>125</v>
       </c>
       <c r="N418" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O418" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P418" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="419" spans="1:16">
       <c r="A419" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B419" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C419">
-        <v>1570762.55</v>
+        <v>326.25</v>
       </c>
       <c r="D419" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E419" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G419" t="s">
         <v>95</v>
@@ -20907,42 +20907,42 @@
         <v>108</v>
       </c>
       <c r="K419" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L419" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M419" t="s">
         <v>125</v>
       </c>
       <c r="N419" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O419" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P419" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="420" spans="1:16">
       <c r="A420" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B420" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C420">
-        <v>172818</v>
+        <v>326.25</v>
       </c>
       <c r="D420" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E420" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G420" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H420" t="s">
         <v>99</v>
@@ -20954,39 +20954,39 @@
         <v>108</v>
       </c>
       <c r="K420" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L420" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M420" t="s">
         <v>125</v>
       </c>
       <c r="N420" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O420" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P420" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="421" spans="1:16">
       <c r="A421" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B421" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C421">
-        <v>3480</v>
+        <v>326.25</v>
       </c>
       <c r="D421" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E421" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G421" t="s">
         <v>95</v>
@@ -21001,39 +21001,39 @@
         <v>108</v>
       </c>
       <c r="K421" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L421" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M421" t="s">
         <v>125</v>
       </c>
       <c r="N421" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O421" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P421" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="422" spans="1:16">
       <c r="A422" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B422" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C422">
-        <v>5136</v>
+        <v>326.25</v>
       </c>
       <c r="D422" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E422" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G422" t="s">
         <v>95</v>
@@ -21048,39 +21048,39 @@
         <v>108</v>
       </c>
       <c r="K422" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L422" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M422" t="s">
         <v>125</v>
       </c>
       <c r="N422" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O422" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P422" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="423" spans="1:16">
       <c r="A423" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B423" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C423">
-        <v>3850</v>
+        <v>326.25</v>
       </c>
       <c r="D423" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E423" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="G423" t="s">
         <v>95</v>
@@ -21095,42 +21095,42 @@
         <v>108</v>
       </c>
       <c r="K423" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="L423" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="M423" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N423" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O423" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="P423" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="424" spans="1:16">
       <c r="A424" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B424" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C424">
-        <v>25999</v>
+        <v>326.25</v>
       </c>
       <c r="D424" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="E424" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="G424" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H424" t="s">
         <v>99</v>
@@ -21142,39 +21142,39 @@
         <v>108</v>
       </c>
       <c r="K424" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="L424" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M424" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N424" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O424" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="P424" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="425" spans="1:16">
       <c r="A425" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B425" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C425">
-        <v>1</v>
+        <v>489.58</v>
       </c>
       <c r="D425" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E425" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G425" t="s">
         <v>95</v>
@@ -21183,45 +21183,45 @@
         <v>99</v>
       </c>
       <c r="I425" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J425" t="s">
         <v>108</v>
       </c>
       <c r="K425" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L425" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M425" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N425" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O425" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="P425" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="426" spans="1:16">
       <c r="A426" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B426" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C426">
-        <v>1</v>
+        <v>489.58</v>
       </c>
       <c r="D426" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E426" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G426" t="s">
         <v>95</v>
@@ -21230,28 +21230,28 @@
         <v>99</v>
       </c>
       <c r="I426" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J426" t="s">
         <v>108</v>
       </c>
       <c r="K426" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L426" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M426" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N426" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O426" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="P426" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="427" spans="1:16">
@@ -21262,10 +21262,10 @@
         <v>32</v>
       </c>
       <c r="C427">
-        <v>326.25</v>
+        <v>489.58</v>
       </c>
       <c r="D427" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E427" t="s">
         <v>76</v>
@@ -21277,7 +21277,7 @@
         <v>99</v>
       </c>
       <c r="I427" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J427" t="s">
         <v>108</v>
@@ -21298,7 +21298,7 @@
         <v>117</v>
       </c>
       <c r="P427" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="428" spans="1:16">
@@ -21309,10 +21309,10 @@
         <v>32</v>
       </c>
       <c r="C428">
-        <v>326.25</v>
+        <v>489.58</v>
       </c>
       <c r="D428" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E428" t="s">
         <v>76</v>
@@ -21324,7 +21324,7 @@
         <v>99</v>
       </c>
       <c r="I428" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J428" t="s">
         <v>108</v>
@@ -21345,7 +21345,7 @@
         <v>117</v>
       </c>
       <c r="P428" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="429" spans="1:16">
@@ -21356,10 +21356,10 @@
         <v>32</v>
       </c>
       <c r="C429">
-        <v>326.25</v>
+        <v>489.58</v>
       </c>
       <c r="D429" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E429" t="s">
         <v>76</v>
@@ -21371,7 +21371,7 @@
         <v>99</v>
       </c>
       <c r="I429" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J429" t="s">
         <v>108</v>
@@ -21392,7 +21392,7 @@
         <v>117</v>
       </c>
       <c r="P429" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="430" spans="1:16">
@@ -21403,10 +21403,10 @@
         <v>32</v>
       </c>
       <c r="C430">
-        <v>326.25</v>
+        <v>489.58</v>
       </c>
       <c r="D430" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E430" t="s">
         <v>76</v>
@@ -21418,7 +21418,7 @@
         <v>99</v>
       </c>
       <c r="I430" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J430" t="s">
         <v>108</v>
@@ -21439,7 +21439,7 @@
         <v>117</v>
       </c>
       <c r="P430" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="431" spans="1:16">
@@ -21450,10 +21450,10 @@
         <v>32</v>
       </c>
       <c r="C431">
-        <v>326.25</v>
+        <v>489.58</v>
       </c>
       <c r="D431" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E431" t="s">
         <v>76</v>
@@ -21465,7 +21465,7 @@
         <v>99</v>
       </c>
       <c r="I431" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J431" t="s">
         <v>108</v>
@@ -21486,7 +21486,7 @@
         <v>117</v>
       </c>
       <c r="P431" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="432" spans="1:16">
@@ -21497,10 +21497,10 @@
         <v>32</v>
       </c>
       <c r="C432">
-        <v>326.25</v>
+        <v>489.58</v>
       </c>
       <c r="D432" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E432" t="s">
         <v>76</v>
@@ -21512,7 +21512,7 @@
         <v>99</v>
       </c>
       <c r="I432" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J432" t="s">
         <v>108</v>
@@ -21533,7 +21533,7 @@
         <v>117</v>
       </c>
       <c r="P432" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="433" spans="1:16">
@@ -21544,10 +21544,10 @@
         <v>32</v>
       </c>
       <c r="C433">
-        <v>326.25</v>
+        <v>489.58</v>
       </c>
       <c r="D433" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E433" t="s">
         <v>76</v>
@@ -21559,7 +21559,7 @@
         <v>99</v>
       </c>
       <c r="I433" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J433" t="s">
         <v>108</v>
@@ -21580,7 +21580,7 @@
         <v>117</v>
       </c>
       <c r="P433" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="434" spans="1:16">
@@ -21591,10 +21591,10 @@
         <v>32</v>
       </c>
       <c r="C434">
-        <v>326.25</v>
+        <v>489.58</v>
       </c>
       <c r="D434" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E434" t="s">
         <v>76</v>
@@ -21606,7 +21606,7 @@
         <v>99</v>
       </c>
       <c r="I434" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J434" t="s">
         <v>108</v>
@@ -21627,7 +21627,7 @@
         <v>117</v>
       </c>
       <c r="P434" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="435" spans="1:16">
@@ -21638,10 +21638,10 @@
         <v>32</v>
       </c>
       <c r="C435">
-        <v>326.25</v>
+        <v>489.58</v>
       </c>
       <c r="D435" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E435" t="s">
         <v>76</v>
@@ -21653,7 +21653,7 @@
         <v>99</v>
       </c>
       <c r="I435" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J435" t="s">
         <v>108</v>
@@ -21674,7 +21674,7 @@
         <v>117</v>
       </c>
       <c r="P435" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="436" spans="1:16">
@@ -21685,10 +21685,10 @@
         <v>32</v>
       </c>
       <c r="C436">
-        <v>326.25</v>
+        <v>489.58</v>
       </c>
       <c r="D436" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E436" t="s">
         <v>76</v>
@@ -21700,7 +21700,7 @@
         <v>99</v>
       </c>
       <c r="I436" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J436" t="s">
         <v>108</v>
@@ -21721,7 +21721,7 @@
         <v>117</v>
       </c>
       <c r="P436" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="437" spans="1:16">
@@ -21732,10 +21732,10 @@
         <v>32</v>
       </c>
       <c r="C437">
-        <v>326.25</v>
+        <v>13365</v>
       </c>
       <c r="D437" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E437" t="s">
         <v>76</v>
@@ -21747,7 +21747,7 @@
         <v>99</v>
       </c>
       <c r="I437" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J437" t="s">
         <v>108</v>
@@ -21768,7 +21768,7 @@
         <v>117</v>
       </c>
       <c r="P437" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="438" spans="1:16">
@@ -21779,10 +21779,10 @@
         <v>32</v>
       </c>
       <c r="C438">
-        <v>326.25</v>
+        <v>3382.5</v>
       </c>
       <c r="D438" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E438" t="s">
         <v>76</v>
@@ -21794,7 +21794,7 @@
         <v>99</v>
       </c>
       <c r="I438" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J438" t="s">
         <v>108</v>
@@ -21815,7 +21815,7 @@
         <v>117</v>
       </c>
       <c r="P438" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="439" spans="1:16">
@@ -21826,10 +21826,10 @@
         <v>32</v>
       </c>
       <c r="C439">
-        <v>489.58</v>
+        <v>3382.5</v>
       </c>
       <c r="D439" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E439" t="s">
         <v>76</v>
@@ -21841,7 +21841,7 @@
         <v>99</v>
       </c>
       <c r="I439" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J439" t="s">
         <v>108</v>
@@ -21862,7 +21862,7 @@
         <v>117</v>
       </c>
       <c r="P439" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="440" spans="1:16">
@@ -21873,10 +21873,10 @@
         <v>32</v>
       </c>
       <c r="C440">
-        <v>489.58</v>
+        <v>2167</v>
       </c>
       <c r="D440" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E440" t="s">
         <v>76</v>
@@ -21888,7 +21888,7 @@
         <v>99</v>
       </c>
       <c r="I440" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J440" t="s">
         <v>108</v>
@@ -21909,7 +21909,7 @@
         <v>117</v>
       </c>
       <c r="P440" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="441" spans="1:16">
@@ -21920,10 +21920,10 @@
         <v>32</v>
       </c>
       <c r="C441">
-        <v>489.58</v>
+        <v>1479.25</v>
       </c>
       <c r="D441" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E441" t="s">
         <v>76</v>
@@ -21935,7 +21935,7 @@
         <v>99</v>
       </c>
       <c r="I441" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J441" t="s">
         <v>108</v>
@@ -21956,7 +21956,7 @@
         <v>117</v>
       </c>
       <c r="P441" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="442" spans="1:16">
@@ -21967,10 +21967,10 @@
         <v>32</v>
       </c>
       <c r="C442">
-        <v>489.58</v>
+        <v>1479.25</v>
       </c>
       <c r="D442" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E442" t="s">
         <v>76</v>
@@ -21982,7 +21982,7 @@
         <v>99</v>
       </c>
       <c r="I442" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J442" t="s">
         <v>108</v>
@@ -22003,7 +22003,7 @@
         <v>117</v>
       </c>
       <c r="P442" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="443" spans="1:16">
@@ -22014,10 +22014,10 @@
         <v>32</v>
       </c>
       <c r="C443">
-        <v>489.58</v>
+        <v>1479.25</v>
       </c>
       <c r="D443" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E443" t="s">
         <v>76</v>
@@ -22029,7 +22029,7 @@
         <v>99</v>
       </c>
       <c r="I443" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J443" t="s">
         <v>108</v>
@@ -22050,7 +22050,7 @@
         <v>117</v>
       </c>
       <c r="P443" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="444" spans="1:16">
@@ -22061,10 +22061,10 @@
         <v>32</v>
       </c>
       <c r="C444">
-        <v>489.58</v>
+        <v>1479.25</v>
       </c>
       <c r="D444" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E444" t="s">
         <v>76</v>
@@ -22076,7 +22076,7 @@
         <v>99</v>
       </c>
       <c r="I444" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J444" t="s">
         <v>108</v>
@@ -22097,21 +22097,21 @@
         <v>117</v>
       </c>
       <c r="P444" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="445" spans="1:16">
       <c r="A445" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B445" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C445">
-        <v>489.58</v>
+        <v>53807</v>
       </c>
       <c r="D445" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E445" t="s">
         <v>76</v>
@@ -22123,7 +22123,7 @@
         <v>99</v>
       </c>
       <c r="I445" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J445" t="s">
         <v>108</v>
@@ -22144,7 +22144,7 @@
         <v>117</v>
       </c>
       <c r="P445" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="446" spans="1:16">
@@ -22152,16 +22152,16 @@
         <v>16</v>
       </c>
       <c r="B446" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C446">
-        <v>489.58</v>
+        <v>780</v>
       </c>
       <c r="D446" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E446" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G446" t="s">
         <v>95</v>
@@ -22170,7 +22170,7 @@
         <v>99</v>
       </c>
       <c r="I446" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J446" t="s">
         <v>108</v>
@@ -22191,24 +22191,24 @@
         <v>117</v>
       </c>
       <c r="P446" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="447" spans="1:16">
       <c r="A447" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B447" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C447">
-        <v>489.58</v>
+        <v>3480</v>
       </c>
       <c r="D447" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E447" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G447" t="s">
         <v>95</v>
@@ -22217,45 +22217,45 @@
         <v>99</v>
       </c>
       <c r="I447" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J447" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K447" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L447" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M447" t="s">
         <v>125</v>
       </c>
       <c r="N447" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O447" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P447" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="448" spans="1:16">
       <c r="A448" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B448" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C448">
-        <v>489.58</v>
+        <v>5136</v>
       </c>
       <c r="D448" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E448" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G448" t="s">
         <v>95</v>
@@ -22264,95 +22264,95 @@
         <v>99</v>
       </c>
       <c r="I448" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J448" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K448" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L448" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M448" t="s">
         <v>125</v>
       </c>
       <c r="N448" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O448" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P448" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="449" spans="1:16">
       <c r="A449" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B449" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C449">
-        <v>489.58</v>
+        <v>15000</v>
       </c>
       <c r="D449" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="E449" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="G449" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H449" t="s">
         <v>99</v>
       </c>
       <c r="I449" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J449" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K449" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L449" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M449" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N449" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O449" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="P449" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="450" spans="1:16">
       <c r="A450" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B450" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C450">
-        <v>489.58</v>
+        <v>15000</v>
       </c>
       <c r="D450" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="E450" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="G450" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H450" t="s">
         <v>99</v>
@@ -22361,45 +22361,45 @@
         <v>101</v>
       </c>
       <c r="J450" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K450" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L450" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M450" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N450" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O450" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="P450" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="451" spans="1:16">
       <c r="A451" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B451" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C451">
-        <v>13365</v>
+        <v>15000</v>
       </c>
       <c r="D451" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="E451" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="G451" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H451" t="s">
         <v>99</v>
@@ -22408,230 +22408,230 @@
         <v>101</v>
       </c>
       <c r="J451" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K451" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L451" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M451" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N451" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O451" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="P451" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="452" spans="1:16">
       <c r="A452" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B452" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C452">
-        <v>3382.5</v>
+        <v>15000</v>
       </c>
       <c r="D452" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="E452" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="G452" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H452" t="s">
         <v>99</v>
       </c>
       <c r="I452" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J452" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K452" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L452" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M452" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N452" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O452" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="P452" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="453" spans="1:16">
       <c r="A453" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B453" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C453">
-        <v>3382.5</v>
+        <v>15000</v>
       </c>
       <c r="D453" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="E453" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="G453" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H453" t="s">
         <v>99</v>
       </c>
       <c r="I453" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J453" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K453" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L453" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M453" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N453" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O453" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="P453" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="454" spans="1:16">
       <c r="A454" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B454" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C454">
-        <v>2167</v>
+        <v>15000</v>
       </c>
       <c r="D454" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E454" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="G454" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H454" t="s">
         <v>99</v>
       </c>
       <c r="I454" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J454" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K454" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L454" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M454" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N454" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O454" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="P454" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="455" spans="1:16">
       <c r="A455" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B455" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C455">
-        <v>1479.25</v>
+        <v>15000</v>
       </c>
       <c r="D455" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E455" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="G455" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H455" t="s">
         <v>99</v>
       </c>
       <c r="I455" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J455" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K455" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L455" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M455" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N455" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O455" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="P455" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="456" spans="1:16">
       <c r="A456" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B456" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C456">
-        <v>1479.25</v>
+        <v>657595.95</v>
       </c>
       <c r="D456" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E456" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G456" t="s">
         <v>95</v>
@@ -22640,45 +22640,45 @@
         <v>99</v>
       </c>
       <c r="I456" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J456" t="s">
         <v>108</v>
       </c>
       <c r="K456" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L456" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M456" t="s">
         <v>125</v>
       </c>
       <c r="N456" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O456" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P456" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="457" spans="1:16">
       <c r="A457" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B457" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C457">
-        <v>1479.25</v>
+        <v>657595.95</v>
       </c>
       <c r="D457" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E457" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G457" t="s">
         <v>95</v>
@@ -22687,45 +22687,45 @@
         <v>99</v>
       </c>
       <c r="I457" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J457" t="s">
         <v>108</v>
       </c>
       <c r="K457" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L457" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M457" t="s">
         <v>125</v>
       </c>
       <c r="N457" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O457" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P457" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="458" spans="1:16">
       <c r="A458" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B458" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C458">
-        <v>1479.25</v>
+        <v>651617.8100000001</v>
       </c>
       <c r="D458" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E458" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G458" t="s">
         <v>95</v>
@@ -22734,92 +22734,92 @@
         <v>99</v>
       </c>
       <c r="I458" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J458" t="s">
         <v>108</v>
       </c>
       <c r="K458" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L458" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M458" t="s">
         <v>125</v>
       </c>
       <c r="N458" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O458" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P458" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="459" spans="1:16">
       <c r="A459" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B459" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C459">
-        <v>53807</v>
+        <v>716315.02</v>
       </c>
       <c r="D459" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E459" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G459" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H459" t="s">
         <v>99</v>
       </c>
       <c r="I459" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J459" t="s">
         <v>108</v>
       </c>
       <c r="K459" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L459" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M459" t="s">
         <v>125</v>
       </c>
       <c r="N459" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O459" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P459" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="460" spans="1:16">
       <c r="A460" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B460" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C460">
-        <v>780</v>
+        <v>353478</v>
       </c>
       <c r="D460" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E460" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G460" t="s">
         <v>95</v>
@@ -22828,42 +22828,42 @@
         <v>99</v>
       </c>
       <c r="I460" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J460" t="s">
         <v>108</v>
       </c>
       <c r="K460" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L460" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M460" t="s">
         <v>125</v>
       </c>
       <c r="N460" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O460" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P460" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="461" spans="1:16">
       <c r="A461" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B461" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C461">
-        <v>353478</v>
+        <v>546699.9</v>
       </c>
       <c r="D461" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E461" t="s">
         <v>79</v>
@@ -22875,7 +22875,7 @@
         <v>99</v>
       </c>
       <c r="I461" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J461" t="s">
         <v>108</v>
@@ -22896,21 +22896,21 @@
         <v>119</v>
       </c>
       <c r="P461" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="462" spans="1:16">
       <c r="A462" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B462" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C462">
-        <v>546699.9</v>
+        <v>257823</v>
       </c>
       <c r="D462" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="E462" t="s">
         <v>79</v>
@@ -22922,7 +22922,7 @@
         <v>99</v>
       </c>
       <c r="I462" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J462" t="s">
         <v>108</v>
@@ -22943,24 +22943,24 @@
         <v>119</v>
       </c>
       <c r="P462" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="463" spans="1:16">
       <c r="A463" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B463" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C463">
-        <v>257823</v>
+        <v>1570762.55</v>
       </c>
       <c r="D463" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="E463" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G463" t="s">
         <v>95</v>
@@ -22969,7 +22969,7 @@
         <v>99</v>
       </c>
       <c r="I463" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J463" t="s">
         <v>108</v>
@@ -22990,33 +22990,33 @@
         <v>119</v>
       </c>
       <c r="P463" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="464" spans="1:16">
       <c r="A464" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B464" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C464">
-        <v>1570762.55</v>
+        <v>172818</v>
       </c>
       <c r="D464" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E464" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G464" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H464" t="s">
         <v>99</v>
       </c>
       <c r="I464" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J464" t="s">
         <v>108</v>
@@ -23037,54 +23037,54 @@
         <v>119</v>
       </c>
       <c r="P464" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="465" spans="1:16">
       <c r="A465" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B465" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C465">
-        <v>172818</v>
+        <v>3480</v>
       </c>
       <c r="D465" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E465" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G465" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H465" t="s">
         <v>99</v>
       </c>
       <c r="I465" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J465" t="s">
         <v>108</v>
       </c>
       <c r="K465" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L465" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M465" t="s">
         <v>125</v>
       </c>
       <c r="N465" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O465" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P465" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="466" spans="1:16">
@@ -23095,13 +23095,13 @@
         <v>44</v>
       </c>
       <c r="C466">
-        <v>3480</v>
+        <v>5136</v>
       </c>
       <c r="D466" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E466" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G466" t="s">
         <v>95</v>
@@ -23110,7 +23110,7 @@
         <v>99</v>
       </c>
       <c r="I466" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J466" t="s">
         <v>108</v>
@@ -23131,24 +23131,24 @@
         <v>120</v>
       </c>
       <c r="P466" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="467" spans="1:16">
       <c r="A467" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B467" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C467">
-        <v>5136</v>
+        <v>3850</v>
       </c>
       <c r="D467" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E467" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G467" t="s">
         <v>95</v>
@@ -23157,54 +23157,54 @@
         <v>99</v>
       </c>
       <c r="I467" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J467" t="s">
         <v>108</v>
       </c>
       <c r="K467" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L467" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M467" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N467" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O467" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="P467" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="468" spans="1:16">
       <c r="A468" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B468" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C468">
-        <v>657595.95</v>
+        <v>25999</v>
       </c>
       <c r="D468" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E468" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G468" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H468" t="s">
         <v>99</v>
       </c>
       <c r="I468" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J468" t="s">
         <v>108</v>
@@ -23216,33 +23216,33 @@
         <v>123</v>
       </c>
       <c r="M468" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N468" t="s">
         <v>135</v>
       </c>
       <c r="O468" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="P468" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="469" spans="1:16">
       <c r="A469" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B469" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C469">
-        <v>651617.8100000001</v>
+        <v>1</v>
       </c>
       <c r="D469" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E469" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G469" t="s">
         <v>95</v>
@@ -23257,42 +23257,42 @@
         <v>108</v>
       </c>
       <c r="K469" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="L469" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="M469" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N469" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="O469" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="P469" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="470" spans="1:16">
       <c r="A470" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B470" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C470">
-        <v>716315.02</v>
+        <v>1</v>
       </c>
       <c r="D470" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E470" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G470" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H470" t="s">
         <v>99</v>
@@ -23304,39 +23304,39 @@
         <v>108</v>
       </c>
       <c r="K470" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="L470" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="M470" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N470" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="O470" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="P470" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="471" spans="1:16">
       <c r="A471" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B471" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C471">
-        <v>3850</v>
+        <v>326.25</v>
       </c>
       <c r="D471" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E471" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="G471" t="s">
         <v>95</v>
@@ -23351,42 +23351,42 @@
         <v>108</v>
       </c>
       <c r="K471" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="L471" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="M471" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N471" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O471" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="P471" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="472" spans="1:16">
       <c r="A472" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B472" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C472">
-        <v>25999</v>
+        <v>326.25</v>
       </c>
       <c r="D472" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="E472" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="G472" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H472" t="s">
         <v>99</v>
@@ -23398,22 +23398,22 @@
         <v>108</v>
       </c>
       <c r="K472" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="L472" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M472" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N472" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O472" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="P472" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="473" spans="1:16">
@@ -23439,7 +23439,7 @@
         <v>99</v>
       </c>
       <c r="I473" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J473" t="s">
         <v>108</v>
@@ -23460,7 +23460,7 @@
         <v>117</v>
       </c>
       <c r="P473" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="474" spans="1:16">
@@ -23486,7 +23486,7 @@
         <v>99</v>
       </c>
       <c r="I474" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J474" t="s">
         <v>108</v>
@@ -23507,7 +23507,7 @@
         <v>117</v>
       </c>
       <c r="P474" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="475" spans="1:16">
@@ -23533,7 +23533,7 @@
         <v>99</v>
       </c>
       <c r="I475" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J475" t="s">
         <v>108</v>
@@ -23554,7 +23554,7 @@
         <v>117</v>
       </c>
       <c r="P475" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="476" spans="1:16">
@@ -23580,7 +23580,7 @@
         <v>99</v>
       </c>
       <c r="I476" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J476" t="s">
         <v>108</v>
@@ -23601,7 +23601,7 @@
         <v>117</v>
       </c>
       <c r="P476" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="477" spans="1:16">
@@ -23627,7 +23627,7 @@
         <v>99</v>
       </c>
       <c r="I477" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J477" t="s">
         <v>108</v>
@@ -23648,7 +23648,7 @@
         <v>117</v>
       </c>
       <c r="P477" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="478" spans="1:16">
@@ -23674,7 +23674,7 @@
         <v>99</v>
       </c>
       <c r="I478" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J478" t="s">
         <v>108</v>
@@ -23695,7 +23695,7 @@
         <v>117</v>
       </c>
       <c r="P478" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="479" spans="1:16">
@@ -23721,7 +23721,7 @@
         <v>99</v>
       </c>
       <c r="I479" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J479" t="s">
         <v>108</v>
@@ -23742,7 +23742,7 @@
         <v>117</v>
       </c>
       <c r="P479" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="480" spans="1:16">
@@ -23768,7 +23768,7 @@
         <v>99</v>
       </c>
       <c r="I480" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J480" t="s">
         <v>108</v>
@@ -23789,7 +23789,7 @@
         <v>117</v>
       </c>
       <c r="P480" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="481" spans="1:16">
@@ -23815,7 +23815,7 @@
         <v>99</v>
       </c>
       <c r="I481" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J481" t="s">
         <v>108</v>
@@ -23836,7 +23836,7 @@
         <v>117</v>
       </c>
       <c r="P481" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="482" spans="1:16">
@@ -23862,7 +23862,7 @@
         <v>99</v>
       </c>
       <c r="I482" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J482" t="s">
         <v>108</v>
@@ -23883,7 +23883,7 @@
         <v>117</v>
       </c>
       <c r="P482" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="483" spans="1:16">
@@ -23894,10 +23894,10 @@
         <v>32</v>
       </c>
       <c r="C483">
-        <v>326.25</v>
+        <v>489.58</v>
       </c>
       <c r="D483" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E483" t="s">
         <v>76</v>
@@ -23909,7 +23909,7 @@
         <v>99</v>
       </c>
       <c r="I483" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J483" t="s">
         <v>108</v>
@@ -23930,7 +23930,7 @@
         <v>117</v>
       </c>
       <c r="P483" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="484" spans="1:16">
@@ -23941,10 +23941,10 @@
         <v>32</v>
       </c>
       <c r="C484">
-        <v>326.25</v>
+        <v>489.58</v>
       </c>
       <c r="D484" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E484" t="s">
         <v>76</v>
@@ -23956,7 +23956,7 @@
         <v>99</v>
       </c>
       <c r="I484" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J484" t="s">
         <v>108</v>
@@ -23977,7 +23977,7 @@
         <v>117</v>
       </c>
       <c r="P484" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="485" spans="1:16">
@@ -24003,7 +24003,7 @@
         <v>99</v>
       </c>
       <c r="I485" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J485" t="s">
         <v>108</v>
@@ -24024,7 +24024,7 @@
         <v>117</v>
       </c>
       <c r="P485" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="486" spans="1:16">
@@ -24050,7 +24050,7 @@
         <v>99</v>
       </c>
       <c r="I486" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J486" t="s">
         <v>108</v>
@@ -24071,7 +24071,7 @@
         <v>117</v>
       </c>
       <c r="P486" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="487" spans="1:16">
@@ -24097,7 +24097,7 @@
         <v>99</v>
       </c>
       <c r="I487" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J487" t="s">
         <v>108</v>
@@ -24118,7 +24118,7 @@
         <v>117</v>
       </c>
       <c r="P487" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="488" spans="1:16">
@@ -24144,7 +24144,7 @@
         <v>99</v>
       </c>
       <c r="I488" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J488" t="s">
         <v>108</v>
@@ -24165,7 +24165,7 @@
         <v>117</v>
       </c>
       <c r="P488" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="489" spans="1:16">
@@ -24191,7 +24191,7 @@
         <v>99</v>
       </c>
       <c r="I489" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J489" t="s">
         <v>108</v>
@@ -24212,7 +24212,7 @@
         <v>117</v>
       </c>
       <c r="P489" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="490" spans="1:16">
@@ -24238,7 +24238,7 @@
         <v>99</v>
       </c>
       <c r="I490" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J490" t="s">
         <v>108</v>
@@ -24259,7 +24259,7 @@
         <v>117</v>
       </c>
       <c r="P490" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="491" spans="1:16">
@@ -24285,7 +24285,7 @@
         <v>99</v>
       </c>
       <c r="I491" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J491" t="s">
         <v>108</v>
@@ -24306,7 +24306,7 @@
         <v>117</v>
       </c>
       <c r="P491" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="492" spans="1:16">
@@ -24332,7 +24332,7 @@
         <v>99</v>
       </c>
       <c r="I492" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J492" t="s">
         <v>108</v>
@@ -24353,7 +24353,7 @@
         <v>117</v>
       </c>
       <c r="P492" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="493" spans="1:16">
@@ -24379,7 +24379,7 @@
         <v>99</v>
       </c>
       <c r="I493" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J493" t="s">
         <v>108</v>
@@ -24400,7 +24400,7 @@
         <v>117</v>
       </c>
       <c r="P493" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="494" spans="1:16">
@@ -24426,7 +24426,7 @@
         <v>99</v>
       </c>
       <c r="I494" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J494" t="s">
         <v>108</v>
@@ -24447,7 +24447,7 @@
         <v>117</v>
       </c>
       <c r="P494" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="495" spans="1:16">
@@ -24458,10 +24458,10 @@
         <v>32</v>
       </c>
       <c r="C495">
-        <v>489.58</v>
+        <v>13365</v>
       </c>
       <c r="D495" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E495" t="s">
         <v>76</v>
@@ -24473,7 +24473,7 @@
         <v>99</v>
       </c>
       <c r="I495" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J495" t="s">
         <v>108</v>
@@ -24494,7 +24494,7 @@
         <v>117</v>
       </c>
       <c r="P495" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="496" spans="1:16">
@@ -24505,10 +24505,10 @@
         <v>32</v>
       </c>
       <c r="C496">
-        <v>489.58</v>
+        <v>3382.5</v>
       </c>
       <c r="D496" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E496" t="s">
         <v>76</v>
@@ -24520,7 +24520,7 @@
         <v>99</v>
       </c>
       <c r="I496" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J496" t="s">
         <v>108</v>
@@ -24541,7 +24541,7 @@
         <v>117</v>
       </c>
       <c r="P496" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="497" spans="1:16">
@@ -24552,10 +24552,10 @@
         <v>32</v>
       </c>
       <c r="C497">
-        <v>13365</v>
+        <v>3382.5</v>
       </c>
       <c r="D497" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E497" t="s">
         <v>76</v>
@@ -24567,7 +24567,7 @@
         <v>99</v>
       </c>
       <c r="I497" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J497" t="s">
         <v>108</v>
@@ -24588,7 +24588,7 @@
         <v>117</v>
       </c>
       <c r="P497" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="498" spans="1:16">
@@ -24599,10 +24599,10 @@
         <v>32</v>
       </c>
       <c r="C498">
-        <v>3382.5</v>
+        <v>2167</v>
       </c>
       <c r="D498" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E498" t="s">
         <v>76</v>
@@ -24614,7 +24614,7 @@
         <v>99</v>
       </c>
       <c r="I498" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J498" t="s">
         <v>108</v>
@@ -24635,7 +24635,7 @@
         <v>117</v>
       </c>
       <c r="P498" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="499" spans="1:16">
@@ -24646,10 +24646,10 @@
         <v>32</v>
       </c>
       <c r="C499">
-        <v>3382.5</v>
+        <v>1479.25</v>
       </c>
       <c r="D499" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E499" t="s">
         <v>76</v>
@@ -24661,7 +24661,7 @@
         <v>99</v>
       </c>
       <c r="I499" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J499" t="s">
         <v>108</v>
@@ -24682,7 +24682,7 @@
         <v>117</v>
       </c>
       <c r="P499" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="500" spans="1:16">
@@ -24693,10 +24693,10 @@
         <v>32</v>
       </c>
       <c r="C500">
-        <v>2167</v>
+        <v>1479.25</v>
       </c>
       <c r="D500" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E500" t="s">
         <v>76</v>
@@ -24708,7 +24708,7 @@
         <v>99</v>
       </c>
       <c r="I500" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J500" t="s">
         <v>108</v>
@@ -24729,7 +24729,7 @@
         <v>117</v>
       </c>
       <c r="P500" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="501" spans="1:16">
@@ -24755,7 +24755,7 @@
         <v>99</v>
       </c>
       <c r="I501" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J501" t="s">
         <v>108</v>
@@ -24776,7 +24776,7 @@
         <v>117</v>
       </c>
       <c r="P501" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="502" spans="1:16">
@@ -24802,7 +24802,7 @@
         <v>99</v>
       </c>
       <c r="I502" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J502" t="s">
         <v>108</v>
@@ -24823,21 +24823,21 @@
         <v>117</v>
       </c>
       <c r="P502" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="503" spans="1:16">
       <c r="A503" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B503" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C503">
-        <v>1479.25</v>
+        <v>53807</v>
       </c>
       <c r="D503" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E503" t="s">
         <v>76</v>
@@ -24849,7 +24849,7 @@
         <v>99</v>
       </c>
       <c r="I503" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J503" t="s">
         <v>108</v>
@@ -24870,7 +24870,7 @@
         <v>117</v>
       </c>
       <c r="P503" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="504" spans="1:16">
@@ -24878,16 +24878,16 @@
         <v>16</v>
       </c>
       <c r="B504" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C504">
-        <v>1479.25</v>
+        <v>780</v>
       </c>
       <c r="D504" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E504" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G504" t="s">
         <v>95</v>
@@ -24896,7 +24896,7 @@
         <v>99</v>
       </c>
       <c r="I504" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J504" t="s">
         <v>108</v>
@@ -24917,24 +24917,24 @@
         <v>117</v>
       </c>
       <c r="P504" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="505" spans="1:16">
       <c r="A505" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B505" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C505">
-        <v>53807</v>
+        <v>353478</v>
       </c>
       <c r="D505" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E505" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G505" t="s">
         <v>95</v>
@@ -24943,45 +24943,45 @@
         <v>99</v>
       </c>
       <c r="I505" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J505" t="s">
         <v>108</v>
       </c>
       <c r="K505" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L505" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M505" t="s">
         <v>125</v>
       </c>
       <c r="N505" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O505" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P505" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="506" spans="1:16">
       <c r="A506" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B506" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C506">
-        <v>780</v>
+        <v>546699.9</v>
       </c>
       <c r="D506" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E506" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G506" t="s">
         <v>95</v>
@@ -24990,45 +24990,45 @@
         <v>99</v>
       </c>
       <c r="I506" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J506" t="s">
         <v>108</v>
       </c>
       <c r="K506" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L506" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M506" t="s">
         <v>125</v>
       </c>
       <c r="N506" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O506" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P506" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="507" spans="1:16">
       <c r="A507" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B507" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C507">
-        <v>1</v>
+        <v>257823</v>
       </c>
       <c r="D507" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E507" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G507" t="s">
         <v>95</v>
@@ -25037,45 +25037,45 @@
         <v>99</v>
       </c>
       <c r="I507" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J507" t="s">
         <v>108</v>
       </c>
       <c r="K507" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L507" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M507" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N507" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O507" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="P507" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="508" spans="1:16">
       <c r="A508" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B508" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C508">
-        <v>1</v>
+        <v>1570762.55</v>
       </c>
       <c r="D508" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E508" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G508" t="s">
         <v>95</v>
@@ -25084,92 +25084,92 @@
         <v>99</v>
       </c>
       <c r="I508" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J508" t="s">
         <v>108</v>
       </c>
       <c r="K508" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L508" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M508" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N508" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O508" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="P508" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="509" spans="1:16">
       <c r="A509" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B509" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C509">
-        <v>657595.95</v>
+        <v>172818</v>
       </c>
       <c r="D509" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E509" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G509" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H509" t="s">
         <v>99</v>
       </c>
       <c r="I509" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J509" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K509" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L509" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M509" t="s">
         <v>125</v>
       </c>
       <c r="N509" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O509" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P509" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="510" spans="1:16">
       <c r="A510" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B510" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C510">
-        <v>657595.95</v>
+        <v>3480</v>
       </c>
       <c r="D510" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E510" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G510" t="s">
         <v>95</v>
@@ -25178,45 +25178,45 @@
         <v>99</v>
       </c>
       <c r="I510" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J510" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K510" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L510" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M510" t="s">
         <v>125</v>
       </c>
       <c r="N510" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O510" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P510" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="511" spans="1:16">
       <c r="A511" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B511" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C511">
-        <v>657595.95</v>
+        <v>5136</v>
       </c>
       <c r="D511" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E511" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G511" t="s">
         <v>95</v>
@@ -25225,45 +25225,45 @@
         <v>99</v>
       </c>
       <c r="I511" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J511" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K511" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L511" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M511" t="s">
         <v>125</v>
       </c>
       <c r="N511" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O511" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P511" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="512" spans="1:16">
       <c r="A512" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B512" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C512">
         <v>657595.95</v>
       </c>
       <c r="D512" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E512" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G512" t="s">
         <v>95</v>
@@ -25272,45 +25272,45 @@
         <v>99</v>
       </c>
       <c r="I512" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J512" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K512" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L512" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M512" t="s">
         <v>125</v>
       </c>
       <c r="N512" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O512" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P512" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="513" spans="1:16">
       <c r="A513" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B513" t="s">
         <v>47</v>
       </c>
       <c r="C513">
-        <v>657595.95</v>
+        <v>651617.8100000001</v>
       </c>
       <c r="D513" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E513" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G513" t="s">
         <v>95</v>
@@ -25319,28 +25319,28 @@
         <v>99</v>
       </c>
       <c r="I513" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J513" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K513" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L513" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M513" t="s">
         <v>125</v>
       </c>
       <c r="N513" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O513" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P513" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="514" spans="1:16">
@@ -25348,63 +25348,63 @@
         <v>28</v>
       </c>
       <c r="B514" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C514">
-        <v>657595.95</v>
+        <v>716315.02</v>
       </c>
       <c r="D514" t="s">
         <v>72</v>
       </c>
       <c r="E514" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G514" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H514" t="s">
         <v>99</v>
       </c>
       <c r="I514" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J514" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K514" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L514" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M514" t="s">
         <v>125</v>
       </c>
       <c r="N514" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O514" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P514" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="515" spans="1:16">
       <c r="A515" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B515" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C515">
-        <v>651617.8100000001</v>
+        <v>3850</v>
       </c>
       <c r="D515" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E515" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G515" t="s">
         <v>95</v>
@@ -25413,25 +25413,25 @@
         <v>99</v>
       </c>
       <c r="I515" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J515" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K515" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L515" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M515" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N515" t="s">
         <v>135</v>
       </c>
       <c r="O515" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="P515" t="s">
         <v>181</v>
@@ -25439,31 +25439,31 @@
     </row>
     <row r="516" spans="1:16">
       <c r="A516" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B516" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C516">
-        <v>651617.8100000001</v>
+        <v>25999</v>
       </c>
       <c r="D516" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E516" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G516" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H516" t="s">
         <v>99</v>
       </c>
       <c r="I516" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J516" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K516" t="s">
         <v>115</v>
@@ -25472,13 +25472,13 @@
         <v>123</v>
       </c>
       <c r="M516" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N516" t="s">
         <v>135</v>
       </c>
       <c r="O516" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="P516" t="s">
         <v>181</v>
@@ -25486,49 +25486,49 @@
     </row>
     <row r="517" spans="1:16">
       <c r="A517" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B517" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C517">
-        <v>716315.02</v>
+        <v>326.25</v>
       </c>
       <c r="D517" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E517" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="G517" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H517" t="s">
         <v>99</v>
       </c>
       <c r="I517" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J517" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K517" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L517" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M517" t="s">
         <v>125</v>
       </c>
       <c r="N517" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O517" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="P517" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="518" spans="1:16">
@@ -25554,7 +25554,7 @@
         <v>99</v>
       </c>
       <c r="I518" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J518" t="s">
         <v>108</v>
@@ -25601,7 +25601,7 @@
         <v>99</v>
       </c>
       <c r="I519" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J519" t="s">
         <v>108</v>
@@ -25648,7 +25648,7 @@
         <v>99</v>
       </c>
       <c r="I520" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J520" t="s">
         <v>108</v>
@@ -25695,7 +25695,7 @@
         <v>99</v>
       </c>
       <c r="I521" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J521" t="s">
         <v>108</v>
@@ -25742,7 +25742,7 @@
         <v>99</v>
       </c>
       <c r="I522" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J522" t="s">
         <v>108</v>
@@ -25789,7 +25789,7 @@
         <v>99</v>
       </c>
       <c r="I523" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J523" t="s">
         <v>108</v>
@@ -25836,7 +25836,7 @@
         <v>99</v>
       </c>
       <c r="I524" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J524" t="s">
         <v>108</v>
@@ -25883,7 +25883,7 @@
         <v>99</v>
       </c>
       <c r="I525" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J525" t="s">
         <v>108</v>
@@ -25930,7 +25930,7 @@
         <v>99</v>
       </c>
       <c r="I526" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J526" t="s">
         <v>108</v>
@@ -25977,7 +25977,7 @@
         <v>99</v>
       </c>
       <c r="I527" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J527" t="s">
         <v>108</v>
@@ -26024,7 +26024,7 @@
         <v>99</v>
       </c>
       <c r="I528" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J528" t="s">
         <v>108</v>
@@ -26056,10 +26056,10 @@
         <v>32</v>
       </c>
       <c r="C529">
-        <v>326.25</v>
+        <v>489.58</v>
       </c>
       <c r="D529" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E529" t="s">
         <v>76</v>
@@ -26071,7 +26071,7 @@
         <v>99</v>
       </c>
       <c r="I529" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J529" t="s">
         <v>108</v>
@@ -26118,7 +26118,7 @@
         <v>99</v>
       </c>
       <c r="I530" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J530" t="s">
         <v>108</v>
@@ -26165,7 +26165,7 @@
         <v>99</v>
       </c>
       <c r="I531" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J531" t="s">
         <v>108</v>
@@ -26212,7 +26212,7 @@
         <v>99</v>
       </c>
       <c r="I532" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J532" t="s">
         <v>108</v>
@@ -26259,7 +26259,7 @@
         <v>99</v>
       </c>
       <c r="I533" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J533" t="s">
         <v>108</v>
@@ -26306,7 +26306,7 @@
         <v>99</v>
       </c>
       <c r="I534" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J534" t="s">
         <v>108</v>
@@ -26353,7 +26353,7 @@
         <v>99</v>
       </c>
       <c r="I535" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J535" t="s">
         <v>108</v>
@@ -26400,7 +26400,7 @@
         <v>99</v>
       </c>
       <c r="I536" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J536" t="s">
         <v>108</v>
@@ -26447,7 +26447,7 @@
         <v>99</v>
       </c>
       <c r="I537" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J537" t="s">
         <v>108</v>
@@ -26494,7 +26494,7 @@
         <v>99</v>
       </c>
       <c r="I538" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J538" t="s">
         <v>108</v>
@@ -26541,7 +26541,7 @@
         <v>99</v>
       </c>
       <c r="I539" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J539" t="s">
         <v>108</v>
@@ -26588,7 +26588,7 @@
         <v>99</v>
       </c>
       <c r="I540" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J540" t="s">
         <v>108</v>
@@ -26620,10 +26620,10 @@
         <v>32</v>
       </c>
       <c r="C541">
-        <v>489.58</v>
+        <v>13365</v>
       </c>
       <c r="D541" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E541" t="s">
         <v>76</v>
@@ -26635,7 +26635,7 @@
         <v>99</v>
       </c>
       <c r="I541" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J541" t="s">
         <v>108</v>
@@ -26667,10 +26667,10 @@
         <v>32</v>
       </c>
       <c r="C542">
-        <v>13365</v>
+        <v>3382.5</v>
       </c>
       <c r="D542" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E542" t="s">
         <v>76</v>
@@ -26682,7 +26682,7 @@
         <v>99</v>
       </c>
       <c r="I542" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J542" t="s">
         <v>108</v>
@@ -26729,7 +26729,7 @@
         <v>99</v>
       </c>
       <c r="I543" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J543" t="s">
         <v>108</v>
@@ -26761,10 +26761,10 @@
         <v>32</v>
       </c>
       <c r="C544">
-        <v>3382.5</v>
+        <v>2167</v>
       </c>
       <c r="D544" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E544" t="s">
         <v>76</v>
@@ -26776,7 +26776,7 @@
         <v>99</v>
       </c>
       <c r="I544" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J544" t="s">
         <v>108</v>
@@ -26808,10 +26808,10 @@
         <v>32</v>
       </c>
       <c r="C545">
-        <v>2167</v>
+        <v>1479.25</v>
       </c>
       <c r="D545" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E545" t="s">
         <v>76</v>
@@ -26823,7 +26823,7 @@
         <v>99</v>
       </c>
       <c r="I545" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J545" t="s">
         <v>108</v>
@@ -26870,7 +26870,7 @@
         <v>99</v>
       </c>
       <c r="I546" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J546" t="s">
         <v>108</v>
@@ -26917,7 +26917,7 @@
         <v>99</v>
       </c>
       <c r="I547" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J547" t="s">
         <v>108</v>
@@ -26964,7 +26964,7 @@
         <v>99</v>
       </c>
       <c r="I548" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J548" t="s">
         <v>108</v>
@@ -26990,16 +26990,16 @@
     </row>
     <row r="549" spans="1:16">
       <c r="A549" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B549" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C549">
-        <v>1479.25</v>
+        <v>53807</v>
       </c>
       <c r="D549" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E549" t="s">
         <v>76</v>
@@ -27011,7 +27011,7 @@
         <v>99</v>
       </c>
       <c r="I549" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J549" t="s">
         <v>108</v>
@@ -27037,19 +27037,19 @@
     </row>
     <row r="550" spans="1:16">
       <c r="A550" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B550" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C550">
-        <v>53807</v>
+        <v>780</v>
       </c>
       <c r="D550" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E550" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G550" t="s">
         <v>95</v>
@@ -27058,7 +27058,7 @@
         <v>99</v>
       </c>
       <c r="I550" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J550" t="s">
         <v>108</v>
@@ -27084,19 +27084,19 @@
     </row>
     <row r="551" spans="1:16">
       <c r="A551" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B551" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C551">
-        <v>780</v>
+        <v>1</v>
       </c>
       <c r="D551" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E551" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G551" t="s">
         <v>95</v>
@@ -27105,72 +27105,72 @@
         <v>99</v>
       </c>
       <c r="I551" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J551" t="s">
         <v>108</v>
       </c>
       <c r="K551" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L551" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M551" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N551" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O551" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="P551" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="552" spans="1:16">
       <c r="A552" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B552" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C552">
-        <v>15000</v>
+        <v>1</v>
       </c>
       <c r="D552" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E552" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G552" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H552" t="s">
         <v>99</v>
       </c>
       <c r="I552" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J552" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K552" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L552" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M552" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N552" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O552" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P552" t="s">
         <v>183</v>

--- a/data/excel_tables/3.2_movable_property.xlsx
+++ b/data/excel_tables/3.2_movable_property.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7830" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7970" uniqueCount="187">
   <si>
     <t>object_type</t>
   </si>
@@ -567,6 +567,15 @@
   <si>
     <t>7582da50-87cd-11ef-9f9f-af297e478ff7</t>
   </si>
+  <si>
+    <t>852f1810-9d08-11ef-9f9f-af297e478ff7</t>
+  </si>
+  <si>
+    <t>e811e760-9d1b-11ef-976d-d13028d0d5de</t>
+  </si>
+  <si>
+    <t>b5ea9f40-9dd2-11ef-afd1-e1abe6ffb9d7</t>
+  </si>
 </sst>
 </file>
 
@@ -923,7 +932,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P552"/>
+  <dimension ref="A1:P562"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27176,6 +27185,476 @@
         <v>183</v>
       </c>
     </row>
+    <row r="553" spans="1:16">
+      <c r="A553" t="s">
+        <v>27</v>
+      </c>
+      <c r="B553" t="s">
+        <v>45</v>
+      </c>
+      <c r="C553">
+        <v>657595.95</v>
+      </c>
+      <c r="D553" t="s">
+        <v>71</v>
+      </c>
+      <c r="E553" t="s">
+        <v>87</v>
+      </c>
+      <c r="G553" t="s">
+        <v>95</v>
+      </c>
+      <c r="H553" t="s">
+        <v>99</v>
+      </c>
+      <c r="I553" t="s">
+        <v>102</v>
+      </c>
+      <c r="J553" t="s">
+        <v>108</v>
+      </c>
+      <c r="K553" t="s">
+        <v>113</v>
+      </c>
+      <c r="L553" t="s">
+        <v>121</v>
+      </c>
+      <c r="M553" t="s">
+        <v>125</v>
+      </c>
+      <c r="N553" t="s">
+        <v>133</v>
+      </c>
+      <c r="O553" t="s">
+        <v>121</v>
+      </c>
+      <c r="P553" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="554" spans="1:16">
+      <c r="A554" t="s">
+        <v>27</v>
+      </c>
+      <c r="B554" t="s">
+        <v>47</v>
+      </c>
+      <c r="C554">
+        <v>651617.8100000001</v>
+      </c>
+      <c r="D554" t="s">
+        <v>71</v>
+      </c>
+      <c r="E554" t="s">
+        <v>87</v>
+      </c>
+      <c r="G554" t="s">
+        <v>95</v>
+      </c>
+      <c r="H554" t="s">
+        <v>99</v>
+      </c>
+      <c r="I554" t="s">
+        <v>102</v>
+      </c>
+      <c r="J554" t="s">
+        <v>108</v>
+      </c>
+      <c r="K554" t="s">
+        <v>113</v>
+      </c>
+      <c r="L554" t="s">
+        <v>121</v>
+      </c>
+      <c r="M554" t="s">
+        <v>125</v>
+      </c>
+      <c r="N554" t="s">
+        <v>133</v>
+      </c>
+      <c r="O554" t="s">
+        <v>121</v>
+      </c>
+      <c r="P554" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="555" spans="1:16">
+      <c r="A555" t="s">
+        <v>28</v>
+      </c>
+      <c r="B555" t="s">
+        <v>48</v>
+      </c>
+      <c r="C555">
+        <v>716315.02</v>
+      </c>
+      <c r="D555" t="s">
+        <v>72</v>
+      </c>
+      <c r="E555" t="s">
+        <v>88</v>
+      </c>
+      <c r="G555" t="s">
+        <v>96</v>
+      </c>
+      <c r="H555" t="s">
+        <v>99</v>
+      </c>
+      <c r="I555" t="s">
+        <v>102</v>
+      </c>
+      <c r="J555" t="s">
+        <v>108</v>
+      </c>
+      <c r="K555" t="s">
+        <v>113</v>
+      </c>
+      <c r="L555" t="s">
+        <v>121</v>
+      </c>
+      <c r="M555" t="s">
+        <v>125</v>
+      </c>
+      <c r="N555" t="s">
+        <v>133</v>
+      </c>
+      <c r="O555" t="s">
+        <v>121</v>
+      </c>
+      <c r="P555" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="556" spans="1:16">
+      <c r="A556" t="s">
+        <v>26</v>
+      </c>
+      <c r="B556" t="s">
+        <v>44</v>
+      </c>
+      <c r="C556">
+        <v>3480</v>
+      </c>
+      <c r="D556" t="s">
+        <v>68</v>
+      </c>
+      <c r="E556" t="s">
+        <v>85</v>
+      </c>
+      <c r="G556" t="s">
+        <v>95</v>
+      </c>
+      <c r="H556" t="s">
+        <v>99</v>
+      </c>
+      <c r="I556" t="s">
+        <v>102</v>
+      </c>
+      <c r="J556" t="s">
+        <v>108</v>
+      </c>
+      <c r="K556" t="s">
+        <v>112</v>
+      </c>
+      <c r="L556" t="s">
+        <v>120</v>
+      </c>
+      <c r="M556" t="s">
+        <v>125</v>
+      </c>
+      <c r="N556" t="s">
+        <v>132</v>
+      </c>
+      <c r="O556" t="s">
+        <v>120</v>
+      </c>
+      <c r="P556" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="557" spans="1:16">
+      <c r="A557" t="s">
+        <v>26</v>
+      </c>
+      <c r="B557" t="s">
+        <v>44</v>
+      </c>
+      <c r="C557">
+        <v>5136</v>
+      </c>
+      <c r="D557" t="s">
+        <v>69</v>
+      </c>
+      <c r="E557" t="s">
+        <v>86</v>
+      </c>
+      <c r="G557" t="s">
+        <v>95</v>
+      </c>
+      <c r="H557" t="s">
+        <v>99</v>
+      </c>
+      <c r="I557" t="s">
+        <v>102</v>
+      </c>
+      <c r="J557" t="s">
+        <v>108</v>
+      </c>
+      <c r="K557" t="s">
+        <v>112</v>
+      </c>
+      <c r="L557" t="s">
+        <v>120</v>
+      </c>
+      <c r="M557" t="s">
+        <v>125</v>
+      </c>
+      <c r="N557" t="s">
+        <v>132</v>
+      </c>
+      <c r="O557" t="s">
+        <v>120</v>
+      </c>
+      <c r="P557" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="558" spans="1:16">
+      <c r="A558" t="s">
+        <v>20</v>
+      </c>
+      <c r="B558" t="s">
+        <v>37</v>
+      </c>
+      <c r="C558">
+        <v>353478</v>
+      </c>
+      <c r="D558" t="s">
+        <v>62</v>
+      </c>
+      <c r="E558" t="s">
+        <v>79</v>
+      </c>
+      <c r="G558" t="s">
+        <v>95</v>
+      </c>
+      <c r="H558" t="s">
+        <v>99</v>
+      </c>
+      <c r="I558" t="s">
+        <v>102</v>
+      </c>
+      <c r="J558" t="s">
+        <v>108</v>
+      </c>
+      <c r="K558" t="s">
+        <v>111</v>
+      </c>
+      <c r="L558" t="s">
+        <v>119</v>
+      </c>
+      <c r="M558" t="s">
+        <v>125</v>
+      </c>
+      <c r="N558" t="s">
+        <v>131</v>
+      </c>
+      <c r="O558" t="s">
+        <v>119</v>
+      </c>
+      <c r="P558" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="559" spans="1:16">
+      <c r="A559" t="s">
+        <v>21</v>
+      </c>
+      <c r="B559" t="s">
+        <v>38</v>
+      </c>
+      <c r="C559">
+        <v>546699.9</v>
+      </c>
+      <c r="D559" t="s">
+        <v>75</v>
+      </c>
+      <c r="E559" t="s">
+        <v>79</v>
+      </c>
+      <c r="G559" t="s">
+        <v>95</v>
+      </c>
+      <c r="H559" t="s">
+        <v>99</v>
+      </c>
+      <c r="I559" t="s">
+        <v>102</v>
+      </c>
+      <c r="J559" t="s">
+        <v>108</v>
+      </c>
+      <c r="K559" t="s">
+        <v>111</v>
+      </c>
+      <c r="L559" t="s">
+        <v>119</v>
+      </c>
+      <c r="M559" t="s">
+        <v>125</v>
+      </c>
+      <c r="N559" t="s">
+        <v>131</v>
+      </c>
+      <c r="O559" t="s">
+        <v>119</v>
+      </c>
+      <c r="P559" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="560" spans="1:16">
+      <c r="A560" t="s">
+        <v>22</v>
+      </c>
+      <c r="B560" t="s">
+        <v>39</v>
+      </c>
+      <c r="C560">
+        <v>257823</v>
+      </c>
+      <c r="D560" t="s">
+        <v>22</v>
+      </c>
+      <c r="E560" t="s">
+        <v>79</v>
+      </c>
+      <c r="G560" t="s">
+        <v>95</v>
+      </c>
+      <c r="H560" t="s">
+        <v>99</v>
+      </c>
+      <c r="I560" t="s">
+        <v>102</v>
+      </c>
+      <c r="J560" t="s">
+        <v>108</v>
+      </c>
+      <c r="K560" t="s">
+        <v>111</v>
+      </c>
+      <c r="L560" t="s">
+        <v>119</v>
+      </c>
+      <c r="M560" t="s">
+        <v>125</v>
+      </c>
+      <c r="N560" t="s">
+        <v>131</v>
+      </c>
+      <c r="O560" t="s">
+        <v>119</v>
+      </c>
+      <c r="P560" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="561" spans="1:16">
+      <c r="A561" t="s">
+        <v>25</v>
+      </c>
+      <c r="B561" t="s">
+        <v>42</v>
+      </c>
+      <c r="C561">
+        <v>1570762.55</v>
+      </c>
+      <c r="D561" t="s">
+        <v>66</v>
+      </c>
+      <c r="E561" t="s">
+        <v>83</v>
+      </c>
+      <c r="G561" t="s">
+        <v>95</v>
+      </c>
+      <c r="H561" t="s">
+        <v>99</v>
+      </c>
+      <c r="I561" t="s">
+        <v>102</v>
+      </c>
+      <c r="J561" t="s">
+        <v>108</v>
+      </c>
+      <c r="K561" t="s">
+        <v>111</v>
+      </c>
+      <c r="L561" t="s">
+        <v>119</v>
+      </c>
+      <c r="M561" t="s">
+        <v>125</v>
+      </c>
+      <c r="N561" t="s">
+        <v>131</v>
+      </c>
+      <c r="O561" t="s">
+        <v>119</v>
+      </c>
+      <c r="P561" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="562" spans="1:16">
+      <c r="A562" t="s">
+        <v>31</v>
+      </c>
+      <c r="B562" t="s">
+        <v>43</v>
+      </c>
+      <c r="C562">
+        <v>172818</v>
+      </c>
+      <c r="D562" t="s">
+        <v>65</v>
+      </c>
+      <c r="E562" t="s">
+        <v>84</v>
+      </c>
+      <c r="G562" t="s">
+        <v>96</v>
+      </c>
+      <c r="H562" t="s">
+        <v>99</v>
+      </c>
+      <c r="I562" t="s">
+        <v>102</v>
+      </c>
+      <c r="J562" t="s">
+        <v>108</v>
+      </c>
+      <c r="K562" t="s">
+        <v>111</v>
+      </c>
+      <c r="L562" t="s">
+        <v>119</v>
+      </c>
+      <c r="M562" t="s">
+        <v>125</v>
+      </c>
+      <c r="N562" t="s">
+        <v>131</v>
+      </c>
+      <c r="O562" t="s">
+        <v>119</v>
+      </c>
+      <c r="P562" t="s">
+        <v>186</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/excel_tables/3.2_movable_property.xlsx
+++ b/data/excel_tables/3.2_movable_property.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7998" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8012" uniqueCount="190">
   <si>
     <t>object_type</t>
   </si>
@@ -145,10 +145,10 @@
     <t>04.06.2021</t>
   </si>
   <si>
-    <t>18.09.2019</t>
+    <t>04.01.2022</t>
   </si>
   <si>
-    <t>04.01.2022</t>
+    <t>18.09.2019</t>
   </si>
   <si>
     <t>31.07.2023</t>
@@ -217,13 +217,13 @@
     <t>Скляні конструкції (двері та перегородки), встановлені в орендованому приміщенні</t>
   </si>
   <si>
+    <t xml:space="preserve">Система відеоспостереження </t>
+  </si>
+  <si>
     <t>Комп'ютер персональний</t>
   </si>
   <si>
     <t>Монітор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Система відеоспостереження </t>
   </si>
   <si>
     <t xml:space="preserve">Комп'ютер </t>
@@ -265,16 +265,16 @@
     <t>ТОВ "С.К.Л.О."</t>
   </si>
   <si>
+    <t>С.К.Л.О., ТОВ</t>
+  </si>
+  <si>
+    <t>КОЛОМІЄЦЬ ЄВГЕНІЙ МИКОЛАЙОВИЧ ФОП</t>
+  </si>
+  <si>
     <t>INTEL</t>
   </si>
   <si>
     <t>SAMSUNG</t>
-  </si>
-  <si>
-    <t>С.К.Л.О., ТОВ</t>
-  </si>
-  <si>
-    <t>КОЛОМІЄЦЬ ЄВГЕНІЙ МИКОЛАЙОВИЧ ФОП</t>
   </si>
   <si>
     <t>DAF TRUCKS NV</t>
@@ -472,6 +472,9 @@
     <t>6e058a80-ead3-11ee-ae0a-87878d7061af</t>
   </si>
   <si>
+    <t>e1a30e30-ead4-11ee-938a-5514903835ea</t>
+  </si>
+  <si>
     <t>6ba0a2a0-ea8a-11ee-95c4-e7bfad33aba2</t>
   </si>
   <si>
@@ -580,7 +583,7 @@
     <t>288a33c0-a06d-11ef-9f9f-af297e478ff7</t>
   </si>
   <si>
-    <t>e1a30e30-ead4-11ee-938a-5514903835ea</t>
+    <t>9016d990-cdc6-11ef-b2b8-41c0413be8f6</t>
   </si>
 </sst>
 </file>
@@ -938,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P564"/>
+  <dimension ref="A1:P565"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19156,19 +19159,19 @@
     </row>
     <row r="382" spans="1:16">
       <c r="A382" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B382" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C382">
-        <v>3480</v>
+        <v>353478</v>
       </c>
       <c r="D382" t="s">
         <v>67</v>
       </c>
       <c r="E382" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G382" t="s">
         <v>95</v>
@@ -19180,22 +19183,22 @@
         <v>105</v>
       </c>
       <c r="J382" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K382" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L382" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M382" t="s">
         <v>126</v>
       </c>
       <c r="N382" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O382" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P382" t="s">
         <v>152</v>
@@ -19203,19 +19206,19 @@
     </row>
     <row r="383" spans="1:16">
       <c r="A383" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B383" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C383">
-        <v>5136</v>
+        <v>546699.9</v>
       </c>
       <c r="D383" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E383" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G383" t="s">
         <v>95</v>
@@ -19227,22 +19230,22 @@
         <v>105</v>
       </c>
       <c r="J383" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K383" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L383" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M383" t="s">
         <v>126</v>
       </c>
       <c r="N383" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O383" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P383" t="s">
         <v>152</v>
@@ -19250,16 +19253,16 @@
     </row>
     <row r="384" spans="1:16">
       <c r="A384" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B384" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C384">
-        <v>353478</v>
+        <v>257823</v>
       </c>
       <c r="D384" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="E384" t="s">
         <v>79</v>
@@ -19274,7 +19277,7 @@
         <v>105</v>
       </c>
       <c r="J384" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K384" t="s">
         <v>112</v>
@@ -19292,24 +19295,24 @@
         <v>120</v>
       </c>
       <c r="P384" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="385" spans="1:16">
       <c r="A385" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B385" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C385">
-        <v>546699.9</v>
+        <v>1570762.55</v>
       </c>
       <c r="D385" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E385" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G385" t="s">
         <v>95</v>
@@ -19321,7 +19324,7 @@
         <v>105</v>
       </c>
       <c r="J385" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K385" t="s">
         <v>112</v>
@@ -19339,27 +19342,27 @@
         <v>120</v>
       </c>
       <c r="P385" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="386" spans="1:16">
       <c r="A386" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B386" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C386">
-        <v>257823</v>
+        <v>172818</v>
       </c>
       <c r="D386" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E386" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G386" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H386" t="s">
         <v>100</v>
@@ -19368,7 +19371,7 @@
         <v>105</v>
       </c>
       <c r="J386" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K386" t="s">
         <v>112</v>
@@ -19386,21 +19389,21 @@
         <v>120</v>
       </c>
       <c r="P386" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="387" spans="1:16">
       <c r="A387" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B387" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C387">
-        <v>1570762.55</v>
+        <v>3480</v>
       </c>
       <c r="D387" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E387" t="s">
         <v>85</v>
@@ -19418,19 +19421,19 @@
         <v>107</v>
       </c>
       <c r="K387" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L387" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M387" t="s">
         <v>126</v>
       </c>
       <c r="N387" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O387" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P387" t="s">
         <v>153</v>
@@ -19438,22 +19441,22 @@
     </row>
     <row r="388" spans="1:16">
       <c r="A388" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B388" t="s">
         <v>44</v>
       </c>
       <c r="C388">
-        <v>172818</v>
+        <v>5136</v>
       </c>
       <c r="D388" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E388" t="s">
         <v>86</v>
       </c>
       <c r="G388" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H388" t="s">
         <v>100</v>
@@ -19465,19 +19468,19 @@
         <v>107</v>
       </c>
       <c r="K388" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L388" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M388" t="s">
         <v>126</v>
       </c>
       <c r="N388" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O388" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P388" t="s">
         <v>153</v>
@@ -19485,19 +19488,19 @@
     </row>
     <row r="389" spans="1:16">
       <c r="A389" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B389" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C389">
-        <v>657595.95</v>
+        <v>353478</v>
       </c>
       <c r="D389" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E389" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G389" t="s">
         <v>95</v>
@@ -19512,19 +19515,19 @@
         <v>107</v>
       </c>
       <c r="K389" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L389" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M389" t="s">
         <v>126</v>
       </c>
       <c r="N389" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O389" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P389" t="s">
         <v>154</v>
@@ -19532,19 +19535,19 @@
     </row>
     <row r="390" spans="1:16">
       <c r="A390" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B390" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C390">
-        <v>657595.95</v>
+        <v>546699.9</v>
       </c>
       <c r="D390" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E390" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G390" t="s">
         <v>95</v>
@@ -19559,19 +19562,19 @@
         <v>107</v>
       </c>
       <c r="K390" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L390" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M390" t="s">
         <v>126</v>
       </c>
       <c r="N390" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O390" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P390" t="s">
         <v>154</v>
@@ -19579,19 +19582,19 @@
     </row>
     <row r="391" spans="1:16">
       <c r="A391" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B391" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C391">
-        <v>657595.95</v>
+        <v>257823</v>
       </c>
       <c r="D391" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="E391" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G391" t="s">
         <v>95</v>
@@ -19606,19 +19609,19 @@
         <v>107</v>
       </c>
       <c r="K391" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L391" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M391" t="s">
         <v>126</v>
       </c>
       <c r="N391" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O391" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P391" t="s">
         <v>154</v>
@@ -19626,19 +19629,19 @@
     </row>
     <row r="392" spans="1:16">
       <c r="A392" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B392" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C392">
-        <v>657595.95</v>
+        <v>1570762.55</v>
       </c>
       <c r="D392" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E392" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G392" t="s">
         <v>95</v>
@@ -19653,19 +19656,19 @@
         <v>107</v>
       </c>
       <c r="K392" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L392" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M392" t="s">
         <v>126</v>
       </c>
       <c r="N392" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O392" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P392" t="s">
         <v>154</v>
@@ -19673,22 +19676,22 @@
     </row>
     <row r="393" spans="1:16">
       <c r="A393" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B393" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C393">
-        <v>657595.95</v>
+        <v>172818</v>
       </c>
       <c r="D393" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E393" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G393" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H393" t="s">
         <v>100</v>
@@ -19700,19 +19703,19 @@
         <v>107</v>
       </c>
       <c r="K393" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L393" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M393" t="s">
         <v>126</v>
       </c>
       <c r="N393" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O393" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P393" t="s">
         <v>154</v>
@@ -19723,7 +19726,7 @@
         <v>27</v>
       </c>
       <c r="B394" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C394">
         <v>657595.95</v>
@@ -19762,7 +19765,7 @@
         <v>122</v>
       </c>
       <c r="P394" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="395" spans="1:16">
@@ -19770,10 +19773,10 @@
         <v>27</v>
       </c>
       <c r="B395" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C395">
-        <v>651617.8100000001</v>
+        <v>657595.95</v>
       </c>
       <c r="D395" t="s">
         <v>71</v>
@@ -19809,7 +19812,7 @@
         <v>122</v>
       </c>
       <c r="P395" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="396" spans="1:16">
@@ -19817,10 +19820,10 @@
         <v>27</v>
       </c>
       <c r="B396" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C396">
-        <v>651617.8100000001</v>
+        <v>657595.95</v>
       </c>
       <c r="D396" t="s">
         <v>71</v>
@@ -19856,27 +19859,27 @@
         <v>122</v>
       </c>
       <c r="P396" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="397" spans="1:16">
       <c r="A397" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B397" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C397">
-        <v>716315.02</v>
+        <v>657595.95</v>
       </c>
       <c r="D397" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E397" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G397" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H397" t="s">
         <v>100</v>
@@ -19903,51 +19906,51 @@
         <v>122</v>
       </c>
       <c r="P397" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="398" spans="1:16">
       <c r="A398" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B398" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C398">
-        <v>10389.19</v>
+        <v>657595.95</v>
       </c>
       <c r="D398" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E398" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G398" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H398" t="s">
         <v>100</v>
       </c>
       <c r="I398" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J398" t="s">
         <v>107</v>
       </c>
       <c r="K398" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L398" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M398" t="s">
         <v>126</v>
       </c>
       <c r="N398" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O398" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P398" t="s">
         <v>155</v>
@@ -19955,210 +19958,210 @@
     </row>
     <row r="399" spans="1:16">
       <c r="A399" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B399" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C399">
-        <v>10389.19</v>
+        <v>657595.95</v>
       </c>
       <c r="D399" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E399" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G399" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H399" t="s">
         <v>100</v>
       </c>
       <c r="I399" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J399" t="s">
         <v>107</v>
       </c>
       <c r="K399" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L399" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M399" t="s">
         <v>126</v>
       </c>
       <c r="N399" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O399" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P399" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="400" spans="1:16">
       <c r="A400" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B400" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C400">
-        <v>10389.19</v>
+        <v>651617.8100000001</v>
       </c>
       <c r="D400" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E400" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G400" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H400" t="s">
         <v>100</v>
       </c>
       <c r="I400" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J400" t="s">
         <v>107</v>
       </c>
       <c r="K400" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L400" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M400" t="s">
         <v>126</v>
       </c>
       <c r="N400" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O400" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P400" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="401" spans="1:16">
       <c r="A401" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B401" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C401">
-        <v>10389.19</v>
+        <v>651617.8100000001</v>
       </c>
       <c r="D401" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E401" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G401" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H401" t="s">
         <v>100</v>
       </c>
       <c r="I401" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J401" t="s">
         <v>107</v>
       </c>
       <c r="K401" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L401" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M401" t="s">
         <v>126</v>
       </c>
       <c r="N401" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O401" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P401" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="402" spans="1:16">
       <c r="A402" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B402" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C402">
-        <v>15000</v>
+        <v>716315.02</v>
       </c>
       <c r="D402" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E402" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G402" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H402" t="s">
         <v>100</v>
       </c>
       <c r="I402" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J402" t="s">
         <v>107</v>
       </c>
       <c r="K402" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L402" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M402" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N402" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O402" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="P402" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="403" spans="1:16">
       <c r="A403" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B403" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C403">
-        <v>1</v>
+        <v>10389.19</v>
       </c>
       <c r="D403" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="E403" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G403" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H403" t="s">
         <v>100</v>
@@ -20167,166 +20170,166 @@
         <v>104</v>
       </c>
       <c r="J403" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K403" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L403" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="M403" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N403" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="O403" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="P403" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="404" spans="1:16">
       <c r="A404" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B404" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C404">
-        <v>1</v>
+        <v>10389.19</v>
       </c>
       <c r="D404" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E404" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G404" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H404" t="s">
         <v>100</v>
       </c>
       <c r="I404" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J404" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K404" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L404" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="M404" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N404" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="O404" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="P404" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="405" spans="1:16">
       <c r="A405" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B405" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C405">
-        <v>3480</v>
+        <v>10389.19</v>
       </c>
       <c r="D405" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="E405" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G405" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H405" t="s">
         <v>100</v>
       </c>
       <c r="I405" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J405" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K405" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L405" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M405" t="s">
         <v>126</v>
       </c>
       <c r="N405" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O405" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P405" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="406" spans="1:16">
       <c r="A406" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B406" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C406">
-        <v>5136</v>
+        <v>10389.19</v>
       </c>
       <c r="D406" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="E406" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G406" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H406" t="s">
         <v>100</v>
       </c>
       <c r="I406" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J406" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K406" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L406" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M406" t="s">
         <v>126</v>
       </c>
       <c r="N406" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O406" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P406" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="407" spans="1:16">
@@ -20352,7 +20355,7 @@
         <v>100</v>
       </c>
       <c r="I407" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J407" t="s">
         <v>107</v>
@@ -20373,24 +20376,24 @@
         <v>138</v>
       </c>
       <c r="P407" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="408" spans="1:16">
       <c r="A408" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B408" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C408">
-        <v>326.25</v>
+        <v>1</v>
       </c>
       <c r="D408" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E408" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G408" t="s">
         <v>95</v>
@@ -20405,39 +20408,39 @@
         <v>109</v>
       </c>
       <c r="K408" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L408" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M408" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N408" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O408" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="P408" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="409" spans="1:16">
       <c r="A409" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B409" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C409">
-        <v>326.25</v>
+        <v>1</v>
       </c>
       <c r="D409" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E409" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G409" t="s">
         <v>95</v>
@@ -20452,39 +20455,39 @@
         <v>109</v>
       </c>
       <c r="K409" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L409" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M409" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N409" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O409" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="P409" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="410" spans="1:16">
       <c r="A410" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B410" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C410">
-        <v>326.25</v>
+        <v>3480</v>
       </c>
       <c r="D410" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E410" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G410" t="s">
         <v>95</v>
@@ -20493,45 +20496,45 @@
         <v>100</v>
       </c>
       <c r="I410" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J410" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K410" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L410" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M410" t="s">
         <v>126</v>
       </c>
       <c r="N410" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O410" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P410" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="411" spans="1:16">
       <c r="A411" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B411" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C411">
-        <v>326.25</v>
+        <v>5136</v>
       </c>
       <c r="D411" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E411" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G411" t="s">
         <v>95</v>
@@ -20540,72 +20543,72 @@
         <v>100</v>
       </c>
       <c r="I411" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J411" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K411" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L411" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M411" t="s">
         <v>126</v>
       </c>
       <c r="N411" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O411" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P411" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="412" spans="1:16">
       <c r="A412" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B412" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C412">
-        <v>326.25</v>
+        <v>15000</v>
       </c>
       <c r="D412" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E412" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="G412" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H412" t="s">
         <v>100</v>
       </c>
       <c r="I412" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J412" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K412" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="L412" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M412" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N412" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="O412" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="P412" t="s">
         <v>163</v>
@@ -20655,7 +20658,7 @@
         <v>118</v>
       </c>
       <c r="P413" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="414" spans="1:16">
@@ -20702,7 +20705,7 @@
         <v>118</v>
       </c>
       <c r="P414" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="415" spans="1:16">
@@ -20749,7 +20752,7 @@
         <v>118</v>
       </c>
       <c r="P415" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="416" spans="1:16">
@@ -20796,7 +20799,7 @@
         <v>118</v>
       </c>
       <c r="P416" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="417" spans="1:16">
@@ -20843,7 +20846,7 @@
         <v>118</v>
       </c>
       <c r="P417" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="418" spans="1:16">
@@ -20890,7 +20893,7 @@
         <v>118</v>
       </c>
       <c r="P418" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="419" spans="1:16">
@@ -20937,7 +20940,7 @@
         <v>118</v>
       </c>
       <c r="P419" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="420" spans="1:16">
@@ -20948,10 +20951,10 @@
         <v>32</v>
       </c>
       <c r="C420">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D420" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E420" t="s">
         <v>76</v>
@@ -20984,7 +20987,7 @@
         <v>118</v>
       </c>
       <c r="P420" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="421" spans="1:16">
@@ -20995,10 +20998,10 @@
         <v>32</v>
       </c>
       <c r="C421">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D421" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E421" t="s">
         <v>76</v>
@@ -21031,7 +21034,7 @@
         <v>118</v>
       </c>
       <c r="P421" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="422" spans="1:16">
@@ -21042,10 +21045,10 @@
         <v>32</v>
       </c>
       <c r="C422">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D422" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E422" t="s">
         <v>76</v>
@@ -21078,7 +21081,7 @@
         <v>118</v>
       </c>
       <c r="P422" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="423" spans="1:16">
@@ -21089,10 +21092,10 @@
         <v>32</v>
       </c>
       <c r="C423">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D423" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E423" t="s">
         <v>76</v>
@@ -21125,7 +21128,7 @@
         <v>118</v>
       </c>
       <c r="P423" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="424" spans="1:16">
@@ -21136,10 +21139,10 @@
         <v>32</v>
       </c>
       <c r="C424">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D424" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E424" t="s">
         <v>76</v>
@@ -21172,7 +21175,7 @@
         <v>118</v>
       </c>
       <c r="P424" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="425" spans="1:16">
@@ -21219,7 +21222,7 @@
         <v>118</v>
       </c>
       <c r="P425" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="426" spans="1:16">
@@ -21266,7 +21269,7 @@
         <v>118</v>
       </c>
       <c r="P426" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="427" spans="1:16">
@@ -21313,7 +21316,7 @@
         <v>118</v>
       </c>
       <c r="P427" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="428" spans="1:16">
@@ -21360,7 +21363,7 @@
         <v>118</v>
       </c>
       <c r="P428" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="429" spans="1:16">
@@ -21407,7 +21410,7 @@
         <v>118</v>
       </c>
       <c r="P429" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="430" spans="1:16">
@@ -21454,7 +21457,7 @@
         <v>118</v>
       </c>
       <c r="P430" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="431" spans="1:16">
@@ -21501,7 +21504,7 @@
         <v>118</v>
       </c>
       <c r="P431" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="432" spans="1:16">
@@ -21512,10 +21515,10 @@
         <v>32</v>
       </c>
       <c r="C432">
-        <v>13365</v>
+        <v>489.58</v>
       </c>
       <c r="D432" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E432" t="s">
         <v>76</v>
@@ -21548,7 +21551,7 @@
         <v>118</v>
       </c>
       <c r="P432" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="433" spans="1:16">
@@ -21559,10 +21562,10 @@
         <v>32</v>
       </c>
       <c r="C433">
-        <v>3382.5</v>
+        <v>489.58</v>
       </c>
       <c r="D433" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E433" t="s">
         <v>76</v>
@@ -21595,7 +21598,7 @@
         <v>118</v>
       </c>
       <c r="P433" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="434" spans="1:16">
@@ -21606,10 +21609,10 @@
         <v>32</v>
       </c>
       <c r="C434">
-        <v>3382.5</v>
+        <v>489.58</v>
       </c>
       <c r="D434" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E434" t="s">
         <v>76</v>
@@ -21642,7 +21645,7 @@
         <v>118</v>
       </c>
       <c r="P434" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="435" spans="1:16">
@@ -21653,10 +21656,10 @@
         <v>32</v>
       </c>
       <c r="C435">
-        <v>2167</v>
+        <v>489.58</v>
       </c>
       <c r="D435" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E435" t="s">
         <v>76</v>
@@ -21689,7 +21692,7 @@
         <v>118</v>
       </c>
       <c r="P435" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="436" spans="1:16">
@@ -21700,10 +21703,10 @@
         <v>32</v>
       </c>
       <c r="C436">
-        <v>1479.25</v>
+        <v>489.58</v>
       </c>
       <c r="D436" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E436" t="s">
         <v>76</v>
@@ -21736,7 +21739,7 @@
         <v>118</v>
       </c>
       <c r="P436" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="437" spans="1:16">
@@ -21747,10 +21750,10 @@
         <v>32</v>
       </c>
       <c r="C437">
-        <v>1479.25</v>
+        <v>13365</v>
       </c>
       <c r="D437" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E437" t="s">
         <v>76</v>
@@ -21783,7 +21786,7 @@
         <v>118</v>
       </c>
       <c r="P437" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="438" spans="1:16">
@@ -21794,10 +21797,10 @@
         <v>32</v>
       </c>
       <c r="C438">
-        <v>1479.25</v>
+        <v>3382.5</v>
       </c>
       <c r="D438" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E438" t="s">
         <v>76</v>
@@ -21830,7 +21833,7 @@
         <v>118</v>
       </c>
       <c r="P438" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="439" spans="1:16">
@@ -21841,10 +21844,10 @@
         <v>32</v>
       </c>
       <c r="C439">
-        <v>1479.25</v>
+        <v>3382.5</v>
       </c>
       <c r="D439" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E439" t="s">
         <v>76</v>
@@ -21877,21 +21880,21 @@
         <v>118</v>
       </c>
       <c r="P439" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="440" spans="1:16">
       <c r="A440" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B440" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C440">
-        <v>53807</v>
+        <v>2167</v>
       </c>
       <c r="D440" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E440" t="s">
         <v>76</v>
@@ -21924,7 +21927,7 @@
         <v>118</v>
       </c>
       <c r="P440" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="441" spans="1:16">
@@ -21932,16 +21935,16 @@
         <v>16</v>
       </c>
       <c r="B441" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C441">
-        <v>780</v>
+        <v>1479.25</v>
       </c>
       <c r="D441" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E441" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G441" t="s">
         <v>95</v>
@@ -21971,24 +21974,24 @@
         <v>118</v>
       </c>
       <c r="P441" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="442" spans="1:16">
       <c r="A442" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B442" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C442">
-        <v>3480</v>
+        <v>1479.25</v>
       </c>
       <c r="D442" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E442" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G442" t="s">
         <v>95</v>
@@ -21997,25 +22000,25 @@
         <v>100</v>
       </c>
       <c r="I442" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J442" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K442" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L442" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M442" t="s">
         <v>126</v>
       </c>
       <c r="N442" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O442" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P442" t="s">
         <v>164</v>
@@ -22023,19 +22026,19 @@
     </row>
     <row r="443" spans="1:16">
       <c r="A443" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B443" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C443">
-        <v>5136</v>
+        <v>1479.25</v>
       </c>
       <c r="D443" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E443" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G443" t="s">
         <v>95</v>
@@ -22044,25 +22047,25 @@
         <v>100</v>
       </c>
       <c r="I443" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J443" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K443" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L443" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M443" t="s">
         <v>126</v>
       </c>
       <c r="N443" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O443" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P443" t="s">
         <v>164</v>
@@ -22070,22 +22073,22 @@
     </row>
     <row r="444" spans="1:16">
       <c r="A444" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B444" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C444">
-        <v>15000</v>
+        <v>1479.25</v>
       </c>
       <c r="D444" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E444" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="G444" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H444" t="s">
         <v>100</v>
@@ -22094,119 +22097,119 @@
         <v>104</v>
       </c>
       <c r="J444" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K444" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="L444" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="M444" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N444" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="O444" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="P444" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="445" spans="1:16">
       <c r="A445" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B445" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C445">
-        <v>15000</v>
+        <v>53807</v>
       </c>
       <c r="D445" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E445" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="G445" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H445" t="s">
         <v>100</v>
       </c>
       <c r="I445" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J445" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K445" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="L445" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="M445" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N445" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="O445" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="P445" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="446" spans="1:16">
       <c r="A446" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B446" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C446">
-        <v>15000</v>
+        <v>780</v>
       </c>
       <c r="D446" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E446" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G446" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H446" t="s">
         <v>100</v>
       </c>
       <c r="I446" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J446" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K446" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="L446" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="M446" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N446" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="O446" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="P446" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="447" spans="1:16">
@@ -22214,46 +22217,46 @@
         <v>26</v>
       </c>
       <c r="B447" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C447">
-        <v>15000</v>
+        <v>3480</v>
       </c>
       <c r="D447" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E447" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G447" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H447" t="s">
         <v>100</v>
       </c>
       <c r="I447" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J447" t="s">
         <v>108</v>
       </c>
       <c r="K447" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L447" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M447" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N447" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O447" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="P447" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="448" spans="1:16">
@@ -22261,46 +22264,46 @@
         <v>26</v>
       </c>
       <c r="B448" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C448">
-        <v>15000</v>
+        <v>5136</v>
       </c>
       <c r="D448" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E448" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G448" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H448" t="s">
         <v>100</v>
       </c>
       <c r="I448" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J448" t="s">
         <v>108</v>
       </c>
       <c r="K448" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L448" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M448" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N448" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O448" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="P448" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="449" spans="1:16">
@@ -22329,7 +22332,7 @@
         <v>104</v>
       </c>
       <c r="J449" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K449" t="s">
         <v>116</v>
@@ -22347,7 +22350,7 @@
         <v>138</v>
       </c>
       <c r="P449" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="450" spans="1:16">
@@ -22364,7 +22367,7 @@
         <v>73</v>
       </c>
       <c r="E450" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G450" t="s">
         <v>98</v>
@@ -22373,10 +22376,10 @@
         <v>100</v>
       </c>
       <c r="I450" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J450" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K450" t="s">
         <v>116</v>
@@ -22394,168 +22397,168 @@
         <v>138</v>
       </c>
       <c r="P450" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="451" spans="1:16">
       <c r="A451" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B451" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C451">
-        <v>657595.95</v>
+        <v>15000</v>
       </c>
       <c r="D451" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E451" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G451" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H451" t="s">
         <v>100</v>
       </c>
       <c r="I451" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J451" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K451" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L451" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M451" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N451" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O451" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="P451" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="452" spans="1:16">
       <c r="A452" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B452" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C452">
-        <v>657595.95</v>
+        <v>15000</v>
       </c>
       <c r="D452" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E452" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G452" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H452" t="s">
         <v>100</v>
       </c>
       <c r="I452" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J452" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K452" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L452" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M452" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N452" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O452" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="P452" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="453" spans="1:16">
       <c r="A453" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B453" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C453">
-        <v>651617.8100000001</v>
+        <v>15000</v>
       </c>
       <c r="D453" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E453" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G453" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H453" t="s">
         <v>100</v>
       </c>
       <c r="I453" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J453" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K453" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L453" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M453" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N453" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O453" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="P453" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="454" spans="1:16">
       <c r="A454" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B454" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C454">
-        <v>716315.02</v>
+        <v>15000</v>
       </c>
       <c r="D454" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E454" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G454" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H454" t="s">
         <v>100</v>
@@ -22564,89 +22567,89 @@
         <v>104</v>
       </c>
       <c r="J454" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K454" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L454" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M454" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N454" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O454" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="P454" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="455" spans="1:16">
       <c r="A455" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B455" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C455">
-        <v>353478</v>
+        <v>15000</v>
       </c>
       <c r="D455" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E455" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G455" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H455" t="s">
         <v>100</v>
       </c>
       <c r="I455" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J455" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K455" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L455" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M455" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N455" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="O455" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="P455" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="456" spans="1:16">
       <c r="A456" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B456" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C456">
-        <v>546699.9</v>
+        <v>657595.95</v>
       </c>
       <c r="D456" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E456" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G456" t="s">
         <v>95</v>
@@ -22661,19 +22664,19 @@
         <v>109</v>
       </c>
       <c r="K456" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L456" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M456" t="s">
         <v>126</v>
       </c>
       <c r="N456" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O456" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P456" t="s">
         <v>173</v>
@@ -22681,19 +22684,19 @@
     </row>
     <row r="457" spans="1:16">
       <c r="A457" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B457" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C457">
-        <v>257823</v>
+        <v>657595.95</v>
       </c>
       <c r="D457" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="E457" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G457" t="s">
         <v>95</v>
@@ -22708,19 +22711,19 @@
         <v>109</v>
       </c>
       <c r="K457" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L457" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M457" t="s">
         <v>126</v>
       </c>
       <c r="N457" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O457" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P457" t="s">
         <v>173</v>
@@ -22728,19 +22731,19 @@
     </row>
     <row r="458" spans="1:16">
       <c r="A458" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B458" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C458">
-        <v>1570762.55</v>
+        <v>651617.8100000001</v>
       </c>
       <c r="D458" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E458" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G458" t="s">
         <v>95</v>
@@ -22755,19 +22758,19 @@
         <v>109</v>
       </c>
       <c r="K458" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L458" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M458" t="s">
         <v>126</v>
       </c>
       <c r="N458" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O458" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P458" t="s">
         <v>173</v>
@@ -22775,19 +22778,19 @@
     </row>
     <row r="459" spans="1:16">
       <c r="A459" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B459" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C459">
-        <v>172818</v>
+        <v>716315.02</v>
       </c>
       <c r="D459" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E459" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G459" t="s">
         <v>96</v>
@@ -22802,19 +22805,19 @@
         <v>109</v>
       </c>
       <c r="K459" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L459" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M459" t="s">
         <v>126</v>
       </c>
       <c r="N459" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O459" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P459" t="s">
         <v>173</v>
@@ -22822,19 +22825,19 @@
     </row>
     <row r="460" spans="1:16">
       <c r="A460" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B460" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C460">
-        <v>3480</v>
+        <v>353478</v>
       </c>
       <c r="D460" t="s">
         <v>67</v>
       </c>
       <c r="E460" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G460" t="s">
         <v>95</v>
@@ -22849,19 +22852,19 @@
         <v>109</v>
       </c>
       <c r="K460" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L460" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M460" t="s">
         <v>126</v>
       </c>
       <c r="N460" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O460" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P460" t="s">
         <v>174</v>
@@ -22869,19 +22872,19 @@
     </row>
     <row r="461" spans="1:16">
       <c r="A461" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B461" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C461">
-        <v>5136</v>
+        <v>546699.9</v>
       </c>
       <c r="D461" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E461" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G461" t="s">
         <v>95</v>
@@ -22896,19 +22899,19 @@
         <v>109</v>
       </c>
       <c r="K461" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L461" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M461" t="s">
         <v>126</v>
       </c>
       <c r="N461" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O461" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P461" t="s">
         <v>174</v>
@@ -22916,19 +22919,19 @@
     </row>
     <row r="462" spans="1:16">
       <c r="A462" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B462" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C462">
-        <v>3850</v>
+        <v>257823</v>
       </c>
       <c r="D462" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="E462" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G462" t="s">
         <v>95</v>
@@ -22943,42 +22946,42 @@
         <v>109</v>
       </c>
       <c r="K462" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="L462" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="M462" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N462" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="O462" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="P462" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="463" spans="1:16">
       <c r="A463" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B463" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C463">
-        <v>25999</v>
+        <v>1570762.55</v>
       </c>
       <c r="D463" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E463" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G463" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H463" t="s">
         <v>100</v>
@@ -22990,86 +22993,86 @@
         <v>109</v>
       </c>
       <c r="K463" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L463" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M463" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N463" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="O463" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="P463" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="464" spans="1:16">
       <c r="A464" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B464" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C464">
-        <v>1</v>
+        <v>172818</v>
       </c>
       <c r="D464" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E464" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G464" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H464" t="s">
         <v>100</v>
       </c>
       <c r="I464" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J464" t="s">
         <v>109</v>
       </c>
       <c r="K464" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L464" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M464" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N464" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O464" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="P464" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="465" spans="1:16">
       <c r="A465" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B465" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C465">
-        <v>1</v>
+        <v>3480</v>
       </c>
       <c r="D465" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E465" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G465" t="s">
         <v>95</v>
@@ -23078,45 +23081,45 @@
         <v>100</v>
       </c>
       <c r="I465" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J465" t="s">
         <v>109</v>
       </c>
       <c r="K465" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L465" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M465" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N465" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O465" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="P465" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="466" spans="1:16">
       <c r="A466" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B466" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C466">
-        <v>326.25</v>
+        <v>5136</v>
       </c>
       <c r="D466" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E466" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G466" t="s">
         <v>95</v>
@@ -23125,45 +23128,45 @@
         <v>100</v>
       </c>
       <c r="I466" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J466" t="s">
         <v>109</v>
       </c>
       <c r="K466" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L466" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M466" t="s">
         <v>126</v>
       </c>
       <c r="N466" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O466" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P466" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="467" spans="1:16">
       <c r="A467" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B467" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C467">
-        <v>326.25</v>
+        <v>3850</v>
       </c>
       <c r="D467" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E467" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G467" t="s">
         <v>95</v>
@@ -23172,92 +23175,92 @@
         <v>100</v>
       </c>
       <c r="I467" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J467" t="s">
         <v>109</v>
       </c>
       <c r="K467" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="L467" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="M467" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N467" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="O467" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="P467" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="468" spans="1:16">
       <c r="A468" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B468" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C468">
-        <v>326.25</v>
+        <v>25999</v>
       </c>
       <c r="D468" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E468" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="G468" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H468" t="s">
         <v>100</v>
       </c>
       <c r="I468" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J468" t="s">
         <v>109</v>
       </c>
       <c r="K468" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="L468" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M468" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N468" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="O468" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="P468" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="469" spans="1:16">
       <c r="A469" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B469" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C469">
-        <v>326.25</v>
+        <v>1</v>
       </c>
       <c r="D469" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E469" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G469" t="s">
         <v>95</v>
@@ -23272,19 +23275,19 @@
         <v>109</v>
       </c>
       <c r="K469" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L469" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M469" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N469" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O469" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="P469" t="s">
         <v>177</v>
@@ -23292,19 +23295,19 @@
     </row>
     <row r="470" spans="1:16">
       <c r="A470" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B470" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C470">
-        <v>326.25</v>
+        <v>1</v>
       </c>
       <c r="D470" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E470" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G470" t="s">
         <v>95</v>
@@ -23319,19 +23322,19 @@
         <v>109</v>
       </c>
       <c r="K470" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L470" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M470" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N470" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O470" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="P470" t="s">
         <v>177</v>
@@ -23381,7 +23384,7 @@
         <v>118</v>
       </c>
       <c r="P471" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="472" spans="1:16">
@@ -23428,7 +23431,7 @@
         <v>118</v>
       </c>
       <c r="P472" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="473" spans="1:16">
@@ -23475,7 +23478,7 @@
         <v>118</v>
       </c>
       <c r="P473" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="474" spans="1:16">
@@ -23522,7 +23525,7 @@
         <v>118</v>
       </c>
       <c r="P474" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="475" spans="1:16">
@@ -23569,7 +23572,7 @@
         <v>118</v>
       </c>
       <c r="P475" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="476" spans="1:16">
@@ -23616,7 +23619,7 @@
         <v>118</v>
       </c>
       <c r="P476" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="477" spans="1:16">
@@ -23663,7 +23666,7 @@
         <v>118</v>
       </c>
       <c r="P477" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="478" spans="1:16">
@@ -23674,10 +23677,10 @@
         <v>32</v>
       </c>
       <c r="C478">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D478" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E478" t="s">
         <v>76</v>
@@ -23710,7 +23713,7 @@
         <v>118</v>
       </c>
       <c r="P478" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="479" spans="1:16">
@@ -23721,10 +23724,10 @@
         <v>32</v>
       </c>
       <c r="C479">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D479" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E479" t="s">
         <v>76</v>
@@ -23757,7 +23760,7 @@
         <v>118</v>
       </c>
       <c r="P479" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="480" spans="1:16">
@@ -23768,10 +23771,10 @@
         <v>32</v>
       </c>
       <c r="C480">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D480" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E480" t="s">
         <v>76</v>
@@ -23804,7 +23807,7 @@
         <v>118</v>
       </c>
       <c r="P480" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="481" spans="1:16">
@@ -23815,10 +23818,10 @@
         <v>32</v>
       </c>
       <c r="C481">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D481" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E481" t="s">
         <v>76</v>
@@ -23851,7 +23854,7 @@
         <v>118</v>
       </c>
       <c r="P481" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="482" spans="1:16">
@@ -23862,10 +23865,10 @@
         <v>32</v>
       </c>
       <c r="C482">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D482" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E482" t="s">
         <v>76</v>
@@ -23898,7 +23901,7 @@
         <v>118</v>
       </c>
       <c r="P482" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="483" spans="1:16">
@@ -23945,7 +23948,7 @@
         <v>118</v>
       </c>
       <c r="P483" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="484" spans="1:16">
@@ -23992,7 +23995,7 @@
         <v>118</v>
       </c>
       <c r="P484" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="485" spans="1:16">
@@ -24039,7 +24042,7 @@
         <v>118</v>
       </c>
       <c r="P485" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="486" spans="1:16">
@@ -24086,7 +24089,7 @@
         <v>118</v>
       </c>
       <c r="P486" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="487" spans="1:16">
@@ -24133,7 +24136,7 @@
         <v>118</v>
       </c>
       <c r="P487" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="488" spans="1:16">
@@ -24180,7 +24183,7 @@
         <v>118</v>
       </c>
       <c r="P488" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="489" spans="1:16">
@@ -24227,7 +24230,7 @@
         <v>118</v>
       </c>
       <c r="P489" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="490" spans="1:16">
@@ -24238,10 +24241,10 @@
         <v>32</v>
       </c>
       <c r="C490">
-        <v>13365</v>
+        <v>489.58</v>
       </c>
       <c r="D490" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E490" t="s">
         <v>76</v>
@@ -24274,7 +24277,7 @@
         <v>118</v>
       </c>
       <c r="P490" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="491" spans="1:16">
@@ -24285,10 +24288,10 @@
         <v>32</v>
       </c>
       <c r="C491">
-        <v>3382.5</v>
+        <v>489.58</v>
       </c>
       <c r="D491" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E491" t="s">
         <v>76</v>
@@ -24321,7 +24324,7 @@
         <v>118</v>
       </c>
       <c r="P491" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="492" spans="1:16">
@@ -24332,10 +24335,10 @@
         <v>32</v>
       </c>
       <c r="C492">
-        <v>3382.5</v>
+        <v>489.58</v>
       </c>
       <c r="D492" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E492" t="s">
         <v>76</v>
@@ -24368,7 +24371,7 @@
         <v>118</v>
       </c>
       <c r="P492" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="493" spans="1:16">
@@ -24379,10 +24382,10 @@
         <v>32</v>
       </c>
       <c r="C493">
-        <v>2167</v>
+        <v>489.58</v>
       </c>
       <c r="D493" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E493" t="s">
         <v>76</v>
@@ -24415,7 +24418,7 @@
         <v>118</v>
       </c>
       <c r="P493" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="494" spans="1:16">
@@ -24426,10 +24429,10 @@
         <v>32</v>
       </c>
       <c r="C494">
-        <v>1479.25</v>
+        <v>489.58</v>
       </c>
       <c r="D494" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E494" t="s">
         <v>76</v>
@@ -24462,7 +24465,7 @@
         <v>118</v>
       </c>
       <c r="P494" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="495" spans="1:16">
@@ -24473,10 +24476,10 @@
         <v>32</v>
       </c>
       <c r="C495">
-        <v>1479.25</v>
+        <v>13365</v>
       </c>
       <c r="D495" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E495" t="s">
         <v>76</v>
@@ -24509,7 +24512,7 @@
         <v>118</v>
       </c>
       <c r="P495" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="496" spans="1:16">
@@ -24520,10 +24523,10 @@
         <v>32</v>
       </c>
       <c r="C496">
-        <v>1479.25</v>
+        <v>3382.5</v>
       </c>
       <c r="D496" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E496" t="s">
         <v>76</v>
@@ -24556,7 +24559,7 @@
         <v>118</v>
       </c>
       <c r="P496" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="497" spans="1:16">
@@ -24567,10 +24570,10 @@
         <v>32</v>
       </c>
       <c r="C497">
-        <v>1479.25</v>
+        <v>3382.5</v>
       </c>
       <c r="D497" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E497" t="s">
         <v>76</v>
@@ -24603,21 +24606,21 @@
         <v>118</v>
       </c>
       <c r="P497" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="498" spans="1:16">
       <c r="A498" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B498" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C498">
-        <v>53807</v>
+        <v>2167</v>
       </c>
       <c r="D498" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E498" t="s">
         <v>76</v>
@@ -24650,7 +24653,7 @@
         <v>118</v>
       </c>
       <c r="P498" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="499" spans="1:16">
@@ -24658,16 +24661,16 @@
         <v>16</v>
       </c>
       <c r="B499" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C499">
-        <v>780</v>
+        <v>1479.25</v>
       </c>
       <c r="D499" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E499" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G499" t="s">
         <v>95</v>
@@ -24697,24 +24700,24 @@
         <v>118</v>
       </c>
       <c r="P499" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="500" spans="1:16">
       <c r="A500" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B500" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C500">
-        <v>353478</v>
+        <v>1479.25</v>
       </c>
       <c r="D500" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E500" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G500" t="s">
         <v>95</v>
@@ -24729,19 +24732,19 @@
         <v>109</v>
       </c>
       <c r="K500" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L500" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M500" t="s">
         <v>126</v>
       </c>
       <c r="N500" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O500" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P500" t="s">
         <v>178</v>
@@ -24749,19 +24752,19 @@
     </row>
     <row r="501" spans="1:16">
       <c r="A501" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B501" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C501">
-        <v>546699.9</v>
+        <v>1479.25</v>
       </c>
       <c r="D501" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E501" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G501" t="s">
         <v>95</v>
@@ -24776,19 +24779,19 @@
         <v>109</v>
       </c>
       <c r="K501" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L501" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M501" t="s">
         <v>126</v>
       </c>
       <c r="N501" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O501" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P501" t="s">
         <v>178</v>
@@ -24796,19 +24799,19 @@
     </row>
     <row r="502" spans="1:16">
       <c r="A502" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B502" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C502">
-        <v>257823</v>
+        <v>1479.25</v>
       </c>
       <c r="D502" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E502" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G502" t="s">
         <v>95</v>
@@ -24823,19 +24826,19 @@
         <v>109</v>
       </c>
       <c r="K502" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L502" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M502" t="s">
         <v>126</v>
       </c>
       <c r="N502" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O502" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P502" t="s">
         <v>178</v>
@@ -24843,19 +24846,19 @@
     </row>
     <row r="503" spans="1:16">
       <c r="A503" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B503" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C503">
-        <v>1570762.55</v>
+        <v>53807</v>
       </c>
       <c r="D503" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E503" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G503" t="s">
         <v>95</v>
@@ -24870,19 +24873,19 @@
         <v>109</v>
       </c>
       <c r="K503" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L503" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M503" t="s">
         <v>126</v>
       </c>
       <c r="N503" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O503" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P503" t="s">
         <v>178</v>
@@ -24890,22 +24893,22 @@
     </row>
     <row r="504" spans="1:16">
       <c r="A504" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B504" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C504">
-        <v>172818</v>
+        <v>780</v>
       </c>
       <c r="D504" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E504" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G504" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H504" t="s">
         <v>100</v>
@@ -24917,19 +24920,19 @@
         <v>109</v>
       </c>
       <c r="K504" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L504" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M504" t="s">
         <v>126</v>
       </c>
       <c r="N504" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O504" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P504" t="s">
         <v>178</v>
@@ -24937,19 +24940,19 @@
     </row>
     <row r="505" spans="1:16">
       <c r="A505" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B505" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C505">
-        <v>3480</v>
+        <v>353478</v>
       </c>
       <c r="D505" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E505" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G505" t="s">
         <v>95</v>
@@ -24964,19 +24967,19 @@
         <v>109</v>
       </c>
       <c r="K505" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L505" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M505" t="s">
         <v>126</v>
       </c>
       <c r="N505" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O505" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P505" t="s">
         <v>179</v>
@@ -24984,19 +24987,19 @@
     </row>
     <row r="506" spans="1:16">
       <c r="A506" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B506" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C506">
-        <v>5136</v>
+        <v>546699.9</v>
       </c>
       <c r="D506" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E506" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G506" t="s">
         <v>95</v>
@@ -25011,19 +25014,19 @@
         <v>109</v>
       </c>
       <c r="K506" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L506" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M506" t="s">
         <v>126</v>
       </c>
       <c r="N506" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O506" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P506" t="s">
         <v>179</v>
@@ -25031,19 +25034,19 @@
     </row>
     <row r="507" spans="1:16">
       <c r="A507" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B507" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C507">
-        <v>657595.95</v>
+        <v>257823</v>
       </c>
       <c r="D507" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="E507" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G507" t="s">
         <v>95</v>
@@ -25058,39 +25061,39 @@
         <v>109</v>
       </c>
       <c r="K507" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L507" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M507" t="s">
         <v>126</v>
       </c>
       <c r="N507" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O507" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P507" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="508" spans="1:16">
       <c r="A508" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B508" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C508">
-        <v>651617.8100000001</v>
+        <v>1570762.55</v>
       </c>
       <c r="D508" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E508" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G508" t="s">
         <v>95</v>
@@ -25105,39 +25108,39 @@
         <v>109</v>
       </c>
       <c r="K508" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L508" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M508" t="s">
         <v>126</v>
       </c>
       <c r="N508" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O508" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P508" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="509" spans="1:16">
       <c r="A509" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B509" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C509">
-        <v>716315.02</v>
+        <v>172818</v>
       </c>
       <c r="D509" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E509" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G509" t="s">
         <v>96</v>
@@ -25152,39 +25155,39 @@
         <v>109</v>
       </c>
       <c r="K509" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L509" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M509" t="s">
         <v>126</v>
       </c>
       <c r="N509" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O509" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P509" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="510" spans="1:16">
       <c r="A510" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B510" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C510">
-        <v>3850</v>
+        <v>3480</v>
       </c>
       <c r="D510" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E510" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G510" t="s">
         <v>95</v>
@@ -25199,22 +25202,22 @@
         <v>109</v>
       </c>
       <c r="K510" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L510" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M510" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N510" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O510" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="P510" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="511" spans="1:16">
@@ -25222,19 +25225,19 @@
         <v>26</v>
       </c>
       <c r="B511" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C511">
-        <v>25999</v>
+        <v>5136</v>
       </c>
       <c r="D511" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E511" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G511" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H511" t="s">
         <v>100</v>
@@ -25246,39 +25249,39 @@
         <v>109</v>
       </c>
       <c r="K511" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L511" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M511" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N511" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O511" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="P511" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="512" spans="1:16">
       <c r="A512" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B512" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C512">
-        <v>326.25</v>
+        <v>657595.95</v>
       </c>
       <c r="D512" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E512" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G512" t="s">
         <v>95</v>
@@ -25287,45 +25290,45 @@
         <v>100</v>
       </c>
       <c r="I512" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J512" t="s">
         <v>109</v>
       </c>
       <c r="K512" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L512" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M512" t="s">
         <v>126</v>
       </c>
       <c r="N512" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="O512" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P512" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="513" spans="1:16">
       <c r="A513" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B513" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C513">
-        <v>326.25</v>
+        <v>651617.8100000001</v>
       </c>
       <c r="D513" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E513" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G513" t="s">
         <v>95</v>
@@ -25334,92 +25337,92 @@
         <v>100</v>
       </c>
       <c r="I513" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J513" t="s">
         <v>109</v>
       </c>
       <c r="K513" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L513" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M513" t="s">
         <v>126</v>
       </c>
       <c r="N513" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="O513" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P513" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="514" spans="1:16">
       <c r="A514" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B514" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C514">
-        <v>326.25</v>
+        <v>716315.02</v>
       </c>
       <c r="D514" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E514" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G514" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H514" t="s">
         <v>100</v>
       </c>
       <c r="I514" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J514" t="s">
         <v>109</v>
       </c>
       <c r="K514" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L514" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M514" t="s">
         <v>126</v>
       </c>
       <c r="N514" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="O514" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P514" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="515" spans="1:16">
       <c r="A515" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B515" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C515">
-        <v>326.25</v>
+        <v>3850</v>
       </c>
       <c r="D515" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E515" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G515" t="s">
         <v>95</v>
@@ -25428,25 +25431,25 @@
         <v>100</v>
       </c>
       <c r="I515" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J515" t="s">
         <v>109</v>
       </c>
       <c r="K515" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="L515" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="M515" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N515" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="O515" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="P515" t="s">
         <v>182</v>
@@ -25454,46 +25457,46 @@
     </row>
     <row r="516" spans="1:16">
       <c r="A516" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B516" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C516">
-        <v>326.25</v>
+        <v>25999</v>
       </c>
       <c r="D516" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E516" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="G516" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H516" t="s">
         <v>100</v>
       </c>
       <c r="I516" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J516" t="s">
         <v>109</v>
       </c>
       <c r="K516" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="L516" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M516" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N516" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="O516" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="P516" t="s">
         <v>182</v>
@@ -25543,7 +25546,7 @@
         <v>118</v>
       </c>
       <c r="P517" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="518" spans="1:16">
@@ -25590,7 +25593,7 @@
         <v>118</v>
       </c>
       <c r="P518" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="519" spans="1:16">
@@ -25637,7 +25640,7 @@
         <v>118</v>
       </c>
       <c r="P519" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="520" spans="1:16">
@@ -25684,7 +25687,7 @@
         <v>118</v>
       </c>
       <c r="P520" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="521" spans="1:16">
@@ -25731,7 +25734,7 @@
         <v>118</v>
       </c>
       <c r="P521" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="522" spans="1:16">
@@ -25778,7 +25781,7 @@
         <v>118</v>
       </c>
       <c r="P522" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="523" spans="1:16">
@@ -25825,7 +25828,7 @@
         <v>118</v>
       </c>
       <c r="P523" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="524" spans="1:16">
@@ -25836,10 +25839,10 @@
         <v>32</v>
       </c>
       <c r="C524">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D524" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E524" t="s">
         <v>76</v>
@@ -25872,7 +25875,7 @@
         <v>118</v>
       </c>
       <c r="P524" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="525" spans="1:16">
@@ -25883,10 +25886,10 @@
         <v>32</v>
       </c>
       <c r="C525">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D525" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E525" t="s">
         <v>76</v>
@@ -25919,7 +25922,7 @@
         <v>118</v>
       </c>
       <c r="P525" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="526" spans="1:16">
@@ -25930,10 +25933,10 @@
         <v>32</v>
       </c>
       <c r="C526">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D526" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E526" t="s">
         <v>76</v>
@@ -25966,7 +25969,7 @@
         <v>118</v>
       </c>
       <c r="P526" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="527" spans="1:16">
@@ -25977,10 +25980,10 @@
         <v>32</v>
       </c>
       <c r="C527">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D527" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E527" t="s">
         <v>76</v>
@@ -26013,7 +26016,7 @@
         <v>118</v>
       </c>
       <c r="P527" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="528" spans="1:16">
@@ -26024,10 +26027,10 @@
         <v>32</v>
       </c>
       <c r="C528">
-        <v>489.58</v>
+        <v>326.25</v>
       </c>
       <c r="D528" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E528" t="s">
         <v>76</v>
@@ -26060,7 +26063,7 @@
         <v>118</v>
       </c>
       <c r="P528" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="529" spans="1:16">
@@ -26107,7 +26110,7 @@
         <v>118</v>
       </c>
       <c r="P529" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="530" spans="1:16">
@@ -26154,7 +26157,7 @@
         <v>118</v>
       </c>
       <c r="P530" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="531" spans="1:16">
@@ -26201,7 +26204,7 @@
         <v>118</v>
       </c>
       <c r="P531" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="532" spans="1:16">
@@ -26248,7 +26251,7 @@
         <v>118</v>
       </c>
       <c r="P532" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="533" spans="1:16">
@@ -26295,7 +26298,7 @@
         <v>118</v>
       </c>
       <c r="P533" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="534" spans="1:16">
@@ -26342,7 +26345,7 @@
         <v>118</v>
       </c>
       <c r="P534" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="535" spans="1:16">
@@ -26389,7 +26392,7 @@
         <v>118</v>
       </c>
       <c r="P535" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="536" spans="1:16">
@@ -26400,10 +26403,10 @@
         <v>32</v>
       </c>
       <c r="C536">
-        <v>13365</v>
+        <v>489.58</v>
       </c>
       <c r="D536" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E536" t="s">
         <v>76</v>
@@ -26436,7 +26439,7 @@
         <v>118</v>
       </c>
       <c r="P536" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="537" spans="1:16">
@@ -26447,10 +26450,10 @@
         <v>32</v>
       </c>
       <c r="C537">
-        <v>3382.5</v>
+        <v>489.58</v>
       </c>
       <c r="D537" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E537" t="s">
         <v>76</v>
@@ -26483,7 +26486,7 @@
         <v>118</v>
       </c>
       <c r="P537" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="538" spans="1:16">
@@ -26494,10 +26497,10 @@
         <v>32</v>
       </c>
       <c r="C538">
-        <v>3382.5</v>
+        <v>489.58</v>
       </c>
       <c r="D538" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E538" t="s">
         <v>76</v>
@@ -26530,7 +26533,7 @@
         <v>118</v>
       </c>
       <c r="P538" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="539" spans="1:16">
@@ -26541,10 +26544,10 @@
         <v>32</v>
       </c>
       <c r="C539">
-        <v>2167</v>
+        <v>489.58</v>
       </c>
       <c r="D539" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E539" t="s">
         <v>76</v>
@@ -26577,7 +26580,7 @@
         <v>118</v>
       </c>
       <c r="P539" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="540" spans="1:16">
@@ -26588,10 +26591,10 @@
         <v>32</v>
       </c>
       <c r="C540">
-        <v>1479.25</v>
+        <v>489.58</v>
       </c>
       <c r="D540" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E540" t="s">
         <v>76</v>
@@ -26624,7 +26627,7 @@
         <v>118</v>
       </c>
       <c r="P540" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="541" spans="1:16">
@@ -26635,10 +26638,10 @@
         <v>32</v>
       </c>
       <c r="C541">
-        <v>1479.25</v>
+        <v>13365</v>
       </c>
       <c r="D541" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E541" t="s">
         <v>76</v>
@@ -26671,7 +26674,7 @@
         <v>118</v>
       </c>
       <c r="P541" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="542" spans="1:16">
@@ -26682,10 +26685,10 @@
         <v>32</v>
       </c>
       <c r="C542">
-        <v>1479.25</v>
+        <v>3382.5</v>
       </c>
       <c r="D542" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E542" t="s">
         <v>76</v>
@@ -26718,7 +26721,7 @@
         <v>118</v>
       </c>
       <c r="P542" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="543" spans="1:16">
@@ -26729,10 +26732,10 @@
         <v>32</v>
       </c>
       <c r="C543">
-        <v>1479.25</v>
+        <v>3382.5</v>
       </c>
       <c r="D543" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E543" t="s">
         <v>76</v>
@@ -26765,21 +26768,21 @@
         <v>118</v>
       </c>
       <c r="P543" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="544" spans="1:16">
       <c r="A544" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B544" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C544">
-        <v>53807</v>
+        <v>2167</v>
       </c>
       <c r="D544" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E544" t="s">
         <v>76</v>
@@ -26812,7 +26815,7 @@
         <v>118</v>
       </c>
       <c r="P544" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="545" spans="1:16">
@@ -26820,16 +26823,16 @@
         <v>16</v>
       </c>
       <c r="B545" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C545">
-        <v>780</v>
+        <v>1479.25</v>
       </c>
       <c r="D545" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E545" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G545" t="s">
         <v>95</v>
@@ -26859,24 +26862,24 @@
         <v>118</v>
       </c>
       <c r="P545" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="546" spans="1:16">
       <c r="A546" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B546" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C546">
-        <v>1</v>
+        <v>1479.25</v>
       </c>
       <c r="D546" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E546" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G546" t="s">
         <v>95</v>
@@ -26891,19 +26894,19 @@
         <v>109</v>
       </c>
       <c r="K546" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L546" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M546" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N546" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O546" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="P546" t="s">
         <v>183</v>
@@ -26911,19 +26914,19 @@
     </row>
     <row r="547" spans="1:16">
       <c r="A547" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B547" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C547">
-        <v>1</v>
+        <v>1479.25</v>
       </c>
       <c r="D547" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E547" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G547" t="s">
         <v>95</v>
@@ -26938,19 +26941,19 @@
         <v>109</v>
       </c>
       <c r="K547" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L547" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M547" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N547" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O547" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="P547" t="s">
         <v>183</v>
@@ -26958,19 +26961,19 @@
     </row>
     <row r="548" spans="1:16">
       <c r="A548" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B548" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C548">
-        <v>657595.95</v>
+        <v>1479.25</v>
       </c>
       <c r="D548" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E548" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G548" t="s">
         <v>95</v>
@@ -26985,39 +26988,39 @@
         <v>109</v>
       </c>
       <c r="K548" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L548" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M548" t="s">
         <v>126</v>
       </c>
       <c r="N548" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O548" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P548" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="549" spans="1:16">
       <c r="A549" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B549" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C549">
-        <v>651617.8100000001</v>
+        <v>53807</v>
       </c>
       <c r="D549" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E549" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G549" t="s">
         <v>95</v>
@@ -27032,42 +27035,42 @@
         <v>109</v>
       </c>
       <c r="K549" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L549" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M549" t="s">
         <v>126</v>
       </c>
       <c r="N549" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O549" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P549" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="550" spans="1:16">
       <c r="A550" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B550" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C550">
-        <v>716315.02</v>
+        <v>780</v>
       </c>
       <c r="D550" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E550" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G550" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H550" t="s">
         <v>100</v>
@@ -27079,39 +27082,39 @@
         <v>109</v>
       </c>
       <c r="K550" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L550" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M550" t="s">
         <v>126</v>
       </c>
       <c r="N550" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O550" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P550" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="551" spans="1:16">
       <c r="A551" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B551" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C551">
-        <v>3480</v>
+        <v>1</v>
       </c>
       <c r="D551" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E551" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G551" t="s">
         <v>95</v>
@@ -27126,39 +27129,39 @@
         <v>109</v>
       </c>
       <c r="K551" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L551" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M551" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N551" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O551" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="P551" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="552" spans="1:16">
       <c r="A552" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B552" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C552">
-        <v>5136</v>
+        <v>1</v>
       </c>
       <c r="D552" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E552" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G552" t="s">
         <v>95</v>
@@ -27173,39 +27176,39 @@
         <v>109</v>
       </c>
       <c r="K552" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L552" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M552" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N552" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O552" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="P552" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="553" spans="1:16">
       <c r="A553" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B553" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C553">
-        <v>353478</v>
+        <v>657595.95</v>
       </c>
       <c r="D553" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E553" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G553" t="s">
         <v>95</v>
@@ -27220,39 +27223,39 @@
         <v>109</v>
       </c>
       <c r="K553" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L553" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M553" t="s">
         <v>126</v>
       </c>
       <c r="N553" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O553" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P553" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="554" spans="1:16">
       <c r="A554" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B554" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C554">
-        <v>546699.9</v>
+        <v>651617.8100000001</v>
       </c>
       <c r="D554" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E554" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G554" t="s">
         <v>95</v>
@@ -27267,42 +27270,42 @@
         <v>109</v>
       </c>
       <c r="K554" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L554" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M554" t="s">
         <v>126</v>
       </c>
       <c r="N554" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O554" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P554" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="555" spans="1:16">
       <c r="A555" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B555" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C555">
-        <v>257823</v>
+        <v>716315.02</v>
       </c>
       <c r="D555" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="E555" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G555" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H555" t="s">
         <v>100</v>
@@ -27314,36 +27317,36 @@
         <v>109</v>
       </c>
       <c r="K555" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L555" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M555" t="s">
         <v>126</v>
       </c>
       <c r="N555" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O555" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P555" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="556" spans="1:16">
       <c r="A556" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B556" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C556">
-        <v>1570762.55</v>
+        <v>3480</v>
       </c>
       <c r="D556" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E556" t="s">
         <v>85</v>
@@ -27361,19 +27364,19 @@
         <v>109</v>
       </c>
       <c r="K556" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L556" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M556" t="s">
         <v>126</v>
       </c>
       <c r="N556" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O556" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P556" t="s">
         <v>186</v>
@@ -27381,22 +27384,22 @@
     </row>
     <row r="557" spans="1:16">
       <c r="A557" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B557" t="s">
         <v>44</v>
       </c>
       <c r="C557">
-        <v>172818</v>
+        <v>5136</v>
       </c>
       <c r="D557" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E557" t="s">
         <v>86</v>
       </c>
       <c r="G557" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H557" t="s">
         <v>100</v>
@@ -27408,19 +27411,19 @@
         <v>109</v>
       </c>
       <c r="K557" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L557" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M557" t="s">
         <v>126</v>
       </c>
       <c r="N557" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O557" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P557" t="s">
         <v>186</v>
@@ -27428,19 +27431,19 @@
     </row>
     <row r="558" spans="1:16">
       <c r="A558" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B558" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C558">
-        <v>3850</v>
+        <v>353478</v>
       </c>
       <c r="D558" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E558" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G558" t="s">
         <v>95</v>
@@ -27455,19 +27458,19 @@
         <v>109</v>
       </c>
       <c r="K558" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="L558" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="M558" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N558" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="O558" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="P558" t="s">
         <v>187</v>
@@ -27475,22 +27478,22 @@
     </row>
     <row r="559" spans="1:16">
       <c r="A559" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B559" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C559">
-        <v>25999</v>
+        <v>546699.9</v>
       </c>
       <c r="D559" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E559" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="G559" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H559" t="s">
         <v>100</v>
@@ -27502,19 +27505,19 @@
         <v>109</v>
       </c>
       <c r="K559" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L559" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M559" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N559" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="O559" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="P559" t="s">
         <v>187</v>
@@ -27522,16 +27525,16 @@
     </row>
     <row r="560" spans="1:16">
       <c r="A560" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B560" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C560">
-        <v>353478</v>
+        <v>257823</v>
       </c>
       <c r="D560" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="E560" t="s">
         <v>79</v>
@@ -27543,10 +27546,10 @@
         <v>100</v>
       </c>
       <c r="I560" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J560" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K560" t="s">
         <v>112</v>
@@ -27564,24 +27567,24 @@
         <v>120</v>
       </c>
       <c r="P560" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="561" spans="1:16">
       <c r="A561" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B561" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C561">
-        <v>546699.9</v>
+        <v>1570762.55</v>
       </c>
       <c r="D561" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E561" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G561" t="s">
         <v>95</v>
@@ -27590,10 +27593,10 @@
         <v>100</v>
       </c>
       <c r="I561" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J561" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K561" t="s">
         <v>112</v>
@@ -27611,36 +27614,36 @@
         <v>120</v>
       </c>
       <c r="P561" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="562" spans="1:16">
       <c r="A562" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B562" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C562">
-        <v>257823</v>
+        <v>172818</v>
       </c>
       <c r="D562" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E562" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G562" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H562" t="s">
         <v>100</v>
       </c>
       <c r="I562" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J562" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K562" t="s">
         <v>112</v>
@@ -27658,24 +27661,24 @@
         <v>120</v>
       </c>
       <c r="P562" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="563" spans="1:16">
       <c r="A563" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B563" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C563">
-        <v>1570762.55</v>
+        <v>3850</v>
       </c>
       <c r="D563" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E563" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G563" t="s">
         <v>95</v>
@@ -27684,25 +27687,25 @@
         <v>100</v>
       </c>
       <c r="I563" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J563" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K563" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L563" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="M563" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N563" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="O563" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="P563" t="s">
         <v>188</v>
@@ -27710,49 +27713,96 @@
     </row>
     <row r="564" spans="1:16">
       <c r="A564" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B564" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C564">
-        <v>172818</v>
+        <v>25999</v>
       </c>
       <c r="D564" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E564" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G564" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H564" t="s">
         <v>100</v>
       </c>
       <c r="I564" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J564" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K564" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L564" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M564" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N564" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="O564" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="P564" t="s">
         <v>188</v>
+      </c>
+    </row>
+    <row r="565" spans="1:16">
+      <c r="A565" t="s">
+        <v>17</v>
+      </c>
+      <c r="B565" t="s">
+        <v>33</v>
+      </c>
+      <c r="C565">
+        <v>53807</v>
+      </c>
+      <c r="D565" t="s">
+        <v>58</v>
+      </c>
+      <c r="E565" t="s">
+        <v>76</v>
+      </c>
+      <c r="G565" t="s">
+        <v>95</v>
+      </c>
+      <c r="H565" t="s">
+        <v>100</v>
+      </c>
+      <c r="I565" t="s">
+        <v>101</v>
+      </c>
+      <c r="J565" t="s">
+        <v>109</v>
+      </c>
+      <c r="K565" t="s">
+        <v>110</v>
+      </c>
+      <c r="L565" t="s">
+        <v>118</v>
+      </c>
+      <c r="M565" t="s">
+        <v>126</v>
+      </c>
+      <c r="N565" t="s">
+        <v>130</v>
+      </c>
+      <c r="O565" t="s">
+        <v>118</v>
+      </c>
+      <c r="P565" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_tables/3.2_movable_property.xlsx
+++ b/data/excel_tables/3.2_movable_property.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8012" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8208" uniqueCount="195">
   <si>
     <t>object_type</t>
   </si>
@@ -585,6 +585,21 @@
   <si>
     <t>9016d990-cdc6-11ef-b2b8-41c0413be8f6</t>
   </si>
+  <si>
+    <t>1117a520-e2f2-11ef-9c87-13513ebc86d2</t>
+  </si>
+  <si>
+    <t>22fd43d0-e473-11ef-a7f9-4fd7247b299f</t>
+  </si>
+  <si>
+    <t>34271330-e55d-11ef-90d5-ff8d5b0be14c</t>
+  </si>
+  <si>
+    <t>739a8cb0-e790-11ef-b948-e7ea2b294968</t>
+  </si>
+  <si>
+    <t>cb927950-e7d1-11ef-90d5-ff8d5b0be14c</t>
+  </si>
 </sst>
 </file>
 
@@ -941,7 +956,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P565"/>
+  <dimension ref="A1:P579"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27805,6 +27820,664 @@
         <v>189</v>
       </c>
     </row>
+    <row r="566" spans="1:16">
+      <c r="A566" t="s">
+        <v>18</v>
+      </c>
+      <c r="B566" t="s">
+        <v>35</v>
+      </c>
+      <c r="C566">
+        <v>1</v>
+      </c>
+      <c r="D566" t="s">
+        <v>60</v>
+      </c>
+      <c r="E566" t="s">
+        <v>78</v>
+      </c>
+      <c r="G566" t="s">
+        <v>95</v>
+      </c>
+      <c r="H566" t="s">
+        <v>100</v>
+      </c>
+      <c r="I566" t="s">
+        <v>101</v>
+      </c>
+      <c r="J566" t="s">
+        <v>109</v>
+      </c>
+      <c r="K566" t="s">
+        <v>111</v>
+      </c>
+      <c r="L566" t="s">
+        <v>119</v>
+      </c>
+      <c r="M566" t="s">
+        <v>127</v>
+      </c>
+      <c r="N566" t="s">
+        <v>131</v>
+      </c>
+      <c r="O566" t="s">
+        <v>137</v>
+      </c>
+      <c r="P566" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="567" spans="1:16">
+      <c r="A567" t="s">
+        <v>19</v>
+      </c>
+      <c r="B567" t="s">
+        <v>36</v>
+      </c>
+      <c r="C567">
+        <v>1</v>
+      </c>
+      <c r="D567" t="s">
+        <v>61</v>
+      </c>
+      <c r="E567" t="s">
+        <v>78</v>
+      </c>
+      <c r="G567" t="s">
+        <v>95</v>
+      </c>
+      <c r="H567" t="s">
+        <v>100</v>
+      </c>
+      <c r="I567" t="s">
+        <v>101</v>
+      </c>
+      <c r="J567" t="s">
+        <v>109</v>
+      </c>
+      <c r="K567" t="s">
+        <v>111</v>
+      </c>
+      <c r="L567" t="s">
+        <v>119</v>
+      </c>
+      <c r="M567" t="s">
+        <v>127</v>
+      </c>
+      <c r="N567" t="s">
+        <v>131</v>
+      </c>
+      <c r="O567" t="s">
+        <v>137</v>
+      </c>
+      <c r="P567" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="568" spans="1:16">
+      <c r="A568" t="s">
+        <v>18</v>
+      </c>
+      <c r="B568" t="s">
+        <v>35</v>
+      </c>
+      <c r="C568">
+        <v>1</v>
+      </c>
+      <c r="D568" t="s">
+        <v>60</v>
+      </c>
+      <c r="E568" t="s">
+        <v>78</v>
+      </c>
+      <c r="G568" t="s">
+        <v>95</v>
+      </c>
+      <c r="H568" t="s">
+        <v>100</v>
+      </c>
+      <c r="I568" t="s">
+        <v>101</v>
+      </c>
+      <c r="J568" t="s">
+        <v>109</v>
+      </c>
+      <c r="K568" t="s">
+        <v>111</v>
+      </c>
+      <c r="L568" t="s">
+        <v>119</v>
+      </c>
+      <c r="M568" t="s">
+        <v>127</v>
+      </c>
+      <c r="N568" t="s">
+        <v>131</v>
+      </c>
+      <c r="O568" t="s">
+        <v>137</v>
+      </c>
+      <c r="P568" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="569" spans="1:16">
+      <c r="A569" t="s">
+        <v>19</v>
+      </c>
+      <c r="B569" t="s">
+        <v>36</v>
+      </c>
+      <c r="C569">
+        <v>1</v>
+      </c>
+      <c r="D569" t="s">
+        <v>61</v>
+      </c>
+      <c r="E569" t="s">
+        <v>78</v>
+      </c>
+      <c r="G569" t="s">
+        <v>95</v>
+      </c>
+      <c r="H569" t="s">
+        <v>100</v>
+      </c>
+      <c r="I569" t="s">
+        <v>101</v>
+      </c>
+      <c r="J569" t="s">
+        <v>109</v>
+      </c>
+      <c r="K569" t="s">
+        <v>111</v>
+      </c>
+      <c r="L569" t="s">
+        <v>119</v>
+      </c>
+      <c r="M569" t="s">
+        <v>127</v>
+      </c>
+      <c r="N569" t="s">
+        <v>131</v>
+      </c>
+      <c r="O569" t="s">
+        <v>137</v>
+      </c>
+      <c r="P569" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="570" spans="1:16">
+      <c r="A570" t="s">
+        <v>26</v>
+      </c>
+      <c r="B570" t="s">
+        <v>44</v>
+      </c>
+      <c r="C570">
+        <v>3480</v>
+      </c>
+      <c r="D570" t="s">
+        <v>68</v>
+      </c>
+      <c r="E570" t="s">
+        <v>85</v>
+      </c>
+      <c r="G570" t="s">
+        <v>95</v>
+      </c>
+      <c r="H570" t="s">
+        <v>100</v>
+      </c>
+      <c r="I570" t="s">
+        <v>101</v>
+      </c>
+      <c r="J570" t="s">
+        <v>109</v>
+      </c>
+      <c r="K570" t="s">
+        <v>113</v>
+      </c>
+      <c r="L570" t="s">
+        <v>121</v>
+      </c>
+      <c r="M570" t="s">
+        <v>126</v>
+      </c>
+      <c r="N570" t="s">
+        <v>133</v>
+      </c>
+      <c r="O570" t="s">
+        <v>121</v>
+      </c>
+      <c r="P570" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="571" spans="1:16">
+      <c r="A571" t="s">
+        <v>26</v>
+      </c>
+      <c r="B571" t="s">
+        <v>44</v>
+      </c>
+      <c r="C571">
+        <v>5136</v>
+      </c>
+      <c r="D571" t="s">
+        <v>69</v>
+      </c>
+      <c r="E571" t="s">
+        <v>86</v>
+      </c>
+      <c r="G571" t="s">
+        <v>95</v>
+      </c>
+      <c r="H571" t="s">
+        <v>100</v>
+      </c>
+      <c r="I571" t="s">
+        <v>101</v>
+      </c>
+      <c r="J571" t="s">
+        <v>109</v>
+      </c>
+      <c r="K571" t="s">
+        <v>113</v>
+      </c>
+      <c r="L571" t="s">
+        <v>121</v>
+      </c>
+      <c r="M571" t="s">
+        <v>126</v>
+      </c>
+      <c r="N571" t="s">
+        <v>133</v>
+      </c>
+      <c r="O571" t="s">
+        <v>121</v>
+      </c>
+      <c r="P571" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="572" spans="1:16">
+      <c r="A572" t="s">
+        <v>20</v>
+      </c>
+      <c r="B572" t="s">
+        <v>37</v>
+      </c>
+      <c r="C572">
+        <v>353478</v>
+      </c>
+      <c r="D572" t="s">
+        <v>62</v>
+      </c>
+      <c r="E572" t="s">
+        <v>79</v>
+      </c>
+      <c r="G572" t="s">
+        <v>95</v>
+      </c>
+      <c r="H572" t="s">
+        <v>100</v>
+      </c>
+      <c r="I572" t="s">
+        <v>101</v>
+      </c>
+      <c r="J572" t="s">
+        <v>109</v>
+      </c>
+      <c r="K572" t="s">
+        <v>112</v>
+      </c>
+      <c r="L572" t="s">
+        <v>120</v>
+      </c>
+      <c r="M572" t="s">
+        <v>126</v>
+      </c>
+      <c r="N572" t="s">
+        <v>132</v>
+      </c>
+      <c r="O572" t="s">
+        <v>120</v>
+      </c>
+      <c r="P572" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="573" spans="1:16">
+      <c r="A573" t="s">
+        <v>21</v>
+      </c>
+      <c r="B573" t="s">
+        <v>38</v>
+      </c>
+      <c r="C573">
+        <v>546699.9</v>
+      </c>
+      <c r="D573" t="s">
+        <v>75</v>
+      </c>
+      <c r="E573" t="s">
+        <v>79</v>
+      </c>
+      <c r="G573" t="s">
+        <v>95</v>
+      </c>
+      <c r="H573" t="s">
+        <v>100</v>
+      </c>
+      <c r="I573" t="s">
+        <v>101</v>
+      </c>
+      <c r="J573" t="s">
+        <v>109</v>
+      </c>
+      <c r="K573" t="s">
+        <v>112</v>
+      </c>
+      <c r="L573" t="s">
+        <v>120</v>
+      </c>
+      <c r="M573" t="s">
+        <v>126</v>
+      </c>
+      <c r="N573" t="s">
+        <v>132</v>
+      </c>
+      <c r="O573" t="s">
+        <v>120</v>
+      </c>
+      <c r="P573" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="574" spans="1:16">
+      <c r="A574" t="s">
+        <v>22</v>
+      </c>
+      <c r="B574" t="s">
+        <v>39</v>
+      </c>
+      <c r="C574">
+        <v>257823</v>
+      </c>
+      <c r="D574" t="s">
+        <v>22</v>
+      </c>
+      <c r="E574" t="s">
+        <v>79</v>
+      </c>
+      <c r="G574" t="s">
+        <v>95</v>
+      </c>
+      <c r="H574" t="s">
+        <v>100</v>
+      </c>
+      <c r="I574" t="s">
+        <v>101</v>
+      </c>
+      <c r="J574" t="s">
+        <v>109</v>
+      </c>
+      <c r="K574" t="s">
+        <v>112</v>
+      </c>
+      <c r="L574" t="s">
+        <v>120</v>
+      </c>
+      <c r="M574" t="s">
+        <v>126</v>
+      </c>
+      <c r="N574" t="s">
+        <v>132</v>
+      </c>
+      <c r="O574" t="s">
+        <v>120</v>
+      </c>
+      <c r="P574" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="575" spans="1:16">
+      <c r="A575" t="s">
+        <v>25</v>
+      </c>
+      <c r="B575" t="s">
+        <v>42</v>
+      </c>
+      <c r="C575">
+        <v>1570762.55</v>
+      </c>
+      <c r="D575" t="s">
+        <v>66</v>
+      </c>
+      <c r="E575" t="s">
+        <v>83</v>
+      </c>
+      <c r="G575" t="s">
+        <v>95</v>
+      </c>
+      <c r="H575" t="s">
+        <v>100</v>
+      </c>
+      <c r="I575" t="s">
+        <v>101</v>
+      </c>
+      <c r="J575" t="s">
+        <v>109</v>
+      </c>
+      <c r="K575" t="s">
+        <v>112</v>
+      </c>
+      <c r="L575" t="s">
+        <v>120</v>
+      </c>
+      <c r="M575" t="s">
+        <v>126</v>
+      </c>
+      <c r="N575" t="s">
+        <v>132</v>
+      </c>
+      <c r="O575" t="s">
+        <v>120</v>
+      </c>
+      <c r="P575" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="576" spans="1:16">
+      <c r="A576" t="s">
+        <v>31</v>
+      </c>
+      <c r="B576" t="s">
+        <v>43</v>
+      </c>
+      <c r="C576">
+        <v>172818</v>
+      </c>
+      <c r="D576" t="s">
+        <v>65</v>
+      </c>
+      <c r="E576" t="s">
+        <v>84</v>
+      </c>
+      <c r="G576" t="s">
+        <v>96</v>
+      </c>
+      <c r="H576" t="s">
+        <v>100</v>
+      </c>
+      <c r="I576" t="s">
+        <v>101</v>
+      </c>
+      <c r="J576" t="s">
+        <v>109</v>
+      </c>
+      <c r="K576" t="s">
+        <v>112</v>
+      </c>
+      <c r="L576" t="s">
+        <v>120</v>
+      </c>
+      <c r="M576" t="s">
+        <v>126</v>
+      </c>
+      <c r="N576" t="s">
+        <v>132</v>
+      </c>
+      <c r="O576" t="s">
+        <v>120</v>
+      </c>
+      <c r="P576" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="577" spans="1:16">
+      <c r="A577" t="s">
+        <v>28</v>
+      </c>
+      <c r="B577" t="s">
+        <v>48</v>
+      </c>
+      <c r="C577">
+        <v>716315.02</v>
+      </c>
+      <c r="D577" t="s">
+        <v>72</v>
+      </c>
+      <c r="E577" t="s">
+        <v>88</v>
+      </c>
+      <c r="G577" t="s">
+        <v>96</v>
+      </c>
+      <c r="H577" t="s">
+        <v>100</v>
+      </c>
+      <c r="I577" t="s">
+        <v>101</v>
+      </c>
+      <c r="J577" t="s">
+        <v>109</v>
+      </c>
+      <c r="K577" t="s">
+        <v>114</v>
+      </c>
+      <c r="L577" t="s">
+        <v>122</v>
+      </c>
+      <c r="M577" t="s">
+        <v>126</v>
+      </c>
+      <c r="N577" t="s">
+        <v>134</v>
+      </c>
+      <c r="O577" t="s">
+        <v>122</v>
+      </c>
+      <c r="P577" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="578" spans="1:16">
+      <c r="A578" t="s">
+        <v>30</v>
+      </c>
+      <c r="B578" t="s">
+        <v>51</v>
+      </c>
+      <c r="C578">
+        <v>3850</v>
+      </c>
+      <c r="D578" t="s">
+        <v>74</v>
+      </c>
+      <c r="E578" t="s">
+        <v>92</v>
+      </c>
+      <c r="G578" t="s">
+        <v>95</v>
+      </c>
+      <c r="H578" t="s">
+        <v>100</v>
+      </c>
+      <c r="I578" t="s">
+        <v>101</v>
+      </c>
+      <c r="J578" t="s">
+        <v>109</v>
+      </c>
+      <c r="K578" t="s">
+        <v>117</v>
+      </c>
+      <c r="L578" t="s">
+        <v>125</v>
+      </c>
+      <c r="M578" t="s">
+        <v>129</v>
+      </c>
+      <c r="N578" t="s">
+        <v>136</v>
+      </c>
+      <c r="O578" t="s">
+        <v>138</v>
+      </c>
+      <c r="P578" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="579" spans="1:16">
+      <c r="A579" t="s">
+        <v>26</v>
+      </c>
+      <c r="B579" t="s">
+        <v>51</v>
+      </c>
+      <c r="C579">
+        <v>25999</v>
+      </c>
+      <c r="D579" t="s">
+        <v>73</v>
+      </c>
+      <c r="E579" t="s">
+        <v>93</v>
+      </c>
+      <c r="G579" t="s">
+        <v>98</v>
+      </c>
+      <c r="H579" t="s">
+        <v>100</v>
+      </c>
+      <c r="I579" t="s">
+        <v>101</v>
+      </c>
+      <c r="J579" t="s">
+        <v>109</v>
+      </c>
+      <c r="K579" t="s">
+        <v>116</v>
+      </c>
+      <c r="L579" t="s">
+        <v>124</v>
+      </c>
+      <c r="M579" t="s">
+        <v>128</v>
+      </c>
+      <c r="N579" t="s">
+        <v>136</v>
+      </c>
+      <c r="O579" t="s">
+        <v>138</v>
+      </c>
+      <c r="P579" t="s">
+        <v>194</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/excel_tables/3.2_movable_property.xlsx
+++ b/data/excel_tables/3.2_movable_property.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8208" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8180" uniqueCount="195">
   <si>
     <t>object_type</t>
   </si>
@@ -568,16 +568,16 @@
     <t>80e8a0d0-80e5-11ef-976d-d13028d0d5de</t>
   </si>
   <si>
-    <t>7582da50-87cd-11ef-9f9f-af297e478ff7</t>
-  </si>
-  <si>
-    <t>852f1810-9d08-11ef-9f9f-af297e478ff7</t>
+    <t>b5ea9f40-9dd2-11ef-afd1-e1abe6ffb9d7</t>
   </si>
   <si>
     <t>e811e760-9d1b-11ef-976d-d13028d0d5de</t>
   </si>
   <si>
-    <t>b5ea9f40-9dd2-11ef-afd1-e1abe6ffb9d7</t>
+    <t>7582da50-87cd-11ef-9f9f-af297e478ff7</t>
+  </si>
+  <si>
+    <t>852f1810-9d08-11ef-9f9f-af297e478ff7</t>
   </si>
   <si>
     <t>288a33c0-a06d-11ef-9f9f-af297e478ff7</t>
@@ -956,7 +956,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P579"/>
+  <dimension ref="A1:P577"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27117,19 +27117,19 @@
     </row>
     <row r="551" spans="1:16">
       <c r="A551" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B551" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C551">
-        <v>1</v>
+        <v>353478</v>
       </c>
       <c r="D551" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E551" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G551" t="s">
         <v>95</v>
@@ -27144,19 +27144,19 @@
         <v>109</v>
       </c>
       <c r="K551" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L551" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M551" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N551" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O551" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="P551" t="s">
         <v>184</v>
@@ -27164,19 +27164,19 @@
     </row>
     <row r="552" spans="1:16">
       <c r="A552" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B552" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C552">
-        <v>1</v>
+        <v>546699.9</v>
       </c>
       <c r="D552" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E552" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G552" t="s">
         <v>95</v>
@@ -27191,19 +27191,19 @@
         <v>109</v>
       </c>
       <c r="K552" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L552" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M552" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N552" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O552" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="P552" t="s">
         <v>184</v>
@@ -27211,19 +27211,19 @@
     </row>
     <row r="553" spans="1:16">
       <c r="A553" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B553" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C553">
-        <v>657595.95</v>
+        <v>257823</v>
       </c>
       <c r="D553" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="E553" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G553" t="s">
         <v>95</v>
@@ -27238,39 +27238,39 @@
         <v>109</v>
       </c>
       <c r="K553" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L553" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M553" t="s">
         <v>126</v>
       </c>
       <c r="N553" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O553" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P553" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="554" spans="1:16">
       <c r="A554" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B554" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C554">
-        <v>651617.8100000001</v>
+        <v>1570762.55</v>
       </c>
       <c r="D554" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E554" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G554" t="s">
         <v>95</v>
@@ -27285,39 +27285,39 @@
         <v>109</v>
       </c>
       <c r="K554" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L554" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M554" t="s">
         <v>126</v>
       </c>
       <c r="N554" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O554" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P554" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="555" spans="1:16">
       <c r="A555" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B555" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C555">
-        <v>716315.02</v>
+        <v>172818</v>
       </c>
       <c r="D555" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E555" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G555" t="s">
         <v>96</v>
@@ -27332,22 +27332,22 @@
         <v>109</v>
       </c>
       <c r="K555" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L555" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M555" t="s">
         <v>126</v>
       </c>
       <c r="N555" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O555" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P555" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="556" spans="1:16">
@@ -27394,7 +27394,7 @@
         <v>121</v>
       </c>
       <c r="P556" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="557" spans="1:16">
@@ -27441,24 +27441,24 @@
         <v>121</v>
       </c>
       <c r="P557" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="558" spans="1:16">
       <c r="A558" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B558" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C558">
-        <v>353478</v>
+        <v>1</v>
       </c>
       <c r="D558" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E558" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G558" t="s">
         <v>95</v>
@@ -27473,39 +27473,39 @@
         <v>109</v>
       </c>
       <c r="K558" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L558" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M558" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N558" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O558" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="P558" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="559" spans="1:16">
       <c r="A559" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B559" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C559">
-        <v>546699.9</v>
+        <v>1</v>
       </c>
       <c r="D559" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E559" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G559" t="s">
         <v>95</v>
@@ -27520,39 +27520,39 @@
         <v>109</v>
       </c>
       <c r="K559" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L559" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M559" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N559" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O559" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="P559" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="560" spans="1:16">
       <c r="A560" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B560" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C560">
-        <v>257823</v>
+        <v>657595.95</v>
       </c>
       <c r="D560" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="E560" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G560" t="s">
         <v>95</v>
@@ -27567,19 +27567,19 @@
         <v>109</v>
       </c>
       <c r="K560" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L560" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M560" t="s">
         <v>126</v>
       </c>
       <c r="N560" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O560" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P560" t="s">
         <v>187</v>
@@ -27587,19 +27587,19 @@
     </row>
     <row r="561" spans="1:16">
       <c r="A561" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B561" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C561">
-        <v>1570762.55</v>
+        <v>651617.8100000001</v>
       </c>
       <c r="D561" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E561" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G561" t="s">
         <v>95</v>
@@ -27614,19 +27614,19 @@
         <v>109</v>
       </c>
       <c r="K561" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L561" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M561" t="s">
         <v>126</v>
       </c>
       <c r="N561" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O561" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P561" t="s">
         <v>187</v>
@@ -27634,19 +27634,19 @@
     </row>
     <row r="562" spans="1:16">
       <c r="A562" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B562" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C562">
-        <v>172818</v>
+        <v>716315.02</v>
       </c>
       <c r="D562" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E562" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G562" t="s">
         <v>96</v>
@@ -27661,19 +27661,19 @@
         <v>109</v>
       </c>
       <c r="K562" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L562" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M562" t="s">
         <v>126</v>
       </c>
       <c r="N562" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O562" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P562" t="s">
         <v>187</v>
@@ -27916,19 +27916,19 @@
     </row>
     <row r="568" spans="1:16">
       <c r="A568" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B568" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C568">
-        <v>1</v>
+        <v>3480</v>
       </c>
       <c r="D568" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E568" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G568" t="s">
         <v>95</v>
@@ -27943,39 +27943,39 @@
         <v>109</v>
       </c>
       <c r="K568" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L568" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M568" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N568" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O568" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="P568" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="569" spans="1:16">
       <c r="A569" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B569" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C569">
-        <v>1</v>
+        <v>5136</v>
       </c>
       <c r="D569" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E569" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G569" t="s">
         <v>95</v>
@@ -27990,39 +27990,39 @@
         <v>109</v>
       </c>
       <c r="K569" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L569" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M569" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N569" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O569" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="P569" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="570" spans="1:16">
       <c r="A570" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B570" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C570">
-        <v>3480</v>
+        <v>353478</v>
       </c>
       <c r="D570" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E570" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G570" t="s">
         <v>95</v>
@@ -28037,39 +28037,39 @@
         <v>109</v>
       </c>
       <c r="K570" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L570" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M570" t="s">
         <v>126</v>
       </c>
       <c r="N570" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O570" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P570" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="571" spans="1:16">
       <c r="A571" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B571" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C571">
-        <v>5136</v>
+        <v>546699.9</v>
       </c>
       <c r="D571" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E571" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G571" t="s">
         <v>95</v>
@@ -28084,36 +28084,36 @@
         <v>109</v>
       </c>
       <c r="K571" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L571" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M571" t="s">
         <v>126</v>
       </c>
       <c r="N571" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O571" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P571" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="572" spans="1:16">
       <c r="A572" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B572" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C572">
-        <v>353478</v>
+        <v>257823</v>
       </c>
       <c r="D572" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="E572" t="s">
         <v>79</v>
@@ -28151,19 +28151,19 @@
     </row>
     <row r="573" spans="1:16">
       <c r="A573" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B573" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C573">
-        <v>546699.9</v>
+        <v>1570762.55</v>
       </c>
       <c r="D573" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E573" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G573" t="s">
         <v>95</v>
@@ -28198,22 +28198,22 @@
     </row>
     <row r="574" spans="1:16">
       <c r="A574" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B574" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C574">
-        <v>257823</v>
+        <v>172818</v>
       </c>
       <c r="D574" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E574" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G574" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H574" t="s">
         <v>100</v>
@@ -28245,22 +28245,22 @@
     </row>
     <row r="575" spans="1:16">
       <c r="A575" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B575" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C575">
-        <v>1570762.55</v>
+        <v>716315.02</v>
       </c>
       <c r="D575" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E575" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G575" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H575" t="s">
         <v>100</v>
@@ -28272,42 +28272,42 @@
         <v>109</v>
       </c>
       <c r="K575" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L575" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M575" t="s">
         <v>126</v>
       </c>
       <c r="N575" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O575" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P575" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="576" spans="1:16">
       <c r="A576" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B576" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C576">
-        <v>172818</v>
+        <v>3850</v>
       </c>
       <c r="D576" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E576" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G576" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H576" t="s">
         <v>100</v>
@@ -28319,42 +28319,42 @@
         <v>109</v>
       </c>
       <c r="K576" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L576" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="M576" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N576" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="O576" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="P576" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="577" spans="1:16">
       <c r="A577" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B577" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C577">
-        <v>716315.02</v>
+        <v>25999</v>
       </c>
       <c r="D577" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E577" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G577" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H577" t="s">
         <v>100</v>
@@ -28366,115 +28366,21 @@
         <v>109</v>
       </c>
       <c r="K577" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L577" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M577" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N577" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O577" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="P577" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="578" spans="1:16">
-      <c r="A578" t="s">
-        <v>30</v>
-      </c>
-      <c r="B578" t="s">
-        <v>51</v>
-      </c>
-      <c r="C578">
-        <v>3850</v>
-      </c>
-      <c r="D578" t="s">
-        <v>74</v>
-      </c>
-      <c r="E578" t="s">
-        <v>92</v>
-      </c>
-      <c r="G578" t="s">
-        <v>95</v>
-      </c>
-      <c r="H578" t="s">
-        <v>100</v>
-      </c>
-      <c r="I578" t="s">
-        <v>101</v>
-      </c>
-      <c r="J578" t="s">
-        <v>109</v>
-      </c>
-      <c r="K578" t="s">
-        <v>117</v>
-      </c>
-      <c r="L578" t="s">
-        <v>125</v>
-      </c>
-      <c r="M578" t="s">
-        <v>129</v>
-      </c>
-      <c r="N578" t="s">
-        <v>136</v>
-      </c>
-      <c r="O578" t="s">
-        <v>138</v>
-      </c>
-      <c r="P578" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="579" spans="1:16">
-      <c r="A579" t="s">
-        <v>26</v>
-      </c>
-      <c r="B579" t="s">
-        <v>51</v>
-      </c>
-      <c r="C579">
-        <v>25999</v>
-      </c>
-      <c r="D579" t="s">
-        <v>73</v>
-      </c>
-      <c r="E579" t="s">
-        <v>93</v>
-      </c>
-      <c r="G579" t="s">
-        <v>98</v>
-      </c>
-      <c r="H579" t="s">
-        <v>100</v>
-      </c>
-      <c r="I579" t="s">
-        <v>101</v>
-      </c>
-      <c r="J579" t="s">
-        <v>109</v>
-      </c>
-      <c r="K579" t="s">
-        <v>116</v>
-      </c>
-      <c r="L579" t="s">
-        <v>124</v>
-      </c>
-      <c r="M579" t="s">
-        <v>128</v>
-      </c>
-      <c r="N579" t="s">
-        <v>136</v>
-      </c>
-      <c r="O579" t="s">
-        <v>138</v>
-      </c>
-      <c r="P579" t="s">
         <v>194</v>
       </c>
     </row>
